--- a/schopro-tree-outline.xlsx
+++ b/schopro-tree-outline.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,26 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>operator==</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator&lt;&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>birth[1] = yyyy; [2] = mm; [3] = dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,12 +63,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>explicit member-wise copy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">struct </t>
+    <r>
+      <t xml:space="preserve">class </t>
     </r>
     <r>
       <rPr>
@@ -95,7 +76,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Member</t>
+      <t>BinTreeNode</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,13 +94,306 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>BinTree</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node for binary tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FamilyTree</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADT for family members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BinTreeNode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template&lt; typename Node_T &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template&lt; typename Tree_T &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default constructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy constructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialize constructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointer to parent node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointer to left child node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointer to right child node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend ostream (ostream*?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rchild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lchild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BinTreeNode(const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Node_T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BinTreeNode(const BinTreeNode&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Node_T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;&amp;)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>BinTreeNode</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">class </t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; Node_T &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>member methods or data (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>italics for private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BinTree()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isempty()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numel()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth (height) of the tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traverse by preorder (visit is a function)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traverse by inorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traverse by postorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name of spouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator==()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator&lt;&lt;()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print to console with leading whitespaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -127,50 +401,253 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FamilyMem</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FamilyMem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be initialized with incomplete info.. reserved values left for default</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>contains a binary tree (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>BinTree</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>node for binary tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">class </t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;  </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FamilyTree</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member methods or data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template&lt;typename Node_T&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template&lt;typename Tree_T&gt;</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FamilyMem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BinTree(const BinTreeNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt; Tree_T &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>preorder(void (*visit)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Tree_T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>inorder(void (*visit)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Tree_T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>postorder(void (*visit)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Tree_T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bylayer(void (*visit)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Tree_T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traverse by layer (up to bottom, left to right)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data type/ return type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,75 +661,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Member</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> can be initialised with incomplete info.. reserved values left for default</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADT for family members</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>contains a binary tree (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BinTree</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Member</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;)</t>
-    </r>
+      <t>BinTreeNode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; Tree_T &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointer to root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +751,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,27 +828,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,6 +883,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="自选图形 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAABGQAAAS0CAYAAAAmSt7qAAAE9HpUWHRteEdyYXBoTW9kZWwAAE1Vx7KrOBD9GlfNLK4LEHFJtAkGTLCBHQYRLtFk+PqRn2eqZiO6T6tPS+rqwwmIzZaVNTwR2DzCgc9hO52AdCKIW3eUdR2fCIU6Yyj817Ns024dkWl6aMExBAMBWShAk19zo8m/0Yfv+xo+4Usvp08+YM6A/lDoV+9mnAgR2XVZfYpeYFJ1nxSxGLoGIQpNnLEzIDDizHIId+MsHsr/sRAIXOAwll37PShzps/MF4dpOXXDF17X9ZwO8Xouu29w2nv4DaVwKRP4QYF8AmJaxvkQN2hLmX43vBKagyRkf5KEpn8wEtI/DIDUT8pC7ONhHP36krZx8y+pHefwB/+SMo/FqaYuV2wsvjKjp6rtTNJUSpApETUw8doki0P9YlTqJUkfJ0LIwqpoOie8OkvUOEUmCcktkdG1LTLQNf5w4Mug1FZ8ZY5/hPx12KKOR3nSzst2fuAP4hVRfeTkV0MKTCM0pS7sl7t981/2U0kwbZz0++7L/uFOl9IWrLD2tzCuFWt6j1Sd4w/Ks0X4DJ2+iOpP17A6r6MiWqGBGqtogQsViZBYiV5Q2fD5OzGVrxMMfcF4jABgp3N/Zhq/mattNcywlkEXd4bs3+dHULJEON52UKTLDjDCwi3matzrgELMB0/arkWEna9ytOkSmBFQQjizoT9Diabxi22NhP5rqyBID7MmHMBd7z2ibQzygo6iCfM76FZqBuTEKIfG+DPFKm+MXBSpQBcRCoMgIv8W3VCxJ/JL3AxZA5R1IYXa21E3ZduPF6ZX1DsytMR/Xe5jQ13I525bl4qtqwC38ncBUKolmEnzmMXKZdrrWDZZ6vbbcPf1rYkeY7SJ40jdYkK0YzHW5ftYanT3KlVtJd8o+9PnD8nh3BjAJEynh4t0lUxVpZOcL60cFvhldAt1EwsBaoddh4Y7xph0iWDgpn71bPSUNrN4f858B4M4ps0bM2i5iAtApQAgaz+yTdQfhXvD28HxXaTwI+bwB+UFWiLj/dutpjCYMnBM7R7dSuCs7KvMuno3GQ1uPNeOucqE+QONqGIM/uXyO4iHHTkjKBsS82GGdczw3JjSM3ThzTPR3SJ2sJSBHCerGFqJ+ACqVUhzuYi0NIuY/9oEksVCrco9gXpeo4gf9rew676c16T4aYhhjarMBL/2yqChFK4wb1i1O+71/W4Zjif44wxNjOxKZnxn65W17HoQjR7NvPCabybmE3OlJuh1lT5IFUaUM52k2WNDgNsfmZpG6lNsyQtZBby98gyYtXbiZDDUJusMnTtzY2+9Q0aJ/Yl6YJPn2TKlJUh9BK8vgVvwRJUEwZ95Ow6cpL2+D0NWTiz3aS8OZGZmGN509o6v3d3idoFgzL7wuNS+1Ug5BWz/7dKM3UGYmKuj7bXz6C31anlsXBpIdpR5HQbSIvewuqTMlLCwrZ5+sdyLZPQ9yLaQfbr3xStIfs80pbkmbOIjXge2q1xTYLrNQRWJnNJ6IaqnBP5smvnuk7j3sDjg6s+RnHBVlF+D8Ai9A6urubNKbwvbdfRsHtfhVuQX56GkGiCVO2PnrLPwjpGBssUqyWXvrbfImnHUNipLsPpHjw9k8q7E/f4mmc7jrg+5/Doc0HSoNeGlRSYNQNOGd7yjzQ6enIazmQD6B57SHlfQVrUg6UU8/6nvHylG/r//IyD/A61GR/cAACAASURBVHhe7N0LuI11/v//1703CZkZVFJTqJzqm8MQFZ1EiRAxyan/dEAYimFU7GVtKkMOHcihpuQQOeWYBk1CikrMpKRyqKbpgH8JyeH+XZ97z9qttfZae62991pr32ut531drqa97/vzeX8e991cl9f1OVjiQgABBBBAAAEEEEAAAQQQQAABBBBIqICV0N7oDAEEohPw2GfolKrL0oWyVEXS7yVVlnS2bFWUpd/KVjlZKi3pNEkl/tfwCUm/yNZRWTokWz/I0n5J30r6WtKXsrVXtj5XhnbJa/0UXUHchQACCCCAAAIIIIAAAgggEEsBAplYatIWAoUReNiuokw1lKU/yFZdWbpUUtXCNFWIZ/bI1oeytE223tdJvatHrL2FaIdHEEAAAQQQQAABBBBAAAEECiBAIFMALG5FICYCw+zqytT1kq6R1CSB4Uu05e+RtFHSmzqpf2qUtSvaB7kPAQQQQAABBBBAAAEEEEAgOgECmeicuAuBogl47OaSWklqKal20RpL+NMfSVolaaW81pqE906HCCCAAAIIIIAAAggggEAKChDIpOBLZUguEcgJYTpKau/s/VLAq2ZF6eIKUtXy0gW/lc4tJ1UqK1UsI5U/XSpXSipTUjotUyqRkdP4iVPSLyelI8elQ8ekgz9L+49I3xyW/nNI2veDtOeg9OkBaafZWabgl9mLZrGkBYQzBcfjCQQQQAABBBBAAAEEEEDAJ0Agw7eAQCwFcpYjdZelLrJ1UTRNm0Cl8e+ly8+V6leW6lSSLjnr15AlmjYKc48Jb3Z8J23/Rtr6tbTlP9I7X+YEOlFdlj6TrTk6qZksa4pKjJsQQAABBBBAAAEEEEAAgVwBAhk+BgRiIZBlt5GleyS1jaa55hdK11eTrq0iNbkgmicSd8+GfdKbe6V/7pbWfB51v0tl61llW8uifoIbEUAAAQQQQAABBBBAAIE0FiCQSeOXz9BjIOCxe8pWH1mqm19rZplR25rSLTWklhfnLDVKhsssfVr1qbT8E2npzpzlT/letrbJ0mR5rWnJMD5qRAABBBBAAAEEEEAAAQSKS4BAprjk6Te5BbLsAbJ0f34nJJmlSJ3/T+p0aU4QkwqXCWbmfyjN/XfEpU3mOO2JyraeSIVxMwYEEEAAAQQQQAABBBBAINYCBDKxFqW91BbIsu+TpSH5BTFXnS/dWU/qVid5ZsIU9KWZmTOztkszPpDe+iLfp00wM0bZ1jMF7YP7EUAAAQQQQAABBBBAAIFUFiCQSeW3y9hiJ5Bl3yZpeH5Lk3rUle5tIDV12Z4wsUMI3ZLZc2b6e9KL2/LpySxlkkYq21oY73poHwEEEEAAAQQQQAABBBBIBgECmWR4S9RYfAIeu44sZctWu1BFZFrSgCukfo2kauWLr0w39Lz7oPT0ZumJt6WTdpiKLC2RrSx5re1uqJkaEEAAAQQQQAABBBBAAIHiEiCQKS55+nW/gMfOdmbFhLkGN5EGXSlVOsP9Q0lkhf/9SRq/SRq7Md9eR8prZSWyLvpCAAEEEEAAAQQQQAABBNwkQCDjprdBLe4Q8NjNZevxcMuTejeUHrxauuC37ijXrVXs+0F6bL005d0wFeacyPQXea01bh0DdSGAAAIIIIAAAggggAAC8RIgkImXLO0mp4DHHi3pr6GKb1VdGnGddPl5yTm04qp6y1fSiDeklbvCVvA3ea2hxVUf/SKAAAIIIIAAAggggAACxSFAIFMc6vTpPoHhdn1laJKkK4OLO/830qPNc05N4iq8gDmV6aE10hc/hmxjk06pr0ZaWwvfA08igAACCCCAAAIIIIAAAskjQCCTPO+KSuMl4LF7ytIU2crz30PfRtKYFql7fHW8SMO1a47LHrJamrQ5xB2WbNnqLa81LdF10R8CCCCAAAIIIIAAAgggkGgBAplEi9OfuwQ89tOS+gYXdVEFaWJL6ZYa7io3VapZ/ol0/yrpswMhRzRJXqtfqoyVcSCAAAIIIIAAAggggAACoQQIZPgu0lNglH2ejutFSc2CAf5UX3q6FbNi4v1hmNky/VZKz4depPS6SqqHhllfxbsO2kcAAQQQQAABBBBAAAEEikOAQKY41OmzeAVG2FfJ1mxJVYMLmdpG6tmgeMtLt96nvSf1WhZy1HtkqatGWG+lmwnjRQABBBBAAAEEEEAAgdQXIJBJ/XfMCP0FsuzbZGmupBL+P76skvRcW05QKq6PxZzEdPdS6V/f5KnghGx1Vra1sLhqo18EEEAAAQQQQAABBBBAIB4CBDLxUKVNdwqYzXulqcHFdbxEmtGeJUrF/dLMEqY7F0sLdoSspBeb/Rb3G6J/BBBAAAEEEEAAAQQQiKUAgUwsNWnLvQIee6CkccEFDm6Sc4oSl3sEzClMYzeGrGeQvNZ491RKJQgggAACCCCAAAIIIIBA4QUIZApvx5PJIuCxh0p6LLjcCS2l+69IlkGkV50T35YeWBVyzA/Ka41OLw1GiwACCCCAAAIIIIAAAqkoQCCTim+VMf0qECaMmdlB6lYHKDcLzNoudV9EKOPmd0RtCCCAAAIIIIAAAgggUHgBApnC2/Gk2wXCLFN6pbPUrlZ0xf/4449av3691q1bp3fffVfbtm3TgQMHnIdr1qyp2rVr69prr9VNN93k/HtGRkZ0DafxXSNHjlRWVpYjMGvWLHXt2jWsxpKPpVvNFsx5L5YvpfE3xNARQAABBBBAAAEEEEgFAQKZVHiLjCGvQIgNfDMtaVkX6ebqkcH27dunyZMna/r06bkBTKSnrr76aidoaNasGcFMPlgFCWRMM6/uktrMkU7aeRplo99IHyW/RwABBBBAAAEEEEAAAdcKEMi49tVQWKEFco62XhD8/MqukcOYU6dOadGiRRo2bJh27tyZ20SFChV0+eWXq2HDhipXrpzz848//libNm0KuM/8bsiQIRo0aJBKly5d6CGk8oMFDWR8oUyr2SFUbHXkSOxU/loYGwIIIIAAAggggAACqStAIJO67zY9RzbCvkq21kkq4Q8QzTKlEydOaMqUKXrooYd06NAh53ETwng8HmfWS6iAxQQ4O3bs0NixY/Xiiy/mdjl69GgnlClRIqCM9HwnQaMuTCBjmgizfOmELF2rEdZb4CKAAAIIIIAAAggggAACySRAIJNMb4ta8xcYZZ+n49ogqar/jdFu4LtkyRJ17949N4wZOnSoE874ZsTk1/mxY8c0bdo0Pfzww87zVapU0ezZs9WkSRPeWowCGdNMmI1+96ikmmqY9RXYCCCAAAIIIIAAAggggECyCBDIJMubos7IAh57raRm/jdGe7T1nj171K1bN23cuNF5vE+fPhozZozKli0bud//3XH06FFnudLTTz/t/KR///5OG6VKlYq6jXS4sbAzZHw2YY7Efl1e64Z08GOMCCCAAAIIIIAAAgggkBoCBDKp8R4Zhcc2KUhff4jBTaQxLSLT2LatCRMmOEuMzHX99ddr5syZOu+88yI/HHTH5s2bdeutt+rrr79W3bp1NW/ePOf0Ja5fBYoayJiWhqyWxuZkZ/7XJHmtflgjgAACCCCAAAIIIIAAAskgQCCTDG+JGvMXCHGiUsdLpPl/jA7OhCc9evTQmjVrnAeeffZZ3X333dE9HHTX4cOHNXjwYP3ud7/TjTfeqMaNG+fZe8YXSPgCm7POOstZ7vTCCy84GwSbY7Q7duyoO+64QxUrVgzo4dtvv3XqXLZsmXPv1q1bnd+bZVX16tVznr399tt1ySWXhD3pKbh/ExiZdl9++WW98sorMqGSWXZVv359tW7dWl26dFGtWrVkWZH/72L//v1auHChFi9e7Mw2Mu0EjycWgYwZc6eXpQU78rwmTl4q1JfLQwgggAACCCCAAAIIIJBogch/w0p0RfSHQEEEhtv1lan3ZCv3W76skvT2PVKZktE1tHr1aic8MZcJUF566SVVq1YtuocLcZd/IDJx4kSZP2b/Gv+rdu3amj9/vi699FLnx2Y5lNlweNSoUVEdw22WXJl+zOlQwVdwIGM2JX7wwQcDTovyf8aEPQMGDJDZUyfcEi6zIbKp1+v1hm3HBD9mrCbwMRslm2vWrFnq2rVrIRSlI8elK56V/vWN3+OWbJ1UA420cpIqLgQQQAABBBBAAAEEEEDApQIEMi59MZQVpYDHNqfrXOl/9+Z7pcujXG1klis98sgjGj58uNPEPffcoyeeeEJlypSJsoCC3+YLRCpXrqxzzjnHmeViwoq2bds6M13WrVvnBEMm3DCnNJlZN2ZvmsmTJ+d2ZmavNG/e3JlBc/LkSX3wwQdau3ZtQFhjNiT2teFfpa//yy67TC1btnSCHjOTxVeDaXPv3r1auXKl80/fZcIUsy9O8EwZY2hCrN69e+duiByuLbPZsZk9tG3bNqfZogQy5vktX0mNpud5B5vkta4q+JvhCQQQQAABBBBAAAEEEEAgcQIEMomzpqdYC3js0ZL+6t/s1DZSzwbRd3TkyBFn9odZpmSuRx991JktEs/Lf8mO6efee++VOSbbN5vFHKV9/Pjx3M2A/U9/MoGGqdUcw52RkRFQpgluzPHbJoQxV7g9bIL7N22amTedOnUK2ID4wIEDzqyY6dNzEo/rrrvOOTnq3HPPDej33XffdZZYmfDGBEpmydbAgQMDZtN89913zgbHjz/+eMCzRQ1kTGPT3pN6Lcvzxv4mrzU0nu+RthFAAAEEEEAAAQQQQACBoggQyBRFj2eLT8BjN5e02r+AP9WX/t6uYCWZPU/MkpnXXnvNeTAWAUGkCvwDEbM0ae7cuapTp07Ix0zI0q9fP2d/GSd8mDbNmcUTbj+XgwcPOvvfmD1czGVm21xzzTUBbfv3bwIUM0PG7FcTqs0vv/zS2UNm/fr1Idszx32b2TtPPvmk83vTtglxzMye4CvUTJ9Yed+1RHo+7yKlFvJaORsDcSGAAAIIIIAAAggggAACLhMgkHHZC6GcKAWy7A9kqa7v7osqSNvvi37fGN9zxR3IdO/eXZMmTXJmloS6zGa7ZqmS2SDXLA167rnnZGa0hLvM8iWz/Oqxxx5zbgkVePgHMu3bt3faLF++fMgmf/nlFydgMadQhWrPbCxsNhE2S5Ci2X9n+/bt6ty5sz766KOw9UX5BQTcZvaTqfOM9NkBvx/b2qZsq15h2uMZBBBAAAEEEEAAAQQQQCDeAgQy8Ram/dgLeOxsSTmbvvzvWtZFuqVGwbsqTCDjH0JE6rFXr15OmFG6dOncW/0DEbO5rfkTzQlGkfry/T7SKUb+vzfLs8y/Z2Zmhm0+v/aWLl2qdu1ypiWFGmtwo8FLxGI1Q8b0s/wTqc2cPMMYKa+VFa0d9yGAAAIIIIAAAggggAACiRIgkEmUNP3ERsBjm7U9OTvC/u/q20h6ulXhmi/uQGbGjBnOkdtFuX766Sd98cUXzubAq1at0ooVK3I39400Q8YsVzJBSn5XfoGMmYljNg82V7T77/g/E8tAxtTQb6U0aXOe0dSV19peFGOeRQABBBBAAAEEEEAAAQRiLUAgE2tR2ouvwAj7FdnK3Snm/N9IH/+54EuVfEWa04X69u2rmTNnRh0qxHKGTEECCbPZ765du7Rhwwa9//77zrIfs1TIbL4b7ooUyETTf7hAxiyhMhsI+zYRjqYtU6fZGLhbt25OydE+E+1HZZYu1XpK+uJHvycsLdEI69Zo2+A+BBBAAAEEEEAAAQQQQCARAgQyiVCmj9gIZNm3ydIC/8ZmdpC6hd4PN6o+g/dc6dOnj8aNG6fTTz89qudD3eQfYERashRNIGGCj02bNjl7ufg21w1X3A033OAcg/3GG2+EDTwiLWkKbjvc/UePHtUDDzygqVOnFihciWcg44Q826Xui4JGYaujsq2FhX6pPIgAAggggAACCCCAAAIIxFiAQCbGoDQXR4GgjXxbVZdWdC16f/77oFx11VWaM2dOvhvnRuoxloGMCWPmzZvnzOLxnwljjsg2x1o3bNhQNWvWVIMGDXTxxRfrjDPOcPaEycrK2TYl3WbI+N5N69nSyl1+b4oNfiN9tvweAQQQQAABBBBAAAEEEixAIJNgcLorpECWfZ8sTfZ/evO90uXnFbI9v8d2797tHPv8zjvvOD9duHChOnToUOiGYxnI7Nmzx1neY05ZMpep0ywRuuiii5SRkZGnxmiWEUUKbIIbjfUeMmZGTe/evcMGRoWG93twy1dSo+lBLdnqo2zrmVi0TxsIIIAAAggggAACCCCAQFEFCGSKKsjziRHw2LslVfV11ruh9MwtsenaLPEZM2ZM7ua0rVu31rPPPqtzzjmnUB3EMpAxR1Lfc889Th1t27bV9OnTdfbZZ4etK5pTjGIZyBT0lKVIx2gXCjzMQ/ctl6a8G/DLPfJa1WLZB20hgAACCCCAAAIIIIAAAoUVIJAprBzPJU4gyx4gSxP9O9z7gHTBb2NXQvBMFLOXjAlpypYtW+BOYhnI+LeVnZ2t4cMDTvvOU1vwhsPxXLJkOvefXVS7dm3NnTtXdeqE39QneDZSNHvoFPgF/O+BfT9IVSYEPW3rfmVbTxS2TZ5DAAEEEEAAAQQQQAABBGIlQCATK0naiZ9A0OyYwU2kMS1i393q1avVuXPn3L1aTCgzYsQInXXWWVF1Zk5Bev31152ZNlu2bHGeKeqmvv6BTP/+/Z2QqFSpUiHrOXz4sIYMGaLJk39d2RXvQMbMLjJLqEyd5sovyDpx4oRGjx4dECrFM5Ax9QxZLY3NWe3lu5glE9XXzE0IIIAAAggggAACCCAQbwECmXgL037RBDx2T0k5x/hIyrSkLwdJ55xRtGZDPR1qA12zYe5f//pX3XrrrSpfvnzITn/88UfnVCMThLz22msB9xQ1kPFfElSuXDmnjy5dugTsH2PqNjNPhg0bppdeeimg/xkzZqhHjx4BP4vlkiXTsDmKu3v37rl78IQKskxYNH78eI0dO1bmqHHfFe9A5pufpPPGSSftwNcirzUt9l8QLSKAAAIIIIAAAggggAAC0QsQyERvxZ3FIRB0stLAK6VxN8WvEBNu/POf/3SOmPbNcvH1dsUVV+jqq69WxYoVnR/t27dP77//vt5+++08BZnwxAQTgwYNyjPDpiCByMGDB51ZNvPnz8/to3HjxmrevLlMHybc2LBhg9atW+f83gRI119/vaZMmeL8e6hlTgXp37QRzf2m/zvvvFN79+51+jWnQHXq1EnVqlVzfrZy5crc31WuXFlff/21c1+8AxnTx6DXpPGb/F4RJy7F7z8gWkYAAQQQQAABBBBAAIGoBQhkoqbixoQLZNltZGmpf7+fD5CqhZ6oEtPyzIyOF154QU899ZTMvizRXpdddpl69uypP/7xj2E3340m4PDvz8xAGThwoJYvX55vGWYmjFk+tH//frVp08YJPczMlUmTJjnhje8qaP/R3G+CrE2bNun+++/PE2T5+jU1mFk8Z555pu6+++6EBTK7D0oXBu8aY6utsq1l0b5X7kMAAQQQQAABBBBAAAEEYi1AIBNrUdqLnYDHXmIOF/I12KOuNKN97JqPpiWz78nWrVu1atUqZybMhx9+mDvTwwQM9erVkwlhmjRp4vw5//zzQx5H7d9XNAFHcG1Hjx7Vq6++qnnz5jlLg8ysE9N/o0aNdOONN6pdu3aqUaOGLMvS999/7wQxpuZQG+0WtP+C3G+CrGXLlmnRokVau3atsx+PmbVjTq4yp0XVqlVLc+bMcY7yNlciZsiYfu5cLL24LUB1qbxWu2i+Ae5BAAEEEEAAAQQQQAABBOIhQCATD1XaLLrAMLu6MvWJf0Pr75KaXlD0pmkh/QQ27JOu/nvQuE+qhkZZu9JPgxEjgAACCCCAAAIIIICAGwQIZNzwFqghr4DHzpaUe8bzVedLG3NWuXAhUCiBJs9Jb30R8OhIea2sQjXGQwgggAACCCCAAAIIIIBAEQUIZIoIyONxEhhhfypbF/lan9pG6tkgTn3RbFoITHtP6uW/a4ylzzTCujgtBs8gEUAAAQQQQAABBBBAwHUCBDKueyUUJI/dXNJqn8RpmdLBoVKZktggUHiBI8el8qOlX04GtNFCXmtN4VvlSQQQQAABBBBAAAEEEECgcAIEMoVz46l4Cnhsc2ZzL18XxbGZbzyHR9vFJxBic9+p8lq9i68iekYAAQQQQAABBBBAAIF0FSCQSdc37+Zxe+xvJJ3tK3FZF+mWGm4umNqSRWD5J1KbOQHVfiuvVSlZ6qdOBBBAAAEEEEAAAQQQSB0BApnUeZepMZKg5UoVy0jfD0mNoTEKdwicOUbafySgFpYtuePVUAUCCCCAAAIIIIAAAmklQCCTVq87CQbrscdLesBX6Z/qS39vlwR1U2LSCNy1RHp+a0C5E+S1BibNACgUAQQQQAABBBBAAAEEUkKAQCYlXmMKDcJj75BU2zeihbdLHXL/LYXGyVCKTWDRR9Jt8wK6/0he65JiK4iOEUAAAQQQQAABBBBAIC0FCGTS8rW7dNDD7OrK1Cf+1R1+mNOVXPq2krYsc9pS2UeCyj+pGhpl7UraQVE4AggggAACCCCAAAIIJJ0AgUzSvbIULthj95Q01TfC5hdKq3uk8HgZWrEJtHhRWvN5QPe95LWmFVtBdIwAAggggAACCCCAAAJpJ0Agk3av3MUD9tizJHX1VfjIDdJDV7u4XkpLWoFH10sPrw0of7a8VrekHRCFI4AAAggggAACCCCAQNIJEMgk3StL4YI99m5JVX0jXH+X1PSCFB4vQys2gY37pKZ/D+h+j7xWtWIriI4RQAABBBBAAAEEEEAg7QQIZNLulbt0wA/bVVRCe3zVnZYpHRvu0lopKyUESo2UfjnpN5QTqqpHrL0pMTgGgQACCCCAAAIIIIAAAq4XIJBx/StKkwKz7NtkaYFvtFdXkd78U5qMnWEWi8A1z0vr/eMXWx2VbS0slmLoFAEEEEAAAQQQQAABBNJOgEAm7V65Swfssc25Nw/5qht4pTTuJpfWSlkpITDoNWn8poChPCqv9XBKDI5BIIAAAggggAACCCCAgOsFCGRc/4rSpMAse7kstfaNdmYHqVudNBl7igxz5MiRysrKckYza9Ysde2auz+zK0c4a7vUfZFfabZWKNu6xZXFUhQCCCCAAAIIIIAAAgiknACBTMq90iQdUNCGvtvuk+pUStKxpGnZyRbIbP9GqvtMwMtiY980/XYZNgIIIIAAAggggAACxSFAIFMc6vQZKOCxz5B0yP+Hx7OkEhlAJZNAsgUyJ05JJbPzCJeT1/opmdypFQEEEEAAAQQQQAABBJJTgEAmOd9balU93K6vDL3vG1TNitLHf06tIabDaJItkDHvpNZT0s79fm/nlP6gkdbWdHhfjBEBBBBAAAEEEEAAAQSKV4BApnj96d0IBJ2w1Lq6tNzd24/w3kIIJGMgc8tsacUuv8Fw0hLfNgIIIIAAAggggAACCCRIgEAmQdB0k4+Axx4oaZzvjr6NpKdbIZZsAskYyPRbKU3aHCA9SF5rfLLZUy8CCCCAAAIIIIAAAggknwCBTPK9s9Sr2GObvwA/4BvY31pIQ5qk3jBTfUTJGMiM2Sj9dXXAm5kgr2UCQi4EEEAAAQQQQAABBBBAIK4CBDJx5aXxqAQ89kuSOvvuLY4jr/fv36+FCxdq8eLF2rhxow4dOqT69eurQ4cO6tGjhy644ALn502bNnXKzM7O1vDhwwOG5wsk6tatq3nz5umss87StGnT9MILL2jnzp269tpr1bFjR91xxx2qWLFiwLPffvut1qxZo2XLljn3bt2as41JuXLlVK9ePefZ22+/XZdccokyMkLvdhzcf82aNWXaffnll/XKK69o8+bNueNq3bq1unTpolq1asmyIv/fQCif4PEkYyCT5+hraa681h1RfbfchAACCCCAAAIIIIAAAggUQSDy38SK0DiPIhCVgMdeK6mZ795/dJdaXBTVk0W+6dSpU1q0aJGGDRvmBCGhrgoVKmj8+PGqWrWqrrvuuqgCmYkTJ8r8WbJkSUCTtWvX1vz583XppZc6Pz969KimTJmiUaNG6cCBAxHH06dPH5ngw9QUfAUHMjt27NCDDz4Ydlwm7BkwYICGDh2qsmXLhuz7xIkTTr1erzdsOyb4MWM1gY/H43HamTVrlrp2df9GQKs/k26cGTD01+W1boj4IrgBAQQQQAABBBBAAAEEECiiAIFMEQF5PAYCWfYHslTX19J7vaQ/VI5BuxGasG1bL730knr37u3MHDFXlSpV1KpVK+efe/fu1cqVK51/mvCiQYMGeuONN5z78pshU7lyZZ1zzjnOLBcTVrRt29Z5ft26dWrcuLETbpQoUUKHDx/WkCFDNHny5NxKzayc5s2bOzNoTp48qQ8++EBr164NCGseeuih3Db8h+gLZC677DK1bNnSCXrMuHw1mDb9x+R71oQp/fv3zzNTJpRPuLaM1+9+9ztt27YtqQKZ97+WGkz1U7S1TdlWvfh/ffSAAAIIIIAAAggggAAC6S5AIJPuX4Abxu+xd0uq6ivl8wFStfLxL2z79u3q3LmzPvroI6czM7tj8ODBAbNFTKDx6KOPavTo0QEF5RfI+G689957ned8s1nMbJzjx4+rVKlSzi1m9kz37t2d0MQEGs8++6yaNWuWZ0mSCW7Gjh3rhDDm8i2JMuFIqEDG9zPTppl506lTp9w+ze/MTBwzK2b69OnOrWbWz+zZs3XuuecGtPfuu+86S6x8gZSxGThwYIDPd999pzFjxujxxx8PeDZZZsjsPihd+ERA6XvktarF/+ujBwQQQAABBBBAAAEEEEh3AQKZdP8C3DD+LPt7WcrdVOW7IdKZZeJb2LFjx5zZKU8++aTTkZldYkIKM3Ml+DLLdkyw4r9nTKRAxixNmjt3rurUqRNyICZk6devn7O/jLnMXjP3RcJiNwAAIABJREFU3HNP2P1cDh48qLvvvtvZ48ZcZrbNNddcE9C2/x4uZkaOmSFj9qsJtUfMl19+6ewhs379+pDtFcQn1EyfZAlkvj8inTXGj9HWfmVbZ8b366N1BBBAAAEEEEAAAQQQQEAikOErKH4Bj31YUm4Ec/hhqUzJ+JZl9osxm+SaJTZmGZFZulStWviJEbt373bCjXfeeccpLFIgY2a+TJo0yVmqFOoym+2apUpmo2CzNOi5555zZsmEu8zyJRMIPfbYY84toQIP/0Cmffv2Tpvly4eeavTLL784AdSECRNCtldQn+DZRskSyBw5LpV9JED9iLxW6A114vtJ0joCCCCAAAIIIIAAAgikmQCBTJq9cFcO12Mfl5Q7NeV4llQi9EFCMSvfnIJkliuZ64EHHnBmwJx22mlRByKRAhmz/Mn8ieYEo2gHFekUI//fm818zb9nZmaGbT6/9pYuXap27do5z/bq1csJbkqXLh22rSNHjjgbBJtlV+ECo2jHmcj7TpySSmYH9HhCXivOcWAiR0hfCCCAAAIIIIAAAggg4FYBAhm3vpl0qstj2/7DtUfEf/D+YcSMGTOco60jXWaflW7dujm3RQpkom0zvz5/+uknffHFF87mwKtWrdKKFStyN/eNNEPGLFcyQUp+V36BjJmJYzYPNpfZQ8cEPJEu/2eSZYaMGZMV/L15ozgHPBIGv0cAAQQQQAABBBBAAAEEIggQyPCJFL9AggMZc9S0mRUzdWrO8TpmrxezfCnSZZYXNW3aNKpApiCBhNnsd9euXdqwYYPef/99Z5Nhs5Qqv2OwIwUy0fQfLpAxS6jMBsK+TYSjacug+AdW/s8Ee4dzjmYmTqR3VJjfE8gURo1nEEAAAQQQQAABBBBAoKgCBDJFFeT5ogskeMlScEBggpAmTZpEHEesAxkTfGzatMnZy8W3uW64Im644QbnGGzfsdvxDGSCfVI5kGHJUsTPnhsQQAABBBBAAAEEEEAgTgIEMnGCpdkCCCR4U9/CBg6xDGRMGGP2senbt2/ATBhzRLY51rphw4Yyx1o3aNBAF198sc444wxnT5isrCwHNp6BTDrNkGFT3wL8d8qtCCCAAAIIIIAAAgggEFMBApmYctJYoQQSfOx1cOAQzX4rZlwF2UMm0qySPXv2OPvRmJDHXOYEJ7NE6KKLLlJGRt4djaMJSSIFNsHvJtZ7yJglYL179w4bGBXq24jzQxx7HWdgmkcAAQQQQAABBBBAAIGwAgQyfBzFL+Cxd0uq6ivk8wFStdCnNcesVv9wJZpTloIDkUib+kYKZMyR1Pfcc48znrZt22r69Ok6++yzw44vmlOMYhnIFPSUpUjHaMfsxcW4od0HpQufCGh0j7xW+PPPY9w/zSGAAAIIIIAAAggggED6ChDIpO+7d8/Is+wPZKmur6D3ekl/qBzf8j788EN16tTJ2UC3cePGeumll1StWvi/h3/99dfOSUxr1qxxCitqIOMfnoRqK3j0O3fudDYeNpv9miueS5ZM+7t373Zm7bzzzjuqXbu2s/FxnTp1wr4U//vD1RffN1q41t//WmqQs7dzzmVrm7KteoVrjacQQAABBBBAAAEEEEAAgegFCGSit+LOeAl47LWSmvma/0d3qcVF8eosp91jx45pyJAhevLJJ51/Hz16tAYNGqQSJUrk6fjEiRMaN26cs/mu74plINO/f3+NGTNGpUqVCjnow4cPO7VOnjw59/fxDmTMBsJmCZUJjszVp08fp8ayZcuG9DF+w4cPz7e++L7RwrW++jPpxpkBz74ur3VD4VrjKQQQQAABBBBAAAEEEEAgegECmeituDNeAh77JUmdfc3P7CB1Cz8ZI2ZVbN++XZ07d3ZmyZQrV06DBw/WwIEDA0IHE4Y888wzzoyYQ4cOxSyQ8V8SZPo2YUuXLl0C9o8xy6TMzJNhw4Y5M3j8rxkzZjgzdvyvWC5ZMu2ao7i7d+/uzJLxhTIjRozQWWedldut8Rk/frzGjh0b4BNpyVbMXmIRG5q1Xeq+KKCRufJadxSxWR5HAAEEEEAAAQQQQAABBCIKEMhEJOKGuAt47PGSHvD187cW0pDIp1AXuSwTeJigw2xE6wtbqlSpolatWsn8c9++fVq7dq3MciETmpQuXVrffvut029RZ8gcPHhQvXr10vz583PHYZZONW/e3OnL1GOO4163bp3ze3Pi0vXXXy+zAXEs+jdtRBPgmP7vvPNO7d271+nXnAJllnqZ5V3mZytXrsz9XeXKlWWWdpkrWQKZMRulv64O+JQmyGsNLPLHRQMIIIAAAggggAACCCCAQAQBAhk+keIX8NjmL8DjfIX0bSQ93SoxZZ06dUoLFy50Zsf4Qofgnk04Y2aB/Pvf/5bH43F+HepkpmgCDv+2zQwUMyNn+fLl+Q7WzIQxy4f279+vNm3aOKGHmbkyadIkJ7zxXQXtP5r7TWi1adMm3X///dqyZUvIOk0NZhbPmWeeqbvvvjupApl+K6VJmwOGNUheywSEXAgggAACCCCAAAIIIIBAXAUIZOLKS+NRCWTZt8nSAt+9ratLy7tG9WTMbjIzX15++WW98sor2rx5szNDpX79+urQoYOzNOiCCy6IOKMkmoAjuOCjR4/q1Vdf1bx585ylQSYUMgFHo0aNdOONN6pdu3aqUaOGLMvS999/7wQxq1atCrnRbkH7L8j9ZmnSsmXLtGjRImfW0IEDB5xZO61bt3ZOi6pVq5bmzJnjHOVtrmSZIXPLbGnFLr+3Yqujsq2FMfuwaAgBBBBAAAEEEEAAAQQQCCNAIMOnUfwCw+36ytD7vkJqVpQ+/nPxlxVcgX+A8Y9//EMtWrRwX5FUVCCBWk9JO/f7PXJKf9BIa2uBGuFmBBBAAAEEEEAAAQQQQKAQAgQyhUDjkRgLeOwzJP26Y66k41lSiYwY9+PXnNkXZsCAASpfvrxatmzpbO4b7pQj85iZMdO3b1/NnDlT1atX14IFC/I9Bjp+ldNyrAROnJJKZudprZy81k+x6oN2EEAAAQQQQAABBBBAAIFwAgQyfBvuEPDYuyVV9RWz7T6pTqX4lWaWBplTjd566y2ZzXTN5r5mo9pw1+uvv+4sxzH7t7Rv317PPfecE+ZwJa/A9m+kus8E1L9HXiv8R5C8Q6VyBBBAAAEEEEAAAQQQcKEAgYwLX0palpRlL5el1r6xx/vo62PHjmnIkCF68sknnS7vvfdePfLIIwFHOpufm01/zZ4pZtPfbdu2Ofcmy/4oafkdFWDQeY68trVC2dYtBWiCWxFAAAEEEEAAAQQQQACBQgsQyBSajgdjKuCxH5H0kK/NgVdK426KaQ95Gtu+fbuzYa8vaDFHOt9www2qV6+eMjMznVON1qxZo61bf91SxCxzMsFN2bJl41scrcddYNBr0vhNAd08Kq/1cNw7pgMEEEAAAQQQQAABBBBAQBKBDJ+BOwSCTlq6uor05p/iX9r777+v/v37a+PGjfl2ZsIac7Rz7969Vbp06fgXRg9xF7jmeWn9Xr9uOGEp7uZ0gAACCCCAAAIIIIAAAr8KEMjwNbhD4GG7ikpoj6+Y0zKlY8MTU5pZvrRp0yYtXrxY69evz50RU6VKFdWtW9c52vnWW2/V2WefnZiC6CUhAqVGSr+c9OvqhKrqEcs/oklIHXSCAAIIIIAAAggggAAC6SlAIJOe792dow7a2HfDXVKTC9xZKlUlt8CGfdLVfw8YAxv6JvcrpXoEEEAAAQQQQAABBJJOgEAm6V5ZChfssWdJ6uob4SM3SA9dncLjZWjFJvDoeunhtQHdz5bX6lZsBdExAggggAACCCCAAAIIpJ0AgUzavXIXD9hj95Q01Vdh8wul1T1cXC+lJa1AixelNZ8HlN9LXmta0g6IwhFAAAEEEEAAAQQQQCDpBAhkku6VpXDBw+zqytQn/iM8/LBUpmQKj5mhJVzgyHGprDnTy/86qRoaZe1KeDF0iAACCCCAAAIIIIAAAmkrQCCTtq/epQP32Dsk1fZVt/B2qUPuv7m0ZspKKoFFH0m3zQso+SN5rUuSahAUiwACCCCAAAIIIIAAAkkvQCCT9K8wxQbgscdLesA3qj/Vl/7eLsXGyHCKVeCuJdLzWwNKmCCvNbBYi6JzBBBAAAEEEEAAAQQQSDsBApm0e+UuH7DHbi5pta/KimWk74e4vGbKSyqBM8dI+48ElNxCXmtNUg2CYhFAAAEEEEAAAQQQQCDpBQhkkv4VpuAAPPY3ks72jWxZF+mWGik4ToaUcIHln0ht5gR0+628VqWEF0KHCCCAAAIIIIAAAgggkPYCBDJp/wm4EMBjT5HUy1dZj7rSjPYurJOSkk7gzsXSi9sCyp4qr9U76QZCwQgggAACCCCAAAIIIJD0AgQySf8KU3AAQcuWTsuUDg7ltKUUfNMJHZI5Xan8aOmXkwHdslwpoW+BzhBAAAEEEEAAAQQQQMAnQCDDt+BOgRH2p7J1ka+4qW2kng3cWSpVFVzgu+++09SpU3X77berevXqBW+gEE9Me0/qtczvQUufaYR1cSGa4hEEEEAAAQQQQAABBBBAoMgCBDJFJqSBuAh47GxJw31tX3W+tPHuuPREowkUOHbsmJ5//nlNnDhRp59+uubNm6eaNWsmpIImz0lvfRHQ1Uh5rayEdE4nCCCAAAIIIIAAAggggECQAIEMn4Q7BYbZ1ZWpT/yLW3+X1PQCd5ZLVdEJ7N+/X127dtVrr72munXrJiyQ2bBPuvrvQTWeVA2NsnZFVzl3IYAAAggggAACCCCAAAKxFSCQia0nrcVSwGMvkdTW1ySb+8YSt3jaKq5AJsRmvkvltdoVjwK9IoAAAggggAACCCCAAAISgQxfgXsFsuw2srTUv8DPB0jVyru3ZCrLX6A4ApndB6ULnwiqy1ZbZVv+O8rw6hBAAAEEEEAAAQQQQACBhAoQyCSUm84KLJBlfyBLdX3PDbxSGndTgVvhAZcIFEcgM+g1afwmPwBb25Rt1XMJCWUggAACCCCAAAIIIIBAmgoQyKTpi0+aYXvsnpKm+urNtKSvBkmVzojNCEaOHKmsrJx9XTds2KAmTZpoz549euqpp7RixQrt3LlTFSpU0FVXXaU77rhD7dq1U9myZaPq/Ntvv9WaNWu0bNkyp52tW7c6z5UrV0716tXTtdde65wydMkllygjIyNkm776fPutnHXWWZo2bZpeeOEFp03TRseOHZ3aKlasGNDGqVOn9M4772ju3Llav359bv/169fX1VdfrT/+8Y9q3LixSpQoEXY8wf2bDXjNuF5++WW98sor2rx5sw4dOiTTZuvWrdWlSxfVqlVLlhX4fy0bN25U06ZN83Xz+UeFG+VN//1J+v046aQd8EAvea1pUTbBbQgggAACCCCAAAIIIIBAXAQIZOLCSqMxFfDYuyVV9bU5uIk0pkVseggOZL744gv17dtXBw4cCNnB5Zdf7pwQdOWVV+YJHXwPHD16VFOmTNGoUaPCtuPfeJ8+fWTqMMFP8OUfiJh+zZ8lS8zWOr9etWvX1vz583XppZfm/nDv3r164IEHtHjx4nyhbrnlFo0dO9YJUUJdwYHMjh079OCDDzphUKjLhE0DBgzQ0KFDA4Kr4gpkhqyWxm4MqHSPvFa12Hw9tIIAAggggAACCCCAAAIIFF6AQKbwdjyZKIEse4AsTfTvbu8D0gW/LXoB/oHM4MGD9dxzzzkhSpUqVdSqVSvnnx9++KEzW8YX0pifzZgxw5mdEnwdPnxYQ4YM0eTJk3N/ZWaPNG/e3JnBcvLkSX3wwQdau3ZtQFjz0EMPyev15pmt4quvcuXKOuecc5xZLmaWStu2bZ2ZNuvWrXNmufg/++9//1v33HOPMzvGXOa+G264QSZMMldw/+b5SZMmqUGDBnnG4+v/sssuU8uWLZ2gycyI8dVgxmTCn5UrVzr/9F0mOOrfv39uaLVr1y4tWrRIJqwys2s++ugjmTF17949N4jq0KGDqlevXvSX+r8W9v0gVZkQ1Jyt+5VtBe8oE7M+aQgBBBBAAAEEEEAAAQQQiFaAQCZaKe4rXoGgWTK9G0rP3FL0kvwDGV9rHo9HJpzxX5r03//+1wlaZs6c6dxmljbNmjVLVavmTtxxfm5mr5iQwYQWJrh59tln1axZszxLkkxwY2ammCDFXOGOgA6u795779Xo0aNzQwyzLOn48eMqVaqU046p04QxJkAy11133eX08fvf/z4A67vvvtOYMWP0+OOPOz83y41MrSb08b+C+zdjMjN/OnXqlNunud+EVWZWzPTp053Hr7vuOs2ePVvnnntuQHuJ3EPmvuXSlHcDumd2TNH/k6EFBBBAAAEEEEAAAQQQiJEAgUyMIGkmzgJZ9n2y9Ou0E0mb75UuP69o/QYHDibsGDRoUMh9Vb755hv16tUrd8nQuHHjnGVBvv1STMjSr18/Z38Xc5m9Xkw4Eryfiq/igwcP6u67785dVmRmu1xzzTVhAxGzNMnsB1OnTp2Qg7ZtWxMmTHDqN5dZCmVCl3B73gTP5gme1WLa8PcxM23MDBmzX02oMX355ZfOHjJmvxpzhRpPogKZLV9JjXKyoV8vW32UbT1TtC+GpxFAAAEEEEAAAQQQQACB2AgQyMTGkVYSIRB04lKr6tKKrkXr2D9wuP76650ZMOedFz7lMUuN2rdv78yAMUt4zP1nnnmmU4TZ7NYsVTL7pZhwxCx/MjNKwl1m+dLw4cP12GOPObeYGTdduwYOyL8+M/PGLC0ywUio6+uvv1aPHj2cjYQjhTe+57dv3+5sCmyWFAWPx9zj378ZtxlT+fKhzx3/5ZdfnFkyJhQKN55EBTKtZ0srdwWEMZysVLT/VHgaAQQQQAABBBBAAAEEYixAIBNjUJqLo0CWfZssLfDvYWYHqVvoCSNRFeIfOJj//fDDD4ed0WIa/P77750lSatWrXL2QDEnKIXaeyWqzoMCj0iBjFlKZf6Em3FjgqCbb77ZCYsihTe++n744QdnFs+CBQtCjsffx2zma/49MzMz7PD87w81nkQEMrO2S90XBZVoq6OyrYXRvhfuQwABBBBAAAEEEEAAAQTiLUAgE29h2o+twAj7Fdlq52v0/N9IH/9ZKlOycN34Bwj/+Mc/1KJF/sc3/fzzz86SIN+mvWYJkTm6Otrrp59+kjnJyWzOa0Id/82CIwUyZiNhMwMm3PXiiy/qzjvvdH5t9rgxM15Klswfxuw/Y+owYY65zB44ZsNg3+XvY5YrmSVb+V3FHcgcOS7Vekr64ke/Ki0t0Qjr1mjfEfchgAACCCCAAAIIIIAAAokQIJBJhDJ9xE7AY5v5MNv8G+zbSHq6VeG6CD722gQZka5IoYN53my2a5YBbdiwQe+//75zqtC2bdvyPQY7UiAT6vf+tYbaoDjSWIJ/H9xHNGMNV0NxzJDpt1KatDnPqOvKa20vqAX3I4AAAggggAACCCCAAALxFCCQiacubcdHwGNnSxru3/iyLtItNQrenS9wCHfKUagW8wspzN4xmzZtcvZS8W1uG64qcxS12UfmjTfecG4hkCn4+/N/YvknUps5edoYKa+VVbSWeRoBBBBAAAEEEEAAAQQQiL0AgUzsTWkxEQJBG/xeVEHafl/Bly75wpWC7AcTLpAxYcy8efPUt2/fgJkwFSpUcI61btiwoWrWrOnsOXPxxRfrjDPOCNg0N5aBTHZ2trNhcFGvZJkhY5Yq1XlG+uyA34htsZFvUT8AnkcAAQQQQAABBBBAAIG4CRDIxI2WhuMq4LGbS1rt38ef6kt/z91dJrre/QOHUMc0B7dy9OhR56jrqVOnOr/y33dmz5496tatW+5+LOZ4aK/Xq4suukgZGRl5CjIBjvm9+WOuogYypqbevXs7bZkazRHep512WnQQYe5KlkDmriXS81vzDKKFvNaaIgHwMAIIIIAAAggggAACCCAQJwECmTjB0mwCBDz2aEl/9e9pahupZ4Po+y7oprX/+c9/nKOpzTKj6tWrO6cT1amTc8yTORLanFhkLrMx7vTp03X22WeHLebIkSMaMGCAnn322ZgEMqtXr9aNN97otNW8eXOZTX7NzJ+iXMkQyEx7T+q1LM8o/yavNbQoY+dZBBBAAAEEEEAAAQQQQCCeAgQy8dSl7fgLeOy3JF3p39Hme6XLz4uua//AwZxg9NRTT+k3v/lN2IfNjJiOHTuGPFrav61olgzt3LnTOaHJbPZrrqLOkNm7d6+6dOmit94yJNLChQvVoUOHfCG++uor3XXXXTKnLVWqVEkjRoxwllX5LrcHMlu+khpNzzPETfJaV0X3BXAXAggggAACCCCAAAIIIFA8AgQyxeNOr7ESGG7XV6bek63cb/myStLb90S3n4x/4FCuXDmZo53NUiPLyvufxjfffOMc+2yOhg4VoPi31b9/f40ZM0alSpUKOdLDhw9ryJAhucdnxyKQMRsEm+VPpg5zNW7cWM8//7xq164dsoYTJ05o3LhxzgbE5go1q8bNgYzZN+aKZ6V/feM3PEu2TqqBRlp5FzDF6pujHQQQQAABBBBAAAEEEEAgBgIEMjFApIliFvDYPSXlbOryv6vjJdL8P0auK/io6CpVqmjUqFHq1KlTQJjy+eef6y9/+YsWL17sNGp+b/ZsKV++fG4nS5cuVbt2OZvYmHBn8uTJzowV//1jzL4xu3fv1rBhw/TSSy8FFDhjxgyZWTr+V0EDEXPUdvfu3fXOO+84zZhjvCdOnOhsJOwfMplA6JlnnpGZyXPo0CGn3mnTpqlz585F6j9Svfv373eWfL322mvOcqpXXnlFjRo1ivyiQtzR6WVpwY48v+glrzWtUA3yEAIIIIAAAggggAACCCCQQAECmQRi01UcBTz205L6+vcwuIk0pkX+ffoHCCYg+Prrr50HzOwSM2OkTJky2rJli9auXesEF77fhZp5cvDgQWcGzfz583M79bVjAg/z/IYNG2Q2DzaXWRp0/fXXO7NyzBVqmVOkgCPU6N5880317NlTZkmU77r22mvVtGlTJ3gxS5tWrlzp/NN3mQ2ABw0apBIlSgQ0WdD+I93/888/O/2YsMpcl112mbPfjqnLLK8y+/JEcw1ZLY3dmOfOSfJa/aJ5nnsQQAABBBBAAAEEEEAAgeIWIJAp7jdA/7ET8NhrJTXzb3BCS+n+K8J34R8gvPDCC05o8tBDD+WGL8FPtm/fXhMmTJCZSRPqMjNUBg4cqOXLl+c7LjMTxiwvMjNG2rRp4wRBZmbLpEmTnHDCd0UKOMJ18sEHHzjHXkeqwxzJbYIgsxlxqOVVBe0/mvtNIHXnnXcGBEJmHHPnznX21Il0TXxbemBVnrtel9e6IdKz/B4BBBBAAAEEEEAAAQQQcIsAgYxb3gR1FF1glH2ejmuDpKr+jc3sIHXLOQgpzxUcIJglRh9//LFz8tGKFSucWSZmJstNN93kLOcxM15CHWHt37A5GvvVV1/VvHnznKVDZiaKCVnM0hxzCpJZ1lSjRg1nCdH333/vBDGrVq1y9noxoYTv1CbTZjQBRzg4s0eM6f/ll1/W5s2b9fbbbzu3mjDJjMPUYsKg/E6CKmj/0dxvlm1t3bpVjz/+uLN06cCBA05djz76qB588MF8v4NZ26Xui/LcckAlVUfDrK+K/hHRAgIIIIAAAggggAACCCCQGAECmcQ400uiBEbYV8mWWRMUsPbmlc5Su1qRAxmzvwmXOwWWfCzdOjdMbbb+omxrnDsrpyoEEEAAAQQQQAABBBBAIK8AgQxfReoJZNm3ydKC4IGt7CrdHLRFSTQzOlIPKPlG9OouqdXsiHU/IK81MeJd3IAAAggggAACCCCAAAIIuECAQMYFL4ES4iAQ4uSlTEta1iUwlCGQiYN9jJs0YUybOdJJO0/DhyWVDfopoUyM/WkOAQQQQAABBBBAAAEE4iNAIBMfV1p1g4DHHigpzzIW/+VLBDJueFHha8hnmdIgSW9IWi2pAqGMu98j1SGAAAIIIIAAAggggEBeAQIZvorUFvDYQyU9FjxI30a/BDLuff1hNvA1BT8orzXaqdxj/4FQxr3vkMoQQAABBBBAAAEEEEAgvACBDF9H6guECWXMkdiHVo9UVlaWYzBr1iwVdFPfDfuktZ9L//1J2n9U2n9E+v7Ir//75xOpyXt6CaliGenMMlLF0jn/2/zznDOkFhdJV51ftHGHOdo6MIzxdZETyqyRVD6gVzb6LdpL4GkEEEAAAQQQQAABBBCIqwCBTFx5adw1AmGWLzXdM1IbZkQfyJw8Jb25V1r4kbToI+nrQ64ZoasKObec1KG2dNsl0jVVpIwC/D/NkNXS2I0hhzNIXmt8yN8wU8ZV759iEEAAAQQQQAABBBBAILJAAf6aFLkx7kDA1QIhNvo19Xa8RJrRXipTMnz1nx7ICQnm75AOHnX1KF1XnJk9Y4wHXinVqBi+vCPHpTsXSwt2hLznsE7pSo20/hW2BUIZ1717CkIAAQQQQAABBBBAAIHwAgQyfB3pJZBzJPZcSSX8B35ZJem5ttLl5wVymBkww16XZmyTzOwYrsILlMiQ7qovea6TzAwa/2vLV9LdS6V/fZNv+wd0StcRyhT+HfAkAggggAACCCCAAAIIuEeAQMY974JKEiUwwr5KtmZLqhrc5dQ2Us8G0oGj0iNvSuM3RS6qdQ2p6QXSWWWks8v++qdyOcnstZKKl9kbx4RV3x7+9c93R6T1e6WVuyKPeHAT6cGmUvnS0rT3pF7LQj5zIMQJSoQykXm5AwEEEEAAAQQQQAABBJJAgEAmCV4SJcZBYJR9no7rRUnNgluvX1kyS5QOHQvdb9nTpJsvztkjpU1N6YzT4lBfEjf54zFp+SfSwh3Sqk8lsxQp1PXb06WLK0jv/Sfkr19XSfXQcXWSNCHoDkKZJP4+KB0BBBBAAAEEEEAAAQR2LFprAAAgAElEQVRyBAhk+BLSW8BjPy2pbzQIVX8nZV8vdbo0dWe+RONQkHtMGDPv35LnDemLH6J+cpK8Vr/cuz32/YQyUdtxIwIIIIAAAggggAACCCSJAIFMkrwoyoyjgNns19IU2aEDyt//Rhp+bc7+J2YfFK6CCxw/KT23VRq5TvpPuJOpLNmy1Vtea1qeHghlCo7OEwgggAACCCCAAAIIIOBqAQIZV78eikuIgMduLsnsYnK6f39nlZWGNpX6Xi6VStG9YBLi69fJsRPSpC3SY+ul74/k6d2cpNRaI611IesilEn066I/BBBAAAEEEEAAAQQQiKMAgUwccWk6CQSy7K6yNCu40qurSItvl8yRzVyxFzBhTNuXpE1fhGjbVhdlWy8RysTenRYRQAABBBBAAAEEEEDAPQIEMu55F1SSaIERdmdJc4KXKv2pvjStDcuT4v06TpySei6Tnt+ap6dTstVD2ZY5CSvvxUyZeL8a2kcAAQQQQAABBBBAAIEECBDIJACZLlwoMMLuIekF/zAmM0Maf5PUv7EL603hkp54Wxr0D+nkqYBBEsqk8DtnaAgggAACCCCAAAIIIMApS3wD6Sjgse+S9Fzw0Ff3kJpfmI4gxT/mf3wm3TpXOhp8RLatzsq25oWskJkyxf/iqAABBBBAAAEEEEAAAQQKLcAMmULT8WBSCoSYGXN6CWlFV6lZtaQcUcoUvWGf1OJF6ecTAUM6KamzvNYCQpmUedUMBAEEEEAAAQQQQAABBMQMGT6CdBIIEcaclim92o0wxi2fweu7pdazCWXc8j6oAwEEEEAAAQQQQAABBOInwAyZ+NnSspsEwoQxS+6QWl7spkKphVCGbwABBBBAAAEEEEAAAQTSQYBAJh3ecrqPMcu+Vxma6r+Bb4kMaVkXwhi3fhr5hDId5LWWhqybPWXc+jqpCwEEEEAAAQQQQAABBEIIEMjwWaS2gAljLE3zH6Q5TWnR7VLbmqk99GQfnQllbp4l/WJ2kfn1MjvM3EYok+xvl/oRQAABBBBAAAEEEECAQIZvIHUFwoQxcztKHS9J3WGn0shWfSq1e4lQJpXeKWNBAAEEEEAAAQQQQACBHAECGb6E1BQIEcZkWNK8ToQxyfbCCWWS7Y1RLwIIIIAAAggggAACCEQjQCATjRL3JJeAx+4t6Zngomd2kLrVSa6hUG2OwMpdOacvhbjasXwpDl+Jxz5Dp1Rdli6UpSqSfi+psqSzZauiLP1WtsrJUmlJp0kq8b8qzJKyX2TrqCwdkq0fZGm/pG8lfS3pS9naK1ufK0O75LV+ikP1NIkAAggggAACCCCAQFIIEMgkxWuiyKgFPPZdkp7zv9+ypJntpa6EMVEzuvFGM1OmzRzpxKmA6kwA0EZea1XImtnoN/KrfNiuokw1lKU/yFZdWbpUUtXID8bkjj2y9aEsbZOt93VS7+oRa29MWqYRBBBAAAEEEEAAAQRcLkAg4/IXRHkFEMiyuypDM/1PUzJhzLNtpbvqF6AdbnWtwNKd0m3z8oQyv0gyM2UIZaJ5c8Ps6srU9ZKukdQkgeFLNNWZe/ZI2ijpTZ3UPzXK2hXtg9yHAAIIIIAAAggggEAyCRDIJNPbotbwAh67m6SZwTc8c4vUuyFwqSSw5GPp1rkhRmSrlbKtV0OONd1nynjs5pJaSWopqXaSfQ8fSTJh20p5rTVJVjvlIoAAAggggAACCCAQVoBAho8j+QU8dkdJ8yRl+AZjZsZMvUW6t0HyD48R5BVgpkwUX0VOCGP+22jv7P1SwKtmReniClLV8tIFv5XOLSdVKitVLCOVP10qV0oqU1I6LVMq8b//8sxyMnNM+ZHj0qFj0sGfpf1HpG8OS/85JO37QdpzUPr0gLTT7CxT8MvsRbNY0gLCmYLj8QQCCCCAAAIIIICAuwQIZNz1PqimoAI5YYyZL5HpH8a8cKvUo25BG+P+ZBIIG8pYulkjrNdDjiXVZ8rkLEfqLktdZOuiaN6nCVQa/166/FypfmWpTiXpkrN+DVmiaaMw95jwZsd30vZvpK1fS1v+I73zZZ4jzsM3bekz2Zqjk5rJsqbCvAGeQQABBBBAAAEEEChuAQKZ4n4D9F94AY/dVtIiwpjCEyb7kyaU6TBPOhm40e/PstQ6rUKZLLuNLN0jyfw3EfFqfqF0fTXp2ipSkwsi3p7QGzbsk97cK/1zt7Tm86i7XipbzyrbWhb1E9yIAAIIIIAAAggggEAxCxDIFPMLoPtCCnhssxeG+cuX77hdmWVKzIwppGcSP7Zgh9R5QZqGMh67p2z1kaV854OZZUZta0q31JBaXpyz1CgZLrP0yZyutfwTyYRvZvlTvpetbbI0WV5rWjKMjxoRQAABBBBAAAEE0luAQCa9339yjj4njFki6TTfAAhjkvNVxqrqtAtlsuwBsnR/fickmaVInf9P6nRpThCTCpcJZuZ/KM39d8SlTeY47YnKtp5IhXEzBgQQQAABBBBAAIHUFCCQSc33mrqjGmE3ky1zkg5hTOq+5UKNLGwoI7WQ19oQstFk21Mmy75PlobkF8Rcdb50Zz2pW53kmQlT0BduZs7M2i7N+EB664t8nzbBzBhlW88UtA/uRwABBBBAAAEEEEAg3gIEMvEWpv3YCeSEMSskne5rlJkxseNNhZZMKHP7fOmUHTAas9DlpqQOZbLs2yQNz29pktnE2pwq1tRle8LE+7sye85Mf096cVs+PZmlTNJIZVsL410P7SOAAAIIIIAAAgggEK0AgUy0UtxXvALD7SbKUJ5ZDi+2l7pzmlLxvhuX9T57u9TNbPUceB3VKbXQSGtjyHLdOlPGY9eRpWzZaheq7kxLGnCF1K+RVK28y15EgsvZfVB6erP0xNvSycBA7tdKLC2RrSx5re0JLo/uEEAAAQQQQAABBBDII0Agw0fhfoFhdk1l6m1Jv/MVa2bGzLktZ48MLgSCBUwo02NxnpkyByU1ktf6NClCGY+d7cyKCXMNbiINulKqdAbv31/gvz9J4zdJY0NHb75bR8prZSGHAAIIIIAAAggggEBxChDIFKc+fUcWeMiupJJ6X9K5hDGRubjjV4EwocxeWWqoEdb3rg1lPHZz2Xo83PKk3g2lB6+WLvgtbzs/gX0/SI+tl6a8G+aunBOZ/iKvtQZJBBBAAAEEEEAAAQSKQ4BApjjU6TN6gRH2Gtm6wf+BJ2+W/tw4+ia4M30FzPKV+1flGf+r8lqtwqoU5/Iljz1a0l9D1daqujTiOuny89L3fRZm5Fu+kka8Ia3cFfbpv8lrDS1M2zyDAAIIIIAAAggggEBRBAhkiqLHs/EVyLLvkKU5/p20qSktvSO+3dJ6agl0mCct/ihoTLa6Kdua7ZpQZrhdXxmaJOnK4JrO/430aPOcU5O4Ci9gTmV6aI30xY8h29ikU+qrkdbWwvfAkwgggAACCCCAAAIIFEyAQKZgXtydKAGPbfaLMXt9VPR1WeV30r/7SGfkHnidqGLoJ5kFDh2TLpkkfRn4F/H9ki6W1/r/iz2U8dg9ZWmKbOX5/+O+jaQxLVL3+OpEf1fmuOwhq6VJm0P0bMmWrd7yWtMSXRf9IYAAAggggAACCKSnAIFMer5394/aYw+UNM5XaMlM6d2eUp1K7i+dCt0nsPkrqclz0olTfrWZ03ayrZH5Vhvv5Use+2lJfYNruKiCNLGldEsN91mmQkXLP8lZyvbZgZCjmSSv1S8VxskYEEAAAQQQQAABBNwtQCDj7veTvtV57E2SrvAB/PFSaV6n9OVg5EUXCLF06VN5reoRW45HKFNS83VcL0pqFtz/n+pLT7diVkzE91LEG8xsmX4rpedDL1J6XSXVQ8Osr4rYDY8jgAACCCCAAAIIIBBWgECGj8N9An+2S6mCfvYvbFob6d4G7iuVipJHYPIWqe+KPPWeJ6/1n4ijiH0oY+ZmVAjud2obqSffecTXEcsbpr0n9VoWssU9stRVI6y3YtkfbSGAAAIIIIAAAggg4BMgkOFbcJ/AcPsyZWi7f2FfDJR+/xv3lUpFySOwa79U46mgem01U7b1z6hGEftQJrfbyypJz7XlBKWo3kMcbjInMd29VPrXN3kaPyFbnZVtLYxDtzSJAAIIIIAAAgggkOYCBDJp/gG4cvhZdidZetlXm9lP49P+rqyUopJMoMoEad8PfkXb6qNs65moh1G0UOZNSWWD++p4iTSjPUuUon4HcbrRLGG6c7G0YEfIDnqx2W+c4GkWAQQQQAABBBBIYwECmTR++a4d+gi7s2y95KuvRkVp559dWy2FJZHAhU9Iuw8GBDL3K9t6okBDKEwoE7RJta+/wU1yTlHico+AOYVp7MaQ9QyS1xrvnkqpBAEEEEAAAQQQQCDZBQhkkv0NpmL9I+yrZCvgr0TfD5EqlknFwTKmRAn89yep8uN5ertNXmtRgWvIsgfJUnBrB3RKzTTS2hbQnsceKumx4D4mtJTuz922usAV8EAcBSa+LT2wKmQHD8prjY5j1zSNAAIIIIAAAgggkEYCBDJp9LKTZqge+/eSvvCv9+VOUqdLk2YEFOpCgTn/kroG7wRySo000tpSqHKjmSkTJoyZ2UHqVqdQvfJQggRmbZe6h47qCGUS9A7oBgEEEEAAAQQQSHUBAplUf8PJOj6PvVNSDV/5/RpJT7VK1sFQtxsEei+Xpr4bUMmPkirKa50odH35hTIZMouRxgW3/UpnqV2tQvfIgwkUWPKxdOvckB2yfCmB74GuEEAAAQQQQACBVBUgkEnVN5vs48qyB8vSGN8wzjhN2tpbujjPQcHJPlDqT4TAZwekelOkn34J6G28vNagIvcfOpQ5HLyBb6YlLesi3Vy9yD3SQAIFXt0ltZkjnbTzdMpGvwl8D3SFAAIIIIAAAgikogCBTCq+1VQY0xC7nErrM0ln+YZT+yxpay+pVIlUGCBjSJSAOT2nwVTp4+8Dejwq6UJ5rf/GpI7QoUxA0yu7EsbExLoYGjGhTKvZITq21ZEjsYvhhdAlAggggAACCCCQIgIEMinyIlNyGB77/5P0vP/YzL4bZv8NLgSiFbhtnrToo6C7LQ3WCCvvFr/RNhrqvjAnKZlbWaZUFFh3PBtm+dIJWbpWI6y33FElVSCAAAIIIIAAAggkkwCBTDK9rXSs1WO/Lamx/9AntZb6XJ76GCNHjlRWVpYz0F69emnChAkqXbp0noHH+r5Ukn3yHWnAq3lGtFNeK/a7uIyyz9NxbZcUsLCODXxT54sKs9HvHpVUUw2zvkqdkTISBBBAAAEEEEAAgUQIEMgkQpk+Ci/gsS+Qpc2yVcnXSIYlvdhe6prip9TEOmiJtr3Cvyx3PTl7u9RjsXQqcO+PAzqpKzTK2hXzaj32WknN/NvlaOuYKxd7g2GOxH5dXuuGYi+OAhBAAAEEEEAAAQSSSoBAJqleV5oWO8L+P9kySwLKpVMoE22AEuv7UuErCxPG/CSpibyWmcUS28tjPy2pr3+jg5tIY8w5S1wpJzBktTR2Y55hTZLX6pdyg2VACCCAAAIIIIAAAnETIJCJGy0Nx1RghH2NbK2SFLBmZ25H6fb/i2lPrmks1kFLtO25BqCQhZgwptuiPA+bTXxvlNfaUMhmwz/msXtKmup/Q8dLpPl/jHlPNOgigU4vSwt25CmIk5dc9I4oBQEEEEAAAQQQcLsAgYzb3xD1/SrgsZtKWi3pdN8PMzMkE8qYvwBzIWD+gnz7/DzLlH6W1CIuYcxwu74y9Z5s5f5/6WWVpLfvkcqU5H2ksoA5veuKZ6V/feM3Sku2TqqBRlpbU3nsjA0BBBBAAAEEEEAgNgIEMrFxpJVECYywm8nWCkKZRIEnTz8mjOm8QDp5KqDmn2WptUZYr8dlJB7bLKW70r/tzfdKl58Xl95o1GUCW76SGk3PU9Qmea2rXFYq5SCAAAIIIIAAAgi4UIBAxoUvhZIiCBDK8IkECRRTGDNa0l/9S5naRurZgNeTTgLT3pN6Lcsz4r/Jaw1NJwfGigACCCCAAAIIIFBwAQKZgpvxhBsEwoQyi26X2tZ0Q4HUkCiBYgpjmv9v+VzuMP9UX/p7u0SNmn7cJHDXEun5vIuUzDK5NW6qk1oQQAABBBBAAAEE3CVAIOOu90E1BRHICWVelXSa77ESGdJCQpmCKCb1vcUSxhixLPsDWarrw7uogrT9PvaNSeqPqQjFm/1k6jwjfXbArxFb25Rt1StCszyKAAIIIIAAAgggkOICBDIp/oJTfngeu6WkJYQyKf+m8wxw6U6pw7w8e8b8Iks3x23PGFOFx86WNNy/oGVdpFtqpN87YMS/Ciz/RGozJ4/ISHmtLJwQQAABBBBAAAEEEAglQCDDd5H8AoQyyf8OCzgCE8bcNk86EbiB7y+S2slrmePR43N57DqStvk33reR9HSr+HRHq8kl0G+lNGlznprrymttT66RUC0CCCCAAAIIIIBAIgQIZBKhTB/xFyCUib+xS3ootjDGjH+E/Yps5e4Uc/5vpI//zFIll3waxV6GWbpU6ynpix/9SrG0RCOsW4u9OApAAAEEEEAAAQQQcJ0AgYzrXgkFFVogJ5Qx552U8LVh9pQxy0laXlzoVnnQRQLFGsZk2bfJ0gJ/jpkdpG5mzgwXAv8TmLVd6r4oiMNWR2VbC0FCAAEEEEAAAQQQQMBfgECG7yG1BDx2W0nmLz65ocxpmdKSOwhlkv1FF2sYY/CCNvJtVV1a0TXZVak/HgKtZ0srd/m1zAa/8WCmTQQQQAABBBBAIOkFCGSS/hUygDwChDIp91Gs+jRnw9SgPWNOSGoT1z1jfJJZ9n2yNNkfdvO90uXnpRw1A4qBwJavpEbTgxqy1UfZ1jMxaJ4mEEAAAQQQQAABBFJEgEAmRV4kwwgSIJRJmU/ChDHtXpJ+ORkwJBPG3CavtTQhA/XYuyVV9fXVu6H0zC0J6ZlOklTgvuXSlHcDit8jr1UtSYdD2QgggAACCCCAAAJxECCQiQMqTbpEIEwo82o3qRl/LXLJS8q/DFeEMVn2AFma6F/p3gekC36bFIQUWUwC+36QqkwI6tzW/cq2niimkugWAQQQQAABBBBAwGUCBDIueyGUE2OBnFDGbLGZ6Wv59BI5e38QysTYOsbNuSKMMWMKmh0zuIk0pkWMB0tzKSkwZLU0dmPA0Jglk5JvmkEhgAACCCCAAAKFEyCQKZwbTyWTgMfuKGkuoUzyvLTXd0s3zyrmZUo5YUxPSVN9cpmW9OUg6ZwzYmv5448/av369Vq3bp3effddbdu2TQcOHHA6qVmzpmrXrq1rr71WN910k/PvGRkZsS0gBVsbOXKksrKynJHNmjVLXbsmfgfmb36SzhsnnbQDgHvJa01LQXKGhAACCCCAAAIIIFBAAQKZAoJxe5IKEMokzYszYYw5peZns0vMr5fZQaZDwvaM8fUbdLLSwCulcTfFjnLfvn2aPHmypk+fnhvARGr96quvdoKGZs2aEczkg+WGQMaUN+g1afwmv0I5cSnSJ87vEUAAAQQQQACBtBEgkEmbV81AFSaUWd1DanoBPm4QyCeM6SyvtSChNWbZbWQpYNPgzwdI1coXvYpTp05p0aJFGjZsmHbu3JnbYIUKFXT55ZerYcOGKleunPPzjz/+WJs2bQq4z/xuyJAhGjRokEqXLl30glKwBbcEMrsPShcG7xpjq62yrWUpyM6QEEAAAQQQQAABBAogQCBTACxuTQGBnFBmnqTcNR9lSkqvdSeUKe6366owxmB47CWSzB5EztWjrjSjfdGVTpw4oSlTpuihhx7SoUOHnAZNCOPxeJxZL6ECFhPg7NixQ2PHjtWLL76YW8To0aOdUKZEiRJFLyzFWnBLIGNY71wsvbgtAHipvFa7FCNnOAgggAACCCCAAAIFFCCQKSAYt6eAQJbdVZZm+Y+kdElpSWepxUUpML4kHILZwNfsGRPiul1e6+WED2mYXV2Z+sS/3/V3xSa0W7Jkibp3754bxgwdOtQJZ3wzYvIb67FjxzRt2jQ9/PDDzvNVqlTR7Nmz1aRJk4QTub1DNwUyG/ZJV/89SOykamiUtcvtjtSHAAIIIIAAAgggED8BApn42dKymwVyQhkz1SB3pkxmhvRES6lvIzcXnnq1TXxb+ss/pJOnAsZm9oxJ/DIlXwkeO1vScN+/XnW+tPHuotvv2bNH3bp10/9j703gbar3///XMqQM3S9CUhfJVD9TQkIlQ8oUUTJ1DSFcY1xDzraPMWXoijJlFmXMEKESUpSpMuQWkmT+l6kyrP/j/Tmt3dr77H32vNfae78+j8d54OzP+rzf7+dnnc/tvO77835v3ZrWeqdr164YM2YMcuTIEfDiV65cUdeV3njjDfVMjx491BrZsmULeI1kmGgnQUZ4V5sBfHbMjfwwOLW0qsMcJEACJEACJEACJEACSUmAgkxSbjuDVgS8iDLy7XYVgGkNARFoOKJH4NoNoNNKYOaudDZEmpHMmNjWjDG7MVT/H3S48qWmNAQ6VQyPha7rGD9+vLpiJKNmzZqYO3cuChUqFPTC27dvx1NPPYUTJ06gXLlyWLRokeq+xPE3AbsJMlO/Ajqbq8Zo+B5DtXu4ZyRAAiRAAiRAAiRAAslLgIJM8u49IxcCDv2Zv2rKuPF4rCiw+BkgN+ulRuU9OX8FaLII2HTEy/I6miFVWxIVw4Es6tBrA1hvTL0pM3B+ACC1hsIZIp60bdsWGzZsUMtMnz4dHTqElnZz6dIl9OvXD//3f/+HunXrokqVKulqzxiChCHY5MuXT113mjVrlioQLG20mzVrhueeew558+Z1C+3UqVPKz5UrV6q5u3alqWZyrap8+fLq2WeffRb33nuvz05PnvZFMJJ13333XSxfvhwiKsm1qwoVKqB+/fpo2bIlSpUqBU3z/z9LZ8+exZIlS7Bs2TKVbSTreMZjN0Hm8lUg9+h0rdzrwKmlvRAcJEACJEACJEACJEACSUfA/3/5Jh0SBpx0BIboFZAJawHkN8deMBcwrGZaxkwm/qRE5LWQa0nTdwKOT4CTF9MteQo3UA/DtPQ5MxGxHuAiDv0tAJ2N2ZEq5rt+/XolnsgQAeWdd95B0aJFA3Qq+GlmQWTChAmQL6lfYx6lS5fGe++9h/vuu099W65DScHh4cOHB9SGW65ciR3pDuU5PAUZKUo8cOBAt25R5mdE7OnZsyekpo6vK1xSEFn8dTqdPtcR4UdiFcFHCiXLmDdvHlq1ahU8xAg/4aW47xQ4tS4RNsPlSIAESIAESIAESIAE4oQAf82Mk42im1Em4NDvALAOwP/ztFQ6H/BmfeCRIlH2IcGX/+AQ0G898O0pr4GKCNMATu1nyzE49JNmcW5lS6BBifC8kutKI0aMwJAhaWVpOnbsiNdffx3Zs2cPb+EMnjYEkYIFC+L2229XWS4iVjRq1EhlumzatEkJQyJuSJcmybqR2jSTJ092rSrZK7Vr11YZNNevX8fu3buxceNGN7FGChIba5jdMeyXKVMG9erVU0KPZLIYPsiaR48exZo1a9SfxhAxRerieGbKCEMRsbp06eIqiOxrLSl2LNlDe/aktTayiyCz6jug4QK3TTsFp1Ygai8BFyYBEiABEiABEiABErA1AQoytt4eOhdTAkN1+e14AXR4bUdb7x5g3OOACDQcgRPYfxp4cbWP60myjIYV0FUB398DXzVKMz2uK+XNDpzpH76ty5cvq+wPuaYkY+TIkSpbJJrDfGVH7LzwwguQNtlGNou00r569aqrGLC5+5MIGuKrtOHOlMm9mJIIN9J+W0QYGb5q2HjalzUl86Z58+ZuBYjPnTunsmKmTZum1nv00UdV56g77hCN9O/x5ZdfqitWIt6IoCRXtvr06eOWTXP69GlV4Pi1115ze9Yugow4ddsY4OxlN/d4bSmaPwhcmwRIgARIgARIgARsTICCjI03h65ZRMChy2+aXrufSHmL+wsCIs7I14N3AllY/Ndto+Ra0tZjgLSylq/dvwC67mUvNejQkQqnNtSinU5v1qGPA9Db+ECuq73tVZ4LzmOpeSJXZtatkySs2GRsmAURuZq0cOFClC1b1qvjIrJ0795d1ZeRIbVmJIvHVz2X8+fPq/o3UsNFhmTbPPzww25rm+2LgCIZMlKvxtuaP/30k6ohs3nzZq/rSbtvyd7573//qz6XtUXEkcwez+Et08dOgkz7FekKWY+HU+sT3BvF2SRAAiRAAiRAAiRAAolAgIJMIuwiY4g8AYf+ADQMhY76GS1+azag1t1A5UJAvuxA/hx/fxXNHXm37LLixT+BU5eA05fS/jS+th8HNh4GLvzhx1MNq3EdQyyvF+PppkPfB6C08e0lzwJNXf8Knb7VgkybNm0wadIklVnibUixXbmqJAVy5WrQjBkzIBktvoZcX5LrV6NGjVJTvAkeZkGmSZMmas3cub3/UPz5559KYJEuVN7Wk8LCUkRYriAFUn9n7969aNGiBfbv3+/Tv9B3M7wnl+4Hnl7ktsZ+OLV7w1uVT5MACZAACZAACZAACcQjAQoy8bhr9Dl2BBz6g/J/yAOQzjsc4RP4EMBgOLUvw18qwiu8rBdHZnxnXvXS4PC7K8l6oQgyZhHCX6SdO3dWYsYtt/zdFswsiEhxW/kKpIORP1vG5/66GJk/l+tZ8u/MmTP7XD6j9d5//300bpyWquQtVs9FPa+I2SlDRrot5Rjh4fF1lMBw7VCg7DmPBEiABEiABEiABEggMQhQkEmMfWQU0Sbg0KsDkHQA+ZMjeAIf/SXEfB78ozF6wqF3AjDFsFb7bmB928jYtlqQmT17tmq5Hc64ePEijh07pooDr127FqtXr3YV9/WXISPXlURIyWhkJMhIJo4UD5YRaP0d8zN2EmQkhjpzgA0/uNHoDKc2NZz94bMkQAIkQAIkQAIkQALxR4CCTPztGT22koBDvwdAPdUNdpYAACAASURBVGioBx01AUSvTY6VcYZv+xKAj6FjLTSshFP7Mfwlo7yCQ58HwNUbeUQtYFCNyNiU7kLdunXD3LlzAxYVIpkhE4wgIcV+Dx06hC1btmDnzp3q2o9cFZLiu76GP0EmEPu+BBm5QiUFhI0iwoGsJX5KYeDWrVsrl83PSGvv3r17Y8oUl/bmNaxAMnFCfTtGbgYGb3R7ej6cWpqzHCRAAiRAAiRAAiRAAklDgIJM0mw1A40KgRS9DjRUAyCta/P+9XWb6e83R8Wu9YtKR6SzAM789af8/Sx0/AINW+HUNljvYpAeOPTDAFzNzTe3B6r/M8g1fEz3rLnStWtXjB07FjffHPrrYRYw/F1ZCkTEEOFj27ZtqpaLUVzXV/S1atVSbbA/+eSTdIKH8Yy/K02ea/ua7ymgBBKLrG1nQWbrj0D1t90IHIFTKxqZt42rkAAJkAAJkAAJkAAJxAsBCjLxslP0kwRIIHoEBuuFkQVHDAM3ZQb+GBJZc+Y6KA899BAWLFiQYeFcf9YjKciIGLNo0SKVxWPOhJEW2dLW+oEHHkDJkiVRsWJF3HPPPciZM6eqCZOSktaMjBky/nYr/efZhgF/Xjd9/xqKYIR2NPiV+AQJkAAJkAAJkAAJkEC8EqAgE687R79JgAQiRyBFfxoaFhsL1igMfNoucsvLSocPH1Ztn7/44gu18JIlS9C0adOQjURSkDly5Ii63iNdlmSIn3JFqFixYsiUKX1f90CuEfkTbDwDj3QNGbmS1KVLF5+CUcjgI/TgwzOBzWb5RUczpGpLIrQ8lyEBEiABEiABEiABEogDAhRk4mCT6CIJkECUCTh06XuTVjUWQJ+qwNjHI2tTrviMGTPGVZy2fv36mD59Om6//faQDEVSkJGW1B07dlR+NGrUCNOmTUP+/Pl9+hVIF6NICjLBdlny10Y7JOARfqjvOmDcNrdFR8KpDY6wGS5HAiRAAiRAAiRAAiRgYwIUZGy8OXSNBEggRgRS9FXQUN+wNrcp0Lps5G17ZqJILRkRaXLkyBG0sUgKMua1UlNTMWRIxve1PAsOR/PKkoAxZxeVLl0aCxcuRNmyvjfIMxsp0LozQW9CGA/M2wu0WWpaQMdqpGoNwliSj5IACZAACZAACZAACcQZAQoycbZhdJcESCAKBDwK+u55ESgrZZqjMNavX48WLVq4arWIKDN06FDky5cvIGvSBemjjz5SmTY7duxQz4Rb1NcsyPTo0UOJRNmyZfPqz6VLl9C/f39MnjzZ9Xm0BRnJLpIrVOKnjIyErGvXrmH06NFuopIdBZm9J4Fyb7ohZmHfgH4COIkESIAESIAESIAEEocABZnE2UtGQgIkEAoBh54TwAXzo1dTgCzpS6eEsnq6Z7wV0JWCuf/5z3/w1FNPIXfu3F7t/Pbbb6qrkQgh69atc5sTriBjvhKUK1cuZaNly5Zu9WPEb8k8efnll/HOO++42Z89ezbatm3r9r1IXlmShaUVd5s2bVw1eLwJWSIWjRs3Dq+++iqk1bgx7CjIXLsBZE1Nt9W54NQuRuRF4yIkQAIkQAIkQAIkQAK2J0BBxvZbRAdJgASiSmCIXgGZsNOwUTIvcODfUbUIETc+/vhj1WLayHIxLD744IOoUaMG8uaVLurAjz/+iJ07d+Lzzz9P/9t7rlwqW6Rv377pMmyCEUTOnz+vsmzee+89l40qVaqgdu3aEIFGxI0tW7Zg06ZN6nMRkGrWrIm33npL/dvbNadg7MsagcwX+88//zyOHk2rhitdoJo3b46iRYuq761Zs8b1WcGCBXHixAk1z46CjPhVaiJwUBrGG+MG7scwbVd03z6uTgIkQAIkQAIkQAIkYBcCFGTsshP0gwRIwBoCHh2W6hcHVrWKjSuS0TFr1ixMnDgRUpcl0FGmTBl06tQJzzzzjM/iu4EIHGZ7koHSp08frFq1KkM3JBNGrg+dPXsWDRs2VKKHZK5MmjRJiTfGCNZ+IPNFyNq2bRt69eqVTsgy7IoPksVz2223oUOHDrYWZBrMB1YfMuFmp6VAfwQ4jwRIgARIgARIgAQSggAFmYTYRgZBAiQQMgGH3gfAWOP5bpWBN54MebWQHpS6J7t27cLatWtVJsy3337ryvQQgaF8+fIQEaZatWrq66677vLajtpsPBCBw9PZK1eu4IMPPsCiRYvU1SDJOhH7lStXRt26ddG4cWOUKFECmqbhzJkzSogRn70V2g3WfjDzRchauXIlli5dio0bN6p6PJK1I52rpFtUqVKlsGDBAtXKW4ZdM2S6rwEmbXfbhb5wauNCeon4EAmQAAmQAAmQAAmQQNwRoCATd1tGh0mABCJKwKHLL8C9jTVfqQP0rxZRC1yMBLwSGLMV+M96t4/Gw6mJQMhBAiRAAiRAAiRAAiSQBAQoyCTBJjNEEiCBDAg4dKlQ28KYEa2W19wDEvAkkK71NbAQTu05kiIBEiABEiABEiABEkgOAhRkkmOfGSUJkIAvAg59I4DHjI8/bAPUKUZcJBB9Auu/B+rOdbPzEZxarehbpgUSIAESIAESIAESIAE7EKAgY4ddoA8kQALWEUjRd0NDOcOBrzoD9xe0zh1aTh4CO08AFaeY4tWxB6la+eQhwEhJgARIgARIgARIILkJUJBJ7v1n9CRAAg79MIAiBogfegJFcxMLCUSfwOHzwN2vu9k5AqdWNPqWaYEESIAESIAESIAESMAOBCjI2GEX6AMJkIB1BFL0M9CQ13DgdH/gtuzWuUPLyUPgzGUg3xhTvDrOIlW7LXkIMFISIAESIAESIAESSG4CFGSSe/8ZPQmQgEO/BMAlwVwaDGTPSiwkEH0Cl68COUa42bkMp5Yj+pZpgQRIgARIgARIgARIwA4EKMjYYRfoAwmQgHUEHPpVAFkMB66mAFkyWecOLScPgWs3gKypbvFeg1OjHJg8rwAjJQESIAESIAESSHICFGSS/AVg+CSQ9AQcum5moA9NeiIEEEMCmuf75tT4v8sx5E9TJEACJEACJEACJGAlAf6Hn5X0aZsESMB6AhRkrN+DJPaAgkwSbz5DJwESIAESIAESSHoCFGSS/hUgABJIcgK8spTkL4B14fPKknXsaZkESIAESIAESIAE7ECAgowddoE+kAAJWEeARX2tY5/kllnUN8lfAIZPAiRAAiRAAiSQ9AQoyCT9K0AAJJDkBNj2OslfAOvCZ9tr69jTMgmQAAmQAAmQAAnYgQAFGTvsAn0gARKwjoBDPwygiOHADz2Bormtc4eWk4fA4fPA3a+7xXsETq1o8hBgpCRAAiRAAiRAAiSQ3AQoyCT3/jN6EiCBFH03NJQzQHzVGbi/ILGQQPQJ7DwBVJxisqNjD1K18tG3TAskQAIkQAIkQAIkQAJ2IEBBxg67QB9IgASsI+DQNwJ4zHDgwzZAnWLWuUPLyUNg/fdA3blu8X4Ep1YreQgwUhIgARIgARIgARJIbgIUZJJ7/xk9CZCAQ38HQAsDxNymQOuyxEIC0Scwby/QZqmbnYVwas9F3zItkAAJkAAJkAAJkAAJ2IEABRk77AJ9IAESsI6AQx8HoLfhwCt1gP7VrHOHlqNP4PTp05gyZQqeffZZFC9ePPoGfVgYsxX4z3q3D8fDqfWxzCEaJgESIAESIAESIAESiCkBCjIxxU1jJEACtiPg0OUX4LGGX90qA288aTsv6VAECPzxxx+YOXMmJkyYgJtvvhmLFi1CyZIlI7ByaEt0XwNM2u72bF84NREIOUiABEiABEiABEiABJKAAAWZJNhkhkgCJJABgRT9aWhYbMyoXxxY1YrEEpHA2bNn0apVK6xbtw7lypWzXJBpMB9YfchEWkczpGpLEpE9YyIBEiABEiABEiABEkhPgIIM3woSIIHkJjBEr4BM2GlAKJkXOPDv5EaSqNHbTZApNRE4eNZE+wbuxzBtV6LyZ1wkQAIkQAIkQAIkQALuBCjI8I0gARJIbgIOPSeAC2YIV1OALJmSG0siRm8nQebaDSBrajrKueDULiYie8ZEAiRAAiRAAiRAAiSQngAFGb4VJEACJODQDwMoYoDY8yJQtgCxJBoBOwkye08C5d50I3wETq1oojFnPCRAAiRAAiRAAiRAAr4JUJDh20ECJEACKfoqaKhvgIhV6+thw4YhJSVFmd2yZQuqVauGI0eOYOLEiVi9ejUOHjyIPHny4KGHHsJzzz2Hxo0bI0eOHAHt16lTp7BhwwasXLlSrbNrV9pNmFy5cqF8+fJ45JFHVJehe++9F5kyeU8HMvwz6q3ky5cPU6dOxaxZs9SaskazZs2Ub3nz5nXz68aNG/jiiy+wcOFCbN682WW/QoUKqFGjBp555hlUqVIFWbJk8RmPp30pwCtxvfvuu1i+fDm2b9+OCxcuQNasX78+WrZsiVKlSkHT3P+nbevWrahevXqG3Az+AcGNwKR0La91rEaq1iACS3MJEiABEiABEiABEiCBOCFAQSZONopukgAJRJGAQx8BYJBhoU9VYOzjUbT319KegsyxY8fQrVs3nDt3zqvxSpUqqQ5BVatWTSc6GA9cuXIFb731FoYPH+5zHfPiXbt2hfghwo/nMAsiYle+VqxY4TatdOnSeO+993Dfffe5vn/06FH07t0by5YtyxBigwYN8OqrryoRxdvwFGT27duHgQMHKjHI2xCxqWfPnhgwYICbcGVHQabvOmDcNrcoRsKpDY7+W0cLJEACJEACJEACJEACdiFAQcYuO0E/SIAErCPg0WmpRmHg03bRd8csyPTr1w8zZsxQIkrhwoXx5JNPqj+//fZblS1jiDTyvdmzZ6vsFM9x6dIl9O/fH5MnT3Z9JNkjtWvXVhks169fx+7du7Fx40Y3sWbQoEFwOp3pslUM/woWLIjbb79dZblIlkqjRo1Ups2mTZtUlov52W+++QYdO3ZU2TEyZF6tWrUgYpIMT/vy/KRJk1CxYsV08Rj2y5Qpg3r16imhSTJiDB8kJhF/1qxZo/40hghHPXr0cIlWhw4dwtKlSyFilWTX7N+/HxJTmzZtXEJU06ZNUbx48ehv+l8WHp4JbP7bZYAdlmLGnoZIgARIgARIgARIwC4EKMjYZSfoBwmQgHUEBuuFkQVHDAduygz8MST67pgFGcOaw+GAiDPmq0m//PKLElrmzp2rpsnVpnnz5qFIEVfZG/V9yV4RkUFECxFupk+fjsceeyzdlSQRbiQzRYQUGb5aQHv698ILL2D06NEuEUOuJV29ehXZsmVT64ifIsaIgCSjffv2ysadd97pBvP06dMYM2YMXnvtNfV9uW4kvoroYx6e9iUmyfxp3ry5y6bMF7FKsmKmTZumHn/00Ucxf/583HHHHW7r2amGTLZhwJ/XTe5dQxGM0MwSTfRfQFogARIgARIgARIgARKwlAAFGUvx0zgJkIBtCHgU9t3SHqj2z+h65yk4iNjRt29fr3VVTp48ic6dO7uuDI0dO1ZdCzLqpYjI0r17d1XfRYbUehFxxLOeihHR+fPn0aFDB9e1Isl2efjhh30KInI1SerBlC1b1isUXdcxfvx45b8MuQoloouvmjee2TyeWS2yhpmPZNpIhozUq/EW008//aRqyEi9Ghne4rGLILPlR6DG224YWdA3uj9qXJ0ESIAESIAESIAEbEmAgowtt4VOkQAJxJyAQ58HoJVhd0QtYFCN6HphFhxq1qypMmAKFSrk06hcNWrSpInKgJErPDL/tttuU/Ol2K1cVZJ6KSKOyPUnySjxNeT60pAhQzBq1Cg1RTJuWrVyha++Z/ZPMm/kapEII97GiRMn0LZtW1VI2J94Yzy/d+9eVRRYrhR5xuNpX+KWmHLnzu3V/p9//qmyZEQU8hWPXQSZkZuBwRvdwpgPp9Y6um8bVycBEiABEiABEiABErAbAQoydtsR+kMCJGANAYfeCcAUw3jtu4H1baPrilnwkL8PHjzYZ0aLeHLmzBl1JWnt2rWqBop0UPJWeyVQr832/QkycpVKvnxl3IgQ9MQTTyixyJ94Y/j366+/qiyexYsXe43H7J8U85V/Z86c2Wd4/uKxiyBTZw6w4Qe3MDrDqU0NdN84jwRIgARIgARIgARIIDEIUJBJjH1kFCRAAuESeFkvjsz4zrzMpcFA9qzhLuz7ebOA8OGHH6JOnToZGvv999/VlSCjaK9cIZLW1YGOixcvQjo5SXFeEXXMxYL9CTJSSFgyYHyNOXPm4Pnnn1cfS40byXjJmjVjeFJ/RvwQMUeG1MCRgsHGMPOR60pyZSujEQ+CzOWrQA7p6WUe11ECw7VDge4j55EACZAACZAACZAACSQGAQoyibGPjIIESCASBBz6PgCljaWWPAs0df0rEgbc1/Bsey1Chr/hT3SQ56XYrlwD2rJlC3bu3Km6Cu3ZsyfDNtj+BBlvn5t99Vag2F8snp972ggkVl8+ePPXDhkyS/cDTy9yi3w/nNq9wbLifBIgARIgARIgARIggfgnQEEm/veQEZAACUSKgEMfB6C3sVy7CsDbjSO1ePp1DMHBV5cjb5YzEimkdsy2bdtULRWjuK0v76UVtdSR+eSTT9QUCjLR22fzyu1XADN3udkaD6fWJzbWaYUESIAESIAESIAESMBOBCjI2Gk36AsJkIC1BBx6bQDrDSfyZgfO9I+eS4a4Ekw9GF+CjIgxixYtQrdu3dwyYfLkyaPaWj/wwAMoWbKkqjlzzz33IGfOnG5FeyMpyKSmpqqCweGORMyQuW0McPayG5k6cGobwmXF50mABEiABEiABEiABOKPAAWZ+NszekwCJBBNAg79JID8homVLYEGJaJj0Cw4eGvT7Gn1ypUrqtX1lClptYfNdWeOHDmC1q1bu+qxSHtop9OJYsWKIVOmTOkCEAFHPpcvGeEKMuJTly5d1Frio7Twvummm8ICl2iCzKrvgIYL3JCcglMrEBYkPkwCJEACJEACJEACJBC3BCjIxO3W0XESIIGoEHDobwFwVY9tWw6Y3SQqltwyVAIpWvvzzz+r1tRyzah48eKqO1HZsmWVc9ISWjoWyZDCuNOmTUP+/C5dKV0Aly9fRs+ePTF9+vSICDLr169H3bp11Vq1a9eGFPmVzJ9wRqIJMs8vA+bscSMyBU4tTcXiIAESIAESIAESIAESSDoCFGSSbssZMAmQQIYEPK4t3ZQZOD8gOt2WzIKDdDCaOHEibr31Vp/uSUZMs2bNvLaWNq8VyJWhgwcPqg5NUuxXRrgZMkePHkXLli3x2WefqfWWLFmCpk2bZoj6+PHjaN++PaTbUoECBTB06FB1rcoYiSTISHel3KOBP6+7IeF1JR5HJEACJEACJEACJJDEBCjIJPHmM3QSIAEfBIbq/4OOYsanUxoCnSpGnpZZcMiVKxckS0auGmla+qP55MmTqu2ztIb2JqCY1+rRowfGjBmDbNmyeXX60qVL6N+/v6t9diQEGSkQLNefxA8ZVapUwcyZM1G6tPc2VdeuXcPYsWNVAWIZ3rJqEkmQmfoV0HmlaTs0fI+h2j2Rf6u4IgmQAAmQAAmQAAmQQLwQoCATLztFP0mABGJHwKGnAnBVpX3oLmBrh8ib92wVXbhwYQwfPhzNmzd3E1N++OEHvPTSS1i2bJlyQj6Xmi25c+d2OfX++++jceO0llAi7kyePFllrJjrx0jdmMOHD+Pll1/GO++84xbQ7NmzIVk65hGsICKtttu0aYMvvvhCLSNtvCdMmKAKCZtFJhGE3nzzTUgmz4ULF5S/U6dORYsWLcKy789fc9truU61fPlyVK5cOfIb62XFajOAz465hwenlhIT4zRCAiRAAiRAAiRAAiRgSwIUZGy5LXSKBEjAUgIv68WRGd+ZfdjcHqj+z8h6ZRYQRCA4ceKEMiDZJZIxkj17duzYsQMbN25UwoXxmbfMk/Pnz6sMmvfee8/lpLGOCB7y/JYtWyDFg2XI1aCaNWuqrBwZ3q45+RM4vNH49NNP0alTJ8iVKGM88sgjqF69uhJe5GrTmjVr1J/GkALAffv2RZYsWdyWDNa+v/m///67siNilYwyZcqoejvil1yvkro80RhbfgRqvO2x8nWUwHDtUDTscU0SIAESIAESIAESIIH4IEBBJj72iV6SAAnEmoBDl7tBjQyz0SjuaxYQZs2apUSTQYMGucQXz5CbNGmC8ePHQzJpvA3JUOnTpw9WrVqVIS3JhJHrRZIx0rBhQyUESWbLpEmTlDhhDH8Chy8ju3fvVm2v/fkhLblFCJJixN6uVwVrP5D5Ikg9//zzboKQxLFw4UJVUycaw0sx3/fh1NLSmThIgARIgARIgARIgASSlgAFmaTdegZOAiSQIYEUvSE0vG+e80NPoOjft4TCBugpIMgVowMHDqjOR6tXr1ZZJpLJ8vjjj6vrPJLx4q2FtdkRaY39wQcfYNGiRerqkGSiiMgiV3OkC5JcaypRooS6QnTmzBklxKxdu1bVehFRwujaJGsGInD4giA1YsT+u+++i+3bt+Pzzz9XU0VMkjjEFxGDMuoEFaz9QObLta1du3bhtddew7p163Du3Dnl18iRIzFw4MCw99RzgcPngbtf9/iujkZI1cwVZSJulwuSAAmQAAmQAAmQAAnYnwAFGfvvET0kARKwikCKvhsayhnm+1QFxj4eOWcCERAiZ40rWUGg7zpg3DaTZR17kKqVt8IX2iQBEiABEiABEiABErAXAQoy9toPekMCJGAnAg69E4AphkuZNeB4X6BAzsg4SUEmMhztusovF4E7xwLXdTcPO8OpTbWrz/SLBEiABEiABEiABEggdgQoyMSONS2RAAnEIwGHfhhAEcP1ftWAMXUiEwgFmchwtOsq/dcDr2518+4InFpRu/pLv0iABEiABEiABEiABGJLgIJMbHnTGgmQQLwRSNF7QsMEs9tHewP//Ef4gVCQCZ+hXVf48Veg8HgP73T0QqrmWVHGriHQLxIgARIgARIgARIggSgToCATZcBcngRIIAEIeGTJdHkAeLNB+HFRkAmfoV1XeHEV8NaXbt4xO8aum0W/SIAESIAESIAESMAiAhRkLAJPsyRAAnFEIEV/ERommz3e/gJQqVB4MVCQCY+fXZ/ecRyoPM3DOx1dkaq9aVef6RcJkAAJkAAJkAAJkEDsCVCQiT1zWiQBEohHAh4dl54sDqxuFV4gFGTC42fXp+vPB9YcMnnHzkp23Sr6RQIkQAIkQAIkQAKWEqAgYyl+GicBEogbAin609Cw2Ozv3KZA67JxEwEdjQGBeXuBNks9DOlohlRtSQzM0wQJkAAJkAAJkAAJkEAcEaAgE0ebRVdJgAQsJjBUXw4djQ0v7roVOPBvIHtWi/2ieVsQuHwVKDUROPabyR0NKzBUe8oWDtIJEiABEiABEiABEiABWxGgIGOr7aAzJEACtibg0CUfZo/Zx26VgTeetLXXdC5GBLqvASZtT2esHJza3hi5QDMkQAIkQAIkQAIkQAJxRICCTBxtFl0lARKwAQGHngpgiNmTlS2BBiVs4BtdsIzAqu+AhgvSmR8Gp5ZimVM0TAIkQAIkQAIkQAIkYGsCFGRsvT10jgRIwJYEPAr8FssD7H2RV5dsuVcxcEquKpV9E/j+nMkYC/nGgDxNkAAJkAAJkAAJkEB8E6AgE9/7R+9JgASsIODQawNYbzbdrgLwtqu6jBVO0aZVBNqvAGbuSme9DpzaBqt8ol0SIAESIAESIAESIAH7E6AgY/89oockQAJ2JODQRwP4j9m1KQ2BThXt6Cx9ihaBqV8BnVemW/0VOLUB0bLJdUmABEiABEiABEiABBKDAAWZxNhHRkECJGAFAYf+GYCqZtPbXwAqFbLCGdqMNYEdx4HK09JZ3Qan9lCsfaE9EiABEiABEiABEiCB+CNAQSb+9owekwAJ2IXAEL0CMuMr6HCdpWUKAJ93ZD0Zu2xRtPyQujEPTge+PmmyoEHHdVTEMC39BaZoOcJ1SYAESIAESIAESIAE4pYABZm43To6TgIkYAsCDr0TgClmX5rdC7z3jC28oxNRItD8XWDxvnSLd4ZTmxolk1yWBEiABEiABEiABEggwQhQkEmwDWU4JEACFhBw6G8A6Ga23K8aMKaOBb7QZNQJ9F8PvLo1nZlJcGrdo26cBkiABEiABEiABEiABBKGAAWZhNlKBkICJGApAYe+EcBjZh/G1wN6PWipVzQeYQITPgd6r0236EdwarUibIrLkQAJkAAJkAAJkAAJJDgBCjIJvsEMjwRIIEYEhuuFcBV7AeQxW5zbFGhdNkY+0ExUCczbC7RZms7EOWRFWbysHY+qcS5OAiRAAiRAAiRAAiSQcAQoyCTcljIgEiABSwik6H2h4TVvtpe3ABqXssQrGo0QgRUHgKcW+lhMx0tI1cZGyBSXIQESIAESIAESIAESSBICFGSSZKMZJgmQQBQJOPReAMZnZGFNK+CJ4lH0gUtHjcAHh4An5/tdvjec2gS/sziBBEiABEiABEiABEiABP4iQEGGrwIJkAAJhEPAuxhzCUAO87KZNWBlS4oy4aC24lkRYxouAK7r6ayn22MAFGWs2CTaJAESIAESIAESIIE4JUBBJk43jm6TAAnYgIB3MeYcbuBRZIL0WEp3jYXXl2ywbwG6kME1pb4APgGw3rNmEEWZAOFyGgmQAAmQAAmQAAmQACjI8CUgARIggVAIZCTGDNO+Vks69AEARnkuz0K/oQCP7TM+CviKEwPh1Eb/tb/3U5SJ7b7QGgmQAAmQAAmQAAkkEgEKMom0m4yFBEggNgS8F/A9jxuoiWHaHjcnfIgykWiJfeAM8PER4OTFtK9f5M9Lf//98tXY4Ii1lexZgdtzAgXkK4fp7zmBmkWAUreF55GP1tbuYoxhwqGLKLMBQG43qyz0G94m8GkSIAESIAESIAESSAICFGSSYJMZIgmQQAQJBJIZ42nOoffxn8luYAAAIABJREFUdn2pXzVgjFxsCmJ8dBiQuiYf/A/49lQQDybR1PvyA0/cA9QrDtQqGlzg/dcDr271+kxfOLVxXj9JE2V4fSk41JxNAiRAAiRAAiRAAklPgIJM0r8CBEACJBAwgVDEGFk87Rf2Tz0L/cpHze4FZjcBJOvD1/jsGDBpO7D2f8C5KwF7y4mStnJLmjjTrTLw0F2+kUg20fPLgMX7vM65hBuoCuMqmrcpFGX4vpEACZAACZAACZAACQRJgIJMkMA4nQRIIEkJhCfGeMuecIEsUwCY0QioVMid7cEzwMjNwBz3S1BJugHhh922HDCoBlDS40rTjuNAh/eBr09maCOtWDNFmfA3giuQAAmQAAmQAAmQAAkoAhRk+CKQAAmQgD8CkRdjznnpzoMpDYFOFYHTl4FRm4Hx2/w5BjxeLE3IkXoqqq5Kjr//fms2/8/H44zf/virXs5fNXNU7ZyLgAgr6773H1HvqsDAGkC+7MDUr4DOK70+422PKMr4x8sZJEACJEACJEACJEACARKgIBMgKE4jARJIUgKRF2N6Iyvew1XMAfCYJ9UH7gC+PQ1c8VGQV0QXoz6K/JkrQUWXUN+2C3+k1deR611Sa0fEGm/jlqzAffmAL3/2+vFHyIq2uIrmAMZ7zKAoE+rm8DkSIAESIAESIAESIAE3AhRk+EKQAAmQgC8C0RBjnNoElzmH/gaAboFsQNU707I6GpYMZDbnGARWHkzLNtr2U8BMJsGpdTftUS+KMgGz40QSIAESIAESIAESIIEgCFCQCQIWp5IACSQRgWiLMQZKh94JGt6C7v0KaYm8aULMv8onEfsohDprd5ow891ZH4tr0KGjC5za1HQzYvUuRCFuLkkCJEACJEACJEACJGBfAhRk7Ls39IwESMAqArH8BdyhVwewCMAd5nDz3AIMfhjoU9UqCIlpd9w2YMSnXrtVyeWlZ+HUtniNPJbvRGKiZ1QkQAIkQAIkQAIkQAIeBCjI8JUgARIgATOBWP7inaK3gaZqybiNincAc5sApfNxa6JBYP9poM0y4Ctv9WN0tEWqNpeiTDTIc00SIAESIAESIAESIAEzAQoyfB9IgARIwCAQWzGmHTS87Qm/2b3A3KbAzVm4LdEk8Ps1oM1SYPE+L1Z0tEeqNpOiTDR3gGuTAAmQAAmQAAmQAAlQkOE7QAIkQAJCwAZiTL9qwJg63I5YEui/Hnh1K0WZWDKnLRIgARIgARIgARIggTQCFGT4JpAACZCADcSYyfWBFytxK6wg8OYOoOtqijJWsKdNEiABEiABEiABEkhmAhRkknn3GTsJkIAtMmPefgpoxy5Klr6NM3cD7ZdTlLF0E2icBEiABEiABEiABJKMAAWZJNtwhksCJGAiYIPMGIox9nkjKcrYZy/oCQmQAAmQAAmQAAkkAwEKMsmwy4yRBEggPQGKMXwrvBCgKMPXggRIgARIgARIgARIIFYEKMjEijTtkAAJ2IcAxRj77IUNPaEoY8NNoUskQAIkQAIkQAIkkIAEKMgk4KYyJBIggQwIUIzh6xEAAYoyAUDiFBIgARIgARIgARIggbAIUJAJCx8fJgESiCsCFGPiarusdpaijNU7QPskQAIkQAIkQAIkkNgEKMgk9v4yOhIgAYMAxRi+CyEQoCgTAjQ+QgIkQAIkQAIkQAIkEBABCjIBYeIkEogxAYeeEzdQHBruhobCAO4EUBBAfujICw3/gI5c0HALgJsAZPnLw2sA/oSOK9BwATp+hYazAE4BOAHgJ+g4Ch0/IBMOwaldjHFk1pijGGMN9wSxSlEmxhvJ8y/GwGmOBEiABEiABEjAKgIUZKwiT7skYBAYrBdGZjwADfdDRzlouA9AkRgBOgId30LDHujYiev4EiO0ozGyHRszFGNiwznBrVCUidIG8/yLElguSwIkQAIkQAIkEA8EKMjEwy7Rx8Qi8LJeHJlRE8DDAKrFUHwJlOMRAFsBfIrr+BjDtUOBPmi7eRRjbLcl8ewQRZkI7B7PvwhA5BIkQAIkQAIkQAKJQoCCTKLsJOOwNwGHXhvAkwDqAShtb2fTebcfwFoAa+DUNsSN7xRj4mar4slRijIh7BbPvxCg8RESIAESIAESIIFkIEBBJhl2mTFaQyDtl5BmAJqo2i9BjpJ5gXvyAEVyA//8B3BHLqBADiBvdiD3zUCubED2rMBNmYEsmdIWv3YD+PM6cPkqcOEP4PzvwNnLwMlLwM8XgB9/BY6cB/53DjgolWWCH1KLZhmAxbYWZyjGBL+zfCJgAhRlAkDF8y8ASJxCAiRAAiRAAiSQ7AQoyCT7G8D4I0sgLR2/DTS0hI5igSwugkqVO4FKdwAVCgJlCwD35vtbZAlkjVDmiHiz7zSw9ySw6wSw42fgi5/SBJ2AhobvoWMBrmOura41UYwJaPs4KTwCFGW88OP5F95LxadJgARIgARIgASSjgAFmaTbcgYcFQIpekNo6AigUSDr174bqFkUeKQwUO2fgTwRuzlbfgQ+PQp8fBjY8EPAdt+HjulI1VYG/EQ0JlKMiQZVrumDAEWZv8Dw/LPH+cefVBIgARIgARIggbgjQEEm7raMDtuKgEPvBB1doaFcRn7JNaNGJYEGJYB696RdNYqHIVef1v4PWPUd8P7BtOtPGQ4de6BhMpza1JjHFwdizLVr17Br1y6sXbsWW7duxY4dO3Du3DmFqkKFCihXrhwef/xxPPbYY8ifP+hbbjFHToNAUosyPP/cfwSsPP/4w0gCJEACJEACJBCXBCjIxOW20WnLCaToPaGhV0YdkuQqUov/BzS/L02ISYQhwsx73wILv/F7tUnaaU9AqvZ6TOK2uRij6zo+/vhjDBgwQIkw/kauXLnQtWtX9O3bF/ny5fM3nZ9bTCDpRBmef/6udsb2/LP4/ad5EiABEiABEiCB0AlQkAmdHZ9MRgIp+ovQ0D8jIeahu4DnywOty8ZPJkywWymZM/P2ArN3A58dy/Bp+cVkDFK1N4O1EfB8m4sxkhXz1ltvYdCgQbhw4ULAYcnEatWqYcaMGShZsmRQz3Fy7AkkhSjD80+9WLY6/2L/qtMiCZAACZAACZBABAlQkIkgTC6VwARS9KcBDMnoalLbcsALFYHqNqsJE+1dkZoz074C5uzJwJKk8gPDkKotiag/NhdjJNaPPvoIrVu3xokTJ1TolSpVwsCBA/HQQw8hb968yJIli/r+xYsXsW/fPsydOxezZ892iTdNmjTBlClTmCkT0RcnOoslrCjD88/nC2Pp+Red15irkgAJkAAJkAAJxJAABZkYwqapOCTg0MtCQyp0NPbmfWYN6Pkg0L0yUDR3HMYXQZcPnwfe2A68/jlwXfexsIYV0JECp7Y3bNOxFWOkc9YcT5/ffgpoV953JJcuXUL37t0xa9YsNenFF1/EK6+8ArmS5GvI9aZly5ahT58+OHr0qJo2ffp0dOjQIWxkXCD6BDIQZdoiVZvr1YNYvsvBIOD5FzCtmJ9/AXvGiSRAAiRAAiRAAnYmQEHGzrtD36wl4NBTVVaMj9GvGtC3KlAgp7Vu2s36LxeBcduAV7dm6NkwOLWUkH2P5S+wKXodaPgwWDFG5u/duxfNmjXDoUOHVMHeRYsWBXT9SK45jR49GkOGpL1+kiUjV5dy505y1S/kFya2D2YgytRFqrY+LkQZnn8hvTQxOf9C8owPkQAJkAAJkAAJ2JEABRk77gp9spaAQ68NHa/5up7U5QFgYA3gn/+w1k27W//xV2DUZuCtL314mtaR5CU4tQ1BxRJLMSZVL4Pr+ARAHrOP/jJjjLnSSal69erqn23atMGkSZMyzI4x2zCLOcWLF8fixYtRtmzZoFBxsnUEfIgy55AZjyJF+9q2ogzPv4i8NFE7/yLiHRchARIgARIgARKwCwEKMnbZCfphDwIOfTSA/3hz5sniwNBHgUqF7OFqvHix4zgw9BNgzSGfHr8CpzYgoHhiKcaIQw5dxJhHzL5NaQh0qhiQt6q1tSHI1KtXT9WHue222wJ6+OzZs2jVqhV+/fVX3HrrrRg5ciQqVnQ3PGzYMKSkpCUabdmyRRUBPnLkCCZOnIjVq1fj4MGDyJMnj6pX89xzz6Fx48bIkSNHQPb/+OMPbNu2TV2f2rx5s2rXLUPac9eoUQPPPPMMqlSp4qqB421Rs3/z5s1T8WQ0Ap1/6tQpLF++HCtXrsRnn32mWofLNbDKlSujbt26Ks4SJUpA0/z/T9yNGzfwxRdfYOHChSHH6SumqV8BnVem+3QTnNqjPjnE+h03O8LzL6CfjWAmRfT8C8Yw55IACZAACZAACcQFAf//tRoXYdBJEgiTwBC9AjJhEoCqnivddSswsnZa1ySO0AlIV6ZBG4Bjv3ldYxtuoBuGaWm/9Xsbsf5FNa217wSzK86aQIqbPJMxDxFEnn32WezZs0cJBtJtSYSRQISCQEh7CjLHjh1Dt27dlEDhbUhB4QkTJqBq1ao+fZAaNl999RV69eqlBKWMRoMGDfDqq6+iVKlSXqcFKrAYD/ubL1e55s+fr+rr+IrRWOull15SxZNFkPI1pEZP7969legUTpwZPZu6CXB87DFDR68MW8LH+l3n+RfIj1tYc8I+/8KyzodJgARIgARIgATsSoCCjF13hn7FjoBD7wQNb0FHup+HbpWBMXUSt3117CCnWZJ2sf3XA5O2e7GsQYeOLnBqU9N9GutfUAfqeZEVx6DhFsOXVmWBeU2DIyZZJv3798d///tf9aCIAwMGDFDXlwoUKBC2MGMWMPr166fqzIhQUbhwYTz55JPqz2+//VZlyxgChnxPujg98kh6ZclbQWERkmrVqqW6Q12/fl1lpIhQY7TwlpbcU6dOxcMPP5wOjj+BxfMBf/Mli6VTp04u2xKDZCCJj+KPZAlt2rTJtawUVB4zZgxuucW1ja7PvvnmG3Ts2FFlx8gwxyn/3r17NzZu3OjiJtlAcuXMM0spkDei9VJgvrmMtY4ruIq7MEo76/P5WL3zPP8C2cKIzAn5/IuIdS5CAiRAAiRAAiRgRwIUZOy4K/QpdgQc+hsAunkaLJYHmFAPaFAidq4kk6VV3wG91gLfe0/kmASn1t3FI1a/mJo3IEX/NzSkqShIE+QOdAfuCqFu0P79+9GuXTvXL/7GmiImiGgiYoeIGjlzBl8d2ixgGOs6HA6IOGO+mvTLL78oYUiuTMmQq01yhahIkSJur92XX36pihAb3Z1EOJKrUnfeeafbvB9++AGSgWJklohYIWtLrRvz8CeweL7zGc2XtuFt27bFhg0blNAk4sgTTzyBTJkyuZaR60cffPCByhKSGERkER+FsXkIDxFjRKiS0b59ezidznRxnj59Wgk6r732mppXv3591fHq9ttvD+rH9divQKk30gRJ19DRA6naxAwXiva7z/MvqH2M1OSgzr9IGeU6JEACJEACJEACtiRAQcaW20Knok5guF4IV1Ub48c8bbWrALzxJLNior0H8stp9zXATO+XlD5CVrTFVTQHMN7Dl3O4gUcxzEdhVJns0O8HIN1sPO+r9IZTc7uG5DVOh74NwIPGZyNrpRVyDnUcOHAAPXv2xIcfpmvW5FpSarPIL/xSa6Z8+fIB1XrxFGSkM1Pfvn291nU5efIkOnfujBUrViibY8eOVdd1jOtTV65cUf+eMmWK+rxr165KjPBVc8ZzPekIJWJQ5syZXTFFUpD5/PPPVX0YyYSRq0iyttmWYVSyfMaPH684yJB5gwcPdsXp+bm/OKV1uYhZkydPVuvJla8ePXoEnd0kBa4HbXR7gz6HU0t3RTLdOxYNUSYr3uP5F+pPc2SeC+j8e1k7HhlrXIUESIAESIAESMCuBCjI2HVn6Ff0CAzVH4KO+QDc0wMABFOwNXoOJtfKPgqfCgTJn/EUVKIvxqSJdT+Zd+FwL6DI/4W3LyJ4rFq1ShXclSK5GQ252iTZKfKLf9GiRX3+8m8WPGrWrKmyVAoV8l11Wq7gSAttETU8iwzL1abmzZtDMnpKly6titz66+r06aefokWLFpDsFSkcvGDBApW9YoxICjLmAsnCRcSibNmyecUoNXBkTv78+fHUU0+puj033XSTmmvOtAk0TnPHq2CLMxsOHvn/gKKeUmBW3IlAfumOvCjj7WeL5194P+IhPZ3B+XcEGlphqPZZSAvzIRIgARIgARIggbggQEEmLraJTkaMQIr+NDQsBJDFvGaZAsCMRuygFDHOQS4knUg6vA98fTLDB6Mvxoj5IXo1ZMIWw5P7CwJfdQ4yoAymy7UaKb67du1aVaPEXKfE8zG5ciNZJ5LF4a0Oilnw8MwE8ebCmTNnlNAjtgsWLKi6FBk1URYtWqTEFRmSSSNZJt5smteVDlBy9UdacsuQDKA6deq4pkRSkDELRsJFukt16NABuXPnDmpzRNiRq04iSgXaitwcpye3YIxXnALsPGF64gaqY5iWceVkY3rkRRmXIzz/gtnFyM/N4Py7Bh0tkKotibxVrkgCJEACJEACJGAHAhRk7LAL9CE2BKR4JZB2H8M0mt0LzG7CK0qx2QTfViSF//llwOJ9Xudcwg1Ujeo1JcPsUL3lXxlU6jtNSwNLno0eHekc9NNPP6msGRFIvAk0vq4imQUPTzHEm8e///67uspjXL+RLBjpAiXDvNa4cePU9SV/Q67/SO0V+ZIhXaREzDFGJAUZKZAsV4/kqpV5SH0Y6fZUu3Zt1erayITx5fucOXPw/PPPq4+llo5kvGTNmjXDUK9evapELKPrlFz7atSokT886T5/ehGwdL/p22kZEAsCXig8UeZTAOl6nvP8C5h+VCf6Of86ey12HlWPuDgJkAAJkAAJkEAsCFCQiQVl2rCegEPvI2UzPB3pVy2tixKHfQhIF6ZXvecM9IVTG+fV03BrxpgXjbEg4xmP1CxZs2aNaie9Y8cO9bFkhEgWitRQMQ/PttciMPgb3kQST6FGCv62atXK31Lqc8mkkTbUMlJTUyG1ZIwRSUFG1pRCvVKw1yjG6+mgXPWSOjwiMtWoUQO33npruhi8FUIOKFDTpGD4mNcOW5CRxUIRZXj+BbvFls0P6fyzzFsaJgESIAESIAESCJcABZlwCfJ5+xNw6AMAjPJ0dHw9oJerbKv9w0gmDyd8DvRe6zXigXBqo90+SRNjNgBwv7ui4yWkaulEOL8co3xlya/9vyYcP35ciQ9GEV5v14gMcaFcuXKQK0fSrcnf8CaSeBb0DUZwmD9/Plq3bq3MRluQERsiWEmWy5tvvomvv/7aZ7gizrz88svo0qWL29UrKwWZsK4smSNN0ftCQ1rrp7+HXOl7DMO0PR4/Hzz//P1Q2OzzoM4/m/lOd0iABEiABEiABIIjQEEmOF6cHW8EfIgxc5sCrcvGWzDJ5e+8vUCbpV5j/luUiWRmjGEqQkV9pbDsoEGD8Ntvv6l20NKmWTJdghnr1693ZcXIlRwpmpsvXz7XEoa4EExdk0hnyIwaNUrFKSMWgowRvFGLR7KJ3n//fXWdSOrCeI4BAwZg6NChrgLA5vg9/Q1mb4KdG1ZRX2/GAsmU4fkX7DbZZn5A559tvKUjJEACJEACJEACoRKgIBMqOT5nfwI+0vSXtwAal7K/+/QQWHEAeEpKMKcf0tP4k7BaW2cEOAJtr0WQadiwoerqU6VKFbzzzjuqY1Iw4+DBg+r6zZ49e+AtC8YsLmzatAkPP/xwhst7ZsKY686EUkPm+vXr6oqSiDIyZs+ejbZt27p8CObKUjjXpsTgn3/+qTJmRKCZMWOGut4kQ8Sq5cuXo3Llyurf0tZbsmZkSJ0cqc/jr+5MMHvma27Iba8zfk97+WwLnwlyGTNdhhjPv0jsZmzWyPD883V9Mzau0QoJkAAJkAAJkECECFCQiRBILmMzAl4K+GbWgJUtgSeK28xXupMhgQ8OAQ0XANf1dNMueSlS2htOzbO5cPCEU/R/Q8N/jQezZwUOdAfu+kfgS/3888+qDssnn4huBARzDciwYm63nFGGjMz3LKjrzVOzT5K1I3VpjNbWoXRZOn/+vOp0tGzZMmUunC5Lkt0iV7SkdXeovIyYpUiyiC5GrRkzG8+sI7n+JKJNNMexX4FSbwBSuNU1dPRAqjYxbLveM2XS/Wzw/AubtCULZHD+sdCvJTtCoyRAAiRAAiQQWQIUZCLLk6vZgUBaa+u0PrymsaYVxRg7bE8oPsgvJU/O9/tkZMQYMTNQz4usOAYNtxhWW5UF5jX164NrgmSPSPchyRKRIVkyM2fOROnSpQNaRJ4fM2aM6zpQjx491L+zZcvmet6cgSKZKRMnTvRayNZ4QASTZs2aeW35bG4rLT5KByZDrPHl8KeffqpaZfvKAjL7N3LkSAwcONBn7Gb7MsksYEn2y5IlS5Tgc+DAAbzyyit+s4F82ZbMmZYtW+Kzzz5Tvsi6TZtmvLFSz6d9+/aQbksFChRQV6ACqddjBNt6KTB/ryl0HVdwFXdhlHY2oJfB3yTvogzPP3/c4uRzn+efjmZsiR0nm0g3SYAESIAESMAHAQoyfDUSi8BQ/SHo2AQgizkwpunH/zZnkL4vwfnuwBRq6Cl6T2hwy7Zx1gRSHgl8QclwEcFi//60XsfSBWnChAmoWLEiNM338Sv1UUQo6Nevn7p6E0iXJZkjmSDPPfec17VPnjypWlIbRYI9M3akrXT//v3x3/+mJQZ17dpVCUA5cqTrlKw+91xP6siIAJUly98/euasmyZNmqirRLlzu9delrWk9bdcHTJ3aPL0z9zNSVp3jxgxwk2cMu+K59Usc5vqYIUy8U1abUstGhmSqRRMVk3qJsDxscc7o6MXUrXXA3+TApjp44qmPMnzLwB+Np/i4/y7Bg2PYKiWpi5ykAAJkAAJkAAJxB0BCjJxt2V02CeBtGKsWwAUMc9hAd/EeWd8FLo8h6woi5e14xGP1KHLfSM3CWZKQ6BTxcAs6bquasfI9Rmj4KwIJyJOtGvXDmXKlFECRaZMmSAizNmzZ7Ft2zZMmzYNq1atchnp3r27EkduucWVsKM+8+wYVLhwYQwfPhzNmzd3Eyt++OEHvPTSS66rRfK51FLxFEc8BSQRdySzpUgRtx8peK7nK/vHM+tFMktE9DHHIUWPX3/9ddXm21yU11OQMa8lDFNSUvDiiy+mE4xEWJo6dSoGDx6s1qtZs6a6BlWoUCEXz0OHDqFNmzb44osv1Pd8CWXS0Um6OUnxX1lL7MraIrIFMqZ+BXRemW7mJji1RwN5Pqg5aeef5OHk4fkXFLm4mezj/DuCrKgelfMvbsjQURIgARIgARKIXwIUZOJ37+i5JwGHvhHAY+Zvs7V14r0mPlrCfgSnVivi0abqZXBdFQ92+yX37aeAduUDsyYZFpK5Ihkk3roA+VvlhRdeUNkj0sbZc5gFGamDIleHZIhAIpkc2bNnx44dO7Bx40aX7YyuTomAJPVg+vTp4yqKKyJErVq1UKlSJUh2iVz1MXc0kqs7IlJ4KyjsLfNF5jdq1Ah58+aFiCxS5+XcuXPK53/9619KZJHhKciIb5K906uX1LFNGyJAPfroo65rYD/++KOKVYohyxBmwl4EKM8h1606derkmiufP/LII6hevboSXiQzSQoEG8WB5XPZB8nOMWcB+dq/mbuB9svTfXoOmfEoUjTf/br9vRC+Puf5Fyq5uHoupudfXJGhsyRAAiRAAiQQnwQoyMTnvtFrTwIO/Q0A3czf7lcNGCN9RjgSjkD/9cCrW9OFNQlOrXvEg03R60DDh57rBiPKiJiwa9cuOBwOt8yXjHwV4UKyQJ5++mmfV3PMgsysWbOU6JKR8COZOXL1R4QMX0N8lSwdET5EzMloNGjQQGW2lCrlu22Z+CRZNiJm+Bp169ZVWTKSISSCiAxvRZBF4JHsoZdfflmJOP74yfWwxx9/3Of1sN27d6trUuZsJG9rirAjWTIdO3b0uRfm53yIMYCOukjV1kf8HeX5F3Gkdl4wpuefnUHQNxIgARIgARJIAAIUZBJgE5M+BC8dlZrdC7z3TNKTSWgAzd8FFu9LF2J0Oo+k6G2gYU44oow8K9eSjh07hrVr16ruS5LJIUKNMR588EHcf//9aNy4MWrUqJHuipKnfc+20lKsVoreTp8+XWWeyPoi7IgoIddsJAtFrkcFMuTqj2SRLFiwQLXdNvwUHyX75qmnnkKFChUCWk/i3rdvnypqbPglIodk3ohfTzzxhIpVMm8yEmQMv0+dOqVaWX/wwQeqPo+RESOxVq1aVRUulswZX/VvzPGLyCNXl959911s374dn3/+ufpYRCvhJWKRtC/Pnz9/INiQgRjTFqlaWgupSA6ef5GkGTdrxfT8ixsqdJQESIAESIAE4o8ABZn42zN6bCYwRK+AzPgKOlzvcpkCwOcdAWlVzJG4BKSF8IPTga9PmmLUoOM6KmKY9rfKESkEKXo7aHjbc7lgMmUi5YqxjqcgI222OawjkIEY0x6p2syIe8bzL+JI42XBmJ9/8QKGfpIACZAACZBAnBGgIBNnG0Z3PQg4dOkuUdX83e0vAJX+rt9JZAlMYMdxoPK0dAFug1N7KCph20yUoSATlV0OadGYizHiJc+/kPYqUR6K+fmXKOAYBwmQAAmQAAnYiAAFGRttBl0JkoBDl6IU/zE/FUwHnCCtcbpNCfjoZPMKnFpan+JIDxuJMhRkIr25oa1nkRjD8y+07Uqop2J+/iUUPQZDAiRAAiRAAtYToCBj/R7Qg1AIOPTaANyKY7arALzdOJTF+Ey8E2i/ApiZ/pJSHTi1DVGJzSaiDAWZqOxuUItaJMbw/AtqlxJ7cszPv8TGyehIgARIgARIIKYEKMjEFDeNRYxAir4bGsoZ6xXLA+x9kXVjIsY3zhaSegpl3wS+Nzfe0bEHqVqAzalDCNgGogwFmRD2LYKPWCLGiP88/yJSBDt3AAAgAElEQVS4i/G/lCXnX/xjYwQkQAIkQAIkYAsCFGRssQ10IigCDj0VwBDzMytbAg1KBLUKJycYgVXfAQ0XpAtqGJxaStRCtViUoSATtZ31u7BlYgzPP797k4wTLDn/khE0YyYBEiABEiCBCBOgIBNhoFwuygQcelkAe8xWulUG3ngyyna5fFwQ6L4GmLQ9navl4NT2Ri0AC0UZCjJR29UMF7ZQjOH5Z82Wx4VVS86/uCBDJ0mABEiABEjAvgQoyNh3b+iZNwJD9eXQ4aoUc9etwIF/86oSX5Y0ApK6X2oicOw3ExENKzBUeyqqjCwUZaIaFxdPR8AyMUY84fnHNzIDApadf9wVEiABEiABEiCBkAlQkAkZHR+MOYEU/WloWGy2O7cp0Fr+P2MOEviLwLy9QJulHjh0NEOqtiSqkCjKRBWvHRa3VIzh+WeHV8D2Plh2/tmeDB0kARIgARIgAXsSoCBjz32hV94IeBSyfLI4sLoVUZFAegL15wNrDpm+H+0Cv4YpijIJ+zpaKsYIVZ5/CftuRTowy86/SAfC9UiABEiABEggCQhQkEmCTU6IEFP0F6FhsjmW7S8AlQolRHQMIsIEdhwHKk/zWFRHV6Rqb0bYVPrlKMpEHXGsDdhAjOH5F+tNj2N7lp5/ccyNrpMACZAACZCAFQQoyFhBnTaDJ+DQDwMoYjzY5QHgzQbBL8MnkofAi6uAt750i/cInFrRmBCgKBMTzLEwYrkYI0Hy/IvFVieUDUvPv4QiyWBIgARIgARIILoEKMhEly9XjwSBFL0nNEwwL3W0N/DPf0Rica6RqAR+/BUoPN4jOh29kKq9HpOYKcrEBHM0jdhCjOH5F80tTti1LT//EpYsAyMBEiABEiCByBKgIBNZnlwtGgQ8/t/hftWAMXWiYYhrJhqB/uuBV7e6RRW7LBkxS1Embl8pW4gxQo/nX9y+Q1Y7bvn5ZzUA2icBEiABEiCBOCBAQSYONimpXXTonQBMMRhk1oCf+gK350xqKgw+QAInLwKFxgLXdbcHOsOpTQ1wifCnUZQJn2GMV7CRGMPzL8Z7n0jmbHH+JRJQxkICJEACJEACUSBAQSYKULlkBAl4dBbpUxUY+3gE1+dSCU+g7zpg3DZTmLHquGQmS1Embt4z24gxQoznX9y8N3Z11Bbnn13h0C8SIAESIAESsAEBCjI22AS64INAit4QGt43f/pDT6BobhIjgcAJHD4P3O1ZNUZHI6RqKwNfJQIzKcpEAGJ0l7CZGMPzL7rbnRSr2+b8SwraDJIESIAESIAEgidAQSZ4ZnwiVgQc+goAjQxzbcsBs5vEyjjtJBKB55cBc/a4RfQ+nFrjmMdIUSbmyAM1aCsxRpzm+Rfo1nGeHwK2Of+4UyRAAiRAAiRAAukIUJDhS2FPAi/rxZEZ35md29weqP5Pe7pLr+xNYMuPQI23PXy8jhIYrh2Kuec+RJnJ9YEXK8XcGxoE8OYOoOtqLyh0tEeqNjPmkHj+xRx5Ihu01fmXyKAZGwmQAAmQAAmEQICCTAjQ+EgMCDj0VABDDEsP3QVs7RADuzSRsASqzQA+O+YW3jA4tRRLAvYhyrCDWOx3w0snmjQnrBJjxDbPv9i/CAlu0VbnX4KzZngkQAIkQAIkEAwBCjLB0OLc2BEYqv8POooZBqc0BDpVjJ15Wko8AlO/Ajqbq8Zo+B5DtXssi9SHKNPsXmBuU+DmLJZ5lhSGf78GtFkKLN7nJVwrxRhxh+dfUryDsQzSdudfLIOnLRIgARIgARKwMQEKMjbenKR1zaHXBrDeiP+mzMD5AUD2rElLhIFHgMDlq0Du0cCf190WqwOntiECy4e2RIreBhrmeD5c8Q5gbhOgdL7QluVTGRPYfxposwz46mevYkxbpGpzLWPI888y9Ils2JbnXyIDZ2wkQAIkQAIkECABCjIBguK0GBJw6G8B6GxYZDHfGLJPcFNeiltOgVPrYmnYDr26EmV0FDX7kecWYPDDgLR654gcAWmBPuJT4NwVjzU1HIaOtnBqWyJnLYSVeP6FAI2PBELAludfII5zDgmQAAmQAAkkMAEKMgm8uXEbmkM/CSC/4f/KlkCDEnEbDR23EYFV3wENF7g5dApOrYDlLg7WCyGLypR5zNOXEnmBgTWAf5W33Mu4dmDWbmDUZuC7s17D+AjX0BYjtOOWB8nzz/ItSFQHbHv+JSpwxkUCJEACJEACARCgIBMAJE6JIQGPdP282YEz/WNon6YSnsBtY4Czl93CtPbaktkVhz4dgNfy1VXvTBNmGpZM+C2KaIArDwIjNwOf/+Rz2Rlwah0jajTUxXj+hUqOzwVIwNbnX4AxcBoJkAAJkAAJJBIBCjKJtJuJEItDHwegtxFKuwrA240TITDGYBcC7VcAM3e5eTMeTq2PXfxDiv4faJDuT9m9+XR7TuCJ4kC9e4An7gFyZbON57Zw5MIfwAf/A9YeSvvzl4s+3boMHalI1V6xhePiBM8/22xFojpi+/MvUcEzLhIgARIgARLwQYCCDF8NexFw6NLzpLTh1JJngaauf9nLVXoTnwSW7geeXuTm+344tXttFc1APR9uwkCzOOnLv8eLAZUKAQVyAiLWFMjx999vTVCx5rc/0oSWk/J16e+/7zgOrPs+oJ0cjz8xCqO00wHNjtUknn+xIp20duLi/Eva3WHgJEACJEACyUiAgkwy7rpdY35ZL47M+M7s3qXB7K5k1+2KV7+k20iOER7eX0cJDNcO2S6mYXpJXMMgAG1t51t8OjQHWTASQ7SDtnOf55/ttiQRHYqr8y8RN4AxkQAJkAAJkIAHAQoyfCXsQ8ChdwIwxXCo9t3Aev4aap/9SSBP6swBNvzgFlBnOLWptg1xqP4QdHSDjiegIbdt/bSnY+cArIWGSRiqfWZPF9V1JZ5/tt2cxHIs7s6/xMLPaEiABEiABEjAjQAFGb4Q9iHg0OcBaGU4NKIWMKiGfdyjJ4lDQIq8Dt7oFs98OLXWcRFhil4LGuoBeALAfXHhc6yd1PEtNHygvoZqH8XafEj2eP6FhI0PBU8grs+/4MPlEyRAAiRAAiRgawIUZGy9PUnmnEM/DKCIEfXm9kD1fyYZA4YbEwJbfwSqv+1m6gicWtGYGI+kkaF6KdxATWiQ1t3ydftffxp/91oYOJIuWLSW9Mn6BcDJv77S/q7jJDLhYwzVDljkV+hmef6Fzo5PBkUgYc6/oKLmZBIgARIgARKwJwEKMvbcl+TzarBeGFlwxAj8pszAH0OSDwMjjh2BbMOAP6+b7F1DEYzQjsbOA1oigb8I8PzjqxBjAjz/Ygyc5kiABEiABEjABwEKMnw17EEgRX8aGhYbztQoDHzazh6u0YvEJPDwTGCzWX7R0Qyp2pLEjJZR2ZoAzz9bb08iOsfzLxF3lTGRAAmQAAnEIwEKMvG4a4nos0OXvjfSTUaNPlWBsY8nYqCMyS4E+q4Dxm1z82YknNpgu/hHP5KIAM+/JNpse4TK888e+0AvSIAESIAESICCDN8BexBI0VdBQ33DmblNgdZl7eEavUhMAvP2Am2WmmLTsRqpWoPEjJZR2ZqAReffwYMH8eyzz2LPnj0B43nwwQdRpEgR1K5dGw0bNkT+/PkDfpYT7UOA55999oKekAAJkAAJJDcBCjLJvf/2id6joOWeF4GyUpaUgwSiRGDvSaDcm26Lx2dh3yjx4bIxJGDR+ReKIGOmkidPHrz00kvo1asXbrnllhgCSyxTp0+fxpQpU5Q4Vrx48ZgEx/MvJphphARIgARIgAT8EqAg4xcRJ0SdgEPPCeCC2c7VFCBLpqhbpoEkJnDtBpA1NR2AXHBqF5MYC0OPNQELz79wBRkDVdeuXTFmzBjkyJEj1vTi2t4ff/yBmTNnYsKECbj55puxaNEilCxZMiYx8fyLCWYaIQESIAESIAG/BCjI+EXECVEnMESvgEzYadgpmRc48O+oW6UBEkCpicDBsyYQN3A/hmm7iIYEYkbAwvPPLMiUK1cuIEHg119/xZYtW+B0OrFjxw6FKVeuXJg6dSpatGgRM2yJYOjs2bNo1aoV1q1bh0D5RzJunn+RpMm1SIAESIAESCA0AhRkQuPGpyJJwKPDSP3iwKpWkTTAtUjAO4EG84HVh0yfsdMSX5VYE7Dw/AtFkDHwHD9+HN26dcOKFSvUt5o0aYIZM2Ygd+7csSYYt/asFmR4/sXtq0PHSYAESIAEEogABZkE2sy4DcWh9wEw1vC/W2XgjSfjNho6HkcEuq8BJm13c7gvnNq4OAqBrsY7AQvPv3AEGcG+dOlSPP3002oHChYsiJUrV6JixYrxviMx899qQYbnX8y2moZIgARIgARIwCcBCjJ8Oawn4NDlF+DehiOv1AH6V7PeLXqQ+ATGbAX+s94tzvFwaiIQcpBAbAhYeP6FK8h41qD58MMPUadOndhwSwArVgsyPP8S4CViCCRAAiRAAnFPgIJM3G9hAgTg0N8B4Co+wJbXCbCncRJCutavwEI4tefixH26mQgELDz/whVkzIKCbMW8efNUTRRv49SpU9iwYYPKohG7u3allWqS+jPly5fHI488oroM3XvvvciUyXtF92HDhiElJcVVbyVfvnyqds2sWbPUmrJGs2bN8NxzzyFv3rxubty4cQNffPEFFi5ciM2bN7vsV6hQATVq1MAzzzyDKlWqIEuWLD7fKk/7UoBX4nr33XexfPlybN++HRcuXICsWb9+fbRs2RKlSpWCprn/p9bWrVtRvXr1DN9eqdNTrVp0/58Jnn+JcIAwBhIgARIggXgnQEEm3ncwEfx36BsBPGaE8mEboE6xRAiMMdidwPrvgbpz3bz8CE6tlt39pn8JRMDC8y9cQebAgQNKyPj666/VhmzatAkPP/yw2+ZcuXIFb731FoYPH45z58753Tjp2CTCh7TU9hxmQUQ6E8mXUcPGmFu6dGm89957uO+++1yPHz16FL1798ayZcsytN+gQQO8+uqrSkTxNjwFmX379mHgwIFKDPI2RGzq2bMnBgwY4NaByi6CDM8/v68jJ5AACZAACZBA1AlQkIk6YhrwSyBF3w0N5Yx5X3UG7i/o9ylOIIGwCew8AVScYlpGxx6kauXDXpgLkECgBCw8/8IVZMw1ZLx1Cbp06RL69++PyZMnu2hI9kjt2rVVBsv169exe/dubNy40U2sGTRokOri5JmtYggiUq/m9ttvV1kukqXSqFEjlWkjgpBkuZif/eabb9CxY0eVHSND5tWqVQuVKlVS//a0L89PmjTJay0cw36ZMmVQr149JTRJRozhg8Qk4s+aNWvUn8YQ4ahHjx6uTJlDhw6p+jsiVkl2zf79+1UNnjZt2riEqKZNm6J48eKBvkUhzeP5FxI2PkQCJEACJEACESVAQSaiOLlYSAQc+mEARYxnf+gJFGWjjpBQ8qHgCBw+D9z9utszR+DUiga3CmeTQBgELDz/whFkRERo166dS+j417/+hTfeeMMtE0SyV0RkENGicOHCmD59Oh577LF0V5JEuJHMFBFSZPhqAW0IIgbtF154AaNHj3aJGHIt6erVq8iWLZua8ssvvygxZvXq1erf7du3VzbuvPNOtw07ffo0xowZg9dee019X64bia8i+piHp32JSTJ/mjdv7rIp8yUTSLJipk2bph5/9NFHMX/+fNxxxx1u61ldQ4bnXxg/t3yUBEiABEiABCJEgIJMhEBymTAIpOhnoMF14f90f+C27GGsx0dJIEACZy4D+caYJus4i1TttgAf5zQSCJ+AhedfsILMn3/+CWl3LfVSpkyZ4rqqI8KECA7mmicisnTv3l3Vd5EhtV5EHPGsp2IAPH/+PDp06OC6VuTt+pNZEJGrSVIPpmzZsl73QNd1jB8/Hn379lWfy1UoEV1y5Mjhdb5nNo9nVos8ZLYvmTaSISP1arzF9NNPP6kaMlKvRoa3eKwWZHj+hf/jyxVIgARIgARIIFwCFGTCJcjnwyfg0C8BcEkwlwYD2bOGvyxXIAF/BC5fBXKMcJt1GU7N+29s/hbj5yQQCgELzz/PLkmhuC/CxJAhQ1SNFvMVIyl2K1eVpF6KiCMzZsxQWTK+hlxfknVGjRqlpngrEGwWRCTzRq4WiX1v48SJE2jbtq0qJOxPvDGe37t3ryoKLFeK5ErS3Llzcdttf+uzZvtNmjRRMeXO7T2dU8QryZIRUchXPFYLMjz/Qnnj+QwJkAAJkAAJRJYABZnI8uRqoRBw6FcBuFpbXE0BsnhvshHK6nyGBHwSuHYDyJrq9vE1ODXKgXxnYkfAwvMvXEFGaqc4HA51ZSej7kSBwjQLHv4EGbErX74ybkQIeuKJJ9R1KX/ijeHfr7/+qrJ4Fi9erGq6SEeoihUrutw3+yfFfOXfmTNn9hmev3isFmR4/gX6ZnIeCZAACZAACUSPAAWZ6LHlyoEScOi6eao+NNAHOY8Ewiegeb5vTo8eteGb4Aok4JuAhedfsIKMdD6S+i4PPvgg6tatqwro3nLLLSHv7sWLF3Hs2DFVnHft2rWq1ovRicmfIDN79myVAeNrzJkzB88//7z6WK5SScZL1qwZa61Sf0b8EDFHhtTAkYLBxjALLHJdqXPnzhnGbndBRpzn+Rfy68sHSYAESIAESCAiBCjIRAQjFwmLgIW/kITlNx9OCAL8hSQhtjF+g7Dw/Au2hkyokKXYrlwD2rJlC3bu3Km6Cu3ZsyfDNtj+BBlvn5v98yzAG4rvnjb8CSyeNvzNtzpDhoJMKG8FnyEBEiABEiCByBKgIBNZnlwtFAIWpuyH4i6fSRwCTNlPnL2M20gsPP+iLchI7Zht27apWipGcVtf+yStqKWOzCeffKKmUJCJ/hvN8y/6jGmBBEiABEiABPwRoCDjjxA/jz4BC4taRj84WrAzARa1tPPuJIlvFp5/0RRkRIxZtGgRunXr5pYJY1x7euCBByA1aKRGyz333IOcOXO6dTGKpCCTmpqqCgaHO/xlvHiu72++1RkyPP/CfSP4PAmQAAmQAAmET4CCTPgMuUK4BCxs+xqu63w+vgmw7Wt8719CeG/h+RdNQebIkSNo3bq1qx6LtId2Op0oVqwYMmVKX7VdBBz5XL5khCvISFvuLl26qLWkA9To0aNx0003hfXK+BNY4k2Q4fkX1uvAh0mABEiABEggIgQoyEQEIxcJi4BDPwygiLHGDz2Bot47iYZlhg+TgCeBw+eBu193++4ROLWiJEUCMSNg4fkXTUFGWkJLxyIZUhh32rRpyJ8/v0+sly9fRs+ePTF9+vSICDLr169XhYdl1K5dG1LkVzonhTMSTZDh+RfO28BnSYAESIAESCAyBCjIRIYjVwmHQIq+GxrKGUt81Rm4P7z/bg7HGz6bRAR2ngAqTjEFrGMPUrXySYSAoVpNwMLzL5qCjFm8COTKkGfHp3AzZI4ePYqWLVvis88+Uzu8ZMkSNG3aNMPdPn78ONq3bw/ptlSgQAEMHTpUXasyRqIJMjz/rP7hp30SIAESIAESACjI8C2wnoBD3wjgMcORD9sAdYpZ7xY9SHwC678H6s51i/MjOLVaiR85I7QNAQvPv1gJMj16/P/snQmYVMX1t9+Sxd2IBElQBGMQl08QUVxY1KjBBcQFVwTDqOCuQCSiOD09CCoqYAQVUIkLxh0VRIxbRBEFDUISXIiK4hI3/Bs3FPB+T92xx56e7unbPb3c5Xefx0elq06d857iTvVvqk6dz/jx49lwww3TYv/mm28YOXIkN9xwQ+3njRVkbIFge/zJiij2sVd0z5gxg5133jmtD+vWrePaa691CxDbJ92umrAJMnr/+eYtIEdEQAREQAQiTECCTIST75vQY85fgRMT/txxDJzSyTfelc2R5MX/0KFDmThxIhtvvHE9fwrdrmwBl2HgO5fBwAfrDHw3cXNSGVzRkFElUMb3XzEFmUceeYR+/fq5Wd18881dscXuWEmuH2PrxrzzzjuMHj2av/7V/hj4+bntttsYNGhQnT/LVRCxV20PHDiQl156ybXTvXt3Jk2a5BYSNubn5Y8VhG688UbsTp6vvvrK9XfatGmceGLtjyW3f67jZ2ufXNTXHqd66KGH6NatW8n+Juj9VzLUGkgEREAEREAEMhKQIKPJUX4CMWeCrbuYcOSqQ2Bk9/K7VW4PCi20eLVX7rhLOf74BfCnJ+qMOJG4GV5KHzRWxAmU8f1XTEHmiy++wArJ9913X22C7S4Vu/PECh5W+Hj++ed59tln3c/t0aADDzyQm266yf3/dMecsgkc6WbS/PnzGTJkCDbWxLP//vvTo0cP1w97tGnu3LnuvxOPLQA8YsQImjZtWsdkruNna79mzRp3nMTOoN12282tt2P9sserOnToUNS/HHr/FRWvjIuACIiACIiAJwISZDxhUqOiEog59gvwtYkxzukGkw8v6oiBMO5VQCl0u0DAKZCT586FKYvqGBtB3FiBUI8IlIZAGd9/xRRkLDy7Q2X48OHMmTOnQZZ2J4w9XmR3jPTt25ePPvrI3dkyZcoUV5xIPNkEjkyDvPrqq+6119n8sFdyWyHIFiNOd7wq1/G9tLeC1KmnnlpHELJx3H333ZxwwglFnYN6/xUVr4yLgAiIgAiIgCcCEmQ8YVKjohKodI7FcH9ijCM6wJwBRR0xEMYLLbR4tRcIOAVyss9MeHRFkjGH/lSbBwpkXmZEIDuBMr7/ii3I2OC/++47HnvsMe655x736JDdiWJFFns0x96CZI817bjjju4Ros8++8wVYubNm+fWerGiRKdOP59f9SJwZAJua8TY8e+9914WLVrEiy++6DZt166dW1/G+mLFoIZugsp1fC/t7bGtJUuWcM011/D444+zevVq169x48YxatSo7POnES30/msEPHUVAREQAREQgQIRkCBTIJAy0wgClzld2IB/JCx0bAmvn9cIe+oqAh4J7HQ9vPF5UuMf2YMxZonH7momAo0noPdf4xnKQl4E9P7LC5s6iYAIiIAIiEBBCUiQKShOGcuLQMzZDPgque/aSmi6QV7W1EkEPBFY9yM0q67XdHPi5mtPBtRIBApBQO+/QlCUjRwJ6P2XIzA1FwEREAEREIEiEZAgUySwMpsjgZjzDtA+0WvpWdCpdY421FwEciCw7GPofGOdDiuJm+1zMKGmIlAYAnr/FYajrHgmoPefZ1RqKAIiIAIiIAJFJSBBpqh4ZdwzgUpnDoYjEu119bVncmqYJ4F6V746PEq16ZOnOXUTgfwJ6P2XPzv1zIuA3n95YVMnERABERABESg4AQkyBUcqg3kRiDljgUsSfYfvC9f2zsuSOomAJwIjHocJC+s0HUfcXOqpsxqJQCEJ6P1XSJqy5YGA3n8eIKmJCIiACIiACJSAgASZEkDWEB4IpNw00rMdzB/soZ+aiECeBHrNgOfeTeqsG5byJKlujSag91+jEcpAbgT0/suNl1qLgAiIgAiIQLEISJApFlnZzY3ApU47mrIy0al5E/j+stxMqLUI5EJgwzHww/qkHutoz1iTLNHkYk5tRSB/Anr/5c9OPfMioPdfXtjUSQREQAREQAQKTkCCTMGRymDeBFIKWz5fAd23y9uaOopARgLPvwc9b63zsQr6ar6Ul4Def+XlH6HR9f6LULIVqgiIgAiIgO8JSJDxfYoi5GDMuRMYkIh47EFwSc8Ixa9QS0Zg3HNw6VN1hptJ3JxSMgc0kAikEtD7T3OiRAT0/isRaA0jAiIgAiIgAh4ISJDxAElNSkQg5gwBpiZGO/g38MSgEo2tYSJF4JDb4cm364Q8lLiZFikICtZfBPT+81c+QuyN3n8hTq5CEwEREAERCBwBCTKBS1mIHR7tdKAJbyZH+M2lsEmzEMes0EpO4Nu1sKm90yv5Wc+OXG5WlNwZDSgCCQJ6/2kulICA3n8lgKwhREAEREAERCAHAhJkcoClpiUgEHOWAzsnRnrgBDim9v9KML6GCD2BB1+DY++pE+ZrxM0uoQ9cAfqfgN5//s9RwD3U+y/gCZT7IiACIiACoSMgQSZ0KQ14QDFnAjAsEcXgLnBrv4DHJPd9RaDiYZixpI5LE4mb4b5yUs5Ek4Def9HMewmj1vuvhLA1lAiIgAiIgAh4ICBBxgMkNSkhgZhzMPBEYsSWm8BnI0s4voYKPYFfjofPv60T5iHEzZOhD1wB+p+A3n/+z1HAPdT7L+AJlPsiIAIiIAKhIyBBJnQpDUFAMedjYOtEJLNPhj47hiAuhVB2AnPehL531XHjE+KmddkdkwMikCCg95/mQpEI6P1XJLAyKwIiIAIiIAKNICBBphHw1LVIBGLOTcDQhPVBneG2o4s0lsxGisCps+D2pXVCnkrcnBkpCArW3wT0/vN3fgLsnd5/AU6eXBcBERABEQgtAQkyoU1tgANL2bbfvAl8cbFuWwpwRn3hur1dpMWV8MP6Ou7ouJIvsiMnagno/afJUAQCev8VAapMioAIiIAIiEABCEiQKQBEmSgCgSrnPzjskLA8tS8M6VqEcWQyMgSmvQJDZyeFa3iLKvPbyABQoMEhoPdfcHIVEE/1/gtIouSmCIiACIhA5AhIkIlcygMScMypBi5LeLtfW1hwWkB8l5u+JND9FnhhVR3XxhA3lb50Vk5Fm4Def9HOfxGi1/uvCFBlUgREQAREQAQKQECCTAEgykQRCIx2OtCEN5MtP1cBPbYrwlgyGXoCz78HPW9NCXM9O3K5WRH64BVg8Ajo/Re8nPnYY73/fJwcuSYCIiACIhB5AhJkIj8FfAwg5jwMHJnwUMV9fZwrn7uWppjlI8RNP5+7LfeiTEDvvyhnv6Cx6/1XUJwyJgIiIAIiIAIFJSBBpqA4ZaygBCqdvhgeSbb59gWwfYuCjiJjISfwzhfwm+tSgnQ4kmqTXFEm5BQUXuAI6P0XuJT50WG9//yYFfkkArtSwRcAACAASURBVCIgAiIgAj8TkCCj2eBvApXOqxg6J5wcvi9c29vfLss7fxEY8ThMWJjkk8NSqs3u/vJS3ohAGgJ6/2laNJKA3n+NBKjuIiACIiACIlBkAhJkigxY5htJIOYMAaYmrDQx8MEIaL1ZI+2qeyQI/Pdr2PZaWO/UCXcocTMtEgAUZLAJ6P0X7PyV2Xu9/8qcAA0vAiIgAiIgAh4ISJDxAElNykwg5rwDtE94cVF3GH9ImX3S8IEgMPIJuHpBHVdXEjfbB8J5OSkCloDef5oHeRLQ+y9PcOomAiIgAiIgAiUkIEGmhLA1VJ4EKp0LMExK7v3uMNjuF3naU7dIEHjvS2g3MSVUhwupNqkVZSLBQ0EGlIDefwFNXHnd1vuvvPw1ugiIgAiIgAh4JSBBxisptSsvgZTfEp+5J9zYp7wuaXR/EzhrDtz0ch0ftTvG3ymTd5kI6P2nuZEjAb3/cgSm5iIgAiIgAiJQJgISZMoEXsPmSKDSOQvDDcm9Fp0Be22Tox01jwSBxR9At+kpoTqcTbW5MRIAFGS4COj9F658Fjkavf+KDFjmRUAEREAERKCABCTIFBCmTBWZQMqNI4d3gEcHFHlMmQ8kgSNmwtwVSa7rZqVA5lFOJxHQ+0/TwSMBvf88glIzERABERABEfABAQkyPkiCXPBIoNI5FsP9ya3vOAZO6eSxv5pFgsCdy2DggymhOvSn2jwQCQAKMpwE9P4LZ14LHJXefwUGKnMiIAIiIAIiUGQCEmSKDFjmC0ygynkIh34Jq223gNfPg02aFXgcmQskgW/Xwk7Xw6r/JblveJgqc1QgA5LTIpBMQO8/zYcGCOj9p+khAiIgAiIgAsEjIEEmeDmLtscxx+6HWZoM4ZxuMPnwaGNR9DUEzp0LUxbVo9GZuFkmRiIQeAJ6/wU+hcUMQO+/YtKVbREQAREQAREoDgEJMsXhKqvFJBBzqoHLkoeYfTL02bGYg8q23wnMeRP63lXPyzHETaXffZd/IuCZgN5/nlFFqaHef1HKtmIVAREQAREIEwEJMmHKZpRiSSlwucNWsOwsHV2K0hRIjtVu1e90I7y1OulPVcg3qtMh/HHr/Rf+HOcQod5/OcBSUxEQAREQARHwGQEJMj5LiNzxSCDmHAw8kdx6cBe4tba6jEc7ahYKAhUPw4wl9UI5hLh5MhQBKggRSCag95/mQxIBvf80HURABERABEQguAQkyAQ3d/I85lwJ/CkZxNS+MKSr0ESJwLRXYOjsehFfRdxcHCUOijViBPT+i1jC04er95+mgQiIgAiIgAgEm4AEmWDnT97HnBeAfZNBLDoD9tpGaKJAYPEH0G16vUgXEjf7RSF+xRhxAnr/RXoC6P0X6fQreBEQAREQgZAQkCATkkRGNozLnC404RUcaufybq3hxdNVTybsc8LWTdjnZvjnx0mRGhzW05Uxpv4BprADUXzRI6D3X/Ry/lPEev9FNvUKXAREQAREIGQEJMiELKGRDCfmDAGmJsfefxe47/hI0ohM0MfdC/cvrxfuUOJmWmQgKFAR0PsvknNA779Ipl1Bi4AIiIAIhJCABJkQJjWSIcWcycA5ybFf1B3GHxJJGqEPeuQTcPWCemFOIW7ODX3wClAEUgno/RepOaH3X6TSrWBFQAREQARCTkCCTMgTHKnwYs5TwO+SY554KFy4T6QohD7YSS/CsHn1wnyauDko9MErQBHIREDvv0jMDb3/IpFmBSkCIiACIhAhAhJkIpTs0Id6ubMNa3keaJ8c6x3HwCmdQh99JAK8cxkMfLBeqCtpRg9Gmw8iAUFBikAqgVFOK5q7xzaPTv1I77/wTJcM7z8b4Cx+YChXmE/DE60iEQEREAEREIFoEJAgE408RyfKKmc/HJ4FmiYH/dCJ0G+n6GAIY6QPvw5H3V0vsnUY9qfK2Nu29IhA9AhUOudguALYPFPwev8Ff1pkeP8lB/YVDqOoNlOCH60iEAEREAEREIHoEJAgE51cRyfSSudYDPenBjx3ABzWIToYwhTpYyvg8JlpInLoT7V5IEyxKhYR8EQg5th9fzOAPby01/vPCyV/tsn4/kvv7j+AwcTNMn9GI69EQAREQAREQASSCUiQ0XwIJ4E0N480MTD7ZIkyQUu4/TLS9y5Y79TzXDcqBS2Z8rfxBGLOZsDYn4qYN0ljcBVgD/ZdkPyZ3n+NR18OCw28/64DjgHapvFrPWAL3Y8mbr4uh98aUwREQAREQAREwBsBCTLeOKlVEAnEnOHAtamua/t+cJLZwDb9EcTNhOBEIk9FoAAEYs7xwESgTT1rhrU42L8TVcTNGvT+KwDw8prI+v6LORu5+TYMx6FZGm8/xOFCqs195Y1Eo4uACIiACIiACGQiIEFGcyPcBGLOxeDWV6jzqNCl/9PeQAHLUcTNlf6PQB6KQIEIxBxbqPyW1Fvkkqy/wHoquNy8UWdEvf8KlIDSm8np/Tfa6UgTbgX2y+Dp08BpxM3K0keiEUVABERABERABBoiIEFG8yP8BDJ8KdGV2P5NfYarXa3DEmP8mzZ5VgwClc5lGKozmF6Nw0iqjRVr0j9FfP+9/hk8sxI+/rrmn//af3/z839/u7YYQMpvc5Nm8KvNoLX9Z9Ok/94MDmwPO/2ycT7m/f6rdE7DMB7YKq0HDpVUmzGN8069RUAEREAEREAECklAgkwhacqWfwlk2L5/UXcYf4h/3Y6iZyOfgKsXpI1cx5SiOCGiGnOV0wu4FYcd6iEwODjujpmLiJv/y4oo5kxKrSlj++Tz/nv6HbB1TR77D/z7k6wjR7LBrlvDYb+FQzvAQdvnhqCB9991xM2FWa3FnC2BazBU4FB/jWd4C6igyszPaksNREAEREAEREAEik5AgkzREWsA3xBIU+jX+tZ/F7jtaLC/9dRTPgL2t+mnzoL7l6f1QQV8y5cajVxKAqOcVjR368QMyDCs/Rtib9FZlNWtbF/OPb7/XlgFUxbBvP/A6u+yjqoGSQRabFwjzpzTDfZLV373p7ZZ3n+QuwjX7adbuHbJkJCZ/MAwrjCfKmEiIAIiIAIiIALlIyBBpnzsNXI5CNRciX030DR5+N1awy1Hwl7blMMpjbn4AzjtEfjnx/VYrMPhRF1trTkSfgKOoZIzMYwD7C6H1OcbDFX8m4ncZ+wtOg0/lc7gn46vZD1Ak+n998ZnMO45uH1ptsH0uRcCgzrDJT2hY0pGGnj/pTP72U87o/6SdczjnCbsyjAcqoBN07T/PxwuoZqbwNS/xy7rAGogAiIgAiIgAiLQWAISZBpLUP2DR6DK2Q+HmYAtlFnnmdoXhnQNXkhB9njaKzB0dtoIVmIYQJV5IcjxyXcRyEog5nT6aTfDHhnaPuRecx03H2a1lb3A6ytAa2DbTO+/T7+FK56DiQuzjkbvHWqEbFtPxa2rsunP/73Fhtn7B7HF/77/qV7OTzVz3No5X4MVVh63B4KyPMP2hVE9odUm0MD7733AStSZfiKlL+ScbuyY0wbDDTj0y+DaP37adbUsm+/6XAREQAREQAREoLAEJMgUlqesBYXA5c42rOX2dLeWDO4Ckw/XEaZip9Ju0T93LsxYknakp2nGIEabD4rth+yLQNkIxJzNgLGu2AJN0vixCoczqDaPZ/UxlyuQG3j/7dkG/v0pfJehIK8VXRL1Uey/Nw+p6JKVd4YGX31fU1/HHu+ytXasWJPu2bgZ7NoKXk4vsf38/svlqvNsTlc6vTFMB9IdnrK7riYDo4mbDF5nG0Cfi4AIiIAIiIAI5EpAgkyuxNQ+XARijl2A2i9DdZ4dtoJJh0KfHcMVrl+imfMmXDgP3lqd1qMpxM25fvFVfohAUQj44Yt2hvdfunj33bZmV0ffjkWhEVqjs9+o2W200O538fbUf/+VS7jz5q9aiYAIiIAIiIAINIKABJlGwFPXkBCwxX4NN6W7kcIWYrS3MKngb2FybXfF2FtEbIHQek9N0coziZtphRlNVkTAhwRijj0qaW9I+l0G70p7FKWB95/1b8eWNULMH3b3IcsAufSXV2uEmTc/z+C0l/dfaY+2PQ2cRtysDBBmuSoCIiACIiACgSMgQSZwKZPDRSFwmdOFDZgC7Jtqv+0WMO5gOMVWedCTN4E7l8ElT8Kq/6U1sZAfOYcxJv0BprxHVUcR8AmBmNMchz9huATYKI1X5SnWGnN6APcAbZJ92mpjuLQXDK/3RvQJz4C6MWEhjJ2f9rYqe3jpBOLm+YZDK2nx5zUYxuIwnrj5IaDI5bYIiIAIiIAI+JqABBlfp0fOlZxAzLkS+FO6cQ/vAFUH6CamXHNiC11W/R3mrsjY8yri5uJc7aq9CASGQJXTC7gVhx3q+VzO64wrnYEYt5ZWnadrG7jjaNi5VWAIB8rR1z6FgbPglXT1YxwGUW3uyBpQKa9HN9hSxRVUmflZ/VIDERABERABERCBnAhIkMkJlxpHgkDMORiHazB0ThfvmXvWbOHf7heRoJF3kO99WbNF/6aXM5hwWIrhj8TNk3kPoo4i4GcCfv7SXHMt9q2p+PrvAnccAxs19TPY4Pu2Zh0MfBDuX54mFocKqs0MT1H6Vezz5LwaiYAIiIAIiIAISJDRHBCBTARiTjVwWaaPL+pes53f3jqi52cC9vrXaxfC1QsapDKGuKkUNxEIJwGfHyvJIMbYd5qtmaWndARsTa2078pcRBm/HocrHUaNJAIiIAIiIAKBJSBBJrCpk+MlIWCLKBqqceiXbrwmBi7YB87tBtu3KIlHvh3knS9g8iK47kVY72Rw0/AwDpXEzTLfBiLHRKAxBPxeeDWDGHPDEXDWXo0JXH3zJXDjYjj70TS9cxFlbHe/FYzOF4j6iYAIiIAIiECECEiQiVCyFWojCFQ6x7q7ZTIcY7KWB3WGM7pCj+0aMU4Auz7/Hkx/BW5f2oDz9ngSjKHaPBDAEOWyCGQnEISriTOIMbceBYN1i1L2HBexxYxXoeKhAogyNcLM8cDE1ELNrnXDWhwmAFXEzZqsIVU6vTFMB9qmabsemAyMJm6+zmpLDURABERABERABOoRkCCjSSECuRCodM7CMBKwV9emffZrC6fuXnMrU1ivy7bXV9tbk257FV5Y1SDAle4NHdXmxlwwq60IBIpAEL4AS4zx/ZQqsChjD9OOBc4BmqQJfhUOZ1BtHs8KJubYW8GqMAzHoVma9h/icCHV5r6sttRABERABERABESgDgEJMpoQIpAPgUrnAgwXNiTMNG8CJ/4/OG5X6LNjPoP4r8+cN+G+f8Pd/4If7O9GMz9WiJlEtbnOf1HIIxEoEIGgHBGRGFOghBffTEFFGeuu34/QFR+pRhABERABERABXxOQIOPr9Mg53xOIOUNwOLuho0w2hpabwJEda4SZQ38bnJ0zdifMvP+AFWIeeQM+/zZLRmpuTrqBuJnm+9zJQRHIl0CQiqhKjMk3y2XrV3BRBp8XmS4baQ0sAiIgAiIgAuUnIEGm/DmQB2EgUOn0xXA6cKSXcA7+DRy4PfRq57+aMwveg2ffhWfegSff9hKN2+YRHG6m2sz23EMNRSCIBIJ0zbDEmCDOMNfnwosygJ+vYQ9spuS4CIiACIiACDSOgASZxvFTbxGoS2C004EmDMRwMg47eMFjjzbtvS3s1Qa6/Bo6tYZdWkHTDbz0zr/Nuh9h+aew7GNY8hEs/hBeej/rUaSfBzS8hcNdrOcOLjcr8vdEPUUgAASC9mVWYkwAJlXDLhZFlLFDBklUDHwWFYAIiIAIiIAINExAgoxmiAgUi0DMORjoDxwNbJ3rMB1bwm+3gvYtYLtfQJvNofWmNcefWmwEm29Yc/TJCjoJ8caKLLa2iz1q9NX38MWammNGH38DH34F730JK7+A/6yGNz7P1SO3/SfALOB+4ubJvCyokwgEikAAj3tIjAnUDGvI2aKJMkE6dheabCoQERABERABEahPQIKMZoUIlIJAjThzOHAosHMphizgGK8B84C5EmEKSFWm/E8giAVRJcb4f17l6GHRRBnrR1AKU+fITM1FQAREQAREICgEJMgEJVPyMzwEao41HQj0Aro3dFNTmYJeCSwA5rOeZ3QcqUxZ0LDlIxBzgnllsMSY8s2ZIo9cVFGmRpg5HpgItKkXimEtDhPcq6/jZk3WUCud3himA23TtLX3800GRhM3X2e1pQYiIAIiIAIiEHICEmRCnmCFFwAClzrtaMKeGPbAoTOGXUso0tjrqf+NYSkO/2A9LzPWvBsAanJRBIpDIKhfTCXGFGc++MhqCUSZYAqRPsqRXBEBERABERCBXAlIkMmVmNqLQCkI2N/Q/0gHDL/B0A7YFvi1W4vGoSWGX+CwOYaNgeZA05/cWgf8gMN3GL7C4UsMtlqMrf3yEfA+Du/i8DYbsEK/oSxFMjVGIAgE+eiGxJhATLFCOFl0UcY6GcSjeoWAKxsiIAIiIAIiUAYCEmTKAF1DioAIiIAI+IRA0IubSozxyUQqnRslEWUIYDHr0qVAI4mACIiACIhAwQhIkCkYShkSAREQAREIFIGgX/8rMSZQ062QzpZGlAGCdt17ISHLlgiIgAiIgAiUgIAEmRJA1hAiIAIiIAI+IhCGL5kSY3w0ocrjSslEGRte0MXL8qRIo4qACIiACIhAVgISZLIiUgMREAEREIFwEAjJMYw8xZh169axZMkS5s2bx4IFC1i8eDGrV692U9ulSxc6d+5M7969+d3vfsfWW28djpSHPIqSijJBP94X8rmg8ERABERABIJJQIJMMPMmr0VABERABHIhEJZCpXmIMY7j8Mwzz3DxxRe7Iky2Z/PNN+fss89mxIgRtGrVKltzfV5mAiUVZWysQS6AXeZcaXgREAEREAERSCUgQUZzQgREQAREILwE7I1lMBY4B2iSJtBVOJxBtXk8K4SYs5E9vIFhOA7N0rT/EIcLqTb3ZbWVT4M8xBi7K+amm27ikksu4auvvspp1O7du3PLLbfQsWPHnPqpcekJlFyUqRFmjgcmAm3qRWxYi8ME9+9L3KzJSqTS6Y1hOtA2Tdv1wGRgtG4GzEpSDURABERABAJGQIJMwBImd0VABERABDwSCNMXxjzEGEvp6aef5pRTTuGjj+yt97DXXnsxatQo9ttvP1q2bEnTpk3dP//6669Zvnw5d9xxB7fddluteHP00UczdepU7ZTxOOXK2axMokx4BM9yJk9ji4AIiIAIRJaABJnIpl6Bi4AIiEBICYTtSEWlMxDD7anZuvUoGLx75hx+8803nHvuufzlL39xG5111llcddVV2CNJmR57vGnWrFkMHz6cd99912128803c9ppp4V0soQrrAZEmUFUmzuKFm1YjgQWDZAMi4AIiIAIiEB6AhJkNDNEQAREQATCQSCMRUcrnUMw/C1XMca2X7ZsGf3792fFihVuwd577rnH0/Eje8zpyiuv5LLLLnOHtbtk7NGlFi1ahGOehDyKBkSZ31Ntnihe+CEpml08QLIsAiIgAiIgAvUISJDRpBABERABEQg+gTBey1vt7MZ6/g5slZygbDtjEm3tTUo9evRw/3fgwIFMmTKlwd0xyWMkizkdOnTg/vvvp1OnTsGfJxGJIIMos5omHECl+WdRMYThWvmiApJxERABERABEfiZgAQZzQYREAEREIHgEgjzl7+YY8WY/ZOTM7UvDOnqLV3Jgsyhhx7q1of55S9/6anz559/zoABA/jyyy/ZYostGDduHF271h14zJgxVFZWuvaef/55bBHglStXcv311/Poo4/yxhtvsNVWW7n1ak466ST69evHpptu6mn877//noULF7rHp5577jn3um772Ou5e/bsyfHHH8/ee+9dWwMnndFk/+688043noYer+0/+eQTHnroIWbPns0LL7zgXh1uj4F169aN3//+926cO+64I8ZkX2L9+OOPvPTSS9x99915x5kppqmvwJmz6336LHFzgKckNLZRGEXSxjJRfxEQAREQARFIIZB9tSBkIiACIiACIuA7AiE/HlHpXIBhUjL2+IFQWUeeaTgpVhA54YQTWLp0qSsY2NuWrDDiRSjwku5UQWbVqlWcc845rkCR7rEFhSdNmsS+++6b0Qdbw+aVV17hwgsvxApKDT19+vTh6quvZqeddkrbzKvAkuicrb09yjVz5ky3vk6mGBO2/vjHP7rFk60glemxNXqGDRvmik6NibOhvvG/Q5WV9ZKfmpvArvOS40a3CeMxwkZDkQEREAEREAER+JmABBnNBhEQAREQgWARCHsB0VFOS5qxCsPGicQM6AR3HpNbmuwuk5EjR/LnP//Z7WjFgYsvvtg9vtS6detGCzPJAsZFF13k1pmxQkW7du04/PDD3X//+9//dnfLJAQM+2f2Fqf996+vLKUrKGyFpIMOOsi9HWr9+vXujhQr1CSu8LZXck+bNo1evXrVg5NNYEntkK293cUyZMiQ2rFtDPZImPXR+mN3CT377LO1Zm1B5fHjx7PxxrVprP3sX//6F6effrq7O8Y+yXHa/3/11Vd56qmnarnZ3UD2yFnqLiUvM+KUB2HmsqSWDt+xlrZcYT730r8gbcJWaLsgUGREBERABERABECCjGaBCIiACIhAMAjEnGhcsVvpnIehRkUBNmkGr58LbX+Re5pee+01Bg8eXPvFP2HBiglWNLFihxU1NtvMos3tSRYwEj1jsRhWnEk+mvTf//7XFYbskSn72KNN9ghR+/bt6wz48ssvu0WIE7c7WeHIHpXadttt67R7++23sTtQEjtLrFhhbdtaN8lPNoElNdqG2ttrwwcNGsSTTz7pCk1WHDnssMPYYIMNas3Y40ePPfaYu0vIxmBFFuujZZz8WB5WjLFClX0qKiqIx+P14vz0009dQeeaa65x2x1xxBHujVe/+tWvckrUqi9hp8nw7dqkbg7nU22uz8lQIRqH6Sr6QvCQDREQAREQgcgTkCAT+SkgACIgAiIQAAJR+iIXcxYC+ySyMu4gGNUz/xy9/vrrXHDBBfztb/Uua6o1amuz2C/8ttbM7rvv7qnWS6ogY29mGjFiRNq6Lh9//DFDhw7l4Ycfdse89tpr3eM6ieNT3333nfv/U6dOdT8/++yzXTEiU82ZVHv2RigrBjVp0qQ2pkIKMi+++KJbH8buhLFHkazt5LESg9pdPhMnTnQ52Me2u/TSS2vjTP08W5z26nIrZt1www2uPXvk6/zzz895d9MVz8ElT9WZQy8SN/vmP6sa0TMqwmojEKmrCIiACIhAdAhIkIlOrhWpCIiACASPQNSOOlzubMNa3k9O1DsXQvstG5c6K3jMmTPHLbhri+Q29NijTXZ3iv3iv/3222f88p8seBx44IHuLpVtttkmo2l7BMdeoW1FjdQiw/Zo03HHHYfd0bPzzju7RW6z3eo0f/58TjzxROzuFVs4+K677nJ3rySeQgoyyQWSLRcrFm244YZpY7U1cGybrbfemqOOOsqt29O8eXO3bfJOG69xJt94lWtx5oSDK/8Ptq9TkQhoxraMNh80bmY1onfYjx42Ao26ioAIiIAIRIeABJno5FqRioAIiEBwCES1GOhlTnc24PlEovb4NbwytHBps8dqbPHdefPmuTVKkuuUpI5ij9zYXSd2F0e6OijJgkfqTpB0Hn/22Weu0GPH/vWvf+3eUpSoiXLPPfe44op97E4au8sk3ZjJdu0NUPboj72S2z52B9AhhxxSFEEmWTCyXOztUqeddhotWrTIKTlW2LFHnawo5fUq8uQ4U7nlMnjXqfCPj5J6/EgPxpiGKyfnMkBebUNenDsvJuokAiIgAiIQJQISZKKUbcUqAiIgAkEgEOXrcquck3GYmUjTMTvDAycUL2n25qD333/f3TVjBZJ0Ak2mo0jJgkyqGJLO4zVr1rhHeRLHb+wuGHsLlH2SbU2YMME9vpTtscd/bO0V+4997C1SVsxJPIXcIWMLJNujR/aoVfJj68PY254OPvhg96rrxE6YTL7ffvvtnHrqqe7HtpaO3fHSrFmzBkNdu3atK2Ilbp2yx76OPPLIbHjqfX7sPfDga0l/bBhAlbkrZ0PF6BDm6+uLwUs2RUAEREAEQkNAgkxoUqlAREAERCDgBPSlDEosyKTOGFuzZO7cue510osXL3Y/tjtC7C4UW0Ml+Um99toKDNmedCJJqlBjC/4OGDAgmyn3c7uTxl5DbZ/q6mpsLZnEU0hBxtq0hXptwd5EMd5UB+1RL1uHx4pMPXv2ZIsttqgXQ7pCyJ4CTWqUC59k274WZBKORlmMzXUiqL0IiIAIiEAoCEiQCUUaFYQIiIAIBJmAji3UZq/IR5a8zpIPPvjAFR8SRXjTHSNKiAudO3fGHjmytzVle9KJJKkFfXMRHGbOnMkpp5xSEkHGDmIFK7vL5cYbb+Sf//xnxnCtODN69GjOPPPMOkevyinI+PPIUhqEUT2umO0vjz4XAREQAREIJQEJMqFMq4ISAREQgYAQUGHPuokqUFFfW1j2kksu4X//+597HbS9ptnudMnleeKJJ2p3xdgjObZobqtWrWpNJMSFXOqaFHqHzBVXXOHGaZ9i75BJZpeoxWN3Ez3yyCPucSJbFyb1ufjii6mqqqotAJwcf6q/ueQm17a+LOqbLYioFfTOxkOfi4AIiIAIhJKABJlQplVBiYAIiIDPCejq28wJKsC111aQ6du3r3urz957781f//pX98akXJ433njDPX6zdOlS0u2CSRYXnn32WXr16tWg+dSdMMl1Z/KpIbN+/Xr3iJIVZexz2223MWjQoHqCkf2DbLtuGnNsytr/4Ycf3B0zVqC55ZZb3ONN9rFi1UMPPUS3bt3c/7fXettdM/axdXJsfZ5sdWdyyVmmtr669jrXgKJ05X2ubNReBERABEQg8AQkyAQ+hQpABERABAJGQF+wGk5YpXMehj8nGm3SDF4/F9r+aBsiywAAIABJREFUwnueP/zwQ7cOy9///ne3UzZBIp3l5OuWG9ohY/umFtRNZy/ZJ7trx9alSVxtnc8tS1988YV709GsWbPc4Rpzy5Ld3WKPaNmru/PllYjZFkm2okui1kwym9RdR/b4kxVtivms+hJ2mgzfrk0axeF8qs31xRy3oLYl4BYUp4yJgAiIgAj4h4AEGf/kQp6IgAiIQLgJ6AiCt/yOclrSjFUYNk50GNAJ7jzGW3fbyu4esbcP2Z0n9rG7ZGbMmMHOO+/syYjtP378+NrjQOeff777/xtuuGFt/+RdLXZnyvXXX5+2kG2igxVM+vfvn/bK5+Rrpa2P9gamhFiTyeH58+e7V2Vn2gWU7N+4ceMYNWpUxtiTx08VZOzulwceeMAVfF5//XWuuuqqrLuBMo1td86cfPLJvPDCC64v1u4xxzScWFvPp6KiAnvbUuvWrd0jUF7q9SSCPeVBmLmsjhjzHWtpyxXmc0+TwU+NdMTRT9mQLyIgAiIgAgUgIEGmABBlQgREQAREoAECKtKZ+/SodC7AMCm5Y/xAqNzfuym7w8UKFq+9VnPXsb0FadKkSXTt2hVjMv/4t/VRrFBw0UUXuUdvvNyyZNvYnSAnnXRSWtsff/yxeyV1okhw6o4de630yJEj+fOfazYGnX322a4AtOmmm6YNONWerSNjBaimTZvWtk/edXP00Ue7R4latGhRz569+tseHUq+oSnVv+TbnOzV3WPHjq0jTiUbTT2alXxNda5CmfXNXrVta9HYx+5UymVXTfWzEHsmJWSHC6k213mfSX5rqSLgfsuI/BEBERABEcifgASZ/NmppwiIgAiIQDYCusY2G6HMn8cce96ojgQztS8M6erNpOM4bu0Ye3wmUXDWCidWnBg8eDC77babK1BssMEGWBHm888/Z+HChUyfPp05c+bUDnLuuee64sjGG9du2HE/S70xqF27dlx++eUcd9xxdcSKt99+mz/+8Y+1R4vs57aWSqo4kiogWXHH7mxp3759nYBT7WXa/ZO668XuLLGiT3Ictujxdddd517znVyUN1WQSbZlGVZWVnLWWWfVE4yssDRt2jQuvfRS196BBx7oHoPaZpttamNYsWIFAwcO5KWXXnL/LJNQZm90src52eK/1pYd19q2IpuXZ9orMHR2vZbPEjcHeOnv+zajnFY0ZyKQ6Y705cBg4mZR1lhizpbANRgqcKi/Nja8BVRQZeZntaUGIiACIiACIpADAQkyOcBSUxEQAREQAY8E9GXJI6gGmlU7u7EeK8psldzq1qNg8O7ezNsdFnbnit1Bku4WoGxWzjjjDHf3iL3GOfVJFmRsHRR7dMg+ViCxOzk22WQTFi9ezFNPPVU7dkNHp6yAZOvBDB8+vLYorhUhDjroIPbaay/3GJY96pN8o5E9umNFinQFhdPtfLHtjzzySFq2bIkVWWydl9WrV7s+/+EPf3BFFvukCjLWN7t758ILL6zFYAWoAw44oPYY2HvvvefGaosh28cys+ytAJX62ONWQ4YMqW1rP99///3p0aOHK7zYnUm2QHCiOLD93ObB7s5J3gWUKX8zXoWKh+p9upomHEClyXxfd7YJ4cfPJfr6MSvySQREQAREwCMBCTIeQamZCIiACIiAFwI6TuCFkuc2lc4hGP6W2j4XUcaKCUuWLCEWi9XZ+dKQD1a4sLtAjj322IxHc5IFmb/85S+u6NKQ8GN35tijP1bIyPRYX+0uHSt8WDGnoadPnz7uzpaddtopYzPrk91lY8WMTM/vf/97d5eM3SFkBRH7pCuCbAUeu3to9OjRroiTjZ89Hta7d++Mx8NeffVV95hU8m6kdDatsGN3yZx++ukZc5HcL4MYAw6/p9o84XnuBamhjkUGKVvyVQREQAREIImABBlNBxEQAREQgcIQUMHNwnBMtVLpDMRwe2NEGdvXHktatWoV8+bNc29fsjs5rFCTePbZZx/22GMP+vXrR8+ePesdUUodP1mQsQKGLVZri97efPPN7s4Ta98KO1aUsMds7C4UezzKy2OP/thdJHfddZd77XbCT+uj3X1z1FFH0aVLF0/2bNzLly93ixon/LIih915Y/067LDD3FjtzpuGBJmE35988ol7lfVjjz3m1udJ7Iixse67775u4WK7cyZT/Zvk+K3IY48u3XvvvSxatIgXX3zR/diKVpaXFYvs9eVbb721F2w0IMYMotrUXCEV5keFw8OcXcUmAiIgAqEkIEEmlGlVUCIgAiJQQgK6krb4sCudwRhubawoU0hHUwUZe822nvIRaECMqaDazCifZ2UYOeYcD259mTb1RjesxWECUEXcrMnqXaXTG8N0oG2atuuBycBo4ubrrLbUQAREQAREQARSCEiQ0ZQQAREQARHIn4C++OTPLteePhNlJMjkmsDitZcYk4athOLiTThZFgEREAERKBgBCTIFQylDIiACIhAhAjoaUJ5k+0iUkSBTnimQOqrEmCx50FFKf0xUeSECIiACIpCWgAQZTQwREAEREAHvBFQ80zurYrX0iSgjQaZYCfZuV2KMV1YqNu6VlNqJgAiIgAiUloAEmdLy1mgiIAIiEFwCul7WP7nzgSgjQaa800FiTB78RzmtaO7WlslU8Gg5MJi4WZTVeszZErgGQwUO9dfThreACqrM/Ky21EAEREAERCCyBCTIRDb1ClwEREAEPBLQlxiPoErcrMyijASZEuc7aTiJMY1kL3G5kQDVXQREQAREoFAEJMgUiqTsiIAIiEDoCGibv+9TWkZRRoJMeWaHxJgCcdfxywKBlBkREAEREIHGEJAg0xh66isCIiACYSWgQpjByWwZRZngQAqHpxJjipBHFSgvAlSZFAEREAER8EpAgoxXUmonAiIgAlEgoKtig5lliTLBzFsOXkuMyQFWPk1jzvHg1pdpU6+7YS0OE4Aq4mZNVvOVTm8M04G2adquByYDo4mbr7PaUgMREAEREIFQE5AgE+r0KjgREAERyIGAvpDkAMuHTSXK+DAphXFJYkxhOGa1IkE6KyI1EAEREAERKCwBCTKF5SlrIiACIhA8AtqyH7ycZfJYokx4cvlTJBJjypBSHdksA3QNKQIiIALRJCBBJpp5V9QiIAIiACpqGc5ZIFEmNHmVGFPOVKqoeTnpa2wREAERiAoBCTJRybTiFAEREIFkArr2NdzzQaJM4PMrMcYnKRzltKK5W1tmQAaPlgODiZtFWT2OOVsC12CowKH+GtzwFlBBlZmf1ZYaiIAIiIAIhIKABJlQpFFBiIAIiIBHAvpy4RFUCJpJlAlsEiXG+DB1ErF9mBS5JAIiIALBJyBBJvg5VAQiIAIi4IGAtt97gBS+JhJlApdTiTE+TpmOefo4OXJNBERABIJJQIJMMPMmr0VABETAOwEVqPTOKowtJcoEJqsSYwKSKhVCD0ii5KYIiIAI+J+ABBn/50geioAIiEB+BHSFa37cwthLoozvsyoxxvcpqu9gzDke3Poybep9aFiLwwSgirhZkzW6Sqc3hulA2zRt1wOTgdHEzddZbamBCIiACIhAYAhIkAlMquSoCIiACORAQF8UcoAVkaYSZXybaIkxvk1NdsckfGdnpBYiIAIiIAIZCUiQ0eQQAREQgTAR0Fb6MGWz8LFkEGVuOALO2qvww8lidgI3LoazH03TzqGCajMjuwW18AUBHQ31RRrkhAiIgAgEjYAEmaBlTP6KgAiIQDoCKjapeeGVQAZR5qLuMP4Qr0bUrhAERj4BVy+QGFMIlv6woeLp/siDvBABERCB4BCQIBOcXMlTERABEUhPQNexambkSiCDKNN/F7jjGNioaa4G1T4XAmvWwcAH4f7lEmNy4RaYtqOcVjR3a8sMyOCzzfxg4mZR1phizpbANRgqcKi/bje8BVRQZeZntaUGIiACIiACviMgQcZ3KZFDIiACIuCRgBb9HkGpWVoClc5ADLenfta1DdxxNOzcStyKQeC1T2HgLHjlw7RizCCqzR3FGFc2y0BAYnkZoGtIERABEQgWAQkywcqXvBUBERABQNviNQ0KRCDm9HBFGYftky1utTFc2guG71ugcWTGJTBhIYydD6u/SwFieAeHQcTN80IVMgI6ThqyhCocERABESgsAQkyheUpayIgAiJQXAIqHFlcvlG0fqmzDU3dnTK/Sw1/x5Ywqif8YfcogilczH95Fa54Dt78PK3Np1nHIMaaDwo3oiz5joAKrvsuJXJIBERABPxAQIKMH7IgH0RABEQgGwFdrZqNkD5vLIGYczNwWjoz+25bI8z07djYQaLVf/YbMO45ePH9jHHfQtycHi0qEY825hwPbn2ZNvVIGNbiMAGoIm7WZCVV6fTGMB1om6btemAyMJq4+TqrLTUQAREQAREoCwEJMmXBrkFFQAREIAcCWsDnAEtNG0Wg0vkThkpgk3R2frUZHNYBDv0tHPZb2HzDRo0Wus5ffQ+P/Qfmraj5938zfw3+Fodqqs1VoYOggLITkMCenZFaiIAIiEBECEiQiUiiFaYIiEAACWiLewCTFgKXa4pFjwKGZYum9w6w1zbQejOwYk3rTX/+7y1CKtb87/saoeVj+883P//34g/gcXvfTfZnIj9wBVeYT7M3VYtQE9AR1FCnV8GJgAiIgBcCEmS8UFIbERABESglARWBLCVtjZWJwBinI+u4BBgkSAUhcDtNGcdl5o2CWJORkBBQkfaQJFJhiIAIiEBeBCTI5IVNnURABESgSAR0TWqRwMps3gSqnP1wOAeHwzC0yNtONDuuBuZhmEKVeSGaCBS1JwI1O9NsbZkBGdovBwYTN4uy2os5WwLXYKjAof5a32D3clVQZeZntaUGIiACIiACRSUgQaaoeGVcBERABDwS0GLcIyg1KyuBSucgDIcChwG7ltUXvw7u8G8Mj7n/VJmn/eqm/PIpAYnyPk2M3BIBERCB4hCQIFMcrrIqAiIgAh4JaLu6R1Bq5jcCVc5O/MiBGFqD+8+vfvp34r/TFgb2Wxh5+PMt8F/g45/+qflvh4/ZgGeoMq/nYVNdROBnAjq2qtkgAiIgApEhIEEmMqlWoCIgAr4joIKOvkuJHBIBERAB3xBQYXffpEKOiIAIiECxCEiQKRZZ2RUBERCBTAR05anmhgiIgAiIgFcCMed4cOvLtKnXxbAWhwlAFXGzJqvJSqc3hulA2zRt1wOTgdHETeZL27MOogYiIAIiIAJeCUiQ8UpK7URABESgEAS0sC4ERdkQAREQgWgRkJAfrXwrWhEQgcgQkCATmVQrUBEQgbIS0NbzsuLX4CIgAiIQCgI66hqKNCoIERABEUgQkCCjuSACIiACxSSg4ozFpCvbIiACIhBBAioGH8GkK2QREIGQEpAgE9LEKiwREAEfEND1pT5IglwQAREQgZASGOW0orlbW2ZAhgiXA4OJm0VZCcScLYFrMFTgUP/7geEtoIIqMz+rLTUQAREQARHwTECCjGdUaigCIiACHglokewRlJqJgAiIgAg0moDE/0YjlAEREAERKBcBCTLlIq9xRUAEQkhA28hDmFSFJAIiIAL+J6Djsf7PkTwUAREQgTQEJMhoWoiACIhAIQio0GIhKMqGCIiACIhAYwiogHxj6KmvCIiACJScgASZkiPXgCIgAqEioKtIQ5VOBSMCIiACoSAQc44Ht75Mm3rxGNbiMAGoIm7WZI230umNYTrQNk3b9cBkYDRx83VWW2ogAiIgAiJQh4AEGU0IERABEciXgBa8+ZJTPxEQAREQgWIT0C8Mik1Y9kVABESg0QQkyDQaoQyIgAhEjoC2hEcu5QpYBERABAJLQEdqA5s6OS4CIhB+AhJkwp9jRSgCIlAoAiqaWCiSsiMCIiACIlBSAio6X1LcGkwEREAEPBKQIOMRlJqJgAhEnICuFY34BFD4IiACIhACAqOcVjR3a8sMyBDNcmAwcbMoa7QxZ0vgGgwVONT/TmF4C6igyszPaksNREAERCCiBCTIRDTxClsERMAjAS1ePYJSMxEQAREQgcAQ0C8ZApMqOSoCIhBuAhJkwp1fRScCIpA3AW3vzhudOoqACIiACPifgI7h+j9H8lAERCD0BCTIhD7FCjCQBOzNCD/SAcNvMLQDtgV+DWyNQ0sMv8BhcwwbA82Bpj/FuQ74AYfvMHyFw5cYPgc+AT4C3sfhXRzeZgNW6IrKDLNDBRAD+ddGTouACIiACORBQIXq84BWpC5a/xUJrMyKgH8JSJDxb27kWVQIXOq0owl7YtgDh84YdgXalyj8lTj8G8NSHP7Bel5mrHm3RGP7bxhdEeq/nMgjERABERCB0hCIOceDW1+mTb0BDWtxmABUETdrsjpU6fTGMB1om6btemAyMDrSvxjS+i/rNFIDEYgCAQkyUciyYvQXgdFOB5pwINAL6F5C8cUrh5XAAmA+63mGy80Krx0D3U4L0UCnT86LgAiIgAgUgIB+MVEAiBlMaP1XPLayLAIBJiBBJsDJk+sBIhBzDgYOBw4Fdg6Q59bV14B5wFzi5smA+Z7dXW3Vzs5ILURABERABKJFQEd3C5Nvrf8Kw1FWRCDEBCTIhDi5Cq3MBGp+CPcHjnZrv+T4dGwJv90K2reA7X4BbTaH1ptCy02gxUaw+YawSTNo3gSablBjfN2P8MN6+HYtfPU9fLEGPv8WPv4GPvwK3vsSVn4B/1kNb9jKMrk/thbNLOD+wIszKmaYe/bVQwREQAREIEIEVNw+r2Rr/ZcXNnUSgagSkCAT1cwr7uIQqNmOOhDDyTjs4GUQK6jsvS3s1Qa6/Bo6tYZdWv0ssnixkU8bK94s/xSWfQxLPoLFH8JL79cIOp4ew1s43MV67gjcsSZd9+kpxWokAiIgAiIgAoxyWtHcrS0zIAON5cBg4mZRVloxZ0vgGgwVONT/HmLXFlBBlZmf1ZafGmj956dsyBcRCBQBCTKBSpec9S2BSqcvhtOBI734ePBv4MDtYf920H07Lz1K1+b592D+u/DMO/Dk257HfQSHm6k2sz33KEdDLSrLQV1jioAIiIAIhIGAfplRP4ta/wVj/ReGv3+KIbQEJMiENrUKrCQEYs4QHM7G0Lmh8ewxoyM7Qp8d4dDf1hw1CsJjjz7N+w/MeRMeeaPm+FODj8NSDDcQN9P8FZ+2XfsrH/JGBERABEQgkAR03LcmbVr/1Z2+vl3/BfJvmZyOGAEJMhFLuMItEIFK5wIMFzZ0Q5I9inTi/4Pjdq0RYsLwWGHmvn/D3f/KerTJXqc9iWpzXdnjVmHCsqdADoiACIiACISMQFQL4mv9l+1ou3/WfyH7K6dwwktAgkx4c6vIikGg0jkLw8iGhJj92sKpu8MpnYKzEyZXVHbnzJ3L4LZX4YVVDfa2P5jHU21uzHWMRrfX1Z2NRigDIiACIiACItAggZhzPLj1ZdrUa2dYi8MEoIq4WZOVZKXTG8N0oG2atrbC3WRgNHHzdVZbhW6g9Z9LNBDrv0LnXvZEoMgEJMgUGbDMh4RApXMscFlDR5MGdYYzukIPn9WEKXYGbM2Z6a/A7UsbGMluZYUxVJsHiu2Paz8qC8SSwNQgIiACIiACItAAgTD/AkTrv4yJ9+X6T39RRSCABCTIBDBpcrmEBOxxF0M1Dv3SjdrEwAX7wLndYPsWJfTLh0O98wVMXgTXvQjrnQwOGh7GoZK4WVaUEKK6hbooMGVUBERABERABHIgEKYjwlr/eU68L9Z/nr1VQxHwHwEJMv7LiTzyC4GYU+3uisnwXNQdRuwLrTfzi8P+8OO/X8OEhXD1ggb9GUPcVBbMYxUZLBhKGRIBERABERCB/AmEoIi+1n95pb8s67+8PFUnEfAXAQky/sqHvPEDgZhzMA7XZDqedOaeMKonbPcLPzjrXx/e+xKueA5uejmDjzUV+f9I3DzZqCh0DWej8KmzCIiACIiACBScwCinFc3d2jIDMtheDgwmbhZlHTvmbAnuuqwCh/rfXQxvARVUmflZbTXUQOu/RuFLdC7Z+q8g3sqICJSfgASZ8udAHviJQMy5EvhTOpcO7wBVB8Be2/jJYf/7svgDqPo7zF2R0deriJuLc44kiIu9nINUBxEQAREQAREIMIGg/NJE67+CT7Kirf8K7qkMikB5CUiQKS9/je4XApc5XdiAKcC+qS613QLGHVxza5Ke/AnYW5kueRJW/S+tjYX8yDmMMUuyjxCC7dDZg1QLERABERABEQgHAT8fK9b6r+hzrHDrv6K7qgFEoCwEJMiUBbsG9RWBmDMEw03ptsGe0w3GHxLe66tLnQd7XeLIJ2BKug3KBgeHM4mbaRn9ClPBwFLD13giIAIiIAIiUE4Cfiu8r/VfyWZDo9d/JfNUA4lA6QlIkCk9c43oJwIxZzJwTqpLO2wFkw6FPjv6ydnw+DLnTbhwHry1Om1MU4ibc+t8EuYrNcOTVkUiAiIgAiIgAtkJxJzjwa0v06ZeY8NaHCYAVcTNmqzGKp3eGKYDbdO0XQ/Ydd5o4ubrlHWF1n9Z4Ra+Qc7rv8K7IIsi4DsCEmR8lxI5VBIClzvbsJbbgd+ljje4C0w+XLtiip0H+9uSc+fCjPSHlJ6mGYMYbT7ADwu3YsOQfREQAREQARGIEoFy/aJF67+yzzLP67+yeyoHRKA0BCTIlIazRvETgSpnPxxmAu1T3ZraF4Z09ZOz4fdl2iswdHbaON8HPgYyZeQF1lPB5eaNrJRiThsMN+DQL0Pbf/x028OyrLbUQAREQAREQAREoDAESnsU+RWgNbCt1n+FSV9jrDSw/luJYQBV5oXG2FdfEQgKAQkyQcmU/CwMgUrnWAx3A02TDe7WGm45UjcoFQZy7lZsJf7THoF/Wvkl+/MZcBFx85esTY9zmrArw3CoAjZN0/7/cLiEam4C42S1pwYiIAIiIAIiIAIFJlDSYv11fNf6r8CpzNFcA+u/dTicSLV5IEeTai4CgSMgQSZwKZPDeROwxdtgamr//rvAbUfriFLeXAvU0W5hPXUW3L88g8Gaor+3/CTG/F/WYWNON2AGsEuGtjP5gWFcYT7NaksNREAEREAEREAEiktglNOK5m5tmQEZBrIrhMHETbqrAep2iTlbAtdgqEh3aYNtrPVfcdPp1XqW9d/QBi978DqI2omAjwlIkPFxcuRaAQnEnOHAtakWL+pec4uSHv8QsLcwXb0grT/XETcXZvU02yLM8BZQQZWZn9WWGoiACIiACIiACJSWQJXTC7gVhx3qDZz7L2cmARdo/VfaFOYzWgPrvxHEjS30rEcEQklAgkwo06qg6hCIORcDV6RSmXgoXLiPWPmRwKQXYdi8tJ6NIm6uzOhzpXMahquAlmnbOIym2oz1Y8zySQREQAREQAREIIlAlTMahzEZmHyOw5+oNnbnbPpH67/ATae813+Bi1QOi8DPBCTIaDaEm0CGH8Z3HAOndAp36EGP7s5lMPBBj6LMaKcjTbgV2C9D3E8DpxE3K4PORf6LgAiIgAiIQGQIxBx7AYMVXerdivkTg/QF/rX+C+wUyWn9F9go5bgISJDRHIgCgQzHlB46EfrtFAUAwY/x4dfhKFuCuf5Ts3015mwEVGEYjkOzNO0+xOFCqs19waehCERABERABEQgogRizvHg1pdpU4+AYS0O9khLFXGzBq3/Aj9Jsq7/Ah+hAhABCTKaA2EnkKaAbxMDs0+GwzqEPfhwxffYCuh7F6yvfwfSdcAxQNs0Ea8HJgOjiZuvw0VE0YiACIiACIhABAnEnM0Ae+z4HKBJGgKrALu3tk7NGK3/gjlXGlj/qdBvMFMqrzMQ0JElTY3wEai52vr+1MDmDpAYE9Rk2x/Kh8/07P0/frqFYZnnHmooAiIgAiIgAiIQDAIxxx46t7co7uHFYa3/vFDyZ5uM6z+H/roS2585k1e5E5Agkzsz9fAzgSpnPxyeBZomu6ljSn5OmjffGti+mjDwFQ6jqDZTvFlUKxEQAREQAREQgcASqHTOwbiXNmyeKQat/wKb3VrHM6z/1mHYnyrzQvAjVARRJyBBJuozIEzxX+5sw1qeB2wBuNpHBXzDk+QGCr3N4geGcoX5NDzRKhIREAEREAEREIEGCYxyWtGcqcDRqe20/gvP3Mmw/ltJM3ow2nwQnkgVSRQJSJCJYtbDGnPMeSq1Cr+utg5fsjNcifg0cXNQ+KJVRCIgAiIgAiIgAg0S0PovEhNE679IpDmSQUqQiWTaQxh0zLEFXG2Rt9rnou4w/pAQxqqQGPkEXL2gHogpxM25wiMCIiACIiACIhARAlr/RSTRNWFq/RepdEcmWAkykUl1iANNc6NS/13gPntBop7QEjjuXrh/eb3wVHk/tBlXYCIgAiIgAiKQREDrv0hOB63/Ipn2UActQSbU6Y1AcJc5XWjCKzjUzuXdWsOLp8MmzSIQf4RD/HYt7HMz/PPjJAgGh/V0ZYxZEmE0Cl0EREAEREAEwk1A679w57eB6LT+i2zqQxu4BJnQpjYigcUcW1193+RoF50Be20TkfgjHubiD6Db9HoQFhI3+0UcjcIXAREQAREQgfAS0PovvLn1EJnWfx4gqUlgCEiQCUyq5Gg9AjHnSuBPyX8+tS8M6SpWUSIw7RUYOrtexFcRNxdHiYNiFQEREAEREIFIEND6LxJpzhak1n/ZCOnzoBCQIBOUTMnPugRizsHAE8l/OLgL3NpPoKJIoOJhmFH/kNIhxM2TUeShmEVABERABEQglAS0/gtlWvMNSuu/fMmpn58ISJDxUzbki3cClc6rGDonOuywFSw7S3VjvAMMV0t7nrjTjfDW6qS4HJZSbXYPV6SKRgREQAREQAQiTEDrvwgnv37oWv9pOoSBgASZMGQxajHEnGrgsuSwZ58MfXaMGgjFm0xgzpvQ9656TMYQN5UiJQIiIAIiIAIiEHACWv8FPIHFcV/rv+JwldXSEZAgUzrWGqlHmfZ9AAAgAElEQVQQBGJOJ2BpsqlzusHkwwthXDaCTuDcuTBlUb0oOhM3y4Iem/wXAREQAREQgcgS0Povsqn3ErjWf14oqY1fCUiQ8Wtm5Fd6AlXOQzjUVoppuwW8fp6OKmm61BCwW1d3uh5W/S+JiOFhqsxRYiQCIiACIiACIhBQAlr/BTRxpXFb67/ScNYoxSEgQaY4XGW1GAQqnWMx3J9s+o5j4BS7Z0aPCPxE4M5lMPDBFBwO/ak2DwiSCIiACIiACIhAwAho/RewhJXHXa3/ysNdozaegASZxjOUhVIRSCnkdngHeHRAqQbXOEEicMRMmLsiyWMV+A1S+uSrCIiACIiACPxMQOs/zQaPBLT+8whKzXxFQIKMr9IhZzISqHTOwnBD8ueLzoC9thEzEahPYPEH0G16yp87nE21uVG8REAEREAEREAEAkJA67+AJMofbmr95488yIvcCEiQyY2XWpeLQMx5B2ifGP7MPeHGPuVyRuMGgcBZc+Cml+t4upK42T4IvstHERABERABERABQOs/TYMcCWj9lyMwNS87AQkyZU+BHMhKoNK5AMOk5HbvDoPtfpG1pxpEmMB7X0K7iSkAHC6k2lwXYSwKXQREQAREQASCQUDrv2DkyWdeav3ns4TInawEJMhkRaQGZSeQ8tuRi7rD+EPK7pUcCACBkU/A1QvqOKpdMgHIm1wUAREQAREQgdTdMVr/aU54JaD1n1dSaucHAhJk/JAF+ZCZQMwZAkxNNGhi4P0R8KvNigftjTfe4IQTTmDp0qV07tyZe+65h44dO+Y04IIFC+jRo4fbJ18bOQ1YwMZjxoyhsrLStXjnnXcyYEBwKyd//DVscy2sd+oAGkrcTCsgMpkSAREQAREQAREoJIEyrP8K6b5slZeA1n/l5a/RcyMgQSY3XmpdagIplfWH7wvX9i6uExJkwiPI2Jky4nGYsDBpzujGpeL+BZJ1ERABERABEWgsgTKs/xrrsvr7i4DWf/7Kh7zJTECCjGaHfwlUOn0xPJLs4NsXwPYtiuuyBJlwCTLvfAG/Sa0a43Ak1WZ2cWeSrIuACIiACIiACORMoEzrv5z9VAdfE9D6z9fpkXNJBCTIaDr4l0DMeRg4MuHgoM5w29HFd1eCTLgEGTtjTp0Fty+tM3ceIW76FX82aQQREAEREAEREIGcCJRp/ZeTj2ocCAJa/wUiTZF3UoJM5KeATwGMdjrQhDeTvXuuAnpsV3x/JciET5B5/j3oeWvK3FnPjlxuVhR/RmkEERABERABERABTwTKuP7z5J8aBYqA1n+BSldknZUgE9nU+zzwmFMNXJbwcr+2sOC00vgsQSZ8goydOd1vgRdW1ZlDY4ibmurFekRABERABERABMpPoIzrv/IHLw+KQUDrv2JQlc1CEpAgU0iaslU4AlXOf3DYIWFwal8Y0rVw5huyJEEmnILMtFdgaHLVGMNbVJnflmZWaRQREAEREAEREIGsBMq4/svqmxoEkoDWf4FMW6ScliATqXQHJNiYczDwRMLb5k3gi4thk2al8b9Ugkzieunka7E/+eQT7r33Xh566CEWLVrEV199RZcuXTjiiCM4+eST2WmnnTAm+1/bdevW8dJLL7m2nnvuOZYsWeLCs7Z69uzJiSeeyN57780GG2xQD2ou117/+OOP7jh333132nGOP/54d5ymTZuWJnkNjPLtWmhxJfywvk6jQ4ibJ8vunBwQAREQAREQgagTKPP6L+r4wxq/1n9hzWx44sr+zS48sSqSoBCIOTcBQxPulqqYb2K8cgkyy5cvZ9SoUdjx0z2bb745F1xwARdffDGbbrppxmy++uqrXHbZZcyZM6fBjFdUVDB27Fh+9atf1WnnVZB59913GTZsGLNmzWpwnD59+nD11Ve7YlK5nzTF3aYSN2eW2y+NLwIiIAIiIAKRJ1Dm9V/k+YcYgNZ/IU5uCEKTIBOCJIYuhJjzMbB1Iq7ZJ0OfHUsXZakFmd12241DDz2Um266yd0R07FjR4488khatmyJFT3mzp3r/jvxTJo0ifPPPz/tTplnn32WU089tba9FXEOOugg9tprL7f74sWLeeqpp9xx7NOvXz+mTp1K69ata+17EWT+9a9/cfrpp7u7Y+yTOo4Vhew4q1evdj+3u2SmTJlC164lOneWYbrMeRP63lXnw0+Im5+DL90000giIAIiIAIiIALJBMq8/lMywktA67/w5jYMkUmQCUMWwxRDynbVlpvAZyNLG2CpBZlEdO3atePyyy/nuOOOY8MNN6wN2ooadlfM9OnT3T874IADmDlzJm3atKkDZuXKlZxyyiksWLDA/fOTTjqJcePG0b59+9p2juPw8ssvc95559WKKbbNyJEjadKkidsumyDz3//+1xVjHn30Ube93WkTj8fZdttt6/jz6aefMn78eK655hr3z+2xq5tvvrnejpzSZhd+OR4+/7bOqDq2VOokaDwREAEREAERqCvG1DmuXo71nxISbgJa/4U7v0GOToJMkLMXRt9jzgRgWCK0wV3g1n6lDbQcgozdYWJ3yFgRJV2NmPfff9+tIWPrwdjH7oTp1atXHaFl4sSJjBgxwv2zdDtfkik+/fTTrnjz0Ucfsd9++3HXXXdhBaFsgowVdJLHOfvss13RJdMRqm+++cYVe2644QbXdkO7e0qV5YqHYUZNSZ3EM5G4GV6q8TWOCIiACIiACIhACgEfrP+Uk3AT0Pov3PkNcnQSZIKcvTD6HnOWAzsnQnvgBDim9v9KE3A5BJmjjz6aW265hRYtWqQN8ocffnB3yVgxxD533nknAwYMqG372WefMXDgQObNm+ceH7J1XexRpUyPFUpsPRor9Oy5557uMacOHTq4zRvaIWMFnEGDBvHkk0+y8847u8V8O3Xq1GBili1bRv/+/VmxYoV7NOuOO+7gl7/8ZWmSmWaUB1+DY++p88FrxM0uZXNIA4uACIiACIhA1An4YP0X9RSEPX6t/8Ke4eDGJ0EmuLkLn+ejnQ404c3kwL65tHS3KyXGLYcgY4v5WiEkcWwoXXIbEkpeeeUV+vbt6+54aazo0dA49jjUYYcd5tagsQKQrQtjBaCGni+//NI94nT//ffz61//mtmzZ5e1loyttr/p2BSP17Mjl5sV4ftLpYhEQAREQAREwOcEfLL+8zkluddIAlr/NRKguheNgASZoqGV4ZwJxJwhwNREv4N/A08MytlKozuUQ5Cxx5WGDq29WCptDA0JJffcc497lbV97DGia6+9lo022igvFg2Nc/vtt7u7aezTvXt3V/xp1qzh+8jXrl3r7txJ1LZ5+OGH3aLF5XwOuR2efLuOB0OJm2nl9Elji4AIiIAIiEAkCfhk/RdJ9hELWuu/iCU8IOFKkAlIoiLhZsy5E6g9hzP2ILikZ+kjTxZk7A1I9957b85XNlvxoUePHq7zqTVaEhFlK56bGnlD7W2RX1sTxj7V1dXutdf5Pg2Nk/xZvvZTj1vla6cx/cY9B5c+VcfCTOKmBqAeERABERABERCB0hHwyfqvdAFrpHIR0PqvXOQ1bkMEJMhofviHQMx5B6i9Eui5CuixXendSxZk7OjPP/+8uxsklydZkOndu7d7K5K9xjr5KaQgk2xLgkz2TC14D3rcWqfdSuJm++w91UIEREAEREAERKCgBHyy/itoTDLmSwJa//kyLZF3SoJM5KeATwBc6rSjKSsT3jRvAt/nv8mjUUF9/vnnbsHcxx9/3LWTeqORF+PJO1ZKIcgkHyUqlSDT2HG8cCxmmw3HwA/rk0ZYR3vGmneLOaZsi4AIiIAIiIAIJBHw0fpPeYkGAa3/opHnIEUpQSZI2Qqzr5XOsRjuT4TYsx3MH1yegG3B2nPOOce9Dcg+t912m3uzUC7PFVdcwSWXXOJ2sbVh7O1IG2+8cR0ThdwhkywAFbOGzNSpUznzzDPdOIYNG8aVV15J8+bNc0Hjm7a9ZsBzyfKLQ3+qzQO+cVCOiIAIiIAIiEDYCfho/Rd21IqvhoDWf5oJfiMgQcZvGYmqPzHH3ntTo2AAw/eFa3uXB8b69evdGixWVLHP+eefz/jx49lwww09OZQq6IwbNw57i1LqU0hB5sUXX+T3v/+9e/uR11uW7K6aG2+8kfbt27v1Z4444gjXxYb8euKJJ9xx7HPwwQdjbdibk4L4jHgcJiys4/k44ubSIMYin0VABERABEQgkAR8tP4LJD85nTMBrf9yRqYORSYgQabIgGXeI4FKZw6GGkUAuOMYOKWTx75FaPbII4/Qr18/13K7du3cK5v33HNPTyM9/fTTrsBhr6C2V0LPmjWLgw46qF7fQgoydiy7i+fJJ590BZK7776bXr16ZfT3+++/Z+TIkfz5z3922yTffNSQX++++y4nn3wyL7zwgtvvgQce4JhjjmmQywcffEBFRQX2tqXWrVtTVVVFx44dPbEsZqM7l8HAB5NGcHiUatOnmGPKtgiIgAiIgAiIQBKBAq7//ve//3Heeee5vyzKp/6f3/Py448/Yusc2iP1zzzzDEuXLsWuy+xj11VdunRxf1nWt29ftt5666zh5LoOzWYwm71sn2ezn/p5vva0/suVtNoXm4AEmWITln1vBFIKui09Czq19ta1GK2SBQ5r3+4Kue6667LetvT6669zwQUX8Le//c1167jjjsMe82nRokU9N3P9QdJQe8dx3GNRI0aMcMex4sz111/PFltskRaPrYtjr6+2P8hTd7o0NI7dPRSPx91dNPbZe++9mTFjBjvvvHPacdatW+dewX3xxRe7n/tpV82yj6HzjXXcVmHfYvxlkk0REAEREAERyESgQOs/uw7661//6h6rtruFyyHIfPrpp+6a74QTTqBDhw4Fy7kVYuy67aqrrqqtb9iQcfvLQHt83a4JW7VqlbFpruvQbAFls5ft82z2Uz/P157Wf7mSVvtiE5AgU2zCsp+dQMzZDPgqueHaSmi6QfauxWxhd5kMGTLE/cFun6222soVW+wOke222662dsp3333HW2+9xYMPPuiKNqtXr3bb2501tv7M/vvvn9bNXH+QZGu/cuVKd2eOveHJPmeccQZjx46t88PYLlhefvll9zdIL730kttu2rRpnH766RhT8zrINs6KFSsYOHBgbX97A9WkSZPo2rVrrQ1r55tvvnGPRNniv5ahXSDYsU488cRips2z7XU/QrPqes03J26+9mxEDUVABERABERABPIjUMD1X/IvmqwzpRRk7K5j+8spuxbaaKONuOeeewq2E9iun+zRd1uzL/nZZ5996NmzZ+0Nnq+99hp///vfa3fM2LZ2fWZ3Qu+xxx4FWYdmS3K29WO2z7PZT/08X3ta/+VKWu2LTUCCTLEJy352Apc5XdiAfyQadmwJr5+XvVuxW9jdHXbXiX3hJ0QZr2NaMWbChAkcffTRdUSK5P65/iDx0j51QWJFJFsbZtddd+WHH35wf8Py1FNP1bphf4Ni6+NsuummtX/mZZz58+e7YpXdOpt4rPDUo0cPV3ixO2/mzp1bZ2FgFxP2tzVNmzb1irHo7Xa6Ht74PGmYH9mDMWZJ0QfWACIgAiIgAiIQdQIFWv/961//cn+xlPhFk8VaSkEm+XbOzp07F0yQsb/gszuMp0+f7s4Uu7764x//6P7CLV39PisM2aPrl156qXucyT4N7WT2st7LZYpms5ft81zGsm0bY0/rv1xpq30xCUiQKSZd2fZGIKXC/hEdYM4Ab12L3cpuE7U1YeyNSYsXL/Y0XJ8+fdwfErvvvnuD7XP9QeK1/auvvuoWJZ4zZ07G8e0PdVtDxgok+d7+5GUc64AVhewuGbtY8loY2RPoAjTqMxMeXZFkSDctFYCqTIiACIiACIiABwKNXP/ZXb+2pp29GTMhQCRGDbogY8UVK6zYY9/2sTVibrrpJnfXdWJHcybCdrfM4MGDawWqTMfnva4rPWTSU5NCj9cYe1r/eUqZGpWIgASZEoHWMA0QiDnDgZqfOMA53WDy4f4iZnfLLFmyhHnz5rlHgqw4k3w0ye5AsdtH7Y6YXXbZhQ02yH7eKtcfJLm0tz/I7S6Wu+66i4ULF9buZLE+2h0z9miT3cWT7od6LuNYLvY3Uvfeey+LFi3C3vZkH2vb/lbG1t7xWlyuHBk/dy5MWVRn5BHEzYRy+KIxRUAEREAERCBSBBqx/rPrHLvGsTtGEuuxZHZBF2RsLcL+/fu7O7SzHYFPN2eSL5iwn6e7hCGX9V4h5mWhx2uMPa3/CpFR2SgUAQkyhSIpO/kTiDn2C/CwhIGrDoGR3fM3p54i4JXA+AXwpyfqtJ5I3FiBUI8IiIAIiIAIiEAxCeSx/rO7YuwvyGKxWO1OYCtY2C/nzz33XO3xniALMl988QVDhw7lvvvuc+nbXdr2QoVcjnyn3qb5hz/8gcmTJ+d8RL2Q6W+MgJLOj8bY0/qvkJmVrcYSkCDTWILq33gCMeevQG2l13Jfed34gGQhKATqXX0IdxM3JwXFf/kpAiIgAiIgAoElkMf6L7lei407UbjW3vY4bNgw95Yj++QiyHzyySc89NBDzJ492z0CZXfc2KPd3bp1c3f69uvXjx133LHermK7Y9rWzmvoycWPhB1r97DDDnN3x9jbmu6//346deqUc5ptPRl75Kl379706tXLtZEs6qQTNCxfe1uV5WF3Plsf7HXaBx54oHv0fKeddsq7NmIuAor1w+7qmTVrlrsz3fphj2vZXUMnnfT/2TsPcCmK7O2/TVARdRcxrFlURPQvigEDYAIUJUgQQQkqBgwoAivqAnfuXIyoGBZUUAwEBSWICAYwi5hQwRUDKibWxQCfAVRSf8/psYeevj0z3TOd+63n4RGZ7qpzflVzuubtqlNnacmMndRnhsf5n+PhxBs8JEBBxkO4rNomgZQqWWZP0q9+rjfQZl+b9/IyEiiDwLzPgZMn5lTwAtJKqzKq5K0kQAIkQAIkQAJ2CJQw/9MFGdk6PmzYMO2AATmYQE68dCrIyLbryZMnY9CgQZbbnowuyNaoa6+9VsuLZxRO3BZkZAWQnJApuQClyKmWY8aM0QQit4tR0JgwYYKWU1CYGg9sMLZZKP+gXFdMICn2udQhfSIrg2RFUD47JJ+OnGglgpGslJIyadIk9OxpPwEl539ujybWVw4BCjLl0OO97hCoUN+HgkP0yhb1Aw7bxZ2qWQsJFCLw7nfA4ZmXaZmiYjGqlMLZmImUBEiABEiABEigfAIlzP9kO4+cgNm3b1/svffeWRtKEWSmTJmiCTr6SZrG0yLl32R1i5xOqZf+/ftrJ1PqhyEsW7YMM2bM0MQgyaUnyXTl9CMRUXThpkuXLtoqF7tF2pUkxRMnZt4WiYghyX2LJfK1W7/xOqNAIjkGP/zwQ42FCB6tWrXCnnvuaXlqpoghV1xxRTWbigkuxT4XMUpW51x88cXZPhFbOnbsqK2IMZ7gKdvU/v73v2eTOTsVZDj/K2XE8B6vCFCQ8Yos67VPIKUuB5B9qn4xAGhQz/7tvJIESiWwfDWwz505d3+JtNKg1Pp4HwmQAAmQAAmQgE0CLs7/nAoy3333Hfr06aMdEy0/7mUVimwTMh7KICdtPv3005pAImKArBCRLTQiVhiLm8de//e//9VWerz00ktaE06FBpvks2JPRUVF9hYRkW655RZtS5DxBE4Raa6++mrcc8892rXHHnusllBZuOUTeKzsLibIvPPOO9qWJJ31VVddpa1ekhVQevnhhx80UezWW2/NadspJ87/nIwUXus1AQoyXhNm/cUJVKg/QkH9bLAdAuywdfHbeAUJlEvgx7XAjiMNtaj4CVXKDuXWy/tJgARIgARIgASKEHBx/udUkJFTISU/jIgNshVJxIKaNWtWM1hWbciKnMGDB2dFDPOKFTcFGdmm07179+zKj1Jy0Ngdd0aBRO6RVTkiBlmtxlmxYoW28ufFF1/UqpeVQ5KXxi1BxpyEWGy75pprLBMZr1mzBkOGDMHdd9+dbd6pIMP5n91Rwuv8IEBBxg/KbKMwgZS6BkBWglkzFNi6NqGRgPcE1q4H6l6f085apJXNr2K8N4EtkAAJkAAJkEAyCbg4/3MqyBgT8sr2G1l1seWWW1r2w6JFi7QtOjvttBM6deqkrSDZYoststfGQZBp27atJsjssIP1O6mNGzdqeW1uvPFGze9SVsAUWiFjFKKOOuoobetSgwb5FywvWbIEPXr00LaJ5bOn0JeK879khpywek1BJqw9kyS7Uup6ALV0l9dXALVqJAkAfQ2KwIZNQO2qnNY3IK1QDgyqQ9guCZAACZBAcgi4OP9zKshIvpRu3bppP+hlK5Js3Tn//PNRr57zPfNxEGQKrRLSB6SIMXIEtxeCzJNPPqmdZiVFjvyWVUnGbVPmL8XatWsxYMAA3H///SUJMpz/JSfMRMFTCjJR6KW425hSVaOLamXcHaZ/YSKgmMdbWmFcDFMH0RYSIAESIIF4EnBx/udUkJEtMrL1SI6FNhbJD9O+fXu0bt1aO+rauBImXyd4KchYbQ1yazAYV6zce++9mhBSqMiJVL169fJEkDGKPTfccIO2jaxYKSYQFbuf879ihPi5XwT4w8Mv0mwnPwEXH8jETAJOCfCB7JQYrycBEiABEiABFwi4OP9zKsiI9ZI8VhL2zpkzx9IZSXLbrl07LadLy5Ytsd1221le56YgY6xLGnOaG8VJrxRLsmuuyytBRvL0yDHX8seJz8XsKcaC879ihPi5XwQoyPhFmu0UEmS4ZYnjIxACXLIaCHY2SgIkQAIkQAJAgFuWdPySIHbChAnaCUIffPBB3l4RcWbYsGHakczmrTRuCjJ//PGHlkBYT1ibSqUgf7w+9tqO8FNMACkm8OT73Cym2bFFOqqYPYW+Ypz/MQCFiQAFmTD1RlJtcTGpW1IR0u/SCDCpW2nceBcJkAAJkAAJlE3AxflfKStkjPbLEdfffPMN5s6dC8lnIkl/5QQmc5GTfyorK3MSALspyEh7Y8eO1YQfKXIMtORJ+dvf/uYY988//6yJO5KM+IQTTsDRRx+ds8qnmIBibrCYAFKsvnyfB7FChvM/x8OJN3hIgIKMh3BZtU0CLh57aLNFXkYCGgEee8iBQAIkQAIkQAIBEXBx/leuIGMmsG7dOm3FjAg048eP17Y3Sdlll13wxBNPoFmzZtlb3BZk5FSnDh064LvvvrNsz25vvfXWW9qpUFKPlOeeew5t2rTJ3l5MQPFLkJF2SskhYxSu7K6q0X3i/M/uKOJ1fhCgIOMHZbZRmEBKXQ5gb/2iLwYADZwnuSdlEnBMYPlqYJ87c277Emkl/zmLjlvgDSRAAiRAAiRAApYEXJz/uS3IGO399ttvtRUreq4ZcwJctwUZ2UbVv39/PPTQQ5oZcrKR5FepVSt7IGnRAbVhwwZtq5MkyJUiSYpla5YISnoJkyDj9JQlEcxktZKcxiTFqSDD+V/RIcQLfCRAQcZH2GwqD4EK9X0oOET/dFE/4LDNzwtiIwHPCLz7HXD4WEP1KhajSjnUswZZMQmQAAmQAAmQQIaAi/M/J4KM/JifPn26tmLk448/xs0334zjjjuuYK8YxQvzKUBuCzJiiNgm25Vk29Ree+2Fhx9+GMcff7ztkSOnM51zzjnZlT3jxo3DBRdckJOLJkyCzPLly3HWWWfhzTffROPGjTFlyhQ0adIkr7/G60sRZDj/sz2UeKEPBCjI+ACZTRQhkFKfB3CSftVzvYE2+5IaCXhPYN7nwMkTc9p5AWmllfctswUSIAESIAESSDgBF+d/TgQZoS4rKwYNGqR1gORZuf7663Pywhh7xlz3rFmz0LFjx+wlXggy5mO5DznkEIwZMwbHHnts0QS/suVJTo8ScUNK586dtbw0O+64Y86AC5Mgs3HjRm0VkNgk5dJLL8XIkSNRt27dal8SWf1z0003Yfjw4dnPnK6Q4fwv4bEnZO5TkAlZhyTSnJT6KIAeuu8TuwC98ovigSOS5GPy4JYHQb9+/bSHujnjvtnI559/Xnsg6gni5F5ZSlqzZs3A/UmyAZOWAL1n5BCYgrRyVpKZ0HcSIAESIAES8IWAi/M/p4LMhx9+iG7duuGjjz7Ctttui4qKClxyySXVBAARRmR1ydChQ7U53IknnoiJEydit912sxRkrHLMlMpy5cqV2jxTBCApYqcIFQMGDMjZeqTX/8svv2DatGmoqqrKrow56qij8OCDD2qrTswlTIKM2LZs2TL07t07KySJr5JA2SgkyXauUaNG4ZZbbslJuuxUkOH8r9RRyfu8IEBBxguqrNMZgZQ6CsBA/aab2wBDmjurws+rJWu9LPuUh555H7GVHWbVX66RB+Sjjz6KBg3il67khx9+0N7EdO/eHQ0bNvSzaxy3NXIBcPW8nNtuR1rJvDJjIQESIAESIAES8I6Ai/M/p4KMvFy76667cOWVV2b9k61BchqRLl58/fXXkBdqn3zyiXaNHH0t8z4RcozFfFT1wQcfrK2gEQGlS5cuZc2FVqxYgYEDB+Lxxx/PaVNOTGrZsiXq168P2YIlCXxff/11rFq1Kntd8+bNNR8PO+wwyz4MmyAjRpq3Wglz4S3zZUmsLEmWjQmW9YTFTgUZzv+8+1qzZucEKMg4Z8Y73CaQUuUH8G16tZc1A0af5nYj7tW3ZMkSbV/vb7/9htmzZ+Pwww8vWLlxn6u8OdEfHnKM4fnnn++eYQHXJG+R5C3MHXfcga222gpTp05Fo0aNAraqcPP95wJj3sq5ZjDSigiELCRAAiRAAiRAAl4ScHH+51SQEbdk68t9992HYcOG5QgZVi7LfEbmN6eccorlliGzkKDXIblQ5AVVOUV8k1U6siJbFyMK1aevpJGtWOZtSsb7wijIiFC2cOFCTSh7++23Ld0U/6TPdthhh+w82qkgw/lfOSOS97pNgLaqN/gAACAASURBVIKM20RZn3MCFWpXKJim39iuIfBUT+fV+HWHfsxe27ZttWWr8kAoVGbMmIGuXbtql8gyUkkkt3jxYm0LkxylWK9ePI6U8mIPtdd92n4yMGeZoRUVZ6BKme51u6yfBEiABEiABBJPwMX5XymCjM7/+++/146yfvrpp7UtTPqKGBFhjjnmGO0lnKycscpnotchQsJ7772HW2+9Fc8++2xW4DEnAC6nz8VHyQsjCX/feOMNbS6pr4gRW5s2baodly0nKu20005FmwqjIKMbLVuT5KWnzKFllZL4KT62a9dOW6V+wAEH4JFHHkGvXr20W5wKMpz/FR0evMBHAhRkfITNpvIQGK42RQ28q3/aqD7w8eXhpGV84F977bVa8rFCeWCMRxdKQjY5wlCWu4qoIwr/zJkz0apVPHLIRlGQOeDfwCc/GcbaJhyGEcp74Rx9tIoESIAESIAEYkQgQvO/GFGnKwA4/+MwCBMBCjJh6o2k2pJStwHwq9H99RVArRrhAyJLRc8++2xtn645y76Vtfr2Jj1RmWTInzdvXnbFjB1RJ3wUrC2KmiCzYRNQu6qaL9sirfwWFea0kwRIgARIgAQiSyBC87/IMqbh1Qhw/sdBETYCFGTC1iNJtSelLgewt+7+4kuAJjuHD4aIKSeffLKtpLyyfFX2+8oeXimSFV4SsxlzysQpuW/UBJklK4FD7skZY18ircQvy3L4vka0iARIgARIgAQyBCIy/2N3xYcA53/x6cu4eEJBJi49GXU/KtSnoKCd7kYYj752ety1JO/t06cP5s+fr2XYl1OZmjRpAjl1SY69vvHGGzV37Sb3dbrXt9j1+ueylUpPwCv7qB977DFtL7Vk7JcjHmVPsuzZlZVBsmdXUXLDxoIFC9CiRYuCI/C1116DZPsPU6l25KGKOahS2ofJRtpCAiRAAiRAArEmEIH5X6z5J9A5zv8S2Okhd5mCTMg7KDHmpdTrAfxL93fQMcBtp4TL+9WrV2vZ3CXvi53jriUJmSTuFVHj3HPPxejRo7MJ4Yyf2U3uW0xgMdMqdr1ZkFm6dClkC5WezM5cn+S8GTBgAK655pqcxHZRFWQGPwuMWpjj5Q1IK0PDNepoDQmQAAmQAAnEmEAE5n8xpp9I1zj/S2S3h9ppCjKh7p4EGWfKtN9yL+CV88Ll/6JFi7Ts9VKKHXctR0APGTIEd911l3a9nKzUpUuXrENGccduct9iAkupgszBBx8MOTFKRCYRjySLfceOHVG/fn3teMW5c+fmHLMoxz5eccUV2ZUykh9HsuBLwmNZXSMnFMjx3r1798b222+vmSW+yyqhMJXjHgRe/cpgEU9YClP30BYSIAESIIEkEIjA/C8J3ZAkHzn/S1JvR8NXCjLR6Kf4WzlU3Qu18KXu6BY1gT+Hh8ttJ8ddG/PEHHvssdrRfHvttVeOQ5JfZtCgQdq/icAxcuRIbLnllnmd9kqQ0RsU+6677jp069Ytxw45alBWxdx3333apXL04+TJk7Hrrrvm2Bq1HDJbjgDWbTS4sAF743rFKNGEawDSGhIgARIgARKIG4EIzP/ihjzp/nD+l/QRED7/KciEr0+Sa5EpsdtrfYHme4YDh9PjrsePH48LLrhAM17yxaRSqWrHY3/44Yea+CErSho3bozHH38cBx10UCCCjKzSkRUyZ511VrUcMWLQt99+q+WQefXVVzX7Xn75ZRx33HGRFWRe+xpo+UCO+UzoG46vGq0gARIgARJIGoEQz/+S1hVx95fzv7j3cDT9oyATzX6Lp9UpdRKAnrpz17cC/tUyHK46Oe5atv1cdtllmDhxIkToePrppy0T2hpFHvFSP4Upn8derpAplsdm3bp12ioZWdUjZdKkSejZM9tV2r9FaYXMDa8CQ5/PIT0ZaaVXOEYbrSABEiABEiCBBBEI8fwvQb2QCFc5/0tEN0fOSQoykeuyGBucUi8CMFb3sPU+wLw+4fBXP+463/Yjo5VyOlGnTp0gpywVEzok90rXrl2124td66UgI8l8pf6aNWvmBV6s/SgJMm0mAPO/yHG1H9LKuHCMNlpBAiRAAiRAAgkiEOL5X4J6IRGucv6XiG6OnJMUZCLXZTE2eJjaEDXxqdHDNUOBrWsH67McU51OpzXBol+/ftoqkTp16lgaZTwaWy4odhqT8WjsYsl9iwkiZoOKXW/8vJidUnex+qIiyKxdD9SVM72MZSP2x3XKsmBHGlsnARIgARIggQQSCOn8L4E9EWuXOf+LdfdG2jkKMpHuvhgan1KXAmiseza9O9Al+3/B+Pvjjz9qJwY988wzjgSWUqwtlNy3mCBSjiBjtQXJaX1REWRmfAR0nZrj3UdIKweW0l+8hwRIgARIgARIwAUCIZz/ueAVqwgRAc7/QtQZNCWHAAUZDohwEUipowAM1I06rynwwOnBmujkuGvjFqRSrC6U3JeCTClEq9/Tdxbw4Hs5/3470krmuCsWEiABEiABEiAB/wmEcP7nPwS26CUBzv+8pMu6yyFAQaYcerzXfQIptTWAeXrF9bcGfhzifjNOarR73PWff/6JIUOG4K677tKqP/roo7HddtsVbWrTpk1YtmwZJHGwlNtuuw0DBw6sdtoRBZmiKG1dsMNI4Ke1OZe2QVqZb+tmXkQCJEACJEACJOA+gRDO/9x3kjUGSYDzvyDps+1CBCjIcHyEj0BKXQlgJ92w2WcD7fcPxkzjSUj5jq/WLTMeY33IIYdg6tSpaNSokS3DddFHLm7dujUmTJiAXXbZJedeJ4LMH3/8gcGDB+Puu+/W6rDakuSkPqmj2PVR2LL01KdAh0dysH6PtLKzrU7iRSRAAiRAAiRAAt4RCNH8zzsnWXMQBDj/C4I627RLgIKMXVK8zj8CKfVeAP30BvscAjzc2b/mjS0Zj7t+7rnn0KZNm7yGGEWVQrlgrCowijny+fTp09GlS5eSBRnj0dsUZDZjPGcmMGFxDtaxSCsXBzO62CoJkAAJkAAJkECWQIjmf+yVeBHg/C9e/Rk3byjIxK1H4+CPadnqFjWB1dcEc9rSk08+idNPPx3FjrtevXo1zj//fMycOVPrAStBpVDXGFfiyHVWpzkZV6jccMMNkKOq8xWzwMMVMoBk1693E7BuYw41bleKQ8ygDyRAAiRAAtEnEKL5X/Rh0gOdAOd/HAthJ0BBJuw9lFT7KtXPoGJf3f2xHYCLDvcXhhx3LduUbrzxxqLHXS9YsACnnnoqZGXKUUcdhUcffRQNGjRwZLAxIbBVcl/ZAtWjRw+tzs6dO2P8+PGoV69etTY2bNiAm266SbNdLxRkgHGLgH6zDbgUfI5KZT9HncSLSYAESIAESIAEvCMQgvmfd86x5iAIcP4XBHW26YQABRkntHitfwRSahWArKJw7B7AgvP9a15asnvctQg36XRay7EiRRLyiiCyxRZbODLYuD1KbjQn9zWveqmsrNSSCNepUyfbzi+//II777wTt9xyiyYOBSXISP6bJ554As2aNXPEwMuLm48HXv8mp4URSCsVXrbJukmABEiABEiABBwQCMH8z4G1vDQCBDj/i0AnJdxECjIJHwChdX+Y2hA18anRvlf7Ai329M9iu8ddm4WUWbNmoWPHjo4NNa7IkZvNyX2tVr5I0mBpq379+hDBZs6cOVi1apW2Sufcc8/FJZdcotnhxwoZcyLhgw8+WLNt22231fLhNGzY0DETt2547Wug5QOm2jZif1ynLHOrDdZDAiRAAiRAAiRQJoEQzP/K9IC3h4gA538h6gyakpcABRkOjvASSKmzAGSVDb+T+9o97tq41eiEE07A5MmTseuuu5bE9fnnn9e2I+mrW8y5aOTfJX+MrMDJV04++WRtlYycetSiRQvfBBlp6OWXX8Y555yTPcJbt3HKlCno3r17SUzcuMkimduTSCunu1E36yABEiABEiABEnCRQMDzPxc9YVUBE+D8L+AOYPO2CFCQsYWJFwVCoELtAAVPGtv+YgDQoHraFNfNMybZla1IQ4cOhaJU/7qsWbMG/fv3x0MPPaTZIIl25fqaNWuWZJNxm5RUIKtcRo8ejbp162br27RpE5YuXYoHH3xQWxHzySefYPvtt0erVq20HDOSy0a2MUleG78FGVVV8d577+HWW2/Fs88+q63WkVIsCXFJsGzetHw1sM+dpotVdESVYswoY7M2XkYCJEACJEACJOApgQDnf576xcp9JcD5n6+42VgZBCjIlAGPt/pAoEJ9HwoO0VsadAxw2yk+tMsmYkNg8LPAqIUGd1QsRpVyaGwcpCMkQAIkQAIkEDcCnP/FrUd994fzP9+Rs8ESCVCQKREcb/OJQEq9CMBYvbWaCrBiMLDzNj61z2YiTeB/vwG73wZsVHPc6Ie0Mi7SjtF4EiABEiABEogzAc7/4ty7nvvG+Z/niNmAiwQoyLgIk1V5RCClLgewt177Vc2BkW08aovVxorAkHnALQtyXPoSacXZeeSxIkJnSIAESIAESCAiBDj/i0hHhc9Mzv/C1ye0KD8BCjIcHeEnUKEOgII7jIZ+NRDY82/hN50WBkfg65+BvW43ta/iSlQp5owywRnJlkmABEiABEiABKwJcP7HkVECAc7/SoDGWwIlQEEmUPxs3DYB01uSi48A7mlv+25emEAClzwF3PtOjuNcHZPAcUCXSYAESIAEIkyA878Id14wpnP+Fwx3tlo6AQoypbPjnX4SqFAvgYK7jU2+dSFw5G5+GsG2okLg7RVAs/tM1qq4FFXKPVHxgXaSAAmQAAmQQOIJcP6X+CHgBADnf05o8dqwEKAgE5aeoB3FCZgy7p/WEJjTs/htvCJ5BNpNBuYuM/jNk5WSNwjoMQmQAAmQQDwIcP4Xj370wQvO/3yAzCZcJ0BBxnWkrNAzAhVqVyiYZqx/YhegVxPPWmTFESQwaQnQe4bJcBVnoEqZHkF3aDIJkAAJkAAJJJsA53/J7n+b3nP+ZxMULwsdAQoyoesSGlSQQKX6BFScrl+zx3bAx5cDW9cmNxIA1q4HDvg38M0vBhoKZqFS6UQ+JEACJEACJEACESXA+V9EO84fszn/84czW/GGAAUZb7iyVq8IpFRZD7PYWP1lzYDRp3nVIOuNEoH+c4Exb1Wz+BCklSVR8oO2kgAJkAAJkAAJGAhw/sfhUIAA538cHlEmQEEmyr2XVNtTahWA4Ub3Z58NtN8/qUDotxB46lOgwyPVWIxAWqkgIRIgARIgARIggYgT4Pwv4h3ojfmc/3nDlbX6R4CCjH+s2ZKbBEwJ3vbdHlhyCbcuuYk4SnXJUtUm9wCfrzJYzUS+UepC2koCJEACJEACxQlw/lecUYKu4PwvQZ0dY1cpyMS4c2PtWkptDWCe0cfzmgIPZLPLxNp7Omci0HcW8OB71bC0QVqZT1gkQAIkQAIkQAIxIcD5X0w60h03OP9zhyNrCZYABZlg+bP1cgik1JsAXG2sYmwH4KLDy6mU90aNwLhFQL/Z1ay+GWnlmqj5QntJgARIgARIgASKEOD8j0MEAOd/HAZxIUBBJi49mVQ/UurrAI4xuv/WhcCRuyUVSLL8fnsF0Oy+aj4vRFo5Nlkk6C0JkAAJkAAJJIgA538J6uzqrnL+l+juj53zFGRi16UJc2i42hQ1sQgqsmP54J2BNy5gPpm4jwTZN3z0/cAHKw2eKlCxEYdjhFJ9A1PcgdA/EiABEiABEkgKAc7/ktLT1fzk/C+xXR9bxynIxLZrE+RYSr0IwFijx2ccCDx+ZoIYJNDVbo8B05ZWc7wf0sq4BOKgyyRAAiRAAiSQLAKc/yWrv//ylvO/RHZ7rJ2mIBPr7k2Qcyl1NIDLjB5f1RwY2SZBDBLk6pB5wC0Lqjk8Bmmlf4Iw0FUSIAESIAESSDYBzv8S1f+c/yWquxPjLAWZxHR1AhxNqc8DOMno6e1tgSuPToDvCXLxjjeAgc9Uc/gFpJVWCcJAV0mABEiABEiABIQA53+JGAec/yWimxPpJAWZRHZ7TJ2+Tt0N67EEwPZGDyd2AXo1ianPCXNr0hKg94xqTq9CbTTBMGVFwnDQXRIgARIgARIgAc7/Yj8GOP+LfRcn2kEKMonu/pg5X6EOhoJbrbx6ogdw+gEx8zdh7sz6GOg0JY/TKv6JKuW2hCGhuyRAAiRAAiRAApz/xXoMcP4X6+6lc8Dmk2lIgwQiTSClXgng9kI+zO0JnNow0l4m1vinlwGnTS7q/kCklTuKXsULSIAESIAESIAE4kGA87949GMeLzj/i3X30rm/CHCFDIdC9AlYP4zXAKhrdK6mAsw+m6JM1DpcHsYdHgE2qtUsr9bHACjKRK2DaS8JkAAJkAAJlEKA879SqEXmHs7/ItNVNLRMAhRkygTI2wMmYP0wXoVNOAE1IGcsVdvGwu1LAfeZg+YLLFMdDOAlAPPMOYMoyjgAzEtJgARIgARIIIoEOP+LYq/ZtpnzP9uoeGEMCFCQiUEnJtaFQg/jEcoHGpeUeg2AG82MmOg3/KMmTwI3MfxapJWb/urfwyjKhL8vaSEJkAAJkAAJuEaA8z/XUIaxIs7/wtgrtMlLAhRkvKTLur0jYJ3AbTU24USMUBbnNJxHlHHjSOzXvgae/wL432/AT78DP60Ffly7+e9/bPAOQZA1b1ULqL81sMPWQP06mb/Lf/+xDdBmX+DYPcqzLs/RhrlijN5EShVRZj6AejmtMtFveZ3Au0mABEiABEggbARCMv/7+EfgxS+Blb9l/sg8cOWazX9fuz5s4NyxZ+vambnezvKnruHv2wAn7g0csEN57XD+Vx4/3h1NAhRkotlvybbazpsRM6GUOshq+9JVzYGRsrHJZtm4CXjlK2D6R8CMj4DvfrV5Y8Iu23VboEtjoOuBwHF7ATUcRJoh84BbFlgCG4y0Msryk4wow+1LCRtndJcESIAESCBBBAKc/wnlF5YDktfk6c+AD79PEHcHrh60E3DqfkDbhkCrBg5uBMD5nzNevDo+BBz8TIqP0/QkwgRKeRiLu5kf7K+YE/3KR2ccCDzcGRDVP1/5bFVGJHh8KbD69wjzC8B0WT0jjAcdA+xfP78B8jbpnJnAtKWW16zBJhwDfSua1SUUZQLoXTZJAiRAAiRAAj4QCGj+9/o3wJi3gGc+A1Zx/ueoo+vVyYgzlzUrvHKa8z9HWHlxDAlQkIlhp8bWpfIexlarJ7KoDt4ZGN8ROHK3XHqyAmbYC8DDiwFZHcNSOoFaNYC+TYHUCYCsoDGWt1cA5z8JfLCyYP2ZZM0UZUrvBN5JAiRAAiRAAlEjEMD875MfgRteBSbkboKPGrnQ2NvnEOBfLYFGpi1NnP+FpotoSIAEKMgECJ9NOyDg/sN4lcXpPBjbAbjo8MxbkOtfAUYtLG5ju/2BFnsCO9UFdtw681/50yA3o0nxiiJ0heTGEbHq+zWb//ywFnj1K2DusuKOyFaxa1sA8vZk3CKg32zLe6z6iKJMcby8ggRIgARIgATiQcDn+Z/MZW58FbjdxvzvlH0zL/Ikn4qWV6Xu5r9vt2U88Ju9+OXPv/Ll/JUzR8ud8xsgwsqznxf3eeAxwLUtM/Nlzv+K8+IVySBAQSYZ/RxtL91/GA9EbTyO9ZgA4CQznKa7ALJF6dc/rbHJ1qZTGwJdGwMdGgHbbBFtvG5bLw/rpz4Fpi/NLPHNl9jub1sB+20PLPqvpQUvoDb6YD26AbjddAVFGbc7jfWRAAmQAAmQQNgI+Dz/O2JX4MMfgN/zJOQV0UXPjyL/3Tamokupw0DmzZJfR+Z+kmtHxBqrUqc2cNCOwDuc/5WKmvfFjAAFmZh1aOzc8eJhnFbuyHJKqaMBXGaH295/B9InAmceBMgpQyzFCYgYM/U/QOol4Jufi1//1xVjkFb6G/roSooyttnxQhIgARIgARKIPoEQzf+O2T2zqkNewrHYJzD7k8xqo4Xf2r6H8z/bqHhhnAhQkIlTb8bNF68fxjqvlHoRFNwLFZbfh922A4YfB5x/GCB5UFicE1i/ERj/HjDiZeC/+U6mUqBCxcVIK+OqteDXWHDuGu8gARIgARIgARJwk4Bfz/wi8z85iECEmHMPddO55NX10PsZYebTn/L4zvlf8gYFPc4hQEGGAyKcBPx6GIv3KbU1AMlispURxo51M3lOLj0S2JIrYlwZJ39uAMa8nXkw/7i2WpVyklI7jFBetmzMzzHhireshARIgARIgARIwBEBP5/1KbUFgKkAdjXauH0dYOhxmdMhWdwjIHkZJT+jxWlVsnmpO9LKa5z/ucebNUWHAAWZ6PRVciz182FcofaEgklmuMftBczsAchDmcV9AiLGdHwUWPiNRd0qzkaV8igfyu5zZ40kQAIkQAIkEFoC/s7/ekPRcgnmlMN3BSZ2BhrvGFpKkTbsox+A3jPz5A9U0QdVykTO/yLdxTS+BAIUZEqAxls8JODnw7hS7QHgEfNWpfOaAuM6cHuSh72sVb1hE3DRbODB96q1tAmZh/JkPpS97gXWTwIkQAIkQAIhIODn/K9CPQ8KHjB7fcaBwMQuzBPo9WiQkzp7zwCmLbVoSUVfVCkPcv7ndS+w/jARoCATpt5Iui1+Powr1T4AHjKKMZIfZtQpwOVHJb0j/PX/zjeAwc8BGzfltEtRxt9uYGskQAIkQAIkEAwBP+d/ecSYq5oDI9sE435SWx0yD7hlAUWZpPY//d5MgIIMR0M4CPj5ME6pfQGMNzs+vw/Qap9w4EiaFc99DnSaYnHUpIoeqFJkf3f14ueYSVqH0F8SIAESIAES8IOAn8/yPGLM3e2AS470w1m2YSZwz9vApXMoynBkJJsABZlk9384vPfzYWyxMkaOsJ7TEzipQThwJNWK174G2kwAZCmroWwE0ANpZRpFmaSODPpNAiRAAiQQSwJ+zv/yiDEPdALO4ylKgQ6vB98H+j5BUSbQTmDjgRKgIBMofjYOPx/GFmLMFjWBp3tRjAnLSHxhOdBuMkWZsPQH7SABEiABEiABTwj4Of+jGONJF7pZKUUZN2myrqgRoCATtR6Lk71+PozziDGzzgLa7hcnqNH3haJM9PuQHpAACZAACZBAXgJ+zv8oxkRmIFKUiUxX0VCXCVCQcRkoq7NJwN+H8YWogbHmBL6zz6YYY7O3fL+sgCjTBWnlSUuD/BxTvhNhgyRAAiRAAiQQAwJ+PqspxkRuwFCUiVyX0WAXCFCQcQEiq3BIwN+H8YVQMM5oYc0awIzuQMdGDu3m5b4SEFHm1EnAOskis7lIhpmuFGV87Qo2RgIkQAIkQALlE/B3/md5tDVzxpTfjV7XQFHGa8KsP2wEKMiErUfibo+/D2NLMWbKGcAZB8YddDz8e+Yz4PRHKcrEozfpBQmQAAmQQGIJ+Dv/oxgT8YFGUSbiHUjzHRGgIOMIFy8ui4C/D+NqYkwNBZjajWJMWX0YwM0UZQKAziZJgARIgARIwC0C/s7/KMa41W8B10NRJuAOYPO+EaAgkw91St0Gm9AQCvaBgr0A7A5gFwA7QUV9KPgbVGwLBXUAbAGg1l9VyZaKdVDxOxT8ChU/Q8FPAL4H8B2Ab6HiK6j4AjWwDGnlN996O8iG/HwYp9SLAdxjdndiF6BXkyAhsO1SCcxdljl9yaKczu1LpVItcB/jnwdQWSUJkEAkCDD+udtNfs7/mDPG3b4LQW0UZXzuBMY/n4FnmqMgIxSGqnuhJo6AgsOg4hAoOAjA3j71yJdQ8SEULIaKd7ER7+B65Suf2vanGT8fxim1L4DxRscUBZjYGehJMcaf/vaoFVkp0+ERYMOmnAZEAO2AtPKMZbN+jj2P/Pa8WsY/zxGzARIggZASYPzztmP8fAZTjPG2LwOsnaKMR/AZ/zwC67zaZAoyw9SGqIkTARwHoLmP4ovdHvoSwAIAr2AjXsR1yjK7N4buOn8fxj1RAxONpymJGHN/R6Bv09CRoUElEHjyE6Dr1GqizDoAslKGoowdpox/dijxGhIggTgSYPzzr1f9nf9xm5J/PRtISxRlXMDO+OcCRG+qSI4gk1JbAzgNQFsAjb3B6VmtHwGQH5tzkVbme9aK2xX7+TBOqb0ATDS7cE974OIj3HaM9QVJYNbHQKcpFhaoOA1VytOWtvk5FoOEk69txr8w9gptIgES8IMA458flHPb8POZy5Ux/vdvQC1SlCkBPONfCdD8vyXegkxmEJ4BoLOW+8VhaVQf2G97YO96wJ5/A3bdFti5LlB/a6DeVsC2WwJb1wa2qAnUqpGpXLZTyDG9a9cDv/4JrP4D+GktsHIN8N9fga9/Br5cDXy2CvhEMss4L5KLZiaAaaEWZ/x8GKdU6eOpAP7qBUBWxoxtD1x4uHPAvCP8BLhSxkYfMf7ZgMRLSIAEYkmA8S+4bvVz/kcxJrh+DqhlijI2wDP+2YAUrkviJ8hklmP1hoKzoWJfO7hFUDlqd+DIXYGmuwBNdgYO3HGzyGKnjlKuEfFm6Q/AkpXAe98Bb/8XePPbakf85q9awedQ8Qg2YmKotjX5+TDOiDGyXqKmDkrEmIc6AX0OKaVXeE9UCOQVZRScikrlBUs//BybQYBk/AuCOtskARIIAwHGv+B7wc9nLMWY4Ps7IAsoyliAZ/wLaDS602x8BJkKtQMUXACgox00rfcBTmwAHL8X0HxPO3f4d81rXwOvfAW8uByY/4Xtdp+EivtRpcy2fYcXF/r5ME6p0tczKMZ40ZHRqFNEmS5TgY25iX7/gIJ2iRJlGP/CEf+i8bWhlSQQLwKMf+GIf37O/yjGxOs7XII3FGX+gsb4F474V8IYNt4SfUEmpV4EFZdCQcH1ELLNqGMjoP3+QNv9MluNolBk65OcLvPUp4D8+JTtTwWLisVQcDfSyjjf/fPzYZxSJReQiE/6cePaNiWujPG91wNvcNpSoMe0hIoyjH+54y/I+Bf4N4EGkEDCzKebIAAAIABJREFUCDD+hSf++Tn/oxiTsC96fncTLcow/oUn/rnwjYyuIFOhDoCCKwudkCRbkXr8H9DtoIwQE4ciwszjHwJT/lN0a5Mcp30HqpQ7ffHbz4dxRoyZBWAL3TeKMb70cmgbSZwow/in5eoqUPyNf6H9ZtAwEoghAca/cMU/P+d/FGNi+IUuz6XEiTKMf+GKf+UN3+zd0RNkKtRLoGBIISHm2D2Acw4FejWJzkoYp/0pK2cmLQEefh94/ZuiP0xGokq5x2kbtq/382FcqZ4EFXKSDsUY2x2UjAvzijJAG6SV1ywp+Dl23egGxj+NYqjinxv9yjpIgASKE2D8C1/88/MZSjGm+HckoVckQpRh/Atf/HPx+xYdQaZC7QpgeKGtSZLEVU7VaRGynDAu9pdlVZJz5r5FwITFBVqSpfzACFQp0121x8+HcUaMmQNgK90HroxxtTcjX5mIMt0fBzapOa7IRr9TIi3KMP7lHZuBxr/If2PoAAlEgADjXzjjn5/zP4oxEfiiBmtibEUZxr9wxj+Xh3v4BZmU2gQKqqDidCvfayrAgKOB/s2ABvVcphOx6pavBka/Bdz5BrAx9wfpZk8UzIKKCqSVJWW75+fDeLjaHDVQbZXDhM5Ab56mVHZXxqmCyUuAXpLqObf8DgWtUam8bumrn2PZCWzGP9u0fI9/ti3jhSRAAiURYPyzjc33+OfnM7NClZNTJ5hhPNAJOO9Q24h4YQIIFBBl+qBKmcj5XzwHge/xzwOM4RZkUmqVtiomT7mqOTD4GGDnbTwgE+Eq//cbMGohcMuCgk6MQFqpKNlNPx/Gw9RGqIk3APxdt1dWxjzSNZMjiIUEzARElOkzs9pKmdXYiKPyHhHv55i202WMf3YoVbvGl/hXkmW8iQRIwDYBxj/bqIwX+hL//HxWVqhtoOA5ijElDYdE3lRAlDkZVcq8SIgyjH8ljV1f4l9JlhW/KZyCTEptDRW35tuedPERwLUtgT3/VtzBJF/x9c/Aja8C976Th0LmRJJ/Iq3Md8TJz4fxv9SdURvvAtiVYoyjXkr8xXlEmS+h4EhUKj+G9qHM+OfK2PUs/rliHSshARLIE4M5/3NhaHgW//yc/1WpB2MjXgKwvREJV8a4MEBiXkUeUWYVauIEVCgfcP4X7wHgWfzzEFv4BJmUehOAq618Pq0hUHkCcORuHhKJYdVvrwAqXwLmLsvr3M1IK9fYct3Ph7EYVKnOh4pWOQ/j04HzmtqylhclnMD4d4ELnqwG4WmkldPyovF7jBsNYfxzfcS6Gv9ct44VkgAJZAkw/rk+GFyNf34/G1OqiDHHG6GM7QBcdLjrmFhhDAmMXQRcPLuaYy8jrZzA+V8MO9zCJVfjn8fIwiPIDFebogbGADjG7PMe2wE3tM6cmsRSOgE5lelf84FvfrGsYyE24TKMUN4LTaCqUM+CgkeM9gw/Hqg6sXQGvDN5BP71fGalmKl0Q1qZFpqxzvjn+cAsO/55biEbIIGEEmD887zjy45/fosxmaN97zCCSZ8IVOTIM55jYwMRJ5B+KfNCOqeouBJVyp2c/0W8cx2YX3b8c9BWqZeGQ5BJqRdBwb1QUc2ey5oBI9vE9/jqUjuu1PvkuNgh84Axb1nUoECFiouRVsZV+9Tvh3FK/TsUfAwVO+u2tN8fmH12qZ7zviQTOHUS8MxnOQRW4Hc0xkjl18Afyox/vg3NkuOfbxayIRJIGAHGP986vOT45/f871q1PmrjGyioo8Pp2QSY1MU3VGwoRgTkkAfZwp4tKn7HeuyBG5WfOP+LUUcXcaXk+OcTouAFmZQ6GsBlZn/33R64oy0gP8JZ3Cfw1KfAlc8An6+yrHsM0kr/7Cd+P4yl4ZQ6CMBtug11agOfXg7svp37LFhj/Al8+wuw/7+B39fnPJSvQJXy74Leez32Gf8CGXyO4l8gFrJREkgAAca/QDrZUfzz+hloRaBCvRwK7tI/2ro28HF/YA/mjQxkvES90W9+Bg4YDcgPcoMow/lf1Du2RPsdxb8S2yjltuAEmevU3bBeO8buJLPhkh9k9GlcFVNKhzq5R4JT/7nAg9ablF5AbfTBenQDcLup3lXYhBMwIk9irIygchgAyWaek4wNwECklZxlqJY2p1Q5nji7fY1blZz0LK+1InDtfOCm3IPTC+8l1ivxYkJaG48z/gU7Tm3Fv2HKimCtZOskEEMCnP8F3qm24l9w87+FAI7WId3QKnOQBwsJlEpAtq3L9nVDeQNppVqKjGr1c/5XKvJQ32cr/vk8/wtGkKlUj4WKyQD2NvcYE3b5P4bHLQL6VU98JYbI+hmzoOK9GHO5uiW2xx9GEl8MABrU858NW4wPgeWrgX1ydw1vxFJsiceVjUW9dP+hbPXdAuNf0Z5w/YIC8U9O5OqJSkXEYRYSIAE3CHD+5wZF1+oI3fwvI9Z9a3Rw+ZXA3n93zWVWlEACX/4/oIH5VXBt7A47P7o5/4vtiAnT/M9/QaZC7QoFUwDUMvbwwTsD4zvyBKWgRr1koj7/SeCDlQUt8F6MkeYr1f+DiuyxdE12BhZfEhQZthsnAgeNAZb+YPBoIw7Adcontnx0/6GcbZbxz1YPeHZRgfi3ASp6oEqZ7lnjrJgEkkKA879Q9nSo5n/D1eaogexa1sN2ARb1CyU2GhUxAoePBd79zmD0JrTACGWBLTc4/7OFKYoXhWX+568gI8nbgLHmDjvjQODhztyiFPRAliVc58wEpi21tGQNNuEYT7cp6c1WqN2g4DH9f2V8PH5m0HTYfhwIdJ0KzPjI4ImCzqhUnrDtW3kP5VcA1GX8s03b1wuLxL9+lsnOfbWQjZFAhAlw/hfqzgvN/K9SPfuvFfQary6NgendQ42OxkWEgMX8T1bA5pzkWtAVzv8i0tPOzQzD/M8/QcaUpFXHdVXzzClKLOEhIKcw3WKtGQ9GWhllaWm5OWOMlVaqPaDiUf2fzjwImCqZbFhIoEwC3R6rJjh2R1rJin+2qi/locz4ZwttGC4qKf6FwXDaQAJhJcD4F9aeqWZXSfHP3fkfBZnIjJZoGVq2ICPucv4XrU53aG1J8c9hG/ku90eQSanXALjRbMTtbYErs2m7XPKI1bhC4I43gIHPWFZ1LdLKTTmfZB7G8wHkZnlR8U9UKdmTkmwbltljnpWEmu0GvHmh7bt5IQnkJWCxZPVojFDedIysQh0MBbea7pMtfSdhhLLY9P1g/HMMONgbHMW/YE1l6yQQbgKc/4W7fyyscxT/3J7/cctS5MZLVAwua8uS0UnO/6LS5SXZ6Sj+ldSC9U3eCzJ5HsYTuwC9mrjoCatyncCkJUDvGUVEGTffjOhNpdTdAXyj/2+tGsDKq4Dt67juIitMEIGVvwG7jwI2bDI4vR7/wA1K4cxJ+RjZeVPC+BfZEWYr/kXWOxpOAj4QYPzzAbI3TdiKf17M/5jU15sOTXitZSX1tWLH+V+sR5St+OcyAW8FmTzLVJ/oAZx+gMuesDpPCMz6GOgkKZirl8EAXirraOtCFqfUTwE01C9JnwhUHO+Ji6w0IQSGvwBcJ1lcNpcPkVb+ryz3Cz2Ua0A2Y1ZbIcb4VxZxX28uGP/ybd/01UI2RgIhJcD5X0g7xr5ZAc7/eOy1/W7ilTYIlHzsdeHfKVcCuN10SebwE87/bPRKuC/xe/7nnSBjkcCtpgLMPhs4NfszO9ydQesyBJ5eBnR4BNioViOyxiJJ6UCkFfPhcs5RVqhXQcFI/cY6tYFPLwd23855VbyDBL79Bdj/38Dv6w0sVFyJKiX3IOxSUFmLMtW+G4x/pcAN/p4C8Y+JfoPvHloQRgKc/4WxV0qyKaD53+VQcJdu8Na1gY/7A3v8rSQXeFPCCXzzM3DAaEASt2aLiitQpfy7bDSc/5WNMMwV+Dn/80aQyRxtOM0MeW5PijFhHniFbJNBedrkota7I8ZIMyl1GwBfANhRb7X9/hlBj4UEnBI4dRLwzGc5d/0PCvZFpbLWaV2W11s/lHMuZfxzhXQgleSNfyrO4JHYgXQJGw0rAc7/wtozJdvl+/zvWrU+auMbKMhuVO/ZBJjUpWQXeGOCCfSaAUxekiPG/I712AM3Kj+5goXzP1cwhrUSv+Z/7gsymYSsLwOoZYTLZfphHWr27SqwfEsqyX8Ck/0mcq9MqecCeND4j8OPB6pOLLVC3pdEAv96HpDlqjlFgbPjDu2Ay7NEX25l/LMDMNzX5Il/G6DgeFQqr4fbelpHAj4Q4PzPB8jBNOH7/K9CHQAFOautuXU9mL6PcqtVLwOpF00euLU62lgt539RHiZFbfdj/ueuIJNJxvUagL2N3jGBb9G+jswFeRIdrUJtNMEwZYXrjqTUNwAcZaz3vo7ABXKuU8zLiBEjUFFRoXnZr18/3H777ahTp3pmY7evixPW+xYBF82u5tECpJUWrvuZiX/yHmZ7xj/X6Yaiwjzx70vURgtP4l8ovKYRJGCDAOd/NiBF+5IA5n+SpzAne+DYDsBFh0ebox3r3Z7X2a3Pjm1RuWbcIqBf9fnfy0grJ7juA+d/riMNW4Vez//cFWRS6vMATjJC5NHWYRtS5duT50iwF5BWWpVfu6mGlLonFLwFFTvrn9RQgAmdAVnCGudi9wHq9nVxYSpLVPvMBDYZcx8pWAkVzZBWvnbdT8Y/15GGsUJf418YAdAmErAiwPiXiHHha/yrUg/GRu3wiJyXHA90As47NN643Z7X2a0vLlQffB/o+0Q1b1ahJk5AhfKB634y/rmONIwVehn/3BNkUupoAJcZAV7VHBgp54ywxI7AkHnALQuquTUGaaW/685Wqv8HFbIlYNskiTJ2H6BuX+d6/wVQoaUYA/wKBceiUvmP6yYx/rmONMwV+hr/wgyCtpGAEGD8S9Q48DX+VahtoOA5M+C4izJuz+vs1heHgZxHjAFUnIwqZZ7rPjL+uY40zBV6Ff/cEWQsMuqfcSDw+JlhRkrbyiXQ7TFg2tJqtXhz8kilehxUPANsTvImLU85A+he3sHF5WLw7H67D1C3r/PMIZ8qFjFGkriZyu/YhDYYoVSXEcu1i/GvXIKRvN/X+BdJQjQ6EQQY/xLRzWYnfY1/FWpvKJiQJFHG7Xmd3fqiPpgLiDF9UKVMdN0/xj/XkUahQi/iX/mCzHC1KWpiEVRk6zp4Z+CNCwA5qo4lvgTkCLmj7wc+WGnwUYGKjTgcI5T3XPc8pUreD1G3t9LrrlkjI8qIAMhCAiIQdn/ctE0J+ANAG6QVyW/lbmH8c5dnhGrzPf5FiA1NTQgBxr+EdHR1N32PfxXqeVDwQJJEmcQOrhIdLyDG9EWVknNASIlN5N7G+OcKxihW4kX8K1+QSamyleQYI9C3LgSO3C2KiGmzUwJvrwCa3VftroVIK8c6rcvW9ZXqSVAxh6KMLVqJukjEmB7TgI2bctz+AwraoVJ5wRMYjH+eYI1Kpb7Hv6iAoZ3JIMD4l4x+zuOl7/GPokyix1sh530XY8QYxr9Ej0e34195gkxKvQnA1cYeSUoG9ESPQpPzeTKZ34y0co0nnCjKeII1ypUGJMYw/kV50Lhku+/xzyW7WQ0JlEWA87+y8MXlZt/jH0WZuAwd1/wISIzh/M+1HoxuRW7Gv9IFmZTa+q/tI1mS5zUFHjg9umBpeekE+s4CHqy+SUm2icwvvdYCd+YRZWZ0Bzo28qRFVhpSAgGJMYx/IR0PQZjle/wLwkm2SQI6Ac7/OBYMBHyPfxRlOP7+IhCQGMP5H0dgloBb8a90QaZCfR8KDtEt2nd7YMklzBuT1DEq++ma3AN8vspAQMViVCneHU6YEWWeBrCF3mqtGsB0ijKJGYaBiDFCl/EvMWPMjqOBxD87hvEaEvCCAOOfF1QjW2cg8Y+iTGTHi1uGByLGcP7nVvfFph634l9pgkxKrQIw3Ehz9tlA+/1jw5eOlEDgqU+BDo9Uu3EE0kpFCdXZuyWltgUwi6KMPVxxuurJT4AuU6vljFkHBad6ljNGADL+xWkYueZLIPHPNetZEQnYJMD4ZxNUsi4LJP5RlEnWIDN4G5gYw/iX2DFXyHE34p9zQSalNgGw2GjYZc2A0aexj0gA6D8XGPNWNRKHIK0s8YwPRRnP0Ia1YhFjuk4FNuQm8F0H4HSkFTke3ZvC+OcN15jUGkj8iwk7uhEBAox/Eeik4EwMJP5RlAmuwwNqOUAxhr9/A+rzKDRbbvxzLshUqk9ARTZTzB7bAR9fzq1KURgsftgoS7cO+DfwzS+G1hTMQqXSydP2Kcp4ijdMlQcmxggExr8wDYXQ2RJY/AsdCRoUSwKMf7HsVrecCiz+UZRxqwtDX09gYgznf6EfG0EbWG78cybIVKhdoWCa0emJXYBeohmykMBfBCYtAXrPMOFQcQaqlOmeQsqIMrMB1NLbkZwysp2u7X6etszKfSIQqBjD+OdTL0e7mcDiX7Sx0fqwE2D8C3sPhcK+wOIfRZlQ9L+XRgQqxjD+edm1sam7nPjnVJDJSeR7WkNgTs/YcKQjLhJoNxmYu8xQodcJfvWmUmpHACL8ZEWZLWoCs86iKONi9wZSVaBijHhsSmTJ+BfIMIhEo4HFv0jQoZGRJMD4F8luC8LowOIfRZkgutuXNgMVYzj/86WP49JIqfHPviBToV4CBXcbgb11IXDkbnFBSD/cJPD2CqDZfaYaVVyKKuUeN9uxrIuijOeI/W7gmc8yCaNNOWM2AOjgac4Y3VHGP7+7PNLtBRr/Ik2OxoeSAONfKLslrEYFGv8oyoR1WJRsVwjEGP7+Lbn3kndjqfHPviCTUpcD2FtHe/ERwD3tkweaHtsncMlTwL3v5Fz/JdJKA/s1lHElRZky4IXrVhFjTn8UWLcxxy4RY7oirTzpi7WMf75gjlMjgca/OIGkL8ETYPwLvg8iZkGg8Y+iTMRGS35zAxdjxDTGv9iMJ78cKSX+2RNkKtQBUHCH0ZGvBgJ7/s0v19hOFAl8/TOw1+0my1VciSrlTl/8ySPKPN0LOMkfWcgXN+PcSCjEGMa/OA8xz3wLPP555hkrThQBxr9EdbdbzgYe/yjKuNWVgdUTCjGG8S+w/o9yw6XEP3uCjEkdvKo5MLJNlFHRdr8IDJkH3LIgpzX/VslklG3JKSMphmvqVmxVK5P7iKKMX6OgtHZCIcZYvB1h/CutP5N4V+DxL4nQ6bO7BDj/c5dngmoLPP5RlInsaAuFGMP5X2THTxgMdxr/igsyKfUiAGN152oqwLeDgX9s4527n3zyCbp3747FixfjkEMOwdSpU9GoUSNHDS5YsAAtWrTQ7im1DkcNunjxiBEjUFFRodU4adIk9OwZ3czJK38DdrsN2KjmAOqHtDLORWSFq0qpZwCYQlHGN+JlN/TCcuDUSQFvU8o8jH2Pf2XDYwWhIRCK+BcaGjQkcgQiHv/+/PNPvPLKK3jkkUe0+eR7772ndYHMJ4855hicddZZaNmyJerUqRParonyfDAU8Y+iTGjHdj7DQiTG+DL/++WXX/Dqq6/i5ZdfxjvvvKPFqlWrVmVjVePGjXH88cfjlFNO0WJXjRo1ItenfhschrjpNP4VF2RMmfUHHQPcdoq3aCnIxEeQkZEy+Flg1ELDmPHrxCXjMKUo4+2X1sXaRYyRLOV/SJaYzUUyyHTxLWeM3m4A8c9FlKwqBARCEf9CwIEmRJBAhOPfu+++iyuuuALycq5Qad68Oe666y4cdthhoeygMPywKAdMKOIfRZlyutDXe0MjxojXHse/r7/+GnfffTfuu+++rABTDLYIyPLC/qSTTqIwUwBWWOKmk/hXWJCpUDtAQU7SzC8GAA3qFRsy5X1OQSZegszy1cA+5qwxKjqiSpld3khxeHceUWZeH6DFng7r4uWeECggxvRAWpnmSaP5Kg0o/vnqIxvznEBo4p/nnrKBWBGIcPyTN83nnHMOvvrqK61Ltt9+e7Rq1QqHHnqo9v9vv/02nn/+efz666/a/++11154+OGHtbfQYSth+WFRKpfQxD+KMqV2oW/3hUyM8ez376ZNmzBjxgwMGzYM8ntXLxKnjjzySBxxxBHYdttttX/++OOPsXDhwpzr5LMhQ4Zg8ODBoV7d59vAsWgoLHHTSfwrLMik1FkAJAeHVvocAjzc2XvEFGTiJcjIiDlnJjBhcc7YeRJp5XTvR5OphYwoMxVAds3f1rWBZ3tTlPG9L0wNhkqMEdsCin9B9wPbd59AaOKf+66xxrgSiGj8W7FiBXr37o0XX3xR6xn5+w033IDdd989p6e+/PJL/Otf/8Kjjz6q/buslJEt4nvvnT1MNBQ9G5YfFuXACE38oyhTTjd6em+oxBgP538bNmzAvffeq8UeXRAWESaVSmmrXqy2T4qAs3TpUtxyyy2YMGFCth9uuukmTZSpVauWp30TxcrDFDftxr/8gswwtSFq4lNjR7za158frRRk4ifIvPY10PIB09d6I/bHdcoy37/sFWpPKJhkbLdObWBWD6DNvr5bwwYBSAJfyRljUbojrTzmO6QA45/vvrJBzwmEKv557i0biDyBCMe/8ePH44ILLtC64PTTT8fYsWOx8847W3bJypUr0a9fP8yaJe8egVGjRmHgwIGh6r4w/bAoFUyo4l8eUebudsAlR5bqIe8rh8A9bwOXzrGoQUVfVCkPllN3Sfd6GP8k1ohIrIsx11xzjSbO6CtiCtkrObHGjRuHoUOHavfLyr7JkydrYjJLLoEwxU278S+/IJNSqwAM1108dg9gwfn+dDkFmfgJMjJymo8HXv8mZwyNQFrJZC/2u2REGZGasytlatYA7mwLXNbMb2OS3d4dbwD/fA7YuCmHg+SM8X+bkm5CgPEv2aMhvt6HKv7FFzM9c4NAROPfzz//rIkx06ZN037gzJw5U9uqVKjI1oGuXbtql8gPpTFjxtj6ceQGZjt1hOmHhR17810TqviXR5ThCYrl9HBp91qcRJOpKCgxRtr2KP7JqrxevXpl81pdeumlGDlyJOrWrWsb3u+//65tVxo9erR2j+TJkjq23HJL23Uk4cKwxU078S+/IFOpfgYV2fUCYzsAFx3uTzdSkImnIDNuEdDPmDVGweeoVPbzZ1RZtGIhyshV5zUF7usAiEDD4h2BDZuAi2YDD2YOvjAWkWZkZYy/OWOMFgQY/7wjzpqDJBC6+BckDLYdbgIRjX+fffYZevTogUWLFuHYY4/VTleSt8iFiuRoOPPMM/HBBx+gdevW2j077rhjaPonbD8sSgUTuviXR5Q540BgYhdgK+4CKbWrbd0nhzb0ngFMW2pxeZBijJjjQfxTVRW33367tsVIyoknnoiJEydit912s8XLeNFbb72FTp064bvvvovcKcKOnS3xhrDFTTvxz1qQSamtAczTOWxRE1h9DSC5NvwofgkyeocZj8X+/vvv8dhjj+GJJ56ADHpZFta0aVO0a9cOZ599Ng444AAoSvHDqWSf4JtvvqnVJceZ6cctSl2SJVsmDUcddZRllmwnA0n2Fko7U6ZMsWxHJhrSThj2GK5dD9S7qdpRxm2QVub7Ma4s20ipZ/6VUybn45MaANPOBOqF9zTMwJC50fDq34HOU4GXv7R8GJ+BKmW6G+2UVEfA8a8km3lT6AmEMv6FnhoN9J1AhOOfzB0rKyshW5G23nprLVFv/fr1CyI0zjetRBwv54k//fQTpk+frq3kkdOgZL4piYXPOOMM7Uhusd3JfND3seKgwVDGvwq1918rpXM8OXxXYGJnoHF4dDkHpMN/6Uc/AL1nAov+azn/64MqZWJgXngU/0Q86dOnD+bPz/zcuf/++3H++aVtO1mzZg2uuuoq/P3vf8fJJ5+s/cYz554xxy0RmWW700MPPaQlCDbHGSNv+R0sds6ePVu7Vv/9KqsOJTG63Nu9e3cceOCBeU96YtzMHcF24l8+QeZeAP306vxK5qu3F5QgI0mTrr322pxs1kakMhgHDBgA2fNXaInZ+++/j+HDh+Opp54qGFP69u2L66+/Hv/4xz9yrrP7AJYTBGS/szzMC5X27dtryaBETAq6WCQ3Gou0cnGgdg1Xm6IGngGwk9GOXbYFRpyYWTFTo7gGF6gLUWlctiXd/y6QeglY+Vs1q7/HJrTFCKX6mhk/HUypgcY/P11lW/4SCGX88xcBWws7gYTFv3nz5mk/aqTIizd5a12v3uajRM0/LNyYJ8oLu8cffxzpdDrvfLNRo0a44447tBeDkvBTiiQd7tmzZ9hHUF77Qhn/UmoLTZRR0cBo+PZ1gKHHAYOOiSzuUBo+aiFw/SvAqt9N5ilYDhV9kFZeC9Rwj+KfMc6IgCLJxBs0yBlyrrptjFsSR+SPnitLb6hx48ZaHDrooIO0f5LtUJJw+LrrrrN1DLdsuZJ25HQoc2HcrN6dxeJfPkFmpfHH6eyzgfb7uzpWClbmtyBz8MEHo23bttpAlDcU8iDs2LGj9nZCRI+5c+dmj08Uw2Vgy749q5Uy5uMWRcSRPcySRVuK+bhFq6RzdgSZ//znP9peaVkdI8XcjohCcqzjqlWrtM8lAMje6MMP92nfWZ4efupToMMjOR9+j7RinXHPvyEne0Z3BfAsgP8zNytvSe5pBxwfrsMX/KTjSltPLwOumgd8+L1ldSLCtEdasXpn4kr7titJqYHGP9t28sLIEQht/IscSRrsGYEExT9JkikJMm+77TYNp7yQk/lXzZo1s3j1+Zhb80TZuiA/xi6++OJsYs98c07ZbiVvwRcvzhxRGXVBJrTxb6i6G2ppOQVPMn+v9q8PXNsSODdzYjpLiQQeeh+48VXg058sK3gBG9AH1ysrSqzevds8iH/ynZeX7/KiXor8drvzzju1VXxeFT1u7bLLLtpLf1nloscZ+b0ov1Xld6GIwrKDQlbdSG6au+++O2uS7OiQbZzyW3jjxo0w/66UCyUhsV6H0Reb4rCoAAAgAElEQVTGzeo9Wyz+VRdkTMu16m8N/DjEqyFjXa/fgoxuhTz8RBns1q1bToIkETVkVcx9992nXXrCCSdoma133VV+w28u5oRNsuRUjls0HqMoX8x33nkHl19+eVZMkWvki6BPAooJMv/73/+0L/ScOZm05LLSRr4Q5mMdf/jhBy3Z06233qpdJ29/ZJmceUWOv70L7DAS+GltTqvBblvSTalUJTo+AhWWx3G33Q8YdQqXsTodL7I89ZI5ebYnSWUKZkHVEvj+4bRu168PQfxz3SdWGCoCoY1/oaJEYwIhkLD4Z3yBli8JsHE+Jn1S7jxR5n+yJUle9kmbsvVg0KBBOauuzXM3fSxEXZARP0Id/1Lq/QAs95Ecs3tGmOnQKJBvZmQbnf0JcMOrwBvf5nVhPNJK5li0oItH8W/t2rXa7gr5/SVFfvOJ+OtlMcetCy+8EHJMtr6aRdJdrF+/Pvtb13j6k8Q4sVWO4a5RIzeZpgg3suNCfnNKMab8MPrDuGndu4Xin5UgMwpA9tw/2a7xgOXPU++GUhCCjDwYZYWMiChWK1++/fZbLYeM5IORIg/y4447LgvBnLCp2HGLL7zwgpZtW/YVmvctFxJkzO0Uy9JtVj0Lre7xrkdza+47q1oi19uRVgb51X7RdlKqRBrL058kfdBhuwAizsifo3cHajH5bw5S2Za04JvMUdby5/3/AapqQV2BChVVSCuVRfvErwtSauDxzy9X2U4wBEIf/4LBwlbDQCBB8c/8Yqt///7aC6x8uRike8qdJ8qKHHn5dtddd2m9LXM9edlnlePP6o11HASZ0Me/CvVqKNr8z3L5wj+2AU5tmJn/nbofsC0Pt8mJXL/+CTwtc79lmf/+r/rWdP36tdr8r0q5OQyhT7PBo/gnuaJkq+Gzz8oifH9Wuhl/R8rWJMkz2qRJE0vUEmsk/kl+GSmSa0Ze+ufLl7p69Wot/42eLsP8e1iPbRUVmZ9RjJubsReKf1aCjOS8bqzfPr070CX7f/58bYIQZDp37ozx48fn7B02ertu3TrtwSlZsq2+UD/++KN2ZOIzzzxj67hF+QKIYipCzxFHHIFzzjkHDRs2zD6k9YFsfgAbE0MV+5Lp9i9ZskR7I7Ns2TJta5bskd5hhx386UyLVmZ8BHSdmvPBR0grBwZmkFXDKfUIKKiEinaF7NpuS6DVPkCz3YAdtwZ2qrv5T4PN29BD5Zobxvy2Dvh+DfDDmsx/9T9vrQCeXw7IQ7lgUTAHGzE88HwxZiNTauDxz43+YR3hJRCJ+BdefLTMSwIJiX+S9Ldfv37ZnAqydF/mRfoczIjY+MOm3HmicW5rJ4+EzN3kAIiPPvrIct7p5VDwqu5IxL9r1R2xBWQJQ/bldD4ep+wLHLkbsPM2gIg1O9fd/HeZH8ax/PJnRmiRPIAr12z++9srgGc/t+Xx7ViHG3Gj8oOtq/26yKP4F7QgI79NJWWFCCNWRZL4ylYlSSwuL/3lt3Ch0+lk+5Jsv7rxxhvzxiXGTetBWyj+5Qoyw9SGqIlPjdWsGerf6Up6u0EIMlZ7h804C61ckWMWO3TooK14KVf0KNSOfGFOPfVUbe9xsS+Zbv/PP/+sqZ3Tpk2D7CeUzNlB5pKRbNN1rzfR3Yj9cZ2yzK+4a7udlHq0vMgCICePsZRP4DkAQ5FW3im/KpdrCEn8c9krVhcyApGKfyFjR3M8JJCQ+CdijGwZl2SWUuSHh5zGJCeHWBXjfKzceeKTTz4JWT0tRQQhecFnXpFjtMG81SEOK2QiFf9GqI2wAf8C0MfDb16Sqp6AWrgBw5VPQue0h/GvFEHG+Du4GCurWGKMW5IUXP7YOSG4WFv658VSazBuWpMsFP9yBZmUehGAsXo1rfcB5gUQhoIQZGS7kgzqQqXQAJw6dar2JkOKbCOSJHFbbbWV3bGdc12hdiZMmKCtppHSvHlzTfypXbvweeSyT1BW7oiYI0X2CkrS4iBLmwnA/C9yLOiHtDIuSJsKti2Z+AGRg+W/LM4JvPCXEPOG81t9uiMk8c8nb9lMgAQiF/8CZMWmfSKQgPgneVsuu+yybP69YmKMkDfOx8qdJ8obZUmCKcVuHgnjPXEQZMT3yMW/SvVYqLgMKk6FghivffYk1sjJIs9AwRhUKq970oIblXoY/4IWZERwliO3yym//fYbvvnmGy05sPyelBym+qExVnGJcTM/7XzxzyzITAKQPVPv+lbAv1qW04Wl3WsUZCSz/WOPPeb4yGYRH1q0yPx2Nudo0a0qpvCZrS90vST5lZwwUqqqqrLZtEshUKgdc6KkUuoPw0NdknwNfT7H+slIKxmAYS4pdT8AbaGgLVScmG+fcZhd8Mm2NQBehKo9iGcjrXztU7ulN5NSQxH/SneAd0aFQGTjX1QA007nBGIe/z788EPtpZv+YkqSUd5zzz045pjC5xq7NU+UrQCSCFNPhml3HmacW9q9x3nn+3tHpONfhdpKm/8BpwLInBfMkktAxYdQ8LT2p1KRl3HhLx7GP9nRIEKwbIuUYkeMdXOFjJO4Icl+Jb3Fa6+9hnfffVfbLimnvOnii1VHFhNk7LSfL866HTflaO+BAwdi7Njs2hPLsWlnBWOpgzpf/DMLMssBZA/3fbUv0GLPUpss/T7zQJSBIatBnBSjIHPKKadopyLJ0V3G4taDVuo01kVBpnhPLfgaaPFAznVfIq00KH5nyK6oUNtAgQxOObpbBpj8kQQ9+t9LWyYVMjctzJETkeQAwx//+q/8/Seo+B8ULEBamR9+F0wWptRQxL/IcaPBjgnEJv459pw3hJZATOOfTOglmeaVV14JmVtKkfmkTMgPOqj472m35onmHwJ2fqSIrXEUZGIT/yrVA7AJJ0LR5n/y5x9//Vf/u3fnGgcbSOSc1P8BWPnXn8zfVaxEDbyISuXjYM0roXUP458550q5uyjMvzmLbVmyE2skTi5cuFDLlaofXpOPYqtWrbRjsF966SXtEi8FGbfjZhgEmXzxb7MgM1TdC7Xwpd4BW9QE/swcme57MS/vssrgXMwo40PMD0HGuJXIL0Gm3HaKMfT68y1HAOs2GlrZgL1xvfKV1+2yfhKoRiBE8Y+9kwwCjH/J6OdIeBnT+LdhwwYtP4y8EZW31FIkMa/kbimUtNLYZ24JMm6/6Y3EuCpgJONf1HswRvb7EP+M+aPy7dpwQtQYl8oVZCQ2SdoNWcVjXAkjR2TLSkI5eKZRo0Za7tH99tsP22yzTc4iBC8FGbfjZhgEGelnq/i3WZCpULtCwTR9QLTcC3jlPCfDw71rzcu7Stn/Ztx3m2/pkVsPWvHcKACVq34Wskve6lx88cUabJlkyLnyW2yxhXvwfazpuAeBV43yi4ozUKVM99EENkUCGQIhin/skmQQYPxLRj9HwssYxj85YvrOO+/EddddlxVjZG4m8yv5oWG3uDlPLCWHjHHOZ+dNt12/gr6O8S/oHmD7WQI+xL/ly5fjrLPOwptvvqk1O336dHTp0qXkTnBTkPnyyy+1lBv6dk6xU7ZW7rvvvqhRo0Y1G+2IJIybhbvWKv5tFmRSqpx7k8k2BmDQMcBtp5Q8Vsq60by864orrsDIkSOx5Zb2zpCzu1/PzQHzxhtv4OSTT9Ye/HZPWZJVNbKHee+999a+DO3aZU5YLmTXvHnztHaktG7dGlKHnJwUxTL4WWDUwhzLb0BaGRpFX2hzxAmEKP5FnCTNt0mA8c8mKF7mPYGYxT9ZGSMHK8jye71UVlZiyJAhBU81sgLt5jzR6SlL69at03yQFT1S4iTIMP55/7VmCzYJ+BD/5Het/I7Vk3rL7737778f//iH7HJzXtwUZOSYazmJV4oc+HLfffdhp512ymuUndPfGDcL96lV/DOukHkKCjKKAICJXYBeTZwPErfuMD64ZGmpHNksy6bslBdeeEETOOQIajl3febMmZA9b+bi5oCRtiSL9fz58zWBZMqUKTjuuOPymitvb2RycNddd2nXGE8+KmSXnBJw9tln4/XXM8nK7aisK1asQN++fSGnLe28886QiYksPwu6TFoC9J5hsELFHFQp7YO2i+0nkECFGlj8kyRqkttA8hy8+OKLWgI1+Z5Lke9p06ZNNfG1Q4cOBR+SSes1p/E7bHwY/8LWIwm2J8D45zZ1eXv76KOPaiuJ5QWZzAEliab8f61atRw35zTOFLre+Ja8cePG2jyxSZP8E23zW/U4CTKMf46HIm/wioBP8c+8EkVW7IlIU7duXceeuSnIOM2Bas7z6uWWJQETx7hpFf+MK2RyElouvgRoImmpAipGgUNMkFUhsvz0gAMOKGjRxx9/jAEDBuC5557TruvWrZuWvK1eveon1bn5oJVJgLzFGDx4sNauiDP//ve/sd1221naK3lx5Phq+eFlXulSyC5RWWUpmVwj5aijjsKDDz4IebhbFfObojCtqlmyEjjknhyro5nYN6DvCJt1kYApoZsf8U+EGIkDN998sybGFCvyw0Ie4BJjdtxxx2KXx/5zp/E7bEAY/8LWIwm2J4D45xVt49xK2pBt3RIzSxFj5H6nccbJ/K3QDzKZu4ntw4dvTuYYJ0GG8c+rbwDrdUzAx/gnuxx69OiRzdUiMUBektud08m8URYdyEqbt99+W3O13BwyxphVbEfKmjVrtMUEd999dxaz14KM+XdvHOKmVfzLCDIpdRsAmYxnf5X1FUCt6lvHHI/zcm6QtwcXXXRRdv+v7PsVsUVWiOy5557Z3CmSpOfzzz/HjBkzNNFGT0okK2sk/8zxxx9vaYabD1ppwKx+Xnjhhbj++utzvmgi3Lzzzju4/PLLs3sJx40bpy0XU5RMdxSzS44k6927d/Z+OTHgjjvu0BIu6XVIPfLFkS1RkvxXf1MkbUkwCEPZsAmoXVXNkm2RVn4Lg320ISEEAoh/8n2Ut7Yy4TaWo48+Gi1btsyeCCdHDkome33FjFwr33dZWXfYYYclpIOs3SwWJ8MOh/Ev7D2UEPsCiH9ekV29erX24+Txxx/XmijnDbRuo9M4U+x68/zN6geZzN1GjRqFW265JTv/FXviJMgw/nn1LWC9jgj4HP+sEujKSuirr74anTp1slw8IP788ssv2lxQhBDzC7xyBRnjjhR58SdtyO9sY/4YsVtWqgwbNkxbgWgsVnlei8VBcx8Vuz5ucdMq/mUUgOFqU9TAuzqgRvWBjy93NKQ9uVjeEMiqE+koPUO+3YZEjJEHmmTUN4oUxvuLDQCnA0auN7+dERFJ9grK8YqyH1g+f/7557NVW00Y7Nj1yiuvaGKVfoyjVCjCU4sWLbQluvIDbu7cuTk/5Mp9U2SXvZPrDvg38IkcmKyXTTgMI5T3nNTBa0mgLAI+xz8RjCUvgOzTlSLf13/+858QAdcqH5Rsb5StkEOHDtW2M0kptjKuLB4RudlOnAy7K4x/Ye+hBNjnc/zzkqi8lOvatWvJTciJInLaiHFLt9M4Y+d6q3mirOZu0KBBtbmbPBNkxbiUOAky4g/jX8lDlTe6RSCA+CfihmxPl3mgvspFd8f8Uu7rr7/Gu+++C8lTai6FVk3biUN6fWYhW59jyo4KaUN+f7/22mva71cpEh9PPPFE3Hvvvdr/W53466R9qcPO9XGLm+b4lxFkTBmm2zUEnurp1mgvrx6r5VnFamzfvr3WuYceemjBS+0MAGMFdq9///33tWWmTz31VN72ZZDLsi9ZSlunTp2c69xsRyoWUUi+MLIKx25i5GKM3fq8/WRgzjJDbTxpyS20rMcuAR/jn4grIqxIwkn9wSYPNRFT8wnHuhuyWua8887LrowrtB3Truu8LlgCjH/B8mfr4Z7/OekfcwJcJ/fq1/olyMgPsoULF+LKK6+s9oNMt0XmiPI2eocddsD555+v/XPcBBnGv1JGKe9xlYCP8z+z3bIS7qGHHtLSWxhfrhfz7+CDD9ZeyJ955pl58wra/R2ptyUrUAYNGlTwd6tcK+k4JG3GTz/9pOU1FLFYdmyMGTNGE2/04rR9O9fHLW6a45++ZWkQgMwvBACXNQNGn1ZsSPj7uayWee+99/DMM89oR3OJqmjcmiQrUERZlBUxBx54oOVRXWaL7QwA4z1OrpcfXrKK5ZFHHtEevPqXTWyUFTOSdFhW8Vj9CHPSjnCRY9Qee+wxvPXWW1kVVeqWt+iSeyfMyUD7zwXGvJXTM4ORVkb5O7rYWqIJpFTf4p/ktjrjjDO0Nw7FtlRa9YkxYbl8biepd6L7NuTOM/6FvIOSYJ6P8c9LnLJ1feDAgVrOwFKLX4KMbp/8IJs9e7a23V5WTsucVt4+yxxRXqBJzkSZQ8p8UUrcBBnGv1JHKu9zjUAI4p/x962shPnwww+zuxtE5JDFBSLCyHZ1+bPHHnsU/Y3r5HekzlJi6NNPP62tEpTflbLTQtpv1qyZ9lvy9NNPx/7776/9bv3xxx81IUZ+k1slKHfavpPr4xI3zfFPF2TkB/BAvVNubgMMae7acGdFJJCXwMgFwNXzcj6+HWlFfiCzkIA/BFKqL/HPvCxUkrLJmwYnySbNp7Ode+65GD16dElZ+v2By1YKEWD84/gInIBP8S9wP2lA6Agw/oWuS5JnEONf8vo8JB6b458uyEiGnmym16CPvA4JK5rhA4FqR38BU5BWzvKhaTZBAhkCKdWX+Ccr+0499VRtdUzDhg0xbdq0gkee5useyScjW55OOeUUHHfccVod+UQdEXBkhd7MmTPx6quvaqsMpchR2pI8WJa8ykq6QqKQkzcXUrfd67///ns88cQT2hvi119/XXs7nO9tjBWLYu3onxvfekubsppQ2pUVhdIXwkLeSEsSO3kjXWzrmJtfG8Y/N2myrpII+BT/SrKNN8WaAONfrLs3Gs4x/kWjn2JopTn+6YKMZJk9Sff3ud5Am31j6D1dCh2BeZ8DJ0/MMesFpJVWoTOUBsWXQEr1PP7J3lc5cU0/wtRqz62bgKW9RYsWaTkKRAgqVCTnlpzmIWJEKcKH+Z5iQoksz508ebK2X1nfdprPPkl2fO2112p5sJy2YxZkli5dqtWVb6+2iEFyip8k2qtbt66b3ZG3LsY/XzCzkUIEfIh/7AASsCLA+MdxETgBxr/AuyCpBpjjn57U930oOESHsqgfcNguSUVEv/0k8O53wOHGLd8qFqNKKZyN2U8D2Vb8CVSonsc/WYlx2WWXYeLEjPooYoEk9/ViNYaIMbIiRgQP/bhsERtatWqFI488Ehs3btRWpIhQo59eJ3kLxo0bp624cSp8OL1+ypQpWkI6vW3j6XDmbP5Sd//+/TFy5EjHyc91QUb2Xrdt21Y7EUDqF187duyoHS1udRrdHXfcgSuuuMKTvjGzYvyLf3gJvYc+xL/QM6CBgRBg/AsEOxs1EmD843gIiIA5/ukrZJYD2Fu36YsBQIN6AVnIZhNFYPlqYJ87c1z+EmmlQaIg0NlgCaRUz+Pff//7X/Ts2RMvvfSS5quXyRnfeecdLXGwLsbIapwbbrgBu+++ew7nL774QjtuW8QbKbJ1SQQj2U5lLMVWvDgRZCQjv2Tpl21XktRYMvPLNq4aNWpkq5GT9SSxnAhYelI5sVEEJSd2Ge2W+6S96667DnI6lfG0OfMx5CeccIK2gmfXXXf1fFwy/nmOmA0UI+BD/CtmAj9PJgHGv2T2e6i8ZvwLVXckyRhz/NNXyPwIBfV1ED8MAXbYOklY6GtQBH5cC+w40tC6ip9QpewQlD1sN4EEKlTP459sk+nevTsWL16sAX7ttde0bPluF/NJI5deeqm2uiTfFpyVK1eiX79+mDVrlmaKbKlKpVKoWbNm1jQ3BRk5QUCy9ctKFdk+JHUb29IblVU+t99+OwYPHqz9k9WKomJ2GT+XFUKyQuass86yXPny7bffajlkJM+OlJdfftlytZDb/cX45zZR1ueYgA/xz7FNvCERBBj/EtHN4XaS8S/c/RNj68zxT18hswZAVoJZMxTYunaMKdC10BBYux6oe32OOWuRVvxJ4BAaCjQkUAIp1fP455cgI8clygqQjz76yPIoQivOr7zyCnr06AFZvXLsscdqx6zKahK9FBM+zHUWul62SbVo0UK7RbYFiVhkXK1irEty4Mg1O+20Ezp16qSJKVtssYVtu4x2dO7cGePHj0e9etZLP9etW6fljhERSIqXK5iMPjL+BfrNZ+NCwIf4R9AkYEWA8Y/jInACjH+Bd0FSDTDHP12QWQ+glg5lfQVQa/MK8qSyot8+ENiwCahdldPQBqQVyoE+sGcTfxFIqZ7HP78EmalTp2riihRZ+SICQ506dQp29c8//4wLLrhAO/VJynPPPYc2bdrYFj6cCDJGwUhWrVRUVOD888/PK5QUMryYUGT8vNBqHL2NYvV58X1h/POCKut0RMCH+OfIHl6cGAKMf4np6vA6yvgX3r6JuWXm+KcLMqrRb7Uy5hToXqgIKObxllYy45KFBPwgkFI9j39mQcarLTFGUWHUqFEYOHBgUYKyPSidTmt/pMjWHhFzShUqCgkbcgy3JDOWY7uNRfLDyGlPrVu3xv7775+zEiafA8UEFOPnZp+s6ixWX1GQJV7A+FciON7mDgEf4p87hrKWOBJg/Itjr0bIJ8a/CHVW/Ew1xj8KMvHr38h5xAdy5LosXgb78ED+6aeftKS+zz77rMbOiy0xf/zxh5Zz5e6773bchqykkVOZpFRVVWWP55b/dypUFLteEvVKwt45c+ZYjiM54rpdu3Zazp2WLVtiu+22s7yuWDvFPjdX6vR6t74EjH9ukWQ9JRHwIf6VZBdvSgQBxr9EdHN4nWT8C2/fJMAyK0HG8yX7CeBKF0sgwCWrJUDjLe4S8GHJqlkskcS58sfNY6/NCX2diD5yqlCvXr18EWSkkTVr1mDChAm455578MEHH+TtTxFnhg0b9v/ZOxNwKYrr7b8toHH/Iy5Ro4AGxfgJQQMqi0sANxYVNS4sLlEQwbApLuAd5iKoEMAFRHAhgqKJoCKIC7gLKEgU/FyQKLiQ/NEIn0ZNokB/z+nrXHv6zkx3z/RS1f328/DE3Kk6dc7v1LzTc6a6CpdffnnZx157LYDFUZCh/gX7Vqa1MghEoH9leMUuKSBA/UtBklUPkfqneoYS61+xR5ZC39QysUQZWEUEuKlbRfjYOQgCEW3qNm3aNKuwIJccS33PPfdg99139x2B7PkiK2Fks1s5ovmYY46xVpFUskLmpptuwvXXXx9ZQSYXtBxx/emnn2LhwoV44oknIJv+yglMzks23B01alTeBsBuBRS3151j+G3vO3EFOlD/gqBIGxURiEj/KvKRnRNJgPqXyLTqFRT1T698Jcjbwpv68tivBKVYr1B47KFe+UqktxHpn5wa1K1bN+s0o3333RePP/442rRp4xvp8uXLrVOHxI5c9k14y9lDZuvWrdYjSlKUkev+++9Hnz59av3yU6iopCgkA8ppR7JiRgo0ciqSPN4kVyFebn65va5CQYb653v6s0PQBCLSv6Ddpj39CVD/9M+h9hFQ/7RPoa4BFDv2eh2AJrmgPhoENC18OqiucdNvRQms2wwcdFuec+uRNZoq6i7dSiKBjBmJ/sljOgMHDsSf/vQni6KsSJGNdOvXrz3gzpXuli1brEedxo4da7WVTXDl0R8pWMhVzilLmzdvtk46euyxxywblZyyJKtbZH+YWbNmWbb8PDblDP6zzz6zVhTl9prxu9mwDgUZ6p/rlGeDsAlEpH9hh0H7+hGg/umXs8R5TP1LXEp1CcipfzWb+laZb8FAy1wQK/sBR9bc3/MigVAJ/PUfwFHTbEOYWIVq49ehDkrjJGAnEKH+SbFDHleSwkXjxo2t1SjHH3+853zI6UwXXnhh7cqR6dOnW0dW5/aisR8rfdhhh+Hhhx9GixYtStp/+eWXraOyZcXN0UcfjYceeghNm/5UE7UXNqQQJEdIF7vs4zsLMrL6Ze7cuVbB5/3338ctt9yC4447rqRvpcZ2K7i4ve4c2G97z0kr0ZD6FwRF2qiIQIT6V5Gf7Jw4AtS/xKVUv4Cof/rlLCEeO/Uvd8rScwB+m4vx2d5A54MTEjHDUJrAog+Bk2p+TM9dzyNrdFTaaTqXLAIZMzL9cx773LJlS0yZMgVt27Z13eBXHnmS1Sevv/66xf/MM8+E7Euz11571eZD7A8fPhy333679bcrrrgC48aNw84771wwZxs3brSOuJ43b571eqFVO/ZVNzKmPErUsGHdJZSyeufmm2/OO6HJuULGfpqT7IMzZsyYvH1h7E46NykWH7t3717bxK2A4va6E4jf9kG8Cah/QVCkjYoIRKh/FfnJzokjQP1LXEr1C4j6p1/OEuKxU/9yBZmHAJyXi3FWD6BX6R9VY8VhmqZ1Iy/7HsiXCbnJ33HHHUv69Nxzz1lfYHIbRkpfWfpfr169WGNJ++APrAZ6P5pH4WFkjfPTzoXxR0ggY0aqf84iyK677moVTgYNGlT76JE9+q+//hpz5syxjqPO7akiK1lmzJgBWQXjvFavXm2teHnvvfesl84//3zrEacmTWqfSrX+/tFHH+Gqq66qfVSpmE3nqhfZXFeKPnbNFR9vu+02jB8/Pm9TXmdBxm5L4q6qqkL//v3rFIyksCSrf0aMGGHZO/HEE63HoPbff/9EFWSofxG+zzlUYQIR61+QaZBNwdesWYNnnnkGL7zwAlatWlWrkYceeihatWplPdYpe3fJJuhuV9BFWTd7bq+7+et8PWh7fsf3257655cY2wdOQGP9q5RF0HrhZs/tdb/xBG3P7/iVtnfqX64gMxHAkJzxWzoDw9tVOlR4/eWUEVmmL19SnPsKFBpVNq2UvRokebmr0NL88DyO1vIXX3xh/XJ+7rnnolmzZtEO7nO0cUuAaxbldZqErDHUpxk2J4HyCWTMyPVvw4ZcvOIAACAASURBVIYNGDJkCB555JE8v+XEpA4dOqBRo0bWBreyge/SpUuxadOm2nbt2rWzVsAceeSRBWOWgrXsBzN06NDaLydS/OjYsSNat24N0UOxaT/RSL68SAGk0CNEhVa+SHtZrSJ+SpFF9nkRH0VXL7roIqvIIpezICO+ie+DBw+u9V0e3ZLTonLFpU8++QRSQJcvWnLJ0dei8+ecc05evG4fxm6vO+H5bV/+hPupJ/UvCIq0URGBGPSvIn8BSCFGHt+Uxx6lGON25YresirPvqIwbA1w0xS3193iCtt/v+P7bU/980uM7QMnoKH+BcUgav2JerygOIVlx6l/uYKMfAGekBt0QBtg8mlhuVC5XfkFWPZh+OabbzB//nwcddRRJY2uW7fO+pVYlvrL5pe500nk2FnZzDIpl/yqLL+a33rrrfjZz35mbfApX5xUvgYuBKYsz/NwGLKGfEHmRQLREMiYseifPJIjRRBZ4Zdb+VIqYK9fKsSGFD6WLVtmFT5WrFhRkmPXrl2tlS3Nmzcv2k5WqcgqG3kkqdh10kknWatkvvzyS7Rv395qVmhTXynw3H333Rg5cmReoamQXdEv0bOTTz65ziNdbh/ubq87x/PbPojJSf0LgiJtVEQgJv0r1+diWmQvZottWSH44osv5mmrWzE7aA1ws+f2ul9GQdvzO77f9tQ/v8TYPnACmulfkPEHrRdu9txe9xtb0Pb8jl9pe6f+5Tb1PQsG5uSMd2kGLOhZ6VDh9ZfVH3L6ximnnGItY99zzz1LDvboo4/irLPOstrIsn/ZWFKWtpbaDyE878OzLF+Eevbsaf1iJHtT6FCQ6fog8ORaGxMTZ6PamBseJVomAQeBKjNW/ZPCjBSLZbPb1157zdKm3IqY3LJ7WXIvS++9LLu3RydFWtm0d/bs2ZbdN99803pZvryIPTk+W5b1b7fddq7TQn6Vfvfdd62ir6yIkRUssnpFVt7II1Knnnqq9RiTrLwpVZDJDfT5559bR38/9dRT1pen3IoYifnYY4+1iu6ycqbY/jduH8ZurzsD9tveFZiHBtQ/D5DYJFwCMeufn+BEF6+99lqroCuXFKnlscvLLrus4OOeon+LFy+2Hn0U/ZOr1OOeQWuAmz231/2wkbZB2/M7vt/21D+/xNg+cAIa6V/QsQetF2723F73G1/Q9vyOX2l7p/7VFGRuMFthO/w1Z/zQRsD7V1Y6VDj97Rs9ymkfkpBS+8DYj5qVIoUcOSvL36WoIx/msrRfvlAk4dKxINP8DmDNlzb623AkRhs13xp5kUAUBDTSvyhwcIzoCFD/omPNkYoQ0ET/nBuiS+FW7uXklLrcKXPFciwF34svvrh2Q3R5/FHuAZ2bk0d9gx/0eEHbC/s9Q/0LmzDtuxLQRP9c4yijQdR6EfR4QdsrA2FFXZz6l3tkaRcA/7Jb/qEKqO/+o2lFzpTTWZb2X3DBBdYeCM5TNwrZyz3etHbtWvTu3ds60WTRokW1K2a8FHXK8TOOProVZLZsAxpU1yG1K7LGN3Hw45gpJZAxtdG/lGYokWFT/xKZVv2C0kT/ZAWhrJqTR5Zk36n777/fKsZ4vZ5//nn06tWr9pF1WSndo0ePvO5R3+AHPV7Q9ryyLacd9a8cauwTOAFN9C/wuGNYURe0PgVtLwzGxWwW0r+agoxcGXMdgNpjOFb1B1rsE6V73saSYorsVeBlU17ZR0H2Z5CN3OSaOHGitZGmfU8ZL3a8eRZ/K90KMqs3Ai2n5nFbj6zRNH6S9CB1BDTRv9TlJcEBU/8SnFzdQlNc/zZv3mydqJnbBP3666+3DmqoX7++Z9KywkZOh5NNxeWSzccnT56c90hk1Df4QY8XtD3PcMtoSP0rAxq7hENAcf0LJ+joH3EMWp+CthcW50J2C+nfTwWZKnMBDHTJdVTx6Gu/x13L5r19+vSxniGW04bkVKYWLVpYp4zIsdc33XSTFa7XzX39Jt+tfe51+34vsq/CX/7yF2tvBTlhRX4Nkj0eunTpYq0Mko03nctz7Xs2FJtQr776KmRDO5WuOkcemngS1UZXlXykLykhoIH+pSQTqQmT+peaVKsfqOL6J/c4skeV3A/Z7+X8gpV7wQkTJlibhMuJcnI/aC/qFLpnkx+6HnrooTr3ZCeeeKJ12mehe7KcX17vAaV9oQ3Q7fGJH7KqRx6zz52QJyuEZNWQHFohJ965jeeXV5jtqX9h0qVtXwQU179SscghCbIHoXxvfOWVV2r3CZTvjXJip+zvJwsPCu0TSL3zNUsCbVxI/+wrZMYAuD434tBjgQknBzp+xcbkVxI5FUk+kLwcdy1Hp8rGvfIh7vw1xP6a1819/X7YubV3FmRkw0x5hCq3uaUTmOx5M2jQIGtTO/tGl7oWZIY9A0xclhflWGSNERVPFBogAb8EMqby+uc3JLZXmwD1T+38pMo7hfXP/kOc5CT36LncDwV92e/ZZs6caW1SLqfBlbonk1U3sgpb2jovr/eApQoy8oVLVgbJiqBifuROo5Mf8TKZjOWGW4EnaHZ+7VH//BJj+9AIKKx/pWJ+6623rMUFCxYsKInmkksuwZgxY/Dzn/88rx31LrQZ5Wq4kP7ZV8jknTTSoTHw8sWuNiNtsHLlSshpI3K5HXftXJ7qfF7YXtzxurmv24druR/GRxxxhHVilBSZpHgkH67du3e3fvGQPXMWLlyYd3SjHAP7hz/8oXaljOyPIydJyYbHUiWVDezkeG+5cZFTUOSSZ6XllyWVruNmAK98bPOIJyyplJ50+eLYaV9F/UtXQpIfLfUv+TnWJkKF9U/uiQYMGGCdqCmX3IfJqUluG/mWw95+jycn0b3zzju192Ry+MOBBx7o6Z4sN7bbPaPb61KMktU5cqqocJCr2P2h7KvzP//zP7WnSalekKH+lTND2ScUAgrrX7F4X3rpJVx44YW13w3le6xoVOvWra0uK1asgCw8yOnG6aefbm1kvs8+P+1FQr0LZTZ5MlpI/34qyIwwG6M+1ucsbV8P+O8NnuxG1sjPcdf2fWLatm1rHfsqH1j2S/aXGTp0qPUnKXCMGzcOO+ywQ9F43D48nR3d2ttfl77i34033gg5AcDuh/OoRzkK9sEHH8R+++2XN6Rue8jsMBr4fqsthC1ogjGGvUQT2dziQCknoIH+pTxDiQuf+pe4lOobkML69/e//x09e/bEiy++aPENs9DgvCeTH7TGjx9vPRJkXwEjX3KuueYaTJ1aswlesXtMP/eAheJ64403rEeS5Ic5+cJ19dVXW/es9hXSX3zxhXXv+sc//jFv/oXJKYiJTv0LgiJtBEJAYf0rFN/69eutDcrl6Qi5RJ/Gjh2LJk1qt4GFFHNFP6688sra0+Wkjazoy51MTL0LZPaUZaSQ/v1UkBGTjo2NXr0EaHdgWWMF3snvcdf33nuv9XyvXLKkS5ZxOo/Hll8/pPghK0oOO+wwa1no4YcfHktBRj5sZYWMvLEK/fLz2WefWXvIyDOCckl1VJ6Btl86FWRe/QTocF+e+9zQN/B3DQ36IqCw/vmKg42VJ0D9Uz5F6XNQUf2Tx3TOPffc2pUfYe6H5/yCIqtypBhU6J5sw4YN1irkF154oeg9WSUFGecqb7Elj6sX2sj422+/tb5o3XnnnbXzVuWCDPUvffKifMSK6p+Tm/OwmkIrX+x97KfLOQvH1Lt4ZmUx/XMWZB4A0DPn4piOwPUd4nHYOaqf467tS1yl0PHUU08V3NDWXuSR8XKnMBWL2O3D1dnPrb39dbd9bL7//nvrw1hW9chV6MNWp4LM2FeAEc/lEXsQWaOXGrONXqSSQMZUVv9SmY8EB039S3BydQ1NUf2LqyAjj5FLQWbPPfcsmFHn4RCF7sn83AM6+9vj9nIa6OrVq60NPOUHxmL3iKpMTeqfKpmgH7UEFNU/Z4b++c9/WoXgp59+2lo1J3uqyqNKxS4p1sreo/Kj/m9+8xvrMafc9hV2faLeRfdeKKZ/zoJMXwDTcm51OghY1Cc6J0uNlDvuutjSUHtf2djsjDPOgJyy5FbokL1XzjrrLKu7W1u3D9dKCjKyma/Yd67isdt0G1+ngkznmcDij/KI9UPWmK7GbKMXqSSQMZXVv1TmI8FBU/8SnFxdQ1NU/+IqyHi5J5OTOuUI7mIFELd7tlKvP/HEE5Bfv+WSI7/lx7hCGwfnptt3331nffGSU0NVL8hQ/3QViQT7raj+OYnn9lKV77duRRS3bNn1h3rnRiu414vpX35BZqTZDPXwgX3Yb0cAOzUIzpFyLMkvEbLDvEwetw8m5478bqcx2Y/Gdqs2un24VlKQcfNTbLuNr0tB5rsfgJ3lTBv7tRWH4EZjbTnzg31IIBACiupfILHRiDIEqH/KpIKO2Akoqn/Ogkyhx7WDSqT9HsvLPZns5Sd7ORQrgLjds5V63V7skb0f5AuT2+VWIHLrH8Xr1L8oKHMM3wQU1T9nHH/+85+tlXByXXHFFZgwYQJ+9rOf+Q7X+Z2SelcWQt+dSulffkFGTGfMdwEclhtl7rlAj9r/53vsQDrYl2i5TRp7gaWcwUtt7uv24eocz6292+t+7elSkHn0PeCsP+dF9x6yxq/KyRf7kECgBBTUv0Djo7HYCVD/Yk8BHShGQEH9s9/XiNth7o3i954srIKM/LAoP0LKPz8xu/mjwsSn/qmQBfpQkICC+uf00/4er66utvZILfei3pVLrvx+pfSvUEFmIoAhueEubgXcV7NqMrbLz3HX9keQynG41Oa+fievW3u315NakLlkHjDjzbzoJiFr1Bx3xYsE4iSQMZXTvzhxcOzgCVD/gmdKiwERUFD//vOf/2DYsGG1G9bKAQ3yL+xjr70UftwKIG73eMVed+5v6MUXmQFu/gQ0SyoyQ/2rCB87h0lAQf0r9T0wKQWZJOudM3+l9K9QQaYTgEU5I412Av45PMx3gLttr8ddO3elP+aYY7Dbbru5DrBt2zasXbu29jx3WQI2ZMiQOh/4bh+ufgsoQdvTZYXMnuOAL7/Lo9UZWWOxa6LYgATCJpAxldO/sEOm/WgJUP+i5c3RfBBQVP9y94ASiRwDLfuk7L777j4Cq2n61VdfWcWdvffeGyeccAKc94h+78ncCiBu9oq9nuQVMtQ/39OWHaIioKj+2cOfOXOmtTGvXEkpyCRZ75xTt5T+1S3ISO+MuRHA3jlD8y8Auh4S1Tsifxx75azY8dW5HvZjrFu2bAl51u7QQw/15Lj9A79Tp06QSb/vvvvm9XX7cLU3dv6qU84O/H4LPDoUZBZ8AHSbnRfZ58ga+3hKEhuRQBQEFNK/KMLlGNERoP5Fx5ojlUlAQf2zb2Qp92WPP/442rRp4ztA+4EP0vnZZ59F586da+34uceTTmEVZMR2OXvI2O9jva6q8Q2xgg7UvwrgsWs0BBTUP3vgds0Jcg8ZL3pBvatsCrrpX7GCzF2ysXtu6D4tgfvPrMyRcnvbj7t2fng6bdo/jErtBVPIF3sxR16fO3cuevToUXZBxn70thhhQaYG5YWPATNX5WGdhqxxebnzg/1IIHACGVMZ/Qs8NhqMlQD1L1b8HNwLAQX1T45uHThwIP70pz9ZEcjJRrK/Sv369b1EZLXZsmWL9aiTbJArV6Ef3lQqyPg9Zen777/Htddea53GVOye0zOskBpS/0ICS7PBEVBQ/+zBvfbaazjppJMg3zG9nrIkCwymTp2KJk2aWJuQd+nSxTJJvQtu2nix5KZ/xQoyecv2t68HbL42ntOWch9Kbsddb968Gb///e+tM9nlKlRQKQXM+QxbodOc7JPXbdd7Z4GHBRlAdpdueDPw/da8TPBxJS/vZLaJjoBj2Wqc+hdd0BwpbALUv7AJ034gBBTVP/lBTh5Xki8ijRs3xv3334/jjz/ec8hyOpMs9Zcf+eSaPn06Lr300rxH01X6grJu3Tqcf/75eP311yF7Gz788MNo0aJF0Xjt7VUsyFD/PE9VNoyTgKL6l0NiP7hGVguKLhx33HFFiTm38pg3bx66d++uXEEmaXrnTIgX/StckBFLo8y/wcTBOaPTugF9j4r2XSLHXctjSrJ00+246yVLluDUU0+1PqyPPvpoPPTQQ2jatKkvh+0bAhfa3Nd+3NiZZ56Je++9Fw0bNqwzhvwSc/PNN+ftfs2CDDB9JdBvvg2XgQ8xyvilrySxMQlEQUAB/YsiTI4RHQHqX3SsOVKFBBTUP/liMWLECOuYV7nksfQpU6ZAfqxz2+BXHnkaMGCAVdyQS+7fZEX1XnvtlQdKpYKM3P/KKiDxSS55PGHcuHHYeeedy77nrHBWVNSd+lcRPnaOkoCC+pcLX/ZbkVVwsheWXH369MEdd9xRdL9UeyHauSqQehfdpPKif8ULMhmzGkDteVptDwCW/D4652Ukr8ddOz+4ZENeKYhsv/32vhy2Px4lHZ2b+zpXvYwaNQrDhw/HjjvuWDvO119/jdtuuw3jx4+3ikO5K+qCTCXPWfuC5qNxu3uBpZ/m3/8ga1T5MMGmJBANAQX0L5pAOUpUBKh/UZHmOBUTUFT/Nm7caP04J7/yyrXrrrtahYpBgwbV2fNPXpf7sTlz5libX+ZWxsgPdjNmzLBWnTgvlb6giG9y2ETv3r1rC0kSq9x32gtJ8jjXxIkTPd1zVjwvKjBA/asAHrtGS0BR/ctBWL9+vfXokSxEkOuyyy7DmDFj8nRBCjdvvPEGrrzyylr9cK4KpN5FN6286F/xgsxIsxnq4QO7u69cArQ/MLoAvB537Syk2Jdk+fHWviJH+jmriYVWvsimwbL8q1GjRpCCzZNPPolNmzZZq3Quuugi9O/f33IhioKMcyPhI444wvJNblpkP5xmzZr5wRFo21c/ATrc5zC5FYfgRmNtoAPRGAkEQUAB/QsiDNpQgwD1T4080AuPBBTWvw0bNlinYD7yyCN5wciJSR06dLDuxWQ/FdnAd+nSpdb9WO5q164dbr/9dhx55JEFQaj2BUWcdD5qtccee+Ccc86xVoDLve/ChQtri03yQ5w80lDsntNj9gNvRv0LHCkNhklAYf3LhV1IF2RvmMMPP9zSP3n9ueeeq6VUaIUd9S7MSfSTba/6V7wgI7YypvwMUfOwmSyNinhzX6/HXdsfNZKjDGUn6P32268s0jKBZTlrbnWLcy8a+bvsHyMrcIpdsuGSrJKRU4/at29f9MPR75vBS3vnmzTnozxneO6555bFJIhOBTYzegJZ4/QgbNMGCYRCIGb9CyUmGo2FAPUvFuwctBICCuuf7Pknv/bK0v3cypdSoeZW0sgyf+djSvZ+Xu6x7O3DPHUkN4780r1s2TIMHjwYK1asKBimxDdy5Ejsueee1l6Kcnk5NaWS6eGnL/XPDy22VYKAwvqX4/PWW29ZW2MsWLCgKDLRBnmSQ7TP/jSHdKDeRTPTvOpf6YJMldkNBp6wu/zRIKBp3W1TAo/KvsmuTBp5drjQc8LO3fevu+46a5LVq1evLJ/sj0mJAVnlMnny5Lzndrdt24Z3333XWvYqK2LWrFkD+dWiY8eOOO+886y9bGTiy3KyqAsy8uH95ptv4o9//COeeeaZ2l+H3DYhLguWx07rNgMH3eZobKI7qg37jjIerbEZCUREIEb9iyhCDhMBAepfBJA5RPAENNA/uU+UfWFkw185fWTVqlW19zyyerlVq1bo1q2btdp57733dmWk4heUnNNyrzt//nzID5Dyw6Gs/JEY5Vdx2Zy4efPmmD17tvUog0oFGeqf67RjAxUJaKB/gk321nr55Zet974UbuX7qFyyYlC0QfRANkEv9P2Zehf+xPOjf6ULMuJrlfkWDLTMuT30WGDCyeEHwRGSQ2DYM8DEZbZ4TKxCtfHr5ETISBJLgPqX2NRGFRj1LyrSHCdwAtS/wJGmzSD1L20ZT1C81L8EJTOeUPzon3tBJmP2BTAtF0o9A9gwDNhnl3iC46h6Efjfb4BfTAC2mnl+90PWmK5XJPQ2lQSof6lMe1BBU/+CIkk7sRCg/sWCPSmDUv+SksmUxkH9S2nigwnbr/65F2TEr4y5DkCTnItXtwPGdQ7GYVpJNoHhi4DxNRuB5671yBr+ziNPNiJGpzoB6p/qGVLWP+qfsqmhY14JUP+8kmI7BwHqH6eE9gSof9qnMK4A/Oqft4JMlTkIBm61B/XxEODA3eMKk+PqQOCTr4DGkxyemhiMasO5o4wO4dDHtBKg/qU18xXFTf2rCB87q0KA+qdKJrTyg/qnVbrobDEC1D/OjTIIlKN/3goy4oyjSnj5b4CpXcvwkl1SQ6D/AuCuN/LC5eqY1GQ/YYFS/xKW0PDDof6Fz5gjRESA+hcR6OQMQ/1LTi5THwn1L/VTwC+AcvTPe0GmyuwPA3fanVp+GdB6f79usn0aCKzYALS52xGpiStQbUxNQ/yMMWEEqH8JS2i44VD/wuVL6xEToP5FDFzv4ah/eueP3jsIUP84JXwQKFf/vBdkxBnHjtOnNQOe7OnDSzZNDYEuDwIL19rC5clKqcl9YgOl/iU2tUEHRv0LmijtxU6A+hd7CnRxgPqnS6bop2cC1D/PqNLesFz981uQOQsG5thhz+oB9GqRdvyM307ggdVA70cdTEycjWpjLkmRgLYEqkzqn7bJi85x6l90rDlShASofxHC1nco6p++uaPnJQhQ/zg9PBCoRP/8FWTEmVHm4zBxes6vA3YD3r8S2KmBB0/ZJPEEvvsBaH4H8OnXtlANzMMo44zEB88Ak0+A+pf8HFcQIfWvAnjsqj4B6p/6OYrRQ+pfjPA5dPgEqH/hM9Z4hEr1z39BJmPKephVdmYD2gCTT9OYIl0PjMDAhcCU5XXMtUTWWB3YIDREAnERoP7FRV6Lcal/WqSJTpZLgPpXLrlU9KP+pSLN6Q2S+pfe3HuIvFL981+QEacyZjWAG+z+zb8A6HqIB4/ZJLEEFnwAdJtdJ7zRyBpViQ2agaWPAPUvfTn3EDH1zwMkNtGfAPVP/xyGEAH1LwSoNKkeAeqfejlRwKMg9K+8gowE79jg6OA9gNX9+eiSAvMiFhdkqVaLqcCHm2zDcyPfWHLBQSMgQP2LALI+Q1D/9MkVPQ2AAPUvAIjJMUH9S04uGYkHAtQ/D5DS0yQo/Su/IJMxOwFYZEd+cSvgvtrdZdKTDEYKXDIPmPFmHRKdkTUWkw8JJI4A9S9xKa0kIOpfJfTYVzsC1D/tUhamw9S/MOnStnIEqH/KpSROh4LSv/ILMhJ9xrwZwDV2ENO6AX2PihMNx46awPSVQL/5dUa9BVnj2qh94XgkEBkB6l9kqFUeiPqncnboW2gEqH+hodXJMPVPp2zR18AIUP8CQ6mzoSD1r7KCTE1RZimAY+1Al18GtN5fZ8T03SuBFRuANnfXab0MWaOtVxtsRwLaEqD+aZu6IByn/gVBkTa0JUD90zZ1QThO/QuCIm1oS4D6p23qgnA8aP2rvCBzg9kK9bASJmptHbEP8Nql3E8miISrbEOemzvmHuDtjTYvDZjYiqMw2qj7AJPKwdA3EiiHAPWvHGqJ6EP9S0QaGUQlBKh/ldDTui/1T+v00fkgCFD/gqCopY0w9K/ygoygzJh9AUyzUz37V8Ajv9OSM532SOCcvwBz3q3TuB+yxnSPJtiMBPQnQP3TP4dlRED9KwMauySPAPUveTn1EBH1zwMkNkk+Aepf8nNcIMIw9C+YgkxNUWYygAF2v69uB4zrnMpcJT7o4YuA8UvqhDkFWWNg4oNngCTgJED9S9WcoP6lKt0M1o0A9c+NUKJep/4lKp0MplIC1L9KCWrVPyz9C64gU1OUeQ7Ab+1kJ50CDD5GK9Z01oXAra8BQ56u0+h5ZI2OhEcCqSVA/UtF6ql/qUgzg/RLgPrnl5iW7al/WqaNTodNgPoXNmEl7Iepf8EWZG4098cPeBVAEzu5WT2AXi2UYEknKiTwwGqg96N1jKxHA7THSGNDhebZnQT0JVCjf6sB7EH90zeNpTyn/iUzr4wqAALUvwAgqm2C+qd2fuhdjASofzHCj2bosPUv2IKMMBlltoWJlwDUtyN6/Dzg9ObRQOMo4RCY9z5wxsN1bG+BgeMxypDTtniRQHoJVJnDYOCPhQBQ//SfFtQ//XPICEIkQP0LEW78pql/8eeAHihMgPqncHIqdy0K/Qu+ICNxV5lnwcAcJ4KFPYFTm1UOhhaiJ/DUWuC0BwuMa+JsVBtzo/eII5KAQgQy5mAAk0p5RP1TKF8+XaH++QTG5ukiQP1LdL6pf4lOL4OrlAD1r1KCSvePSv/CKcgI2gI7T9czgPkXsCij9Mwr4JxMxm6zga1mnRd5opJuyaS/wRMo/GH8LYCd7YNR/4JHH4VF6l8UlDmGtgSof9qmzovj1D8vlNgmtQSof4lOfZT6F15BpqYoMxTABGe2uHxfn/lbZJmWBDAMWWOiPpHQUxIIgUDhD+NN2IYTsB3kjDnqXwjYozJJ/YuKNMfRkgD1T8u0eXWa+ueVFNulkgD1L9Fpj1r/wi3I1BRlrgVwkzNr3OhX/XlcZAMjcfw6ZI2b1Y+AHpJAiARKfRiPNt62Rqb+hZiAcE1T/8LlS+uaE6D+aZ7A0u5T/xKdXgZXKQHqX6UEle4fh/6FX5Ap8aWER2KrOx+LHO3FYoy6KaNnURIovIHbZmzDiRhtrMpzpUhRJgj9e/+fwAvrgY3f1Pz7X/nfb3/67+9+iBJKdGPt1AD4+S7APvJvZ9t/7wKc2ARovmdlvlD/KuPH3gknoIj+JZxybOFR/2JDz4F1IED90yFLZfsYl/5FU5CpKcoUfHzp6nbAOFnYz0sZAsMXAeOXFHSHjykpkyU6EhsBL7+MOJ0LUP+eXwfIc61P/Q145/PYKCg98OF7A6f+EjilGdCxqT9XqX/+eLF1ygjErH8pox15uNS/yJFzQJ0IPooppgAAIABJREFUUP90ypZvX+PUv+gKMjVFmb4ApjkJnf0r4P4zAfnVk1d8BOTX9AsfA+a8W9AHbuAbX2o4sioEyvkwrtG+IwG87NzoV17yon9LPwWmLAee/huw6d+qwNDDj4Y71hRnBrQB2h5Q3Gfqnx75pJcxEohJ/2KMODVDU/9Sk2oGWi4B6l+55JTvp4L+RVuQkZTUHIn9MID69gwdsQ9wb3eg9f7K5y2RDq7YAPz+CeDtjXXC2wIT5/Fo60SmnUH5IVDZh/EiAHsUG66Y/q35JzD2FWBm/kNQfrxmWxuBPi2B6zsAhzoeaaL+cZqQgAuBGPSPOYmGAPUvGs4cRWMC1D+Nk1fadVX0L/qCjHAZZbaFiQcBNHFimtYN6HtUYvOuZGDTVwL95hd0bT0M9MQoY6mSjtMpEoiKQPAfxpsKFWhy+vfFd8BNrwCTlrkHePLBNYVs2U/F2ldl55/+e7cd3Pvr2OLr//64X86Pe+ZYe+d8A8gH6zMfukc05Fjgug7AXjsB1D93XmyRcgIR61/KaUcaPvUvUtwcTEcC1D8ds+bJZ5X0L56CjGC60dwfP2AmgN86qV3cCph8Gh9h8jSbKmgkS7QGLgRmvFnQyPNogD4YaWyoYAh2JQH9CQT/YTwEDfBIMf37zX7AO18A/y6yIa8UXXL7o8j/7prQoku5E+df/63ZX0ce75K9dqRYU+jasQFw+F7AG3+n/pXLmv1SQCBi/eP9XzRzivd/0XDmKJoToP5pnsDC7quof/EVZHKMMuZkAAOcyA7eA7j1FKDrIYmcC7EHteADYPDTwIfyO33dawqyxsDYnaQDJBA3gTA+jLPGrbVhFdG/QmEf+4uaVR3dDo0bil7jz19Ts9po2Wee/ab+eUbFhokmEJP+8f4v3FnF+79w+dJ6QghQ/xKSyPwwVNW/+Asywkk2+zVwF0zU8Uc2YpRTmLjhbzDvC6kKyi7SskFoncuACROXI2tMD2Y0WiEBjQmE/WGcQ1NC/6TJIY1qCjEX/Vpjlgq4/qe3agozH3xZxBnqnwJZogvKEFBA/3j/F+xs4P1fsDxpLcEEqH+JS67q+qdGQUbSfoPZCtthCoBjnbPggN2AsZ2AXi0SNz8iDeiB1cD1i4FPvy447DJswwCMNgo/wBSppxyMBGImENWHcU1Buj2APwPYzx71HjsCI44DhtZRxJjZaD78xGXAmJcLnlYlDy+di6zxquYh0n0SqIxAlPrH+7/KcuWxN+//PIJiMxKg/iVuDuigf+oUZHLpz5g3A7im0Gw4rRkw6gSexOT3nSIbXY56EVi4tmjPW5A1rvVrl+1JIJEEovwwrjJ7w7D20sq7jtoPmHUmcNheiSQce1DvfQH0fgxYWWj/GBN9UG3Mit1JOkACcRCIUv+c8fH+L/CM8/4vcKQ0mGQC1L9EZVcn/VOvICNTIWN2gok/wkDLQjPj8t/ULOE/cPdEzZvAg/nkq5ol+ne9UcS0iVUwcBWyxuLAB6dBEtCRQJQfxlXmxTBwnxPT2b8CZvUAflZfR4D6+PyfLUDvR4E57xbw2cQlqDZm6BMNPSWBAAhEqX/F3OX9XwCJBHj/FwhGGkkTAepfYrKto/6pWZDJTYmMWS0PMxWbIVe3q1nOL6eO8PqJgBz/OmEZMH5JSSqjkTWqyI0ESOBHAlF+GBcpxoimyZ5ZvKIjIHtqFdRKFmWiSwJHip9AlPrnJVre/3mhVKcN7//KwsZOaSdA/UvEDNBZ/9QuyMj0yJgtYKAaJk4vNFvqGcCgY4CBbYCmDRMxn8oOYt1mYPJy4LbXgK1mETMG5sFEFbLG6rIHYkcSSBqBKD+MixRj7uwC9G+dNLB6xDN1BXDFkwV8ZVFGjwTSy8oIRKl/fjzl/Z9nWrz/84yKDUkgnwD1T/sZkQT9U78gk5smVeZZ1mqZIo8xSbM+LYHLjgLaH6j93PIVwKufAHevBGauKtFNHk8CRqPamOvLOBuTQNIJRPlhXKQYc98ZwMU8RSnWmTbjLeCSx1mUiTUJHDx6AlHqX7nR8f6vKDne/5U7qdiPBKwf/QcDmORgsQnbcAJGG28XZZQxjwSwCMAejjZDkDVuDZQt9S8V+qdPQeanwkx/GBgOoEmxDLU9ALjw1zWnMiX1uGw5vkt2jb7/LWDppyXf+uthYhyqjamBCgSNkUASCET5YcxijPIzhkUZ5VNEB4MkEKX+BeF3lcn7PwC8/wtiMtFG6glQ/7ScAknVP/0KMj8VZgbBgFQ2ixZmtq8HnPd/gHMOB7oeouW8q+P0gg+AR94BHv6/wPdbXQsxt6LauC0ZkTMKEgiYQJQfxizGBJy88MyxKBMeW1pWiECU+hd02FUm7/94/xf0rKK9NBGg/mmX7aR//9W3IJObShmzL0xcUepRJmnaaCeg+6E1hZlTfqnPyhmpBD79N0Am4hNrgC+/c3kP1ZycdCeyxnTt3m10mASiIhDlhzGLMVFlNbBxWJQJDCUNqUggSv0LM37e/+XT5f1fmLONtpNCgPqnRSbT9v1X/4JMblpVmd1g4FIA3b3MtE4HASc2BY5rrN6eM0s+AV76GHhhHbD4Iy/RWG2egIl7UG3M99yDDUkgjQSi/DBmMUbbGcaijLapo+OlCESpf1Flgvd/vP+Laq5xHL0JUP/A779qTuHkFGRyfEeazVAPvWHgApg42At2ebTp6F8ArfcDWu0LtNgH+NVeQP3tvPQuv82WbcC7XwCrNwJv/gNY8Xfg9c9cH0X6aUADH8LEbGzFLNxorC3fE/YkgZQQiPLDmMUY7ScVizLap5AB2AlEqX9xkOf9XxzUOSYJ6EGA+lcnT/z+q87UTV5BJv/moxOAswGcCWBvv9gPbQT8cg+gSUPgwN2B/XYF9tm55vGnhj8Ddt2h5tEnmdC54o0UWWRvF1lq9a//Apv/U/OY0cZvgb//C/jkK2D9ZuBvm4A1X/r1yGr/OYDHAMxB1lhclgV2IoE0Eojyw5jFmMTMMBZlEpPKdAcSpf6pQDpj8v5PhTzQBxJQgQD1z1cW+P3XF65AGie7IFO3OHMagFMAHBYIveiMvAfgaQALWYSJDnqsI2XMXbANzWDgIBhoDOAXAPa1CosmGsHA7jCxKwzsCGB7APV/9HcLgO9h4t8w8C+Y+AoGpPQnhbx/APgMJj6GiY+wHdYia3wTa5xRDR7lhzGLMVFlNbJxWJSJDHXNQNS/YIFHqX/Beh6MtZriDO//gqFJK2EToP4FS5j6R/0LdkaFYi09BRk7vpplrScCOA5Au1InNYVC3d3oegBLALyMrXiBjyO5A9O6xQizMerhNzBwJEy0hIHDI5yTciz6OzCwCib+iq14A2OMj7Xm6XQ+yg9jFmMSNXXswbAoE1JqqX8hgf3RbJT6F24kwVjn/V8wHGklGALUv2A4FrNC/csnQ/0Ld75VYD2dBRknMApiBVOIXX0ToCD6RlZ2hyg/jFmMKTtNunRkUSaATFH/AoDo0USU+ufRJeWa8f5PuZQk2iHqX3Tppf65s6b+uTOKqAULMsWrqnxkJKJJmIphuGQ6+jRH+WHMYkz0+Y1pRBZlygBP/SsDWoVdotS/Cl1VrjsfGVEuJVo7RP2LPn3Uv/KZU//KZ1dBTxZkKoDHriRQkgA3FYxvgkT5YcxiTHx5jmlkFmU8gKf+eYAUUpMo9S+kEGiWBLQmQP2LL33Uv/jYc+SyCbAgUzY6diSBAgR47Gb80yLKD2MWY+LPd0wesChD/YOJ2diKWUrt8xal/sX03uOwJKAkAd7/xZ8W6l/8OaAHZRFgQaYsbOxEAg4CVWY3GLgUQHcvbDodBJzYFDi+MdDuQC89omvz6ifAyx8DL6wDFn/kedwnYOIeVBvzPfcIo2GUH8YsxoSRQa1ssijzY7qof+nTP63eqXSWBEIkQP2j/oU4vWg6HQRYkElHnhllWAQyZl+YuAIGWpYaotFOQPdDga6HAKf8EtipQVgOBWv3ux+Ap/8GLPgAeGIN8OV3LvZNrIKBO5E1pgfriQdrLMZ4gMQmQRNIdVGG+pc/ndKif0G/iWiPBHQkQP2j/uk4b+mzkgRYkFEyLXRKeQJV5iAYGFzqeOrt6wHn/R/gnMNrCjFJuKQw88g7wMP/F/h+a8mI5DjtW1Ft3BZJ3CzGRIKZgxQmkLqiDPUvvfpHESCBtBOg/lH/0v4eYPyBE2BBJnCkNJhoAlVmfxgYXqoQ0/YA4MJfA71a6LMSxm/OZOXMA6uB+98Cln7qWpgZh2pjqt8xPLdnMcYzKjYMj0AqijLUP2sCpVb/wnv70DIJqE+A+kf9U3+W0kNNCbAgo2ni6HbEBKrMswDcUOrRpD4tgcuOAtortidM2KRkz5m7VwIzV5UYSZbyA6NRbcwN1B8WYwLFSWOVEUhsUYb6V3RipEb/KntrsDcJ6EuA+kf903f20nNNCLAgo0mi6GZMBDJmCxiohonTC3lQzwAGHQMMbAM0bRiTj4oMu24zMHk5cNtrwFaziFMG5sFEFbLG6ordjrYY0xsGZjp9vu8M4OJfVxwJDSSIQImiTB9UG7O0CpX65zldidY/zxTYkAQSRID65zmZ1D/PqNiQBAoSYEGGE4MEihHImNXWqpgi19XtgGHHAvvsQoR2Av/7DTBxGTB+SUkuo5E1qsomF20xpjMMPMtiTNnZSl3HEkWZk1BtLNICCPWvrDQlTv/KosBOJKA5AepfWQmk/pWFjZ1IACzIcBKQgJNAxuwEE38s9njS5b8BrusAHLg70ZUi8MlXwE2vAHe9UaRVzYkkVyFrLPZFMspiTLV5BLbiRQB72H3kyhhfGUtl4yJFmU2ohxNQZbytLBTqXyCpSYT+BUKCRkhAIwLUv0CSRf0LBCONpIgACzIpSjZD9UAgY94M4JpCLU9rBow6AWi9vwc7bFJLYMUGYNSLwMK1RaHcgqxxrSdkURZjxKGMKcWY4+2+TesG9D3Kk7dslHIC01cC/ebXgfASssYJSqKh/gWeFq31L3AaNEgCChOg/gWeHOpf4EhpMKEEWJBJaGIZlk8CN5itsB2mADjW2fOA3YCxnWpOTeJVPgE5len6xcCnXxe0sQzbMACjjTeLjhB1MabmaMtb7f5kTwSq8soz5fNgz3QQqH4JyLzgiNXE4MiOhPeCmfrnhVJFbbTTv4qiZWcS0IgA9S/0ZFH/QkfMATQnwIKM5gmk+wEQyJh9YeAumHUf4RvQBhjXObnHVwdAz5cJOS52+CJgyvIC3QyYMHE5ssb0Oq9GXYy5zmyEBvgUBnbM+dKzBfBAD1/hsjEJWAR6PQo8aN/G2sS/8QMOwE3Gl7Ejov5FlgJt9C8yIhyIBGImQP2LLAHUv8hQcyANCbAgo2HS6HKABDLmZAADnBYP3gO49RSg6yEBjkVTtQQWfAAMfhr4cFNBKFOQNQbWvhJ1MUYGrjKvhIHbcz7s1AB4fyBwAPcN4iwug8CnXwHNJwNyQ1p7mfgDqo07yjAXXBfqX3AsfVhSXv98xMKmJKAtAepfLKmj/sWCnYMqToAFGcUTRPdCInCjuT9+sI4x/q1zhItbAZNP46qYkMjXmpUvpwMXAjMKP6T0PBqgD37AOQAmOXzZhG04AaNLbIyaMY8EIKfZ5G3GC2AIskbeY0gF48yYywAck3ttbMeajZx5kUC5BGSD6+ufy+v9GrJGnUcky7Xvqx/1zxeuMBorrX9hBEybJKAKAepf7Jmg/sWeAjqgGAEWZBRLCN2JgMAosy1MPAigiXM0btgaAX/HEEU2PpVWsn7GWVAJvxhTc7P2md3NdYOBJv8TPRuOmBwC6/8f0NRZCmyAX2CksSHSKKl/keJ2G0w5/XNzmK+TgM4EqH9KZY/6p1Q66EyMBFiQiRE+h46BQJV5Fgw8DKC+ffQj9gHu7c4TlGLIiDWk7MT/+yeAtzeW9CD8YowMf4PZDtvh1ZwnR+4LrOwXFxmOmyQCR00D/voPW0Tb0B6jjSWRxUj9iwy1n4GU0j8/jrMtCehEgPqnZLaof0qmhU5FTIAFmYiBc7gYCcjmbcA0pwdn/wq4/0w+ohRjZqyhZQnrhY8Bc94t6Mm32IZjQ31MKTfsKPOCH1dQWX/pcRgw99y46XD8JBA468/Ao+/ZIjHQE6OM2ZHERv2LBHO5gyijf+UGwH4koDIB6p/K2VHn/k9pSnQuyQRYkElydhnbTwQy5lAAE5xIrm5Xc4oSL3UIyClM4wuvGRiGrDGxoKeV7hljN8qCjDqTIWGexFaQof5pM5Ni1z9tSNFREvBIgPrnEVT8zah/8eeAHsRDgAWZeLhz1CgJZMxrAdzkHHLSKcDg2m1bo3SIY7kRuPU1YMjTBVtdh6xxc94rNcWYxQAa5v3dxFWoNuoU4dzG5iNLroTYoEwCsTyyRP0rM1vxdYtV/+ILmyOTQPAEqH/BMw3ZIvUvZMA0ryQBFmSUTAudCoxAkQ/jWT2AXi0CG4WGQiDwwGqg96MuRZkgV8bkhuKmviFkkyZj2dSX+qftxItN/7QlRsdJwEGA+qftlKD+aZs6Ol4mARZkygTHbhoQKLJM9fHzgNOba+A/XcS894EzZAvmutcwAC9WdLR1Kb489pqzL2ACkR97Tf0LOIPRm4tN/6IPlSOSQLAEqH/B8ozBGvUvBugcMjYCLMjEhp4Dh0qgwAZu9Qxg/gXAqc1CHZnGAybw1Fqg22xgq1nH8LcAdnb8dQiyhvNwYf8eVZlXwsDtuY47NQDeHwgcsLt/U+xBAp9+BTSfXLNxde1l4g+oNu4IhQ71LxSscRiNRf/iCJRjkkBQBKh/QZGM3Q71L/YU0IGICLAgExFoDhMhgZqjDec4R1zYk8WYCLMQ6FDyoXzag64mgynGyDDXmY3QAJ/CwI65UXu2AB7o4eoDG5BAHQK9HgUeXJ1XjPk3fsABuMn4MnBc1L/AkcZtMHL9iztgjk8C5RKg/pVLTtl+1D9lU0PHAiTAgkyAMGlKAQKjzLYw8RKA+nZv+JiSArmp0IUSy1fFcvETmModt8ocBAN5q22yJwJVx5drkP3SSKD6JSDzgiNyE4NRbdwWOA/qX+BIVTEYuf6pEjj9IAGvBKh/Xklp1476p13K6LBPAizI+ATG5goTqNmM9VUATexecgNfhXPm07UiG71tQgO0wEhjg09z7s0zpuxTk1eCmdYN6HuUe1fdW4wePRpVVVVWGP369cOkSZOw4461C4Zqwwu6ne7c7P5PXwn0m18nopeQNU4IPE7qX+BIVTMYuf6pBoD+kEAxAtS/xM8N6l/iU5zqAFmQSXX6ExZ8xnwOwG/tUfFo64TlGECRIxGfR9boGHi01eYR2GptHryH3fZ9ZwAX/zrw0ZQyGHShxas9pSBU4MyMt4BLHq9jYBPq4QRUGW9XYLpwV+pf4EhVNBip/qkIgD6RQCEC1L9UzAvqXyrSnMogWZBJZdoTGHTGnAxggD2yq9sB4zonMFaGhOGLgPFL6oCYgqwxMHA8VWZnGHjWaTfpRRmvBZSg2wWevxgMFinGACZOQrWxKHCXqH+BI1XZYKT6pzII+kYCQoD6l6p5QP1LVbpTEywLMqlJdYIDLbCj/tm/Ah75XYJjZmg45y/AnHfrgOiHrDE9cDxVZm8YmJmmokzQhRav9gLPXcQGSxRj+qDamBW4O9S/wJHqYDBS/dMBCH1MJwHqXyrzTv1LZdoTHTQLMolObwqCu8FshXpYCRO1c/mIfYDXLgXkqGJeySUgRwgfcw/w9kZbjAZMbMVRGG28GXjkVebFMHBfmooygTNMuMESxZhLUG3MCDx86l/gSHUxGLn+6QKGfqaHAPUvPbl2REr9S23qExs4CzKJTW1KAsuYSwEca492+WVA6/1TEn/Kw1yxAWhzdx0Iy5A12oaChkWZULAmwWjkxRiBRv1LwtQpO4bI9a9sT9mRBEIgQP0LAao+Jql/+uSKnroTYEHGnRFbqEogY94M4Bq7e2k5AUfVlMThV5GTbG5B1rg2FH9YlAkFq85GYyrGUP90njQB+R65/gXkN82QQEUEeP9XEb6kdKb+JSWTjIMFGc4BPQlkzE4A8jbHvLgVcN/peoZDrysjcMk8YEbdh5Q6I2ssrsxykd4syoSCVUejMRVjqH86TpaQfI5c/0KKg2ZJwBMB3v95wpSWRtS/tGQ62XGyIJPs/CY3uirzLRhomQvw4D2A1f25b0xyE146MnmeuMVU4MNNtnYmVqHaCO9wahZl0jrdauOOpRgjo1P/Uj/37ABi0T9mgATiIkD9i4u8kuNS/5RMC53ySYAFGZ/A2FwBAhmzGsANdk/mXwB0PUQB3+hCbAQWfAB0m11n+NHIGlWhOcWiTGhoVTccWzGG+qf61IjFv1j0L5ZIOWiqCVD/Up3+YsFT/zgtdCfAgozuGUyb/xmzBYBV9rAHtAEmn5Y2EIy3EIGBC4Epy+u80hJZY3VoxFiUCQ2tqoZjLMZQ/1SdFAr4FYv+KRA3XUgJAd7/pSTR5YVJ/SuPG3upQYAFGTXyQC+8EhhlPg4TtTvFHLAb8P6VfFTJK76kt5Olq83vAD792hapgXkYZZwRauwsyoSKVyXjsRVjBAL1T6WpoJwvsemfciToUCIJUP8SmdaggqL+BUWSduIgwIJMHNQ5ZnkEqsyzYGCOvfOsHkAv+c2YFwn8SOCB1UDvRx04TJyNamNuqJBYlAkVrwrGYy3GUP9UmALK+xCb/ilPhg5qTYD6p3X6onKe+hcVaY4TNAEWZIImSnvhEXBs5HZaM+DJnuENR8v6EujyILBwrc3/sDf4zQ3Fooy+k8bF81iLMeIb9S+xcyvowGLTv6ADoT0S+OmzNe8gB97/cWoUI0D949zQkQALMjpmLY0+V5n9YeBOe+jLLwNa759GGIzZjcCKDUCbux2tTFyBamOqW9+KX2dRpmKEqhlQoBhD/VNtUijsT6z6pzAXuqYpAd7/aZq4eNym/sXDnaNWRoAFmcr4sXdUBDLmOgBNcsNd/htgateoBuc4OhLovwC46408z9cjazSNJBYWZSLBHMUgsRdjJEjqXxSpTtQYsepfokgymNgJUP9iT4FuDlD/dMsY/WVBhnNAfQJV5iAYuNXu6MdDgAN3V991ehgfgU++AhpPcoxvYjCqjdsi8YpFmUgwhzmIEsUY6l+YKU6s7dj1L7FkGVikBKh/keJOymDUv6RkMj1xsCCTnlzrG6nj15Gr2wHjOusbDj2PjsDwRcD4JXnjRbdKRoZlUSa6ZAc8khLFGImJ+hdwZtNjLnb9Sw9qRhoWAepfWGQTb5f6l/gUJypAFmQSlc4EBpMx+wKYlousngF8Ngz4+S4JjJUhBU5g4zfA/hOArWae6X7IGtMDH6yYQRZlIkMd1EAKFWOof0ElNYV2lNC/FHJnyAER4P1fQCDTaYb6l8686xo1CzK6Zi4tfjtOFhl6LDDh5LQEzziDIDDsGWDiMpulqE5csjvPokwQqYzEhjLFGImW+hdJzpM8iBL6l2TAjC08AtS/8NimxDL1LyWJTkCYLMgkIImJDaHK7AYDT9jj+2gQ0LRhYiNmYCEQWLcZOMi5a4yJ7qg25ocwXHGTLMpEirucwRQrxlD/ykki++QRUEb/mBcS8EOA939+aLFtEQLUP04NXQiwIKNLptLoZ8acB6B7LvQ+LYH7z0wjCMZcKYELHwNmrsqz8gSyxumV2vXdn0UZ38ii6qBUMUaCpv5FlfrEj6OM/iWeNAMMjAD1LzCUaTdE/Uv7DNAjfhZk9MhT+rwcaTZDPXxgD/yVS4D2B6YPBSOunMCrnwAd7nPY2YpDcKOxtnLrPi0UKcrc2QXo39qnLTYPhMDUFcAVTxYwZeISVBszAhnEjxHqnx9abOtCQCn9Y7ZIwI0A9c+NEF/3QYD65wMWm8ZGgAWZ2NBz4JIEMmY1gBtybdoeACz5PZmRQPkE2t0LLP00r/9oZI2q8i1W0LNIUYYniFXAtMyuBU5iqLEUVzFGxqb+lZlNditGQCn9Y5pIoBQB6h/nR8AEqH8BA6W5wAmwIBM4UhoMhMAo828wcXDO1rRuQN+jArFMIyklMH0l0M++a4yBDzHK+GVsOIoUZc7+FTCrB/Cz+rF5loqB/7MF6P0oMOfdAuHGWYwRd6h/qZiDUQapnP5FGTzH0osA9U+vfGngLfVPgySl3EUWZFI+AZQMP2N2ArAo59v29YDN1wI7NVDSWzqlCYHvfgAa3gx8vzXP4c7IGotjC6HK7A0DM53jH7UfMOtM4LC9YvMs0QO/9wXQ+zFg5d8LFmP6oNqYFRsA6l9s6JM8sJL6l2TgjK08AtS/8rixV0kC1D9OENUJsCCjeobS6F/GvAtAv1zo3Mw3jZMgnJgLbO42DVnj8nBG82g1Y7a3ijImmtp77LEjMOI4QI565xUcATkCfczLwKZ/O2waWAcTfZA1Xg1utDIsUf/KgMYuXggoqX9eHGeb9BCg/qUn1xFHSv2LGDiH80WABRlfuNg4EgIZcyOAvXNjzb8A6HpIJCNzkIQTWPAB0G12XpCfI2vsE3vYI8z9Ud9aKfNbpy+HNAKu6wBc9OvYvdTagT+9Bdz0CvDBlwXDeB5b0AdjjA2xB0n9iz0FSXVAWf1LKnDG5Z8A9c8/M/bwRID65wkTG8VEgAWZmMBz2CIEHMtVG+0E/HM4aZFAcAT2HAd8+V2evXgfW7K7kjHvAVBw++pjf1FTmOl2aHAs0mBp/hpg7CvAa58VjfZeZI1LlWBB/VMiDUl2Qmn9SzJ4xuZOgPrnzogtKiJA/asIHzuHSIAFmRDh0nQZBDLmRABDcj0vbgXcd3oZdtiFBIoQuGQeMOPNvBcnIWsMVQZYlXkNDMjpTzsV8unnuwCnNgNO+SVw6i+BXXdQxnMlHPnXf4Gn/gY8vbbmf//3m6JufQcT1ag2blHCcXGC+qdMKpLqiPL6l1TwjMudAPXPnRFbVESA+lcRPnYOkQALMiHtGjK+AAAgAElEQVTCpekyCGRMOfPksFzPuecCPWr/Xxn22IUEHAQefQ846895f3wPWeNXSoG6ztwL2+M6e3GymH8nHwy03h/YZxdAijX77PzTf++W0GLN1/+tKbRslH/f/vTfKzYAz3zoKZOT8D1uwk3GF55aR9WI+hcV6dSOo4X+pTY7KQ+c+pfyCRB++NS/8BlzhPIIsCBTHjf2CoPASLMZ6uEDu+lvR/B0pTBQp9mm7La/8xgHga04BDcaa5XjMto8FFtwPYA+yvmmp0MzUR9jcYOxRjn3qX/KpSSJDmmlf0lMAGMqTID6x5kRAQHqXwSQOURZBFiQKQsbO4VCIGP2BTAtZ7vTQcAifg0NBXXajXaeCSz+KI9CP2SN6cpyGWW2hYkBMHEqDDRU1k81HdsE4GkYmIJRxlI1XbQeV6L+KZucZDmmnf4lCz+jKUSA+sd5EREB6l9EoDmMLwIsyPjCxcahEsiYDwDomRtjTEfg+g6hjkjjKSUgm7yOeC4v+AeRNXppgaPK7AgDpwA4FcDhWvgctZMm3oGBp6x/o4znox6+rPGof2VhYyf/BLTWP//hsocOBKh/OmQpET5S/xKRxsQFwYJM4lKqcUAZcx2AJrkIXrkEaH+gxvHQdWUJLPkEaH9fnnvrkTWaKutwMcdGmc2xDSfCgBzdLf9+/uP/5v674MbA2sVZ12E5J+t/AWz88V/Nf5vYiO3wAkYZ72sXI/VPu5Tp6nBi9E/XBNDvugSof5wVERGg/kUEmsP4IsCCjC9cbBwagRFmY9TH+pz97esB/70htNFomASww2jg+602EFvQBGOMj4mGBCInQP2LHHnaB6T+pX0GKBQ/9U+hZKTDFepfOvKsU5QsyOiUrST7WmWeBQNzciF2aAy8fHGSA2ZscRM4bgbwir38YuJsVBtz4/aL46eQAPUvhUmPN2TqX7z8ObqNAPWP0yFiAtS/iIFzOFcCLMi4ImKDSAhkTDn3Rk6Tsa6hxwITTo5kZA6SUgLDngEmLssLfiyyxoiU4mDYcRKg/sVJP5VjU/9SmXY1g6b+qZmXBHtF/UtwcjUNjQUZTROXOLerzAUw0CUX16weQK8W0US5bds2rFmzBs888wxeeOEFrFq1Ch9/XLN04tBDD0WrVq3QqVMndOvWDXvvvXc0TmkwyujRo1FVVWV5+sADD6Bnz9r9mDXwHnhgNdD7UZurJp5EtdFVC+fpZLIIxKh/yQLJaLwSoP55JcV2oROg/oWOmAPkE6D+cUaoRoAFGdUyklZ/HBu6reoPtJBtSUO8pBDz0ksv4ZZbbrGKMW7XrrvuiiuuuALDhg3DXnvt5dY88a/rXpBZvRFoOTUvTXpu7Jv4mZaCAGPQvxRQZYglCFD/OD2UIUD9UyYVaXGE+peWTOsTJwsy+uQquZ5mzF0A/Mse4A9VQP3twgv5X//6F8aOHYubb745b5BjjjkGHTp0QKNGjay/v/fee3jxxRdrV8zI39q1a4fbb78dRx55ZHgOamBZ94LMlm1Ag+o6oHdF1vhGA/x0MSkEYtC/pKBjHOUToP6Vz449AyRA/QsQJk15JUD980qK7aIiwIJMVKQ5TnECN5itsB3+mmtwaCPg/SvDA7Zp0yZce+21uPvuu61BZOXLVVddhcsuuwz77rtvnYH/+9//YvHixRgxYoT1OJNcRx99NGbMmIHDDjssPEcVt6x7QUbwNr8DWPOlDfQ2HInRxpuKo6d7SSIQsf4lCR1jqYwA9a8yfuwdAAHqXwAQaaIcAtS/cqixT1gEWJAJiyzteifg2GG/SzNgQUjbkUhxRQorEyZMsPyTPWLuuusuHH/88TCM0m8HWS1z8cUX4/XXX7f6nnPOOZg2bRoaNmzoPVa2VIpA1weBJ9faXOJJS0rlJxXORKh/qeDJID0ToP55RsWGYRGg/oVFlnZdCFD/OEVUIsCCjErZSKsvGXMogJoKCYABbYDJp4UD49lnn8XZZ58NeWSpcePGuP/++61ijNfr+eefR69evfCPf/zD6jJ37lz06NHDa3e2U4zAwIXAlOV5Tg1D1piomJt0J8kEItS/JGNkbP4JUP/8M2OPgAlQ/wIGSnNeCVD/vJJiuygIsCATBWWOUZpAxpQvwENyjW7pDAxvFzy0zZs3o1+/fnjkkUcs49dffz2y2Szq16/veTBZYTN8+HBrDxm5LrroIkyePBk777yzZxtsqA6BcUuAaxbl+TMJWUMKhLxIIBoCEelfNMFwFJ0IUP90ylZCfaX+JTSx6odF/VM/R2nykAWZNGVb1Vgz5kMAzsu5F9aR10uWLMGpp55qrY5p1qwZ5syZgxYt/J+tLfvJyCNPJ598Mo477jjLRrGijhRwli1bhsceewyvvPIK3nyzZnsSOUpbNg/+3e9+Z+1HU6oo5HevFq/tP//8czz++OOYP38+li5dCtlbR/bTadOmDU466SScfvrpOOSQQ4o+yuU2Tu71li1b4s9//rP1eJiM+Ze//MUad/ny5VYuhEWXLl1wwQUXoHnz5q6PjgU5jescfQg8jKxxfpBj0BYJlCQQkf4xCyTgJED945yInQD1L/YUpNUB6l9aM69m3CzIqJmXdHmVMZ8D8Ntc0M/2BjofHCwC0zQxZswY3HDDDZbh3r17Y8qUKVYBIoxLxlu5ciUGDx4MKQSVurp27Yrx48dbxYhCl1vhw9nHrf2WLVvw4IMPYujQoVYRptQlmx1fd9112GOPPeo0cxvHWZB59913LVtr1qwpOKTkYtCgQdaGy1GtOFr0IXDSrDx3nkfW6BjGnKBNEihIIAL9I3kSKESA+sd5ETsB6l/sKUirA9S/tGZezbhZkFEzL+nyqsp8CwZa5oJe2Q84su5hRxUxkZUYAwYMwKxZNd++pVggm/u6beRbzqBSjJEVMVLw+Pjjjy0TUmzo2LEjWrduja1bt1orUqRQI37JJatHpk+fbq248Vtg8dv+4YcfRt++fWvHlj102rdvb/ko/rz66qt46aWXas0OHDgQ48aNw4477pg3lNeCzBFHHIFTTjnF2jxZ7Eus3bt3t44WFz4LFy7MO1b81ltvxR/+8IdQcuNk9dd/AEdNs/3VxCpUG78uJ+/sQwJlEYhA/8ryi50ST4D6l/gUqx8g9U/9HCXUQ+pfQhOraVgsyGiauES5nTHXAWiSi+mjQUDTgA8u+vvf/46ePXvixRdftIZ54IEHrP8fxvXGG29YGwfnijGyGmfs2LH4xS9+kTfcRx99ZB23LcUbueTRJSkYyeNU9sut8OGnICObEffp08c6xls2NZZVQvIY13bbbVdrZtu2bXjqqaesApbEIIUa8VEKSn78svst/WS8G2+80Tqdaocddqg15TyG/IQTTrBW8Oy3335hpCfP5rrNwEG35f1pPbJG09AH5gAkkCMQgf4RNgkUIkD947yInQD1L/YUpNUB6l9aM69m3CzIqJmXdHlVZf4TBhrlgv5iOLDnTsEikMdkzj33XKxatcoyLKtA2rULfufgf//73xgyZIh1HLZcV1xxhbW6pNgjOBs3brQ2Gp43b57VXh6pymQyqFevXi2AIAsyr732mrU/jKxUkceHxLZ9rNygsspn0qRJGDZsmPWnQiuK3Pyyvy5FHVkhc/755xdc+fLZZ59Ze8jIPjtyyQqdQquFgp0VwD+/A/YaZ7Nq4ktUG3sGPQ7tkUBRAhHoH+mTQCEC1D/Oi9gJUP9iT0FaHaD+pTXzasbNgoyaeUmXVxnzWwC1JZhvRwA7NQgWQVQFmXfeecdaAfLee+/hsMMOgzwe5LZx8Msvv4zzzjvPOkq7bdu2mD17trWaJHe5FT6cpEq1l8ek5PEkueSxICkW2Ver2G3JHjjSZu+998YZZ5xhFVO23357z37Z/TjzzDNx7733omHDwkufvv/+e2vvGCkCyRXmCiZ7jN/9AOw8Jo/gd8gaPDIr2LcfrZUiEIH+MQEkUIgA9Y/zInYC1L/YU5BWB6h/ac28mnGzIKNmXtLlVcb8AUDt2dM/VAH1f3qCJhAWURVk5DQhKa7IJStfpMDg3HvFGdBXX32FSy+91Dr1Sa5nn30WnTt39lz48FOQsReMZNVKVVUVfv/73xctlJSC71Yosr9eajVObgw3e4FMBIeRLduABtV5f9yCrBFwOTAMz2kzMQQi0L/EsGIggRKg/gWKk8bKIUD9K4ca+wRAgPoXAESaCIwACzKBoaShsglkTNPe1xxVtqWiHZ0FmbAeibEXFSZOnGg9vuR2yeNB2WzW+ieXPNojxZxyCxWlChtyDLdsZizHdtsv2R9GTnvq1KmTddS1fSVMMf/dCij2150xFbLpZs+NY7mvG875ljWoi+XCZD//BCLQP/9OsUdaCFD/0pJpReOk/imamHS4Rf1LR551iJJfPHTIUtJ9jOAD+csvv7Q28X3mmWcsmmE8EvOf//zH2nPlzjvv9D2GrKSRU5nkqq6urj2eW/6/30KFW3vZqFc27H3yyScLziw54rpLly7WnjsdOnTAbrvtVrCd2zhurzuN+m0f1NuCH8hBkaSdsghEoH9l+cVOqSBA/UtFmtUNkvqnbm5S4Bn1LwVJ1iREFmQ0SVSi3YxgyaqzWCIb58q/II+9dm7o66foI6cK9erVK5KCjAzy7bffYubMmZg6dSrefvvtotNLijMjR47E5ZdfXvax114LYHEUZLhkNdHKokdwEeifHiDoZdQEqH9RE+d4dQhQ/zgpYiJA/YsJPIctSIAFGU6M+AlEtKmbnHwkhQW55Fjqe+65B7vvvrvv+GXPF1kJI5vdyhHNxxxzjLWKpJIVMjfddBOuv/76yAoyuaDliOtPP/0UCxcuxBNPPAHZ9FdOYHJesuHuqFGj8jYAdiuguL3uHMNve9+JK9CBm7oFQZE2KiIQkf5V5CM7J5IA9S+RadUrKOqfXvlKkLfUvwQlMwGhsCCTgCRqH0JExx7KqUHdunWzTjPad9998fjjj6NNmza+8S1fvtw6dUjsyGXfhLecPWS2bt1qPaIkRRm57r//fvTp06fWLz+FikqKQjKgnHYkK2akQCOnIsnjTXIV4uXml9vrKhRkeOyh7+nPDkETiEj/gnab9vQnQP3TP4faR0D90z6FugZA/dM1c8n0mwWZZOZVr6gy5joATXJOfzQIaFr4dOSK4pLHdAYOHIg//elPlh1ZkSIb6davX3vAk6v9LVu2WI86jR071morm+DKoz9SsJCrnFOWNm/ebJ109Nhjj9Up8Mgf/BQ2ZHWL7A8za9Ysy5afx6acwX/22WfWiqLcXjN+Nxv247ffOF0T5bHBus3AQbflNV6PrNHUY3c2I4HKCUSkf5U7SgtJI0D9S1pGNYyH+qdh0pLhMvUvGXlMShQsyCQlkzrHUWW+BQMtcyGs7AccWVPfCPyS1SzyuJIULho3bmytRjn++OM9jyOnM1144YW1K0emT59uHVmd24vGfqz0YYcdhocffhgtWrQoaf/ll1+2jsqWFTdHH300HnroITRt+lNNwF7YkEKQHCFd7LKP7yzIyOqXuXPnWit63n//fdxyyy047rjjSvpWamy3govb686B/bb3nLQSDf/6D+CoabYGJlah2vh1ELZpgwQ8EYhQ/zz5w0apIUD9S02q1Q2U+qdubhLuGfUv4QnWLDwWZDRLWCLdzZjPAfhtLrZnewOdDw4nUuexzy1btsSUKVPQtm1b1w1+5ZEnWX3y+uuvW86deeaZkH1p9tprr1pnxf7w4cNx++23W3+74oorMG7cOOy8884FA9q4caN1xPW8efOs1wut2rGvupEx5VGihg3rLiGS1Ts333xz3glNzhUy9tOcZB+cMWPG5O0LY3fSuUmx+Ni9e/faJm4FFLfXVSjILPoQOKlmMVHueh5Zo2M4s49WSaAAgQj1j/xJwE6A+sf5EDsB6l/sKUirA9S/tGZezbhZkFEzL+nyKmM+BOC8XNCzegC9Si8qqYiPswiy6667WoWTQYMG1T56ZB/g66+/xpw5c6zjqHN7qshKlhkzZkBWwTiv1atXWyte3nvvPeul888/33rEqUmT2qeyrL9/9NFHuOqqq2ofVSpm07nqRTbXlaLPjjvuWDu0+Hjbbbdh/PjxeZvyOgsydlsSd1VVFfr371+nYCSFJVn9M2LECMveiSeeaD0Gtf/++9eO6VZwcXvdyc1v+4omwY+dH1gN9H40z9LDyBrnB2GbNkjAE4GI9c+TTwo0suuBFK2lmGzXvJyLQbdTIPTIXKD+RYaaAxUjQP0rSCZoXfNqL00TlfqXpmyrHysLMurnKPkeZsyJAIbkAr2lMzC8Xbhhb9iwAUOGDMEjjzySN5CcmNShQwc0atTI2uBWNvBdunQpNm3aVNuuXbt21gqYI488sqCTpmlaRZahQ4fWFnCk+NGxY0e0bt0asomv2LSfaHTooYdaBZBCjxAVWvki7WW1ivgpRRbZ50V8lKLORRddZBVZ5HIWZMQ38X3w4MG1vsujW3JaVK649Mknn+C5557DmjVrrDZy9LXsH3POOefkxetWQHF73QnPb/sgZsi4JcA1i/IsTULWGBqEbdogAU8EYtA/T37F3MjrF4ig28UcdqTDU/8ixc3BChGg/rEgE9M7g/oXE3gOW5AACzKcGPETyJjyBXhCzpEBbYDJp4XvljySI0UQ+eU1t/Kl1Ki5lTTyqI/9MaVCfaTwsWzZMqvwsWLFipLBdO3a1VrZ0rx586LtZJWKrLKRR5KKXSeddJK1SubLL79E+/btrWaFNvWVAs/dd9+NkSNH5hWaCtmVws+tt96Kk08+uc4jXW4FFLfXVSjIDFwITFme58kwZA0pEPIigWgIxKR/0QRX/ihBF1q82ivfY/16Uv/0y1niPKb+sSAT06Sm/sUEnsOyIMM5oCiBKvMsGJiT865LM2BBz+h8lcKM7Asjm92+9tprWLVqVW2hQgoSrVq1so7LlhOV9t57b1+OyaM/smnv7NmzLbtvvvmm1V9W4og9OT5b7G+33Xaudrdt24Z3333XelRKVsTIChZZvSIrb+QRqVNPPdVa0i8rb0oVZHIDff7559bR30899ZT1eFVuRYzEfOyxx1qbH8vKmWL737gVXNxeV6Eg0/VB4Mm1Nk9MnI1qY65rMtiABIIiELP+BRVG0Ha8FlCCbhd0HCrbo/6pnJ2U+Eb9Y0EmpqlO/YsJPIdlQYZzQFECN5itsB3+mvPu0EbA+1cq6ivdShSB5ncAa760hbQNR2K0UVM140UCURCg/kVBmWMUIED947SInQD1L/YUpNUB6l9aM69m3HxkSc28pMurjLkLgH/Zg/6hCqjvvmgkXZwYbaAEtmwDGlTXMbkrssY3gQ5EYyRQigD1j/MjBgLUvxigc8i6BKh/nBUxEKD+xQCdQ5YkwIIMJ4gaBDLmOgC1xxCt6g+02EcN1+hFMgms3gi0nJoX23pkjabJjJZRKU2A+qd0epLoHPUviVnVNCbqn6aJ09dt6p++uUuq5yzIJDWzusVVZS6AgS45t8M++lo3PPQ3eAJ1jjw08SSqja7Bj0SLJOBCgPrHKRIxAepfxMA5XHEC1D/OjogJUP8iBs7hXAmwIOOKiA0iIZAxxwC4PjfW0GOBCSdHMjIHSSmBYc8AE5flBT8WWWNESnEw7DgJUP/ipJ/Ksal/qUy7mkFT/9TMS4K9ov4lOLmahsaCjKaJS5zbjp32OzQGXr44cVEyIIUIHDcDeOVjm0M8YUmh7KTMFepfyhIef7jUv/hzQA9+JED941SImAD1L2LgHM6VAAsyrojYIBICI8zGqI/1ubG2rwf894ZIRuYgKSWww2jg+6224LegCcYY9hJNSskw7MgJUP8iR572Aal/aZ8BCsVP/VMoGelwhfqXjjzrFCULMjplK+m+OjZ2e/USoN2BSQ+a8cVB4NVPgA735Y3MDX3jSATH/IkA9Y+zISIC1L+IQHMY7wSof95ZsWVFBKh/FeFj55AIsCATEliaLYNAxnwAQM9czzEdges7lGGHXUjAhcDYV4ARz+U1ehBZoxfBkUBsBKh/saFP28DUv7RlXIN4qX8aJCkZLlL/kpHHpEXBgkzSMqpzPBmzL4BpuRA6HQQs6qNzQPRdVQKdZwKLP8rzrh+yxnRV/aVfKSBA/UtBktUIkfqnRh7ohY0A9Y/TISIC1L+IQHMYXwRYkPGFi41DJTDSbIZ6+MA+xrcjgJ0ahDoqjaeMwHc/ADvLmV72aysOwY3G2pShYLgqEaD+qZSNxPpC/UtsavUOjPqnd/408Z76p0miUugmCzIpTLrSIWfMdwEclvNx7rlAj9r/p7TndE4TAo++B5z15zxn30PW+JUm7tPNJBOg/iU5u0rERv1TIg10ohAB6h/nRcgEqH8hA6b5sgmwIFM2OnYMhUDGnAhgSM72xa2A+04PZSQaTSmBS+YBM97MC34SssbQlOJg2CoRoP6plI1E+kL9S2RakxEU9S8ZeVQ4CuqfwslJuWssyKR8AigXfsbsBGBRzq9GOwH/HK6cl3RIYwJ7jgO+/C4vgM7IGos1DomuJ4UA9S8pmVQ2DuqfsqmhY9Q/zoGQCVD/QgZM82UTYEGmbHTsGBqBjLkRwN45+/MvALoeEtpoNJwiAgs+ALrNzgv4c2SNfVKEgKGqToD6p3qGtPWP+qdt6tLjOPUvPbmOOFLqX8TAOZwvAizI+MLFxpEQyJh3AeiXG6tPS+D+MyMZmYMknMCFjwEzV+UFOQ1Z4/KEh83wdCJA/dMpW1r5Sv3TKl3pdJb6l868RxA19S8CyByibAIsyJSNjh1DI+BYtrp9PWDztTxtKTTeKTEsu+s3vBn4fmtewHxcKSX51yZM6p82qdLJUeqfTtlKsa/UvxQnP7zQqX/hsaXlYAiwIBMMR1oJmsAo828wcXDO7LRuQN+jgh6E9tJEYPpKoN98W8QGPsQo45dpYsBYNSFA/dMkUfq4Sf3TJ1ep95T6l/opEDQA6l/QRGkvaAIsyARNlPaCIZAxqwHckDPW9gBgye+DMU0r6STQ7l5g6ad5sY9G1qhKJw1GrTQB6p/S6dHROeqfjllLqc/Uv5QmPrywqX/hsaXlYAiwIBMMR1oJmsBIsxnq4QO72VcuAdofGPRAtJcGAq9+AnS4zxHpVhyCG421aYifMWpGgPqnWcLUdpf6p3Z+6J2DAPWPUyJAAtS/AGHSVGgEWJAJDS0NV0wgY84D0D1nh5v7Vkw0tQYKbOb2BLLG6akFwsDVJ0D9Uz9HmnhI/dMkUXTzJwLUP86GgAhQ/wICSTOhEmBBJlS8NF4RgSqzGww8Ybfx0SCgacOKrLJzygis2wwcdJsjaBPdUW3Yd5RJGRWGqzwB6p/yKdLBQeqfDlmij3UIUP84KQIgQP0LACJNREKABZlIMHOQsglUmW/BQMtc/6HHAhNOLtsaO6aQwLBngInLbIGbWIVq49cpRMGQdSNA/dMtY8r5S/1TLiV0yCsB6p9XUmxXhAD1j1NDFwIsyOiSqbT6mTH7ApiWC7+eAWwYBuyzS1qBMG4/BP73G+AXE4CtZl6vfsga0/3YYVsSiIUA9S8W7EkZlPqXlEymNA7qX0oTH0zY1L9gONJKNARYkImGM0ephEDGXAegSc7E1e2AcZ0rMci+aSEwfBEwfkletOuRNZqmJX7GmQAC1L8EJDGeEKh/8XDnqAESoP4FCDNdpqh/6cq37tGyIKN7BtPgf5U5CAZutYf68RDgwN3TEDxjLJfAJ18BjSc5epsYjGrDuaNMuUOwHwmET4D6Fz7jBI5A/UtgUtMYEvUvjVmvOGbqX8UIaSBiAizIRAycw5VJwPEryeW/AaZ2LdMWu6WCQP8FwF1v5IXK1TGpyHwCg6T+JTCp4YZE/QuXL61HSID6FyHsZAxF/UtGHtMUBQsyacq2zrFWmf1h4E57CMsvA1rvr3NQ9D0sAis2AG3udlg3cQWqjalhjUm7JBAaAepfaGiTaJj6l8Sspjgm6l+Kk+8/dOqff2bsET8BFmTizwE98ErAseP+ac2AJ3t67cx2aSLQ5UFg4VpbxDxZKU3pT2as1L9k5jWEqKh/IUClyXgJUP/i5a/R6NQ/jZJFV2sJsCDDyaAPgSrzLBiYY3d4Vg+gVwt9QqCn4RN4YDXQ+1HHOCbORrUxN/zROQIJhESA+hcS2GSZpf4lK5+M5kcC1D9OBQ8EqH8eILGJkgRYkFEyLXSqKIFR5uMwcXru9QN2A96/EtipAZmRAPDdD0DzO4BPv7bRMDAPo4wzyIcEtCdA/dM+hWEGQP0Lky5tx06A+hd7ClR2gPqncnbomxsBFmTcCPF1tQhkTFkPs8ru1IA2wOTT1HKT3sRDYOBCYMryOmO3RNZYHY9HHJUEAiRA/QsQZvJMUf+Sl1NGZCNA/eN0KEGA+sfpoTMBFmR0zl5afc+Y1QBusIc//wKg6yFpBcK4hcCCD4Bus+uwGI2sUUVCJJAYAtS/xKQyyECof0HSpC1lCVD/lE1NnI5R/+Kkz7GDIMCCTBAUaSN6Ao4N3g7eA1jdn48uRZ8INUaUpaotpgIfbrL5w4181UgOvQieAPUveKYaW6T+aZw8uu6fAPXPP7ME96D+JTi5KQqNBZkUJTtRoWbMTgAW2WO6uBVwX+3uMomKlsG4ELhkHjDjzTqNOiNrLCY8EkgcAepf4lJaSUDUv0rosa92BKh/2qUsTIepf2HSpe2oCLAgExVpjhM8gYx5M4Br7IandQP6HhX8ULSoLoHpK4F+8+v4dwuyxrXqek3PSKBCAtS/CgEmozv1Lxl5ZBQ+CVD/fAJLZnPqXzLzmsaoWJBJY9aTFHPGXArgWHtIyy8DWu+fpCAZSzECKzYAbe6u8+oyZI22pEYCiSdA/Ut8iksFSP1LdfoZPPUv1XOA+pfq9CcueBZkEpfSlAV0g9kK9bASJmrn8hH7AK9dyv1kkj4T5LnhY+4B3t5oi9SAia04ClbKsJkAACAASURBVKONug8wJR0I40sfAepf+nL+Y8TUv9SmnoHnCFD/UjsXqH+pTX1iA2dBJrGpTVFgGbMvgGn2iM/+FfDI71LEIIWhnvMXYM67dQLvh6wxPYU4GHJaCVD/Upl56l8q086gnQSof6mcE9S/VKY90UGzIJPo9KYouIw5GcAAe8RXtwPGdU4RgxSFOnwRMH5JnYCnIGsMTBEGhkoCNQSof6maCdS/VKWbwboRoP65EUrU69S/RKWTwfxIgAUZToXkEMiYzwH4rT2gSacAg49JToiMBLj1NWDI03VIPI+s0ZF8SCC1BKh/qUg99S8VaWaQfglQ//wS07I99U/LtNFpDwRYkPEAiU00IXCjuT9+wGoAe9g9ntUD6NVCkxjoZkkCD6wGej9ap8l6NEB7jDQ2EB8JpJZAjf69CqAJ9S+Zs4D6l8y8MqoACFD/AoCotgnqn9r5oXeVEWBBpjJ+7K0SgSpzGAz8sZBLj58HnN5cJWfpi18C894Hzni4Tq8tMHA8Rhly2hYvEkg3gVFmW5h4CUB9Owjqn/7Tgvqnfw4ZQcgEqH8hA47PPPUvPvYcORoCLMhEw5mjhE0gYw4GMKnUMAt7/v/27j/aqrJO/Pj7EbAJNRdaMWUiqGDZBCLKiGhTBpNDoKk04/hzaQkatFRINJV7OBc1xcEfK0jB0uXPcSbU+BHZQPZDUQclBSdLUEHMGpqUZSrfSbzs79reOXrOuefce+7l/NjnnPf9T+6zn8/n83q2T/Jp7/3APwyudCLOXwmBH2+AcXcXmDliIq3hvkrEdE4F6lKgJTqJwKL83N3/6nI1303a/a9+187Mqyzg/ldl8MqHc/+rvLERai9gQ6b2a2AGOytQuBnzFrBb9tS9Aiw9xabMznJX+/r4f4wn3ANtUYfInqhU7cUwXn0IFDh5xP2vPpYuP0v3v/pcN7OuoYD7Xw3xyxva/a+8ns6WXAEbMsldGzMrRaBwM+Y1dvA5diE+Y2lu/jQ+vl8KbDLGFHlMNU5uOulwXTKyNAsFEiiQiqa5/yVwXbqRkvtfN7AcqkC2gPtf3d8P7n91v4QW0A0BGzLdwHJowgQ6a8bMDs+8m20qugT4dn7mfug3YWtZIJ0iH3CLR36LdLg6+RWYoQI1FnD/q/EC9Dy8+1/P7bxSAf/7r77vAfe/+l4/s+++gA2Z7pt5RRIECn/Adys7+Dyzw9qcFIv8pcQjsZOwkIVzKHK0oc2Y5C6ZmSVVwP0vqStTNC/3v7pbMhNOqoD7X1JXxv2v7lbGhCspYEOmkrrOXRmBUp6MyY9c5PHVi0bDnPjFJn8SIzBjBVy7qmA6vqaUmFUykboScP+rm+Vy/6ubpTLRehFw/6uXlcL9r26WykTLLGBDpsygTldhgZ40Y+KUUtGhwC/zP/Qb/2riwXD7CdC3T4Vzd/pOBbZthzMfgEXPFhzmB3y9fxTYGYECH7p0/9sZ0PJe6/5XXk9nUyBHwP0v0TeE+1+il8fkqiBgQ6YKyIYok8DONWNWAHsVy+Qz/eH7x8Hh+5QpV6fplsATr8BXl8AzWzpc9g4RJ3u0dbc4HaxAYYH2I2HvBXpnD3D/q+0N4/5XW3+jN4mA+18iF9r9L5HLYlJVFrAhU2Vww/VQoPzNmNcKNWgWTIBJI3qYo5f1SGDhGpi8tOClmwicyqzwaI8m9iIFFOgoMCs6koi7gYH5v3T/q/4N4/5XfXMjNrGA+1+iFt/9L1HLYTI1FLAhU0N8Q5coUP5mzIX04Qds5w7gmPwszhoO88b5ClOJq9PjYfEjqlOXw21PFZziIfpwBpeHV3ocwAsVUKCwwBXRPu5/tb053P9q62/0JhZw/6v54rv/1XwJTCBhAjZkErYgppMnUIlmTDrc8F6UVDQPmJLvfsBecMOxMH6IK1IJgWXr4YIH4YX4OaWOP/NJh6mViOucCiiQJeD+V5Pbwf2vJuwGVSBXwP2vJneE+19N2A2acAEbMglfoKZOr9LNmAxu/LG3wM1EdPj3YcrI9lOY/OBvee7E+P8Vib+iP391gfkCERHnkg4LyxPNWRRQoEsB978uico1wP2vXJLOo0CZBNz/ygTZ9TTuf10bOaJ5BWzINO/aJ7vyajVjMgozo+HswnxgVD7Mvh+Cq8bAaUOTTZb07O5aB5euhJf/XDDTx9jBFGaHwi8wJb0481OgngXc/yq+eu5/FSc2gAI9E3D/65lbN65y/+sGlkObUsCGTFMue8KLrnYzJpsjFV0NXFxIaNxgmPU5T2Lq7t0Tf0F/1s9h+YaiV15DOlzS3Xkdr4ACZRZw/yszKLj/lZ3UCRWojID7X9ld3f/KTuqEDSpgQ6ZBF7Zuy6plMyaDlorGEPEvBIYVcjz3MPjW0TBgz7pVrkrim1+Hbz8MNz9ZJFzEWgLfJB1WViUhgyigQNcC7n9dG5Uwwv2vBCSHKJA0Afe/sqyI+19ZGJ2kiQRsyDTRYie+1CQ0Y7KRUlErMLOY20WjYdoo+OvdEy9b1QS3vAlzH4NrV3Uadjbp0FLVxAymgAKlC7j/lW6VNdL9r0dsXqRAsgTc/3q0Hu5/PWLzIgU6fsRUEwVqIpC0ZkwGIRUNJdBKxPGFXHoFOP8ImDoSBvWriVxigm7cCvNWw42PQ1tUJK3AYiJaSId1iUncRBRQoLCA+1/Jd4b7X8lUDlSgPgTc/0peJ/e/kqkcqEBBAZ+Q8caovUBSmzHZMi3RSe8+LVPkNaZ46BnD4JwRcNSA2pNWM4NHNsMta+COtZ1EjV9Pgtm0hvuqmZuxFFCgDALuf0UR3f/KcH85hQJJFnD/c/9L8v1pbg0hYEOmIZaxjouoh2ZMbmPmPAIzgIHF1I/cF848pP1UpkY9Ljs+vjD+av7tT8OjL3d6/20iYg6t4aY6vktNXQEFYoGWyP0PcP/zXwcFmlDA/e/dRXf/a8J735IrLmBDpuLEBigqUG/NmNzGzPkELuisMbNrLzj5b+Arn4bxQxrjPli2Hn7wa7j3v+Dtti4bMTfQGm5sjMqtQgEF3hNoidz/3P/8F0KB5hRw//O//5rzzrfqCgrYkKkgrlN3IlDPzZjsslLRJCK+3tmrTPHwvfvCcQe1N2aOPbB+npyJ/5+QB5+HuBGz5Dl4dVsXd3X7yUnfJR0Wev8roECDC7j/5S6w+1+D3/CWp0CWgPuf+5//QihQJgEbMmWCdJpuCDRKMya75JZoAoGvAceVIjFmf/j8IPjsfsn75syqzfCLl+BnG2Hli6VU8+6YJUR8j9awtOQrHKiAAo0h4P7n/tcYd7JVKNB9Afc/97/u3zVeoUCOgA0Zb4jqCjRiMyZb8PJoML04ncApRBxQCm78atPffgIO/zgM/xgM7Q8HfwR671LK1T0f884OePZ/YN0WeOoP8MTv4T9/1+WrSO8HDLxAxD20cSdXhA09z8QrFVCgIQTc/xpiGS1CAQV6IOD+1wM0L1FAgVjAhoz3QfUEGr0Zky+ZisYAE4ETgI92F/qgveHAvWBgPxiwJ3x8D+i/W/vrT/3+Cvb4QPurT3FDJ9O8iZss8bdd4leN3vgLbP3f9teMtrwFv38DNr8Om7bC86/Bc692N6N3x/8ReABYRDqs7NEMXqSAAo0v4P7X+GtshQooUFjA/c87QwEFuiFgQ6YYViranR0MJrA/gf2ATwAfe/cv1hF7E9iTiD0IfBDYFej9f1O9A7xNxP8j8AYRrxOI/+ob/0X2D8DviHiJiBfZhQ2kw5vdWK/6HdpszZjCzZlxwLHAp+psIX8DPAgstwlTZytnugokQaD9Lyfuf0lYC3NQQIHqCrj/VdfbaArUoYANmXjRLov2oxeHETiUiGEEPt3Z6TllXuf4WOBfE1hLxK9o40muDC+VOUZtp2v2Zky+fvtjrZ8HPguMruK9Vup9sAlYBfySNn7m60ilsjlOAQW6FHD/65LIAQoo0KAC7n8NurCWpcDOCTRnQ8YNcefumu5cbTOmay0bgl0bOUIBBRpTwP2vMdfVqhRQoGsB97+ujRyhQBMINE9DxkcGq38724zpubmvzPXczisVUKC+Bdz/6nv9zF4BBXou4P7XczuvVKBOBRq7IeNHtWp3W9qMqZ29kRVQQAEFFFBAAQUUUEABBRIv0HgNGY+dq/1NZzOm9mtgBgoooIACCiiggAIKKKCAAokWaJyGTEs0gcDXgONKER+zP3x+EPzdfjB6QClXVG/MI5vhly/BzzbCyhdLjruEiO/RGpaWfEUlBtqMqYSqcyqggAIKKKCAAgoooIACCjSYQP03ZFLRJCK+TmBYZ2uzd1847iAYPwSOPRD69qmPldy2HR58HpathyXPwavbusg7Yi2B75IOC6teoc2YqpMbUAEFFFBAAQUUUEABBRRQoD4F6rch0xKdT+CCzo4M3rUXnPw38JVPtzdiGuEnbsz84Ndw73/B222dVhQfp30DreHGqtRtM6YqzAZRQAEFFFBAAQUUUEABBRRoDIH6a8i0ROcRmNFZI+bIfeHMQ+C0ofXzJEx3b6f4yZm71sHtT8OjL3fZmJlDa7ipuzFKHm8zpmQqByqggAIKKKCAAgoooIACCigQC9RPQ6YlOgmY2dmrSWcMg3NGwFEJ+yZMpW+1+Jszt6yBO9Z2Eil+lQlm0xruK2s+NmPKyulkCiiggAIKKKCAAgoooIACzSGQ/IZMKhpKoJWI4wstSa8A5x8BU0fCoH7NsWjFqty4Feathhsfh7aoyKjAYiJaSId1O61lM2anCZ1AAQUUUEABBRRQQAEFFFCgOQWS3ZBJRa3vPhVT5Oei0TB9FPTfvTkXr1jV//0mXPcYXLuqU5fZpENLj+VsxvSYzgsVUEABBRRQQAEFFFBAAQUUSGZDJhWNIeJfir2edO5h8K2jYcCeLmBnAptfh28/DDc/WWRU+4lM3yQdVnZL0mZMt7gcrIACCiiggAIKKKCAAgoooEC+QPIaMqnoauDiQks1bjDM+hwcvo8L2R2BJ16BWT+H5RuKXnUN6XBJSXPajCmJyUEKKKCAAgoooIACCiiggAIKdCaQnIbMzGg4uzAfGJWf8L4fgqvGtJ+a5E/PBeJTmS5dCS//ueAcj7GDKcwOTxWNYDOm5/heqYACCiiggAIKKKCAAgoooECWQDIaMqloEoGbiTqe+jRlJMwZ27jHV1f7boyPy56xAuavLhA5EBFxLumwsMNvbcZUe6mMp4ACCiiggAIKKKCAAgoo0MACtW/IpKJ5wJR84wP2ghuOhfFDGli/hqUtWw8XPAgvvFYwifmkw9T3fmMzpoYrZWgFFFBAAQUUUEABBRRQQIFGFKhdQ+aKaB+2cwdwTD7sWcNh3jifiqn0DRc/LTN1OdxW+CWlh+jDGWznK8D1ebm8xg4+x+zwTNEcU9GhwApgr7wxF5ION1S6NudXQAEFFFBAAQUUUEABBRRQIMkCtWnIzIqOJOJuYGA+zoIJMGlEkskaL7eFa2Dy0oJ1xc/P5DdUbMY03i1gRQoooIACCiiggAIKKKCAAlUWqH5DpiU6icC9QO/sWj/TH75/nCcoVXn93wsXn8T01SXwzJZOM7AZU6sFMq4CCiiggAIKKKCAAgoooEBDCVS3IRN/vBcW5AtOPBhuP8FXlGp9Z8WvMJ35ACx6tmAmb7GDUb6mVOtVMr4CCiiggAIKKKCAAgoooEAjCFSvIZOKpgFz89EuGt1+ipI/yRGIT2G6dlXBfKaTDtcV/I3fjEnOApqJAgoooIACCiiggAIKKKBA4gWq05BJRZcA387XuP5YuOCIxBs1ZYI3PA4XPliw9G+RDlfn/Ka9GbMS6Jfz5xHfpDV0aMI1JahFK6CAAgoooIACCiiggAIKKJAlUPmGTJFmzJ0nwmlDXYskC9y1Dk6/v4umjE/GJHkJzU0BBRRQQAEFFFBAAQUUUCChApVtyBR5TemHJ8Pxn0yoiGnlCCz+LXw5/gRzx5/pwM892tobRgEFFFBAAQUUUEABBRRQQIHuC1SuIVPgA769Aiw9Bf5hcPcT9YraCfx4A0y4B9qiDjm8BeyW96cXkg431C5bIyuggAIKKKCAAgoooIACCiiQfIHKNGTaj7ZelF/+8lNtxiT/liicYdyUGXd3l9nbjOmSyAEKKKCAAgoooIACCiiggAIKQPkbMrOiI4n4BdA7G9jXlOr/duvk9aW4uOInMNV/6VaggAIKKKCAAgoooIACCiigQFkFytuQuSLah+08AgzMztIP+JZ1zWo6WZEP/b5GH4ZyeXilpskZXAEFFFBAAQUUUEABBRRQQIE6EShvQyYV/RQ4Jrt2j7aukzuhG2kWORL7IdLhC92YxqEKKKCAAgoooIACCiiggAIKNK1A+RoyqWgeMCVb8qLRMGds09o2dOEzVsC1qzqUOJ90mNrQhVucAgoooIACCiiggAIKKKCAAmUQKE9DpsCJShMPhh/8YxkydIrECnzl32HRsx3Sm0w6LExs0iamgAIKKKCAAgoooIACCiigQAIEdr4hMzMaTi/WEL3/geDP9IfHvwZ9+ySgQlOomMC27XDE9+CZLVkhAhFtjGB2eKpigZ1YAQUUUEABBRRQQAEFFFBAgToX2PmGTCp6FBiV7bD6HDh8nzqXMf2SBJ54BUbe0mHoY6TDkSVN4CAFFFBAAQUUUEABBRRQQAEFmlBg5xoyqehq4OJstwUTYNKIJpRs4pIXroHJSzsAXEM6XNLELJaugAIKKKCAAgoooIACCiigQFGBnjdkUtEYYEX2zGcNh1uPV7sZBc5eDLd1fElpLOmwshk9rFkBBRRQQAEFFFBAAQUUUECBzgR63pBpiZ4mMCwz+QF7wbrz/G5Ms95u8fdkht4EL7yWJRCxltZwSLOaWLcCCiiggAIKKKCAAgoooIACxQR61pBJRa3AzOxJl54C44cI3cwCy9bDhHs6CMwmHVqa2cXaFVBAAQUUUEABBRRQQAEFFMgX6H5DJhUNBdZmTzRlJMwbJ64CMHU5zF/dQWIY6bBOHwUUUEABBRRQQAEFFFBAAQUUaBfofkNmVvRDIt77Usy+H4LffsNXlbyh2gXiV5c++R14+c9ZIoHFzApf1kgBBRRQQAEFFFBAAQUUUEABBXrSkGmJTiKwKBvvzhPhtPiZGX8U+D+Bu9bB6ffncURMpDXcJ5ICCiiggAIKKKCAAgoooIACCnT3CZm8D/mOGww/OlVGBToKfOluWL4h68/9wK+3iQIKKKCAAgoooIACCiiggALvCZT+ylJLdB6B72bbrT4HDt9HTQU6CjzxCoy8Je/PI75Oa7hJLwUUUEABBRRQQAEFFFBAAQWaXaD0hkwq2ggMzICdexjcNL7Z+ay/M4HzlsHNT+aM2EQ6DFJNAQUUUEABBRRQQAEFFFBAgWYXKK0h0xKdT+CGbKyXLoQBezY7n/V3JrD5ddjv+rwRERfQGm5UTgEFFFBAAQUUUEABBRRQQIFmFiitIZP3dMxFo2HO2GZms/ZSBWasgGtX5Yz2KZlS8RyngAIKKKCAAgoooIACCijQsAJdN2RS0SRgQUagV4DfTYe/3r1hTSysjAJb3oR95kJblDPpZNJhYRnDOJUCCiiggAIKKKCAAgoooIACdSXQdUMm72SlaaNg7hfrqkaTrbHA9J/AdY9lJeGJSzVeEcMroIACCiiggAIKKKCAAgrUWqDzhkxLNIHAkuwkXzwfBvWrddrGryeBjVth//yvxkQcR2tYWk91mKsCCiiggAIKKKCAAgoooIAC5RLovCGTihYDx2WCnTEMbj+hXKGdp5kEznwA7libU/ES0uH4ZjKwVgUUUEABBRRQQAEFFFBAAQUyAsUbMpdHg+nF+myqh8+GowaIp0D3BR7ZDEffmnddG0O4Imzo/mxeoYACCiiggAIKKKCAAgoooEB9CxRvyKSiVmBmprwj94VVX63vYs2+tgKjvw+PvpyTw2zSoaW2WRldAQUUUEABBRRQQAEFFFBAgeoLFG/IzIqeJ+KATEoLJsCkEdVP0IiNI7BwDUzO/mpM4AVmhQMbp0IrUUABBRRQQAEFFFBAAQUUUKA0gcINmVQ0BliRmWLXXrD1Eujbp7RJHaVAIYFt26Hf1fB2W85vx5IOKxVTQAEFFFBAAQUUUEABBRRQoJkEijVkbgYmZyD8mG8z3RKVrbXAx30XkA7nVjaqsyuggAIKKKCAAgoooIACCiiQLIFiDZktwEczqS49BcYPSVbiZlOfAsvWw4R7cnL/I+nQvz6rMWsFFFBAAQUUUEABBRRQQAEFeibQsSGT97rS3n3hTzN6NrlXKVBI4MNz4NVtOb/xtSVvFQUUUEABBRRQQAEFFFBAgaYSKNSQuQ64MKNw1nC49fimMrHYCgucvRhueyonyPWkw7QKh3V6BRRQQAEFFFBAAQUUUEABBRIjUKgh8yzwqUyG9/0TnPjePyUmbxOpY4H7fwMn/VtOAb8hHQ6u45JMXQEFFFBAAQUUUEABBRRQQIFuCeQ2ZC6PBtOL9dkzvHWZpyt1S9TBXQrEpy3tdmXesDaGcEXY0OXFDlBAAQUUUEABBRRQQAEFFFCgAQRyGzKpaBKwIFPXmP1hxRkNUKUlJE5g7B2w8sWctCaTDgsTl6gJKaCAAgoooIACCiiggAIKKFABgfyGzF3AqZk4V34BLj26AlGdsukFrnoYLvtpDsPdpMNpTQ8jgAIKKKCAAgoooIACCiigQFMI5DdkNgIDM5U/fDYcNaApHCyyygKrNsNRt+YE3UQ6DKpyGoZTQAEFFFBAAQUUUEABBRRQoCYC7zdkLov2ozebMlns2gv+MrMmORm0SQQ+MBvebssq9h0GcmV4qUnKt0wFFFBAAQUUUEABBRRQQIEmFni/IdMSnURgUcbi6P3gl2c1sYylV1zgs7fBw9ntl4iJtIb7Kh7YAAoooIACCiiggAIKKKCAAgrUWOD9hkwqis+9uTSTz7RRMPeLNc7O8A0tMP0ncN1jOSVeRTpc1tBFW5wCCiiggAIKKKCAAgoooIACQPYTMssIfCmjcueJcNpQjRSonMBd6+D0+7Pmj/gRrWF85SI6swIKKKCAAgoooIACCiiggALJEMh+Qibng75rz4Oh/ZORpFk0psC6LTDsppza/LBvYy61VSmggAIKKKCAAgoooIACCuQJtDdkUtHuwBvZv9veAr130UuBygm8swP6tHaYfw/S4c3KRXVmBRRQQAEFFFBAAQUUUEABBWov0N6QmRkNZxd+lUnnoL3ht9+ofXJm0PgCn/wOPPdqVp07OJTZ4anGr9wKFVBAAQUUUEABBRRQQAEFmlmgvSGTd8LSlwbDslObmcXaqyUw/m740YasaJ60VC164yiggAIKKKCAAgoooIACCtRQIPPK0jRgbiaPKSNh3rgaZmXophGYuhzmr84pdzrpcF3TAFioAgoooIACCiiggAIKKKBAUwpkGjLxX4AvzAhcMxZmjG5KD4uussCcVXDxipyg15MOcYPQHwUUUEABBRRQQAEFFFBAAQUaViDTkPlX4ORMlR553bDrnbjCOhx9DfeSDv+cuERNSAEFFFBAAQUUUEABBRRQQIEyCmQaMj8FjsnM+x+nw9gDyhjFqRQoIrDiBfj7O3N++RDp8AXBFFBAAQUUUEABBRRQQAEFFGhkgcxHfZ8mMCxT6JrJcOjHGrlsa0uKwK/+ACMWZGUTsZbWcEhS8jMPBRRQQAEFFFBAAQUUUEABBSohkHlCZiMwMBPgxfNhUL9KhHNOBXIFNm6F/W/M+bNNpMMgnRRQQAEFFFBAAQUUUEABBRRoZIHMEzJ/IrB3ptD/mQEf7tvIZVtbUgT+tA0+Micrm4hXaQ0fTkp+5qGAAgoooIACCiiggAIKKKBAJQQyT8i8BbzXgnnrMujbpxLhnFOBXIFt22G3K3P+bBvpsJtOCiiggAIKKKCAAgoooIACCjSyQKYhsx3onSl0ewv03qWRy7a2pAi8swP6tOZk8w7pYDswKQtkHgoooIACCiiggAIKKKCAAhURyDRkouzZo1kVieWkChQUCPn3Wzq035f+KKCAAgoooIACCiiggAIKKNCgAjZkGnRh66ksGzL1tFrmqoACCiiggAIKKKCAAgooUA4BX1kqh6Jz9FjAV5Z6TOeFCiiggAIKKKCAAgoooIACdSzgR33rePEaIXU/6tsIq2gNCiiggAIKKKCAAgoooIAC3RXw2Ovuijm+rAIee11WTidTQAEFFFBAAQUUUEABBRSoE4HMEzIbgYGZnF88Hwb1q5MKTLOuBTZuhf1vzClhE+kwqK6LMnkFFFBAAQUUUEABBRRQQAEFuhDIPCHzNIFhmbFrJsOhH9NOgcoL/OoPMGJBVpyItbSGQyof2QgKKKCAAgoooIACCiiggAIK1E4g84TMT4FjMmn8x+kw9oDaJWXk5hFY8QL8/Z059T5EOnyheQSsVAEFFFBAAQUUUEABBRRQoBkFMg2ZfwVOzgDceSKcNrQZOXJrnj17Ni0tLe/+4eTJk7n++uv54Ac/2AGm3OOaSf6udXD6/TkV30s6/HMzGVirAgoooIACCiiggAIKKKBA8wlkGjLXARdmyr9mLMwY3XwY+RWXu9FS6nzNJD9nFVy8Iqfi60mHac1kYK0KKKCAAgoooIACCiiggALNJ5BpyMR/AZ6bKX/KSJg3rvkwbMhUf82nLof5q3PiTicd4gahPwoooIACCiiggAIKKKCAAgo0rEDmo74nEViUqfJLg2HZqQ1bc8mFlfpES7nHlZxgAwwcfzf8aENWIRETaQ33NUBplqCAAgoooIACCiiggAIKKKBAUYH2hszMaDi78KvMqIP2ht9+QzUFKi/wye/Ac69mxdnBocwOT1U+shEUUEABBRRQQAEFFFBAAQUUqJ1A5pWl3YE3stPY3gK9d6ldYkZufIF3dkCf1g517kE6vNn41VuhAgoooIACCiiggAIKKKBAMwu0N2Tin1S0ERiYKBewKgAAECFJREFU+ce158HQ/s1MY+2VFli3BYbdlBNlE+kwqNJxnV8BBRRQQAEFFFBAAQUUUECBWgu835BpiZYR+FImIY++rvXSNH78DkdeR/yI1jC+8Su3QgUUUEABBRRQQAEFFFBAgWYXyH5C5krg0gzItFEw94vNzmP9lRSY/hO47rGcCFeRDpdVMqZzK6CAAgoooIACCiiggAIKKJAEgewnZHJOWjp6P/jlWUlI0RwaVeCzt8HDL2VV5wlLjbrU1qWAAgoooIACCiiggAIKKJAn8H5D5rJoP3qzKfP7XXvBX2bqpUDlBD4wG95uy5r/HQZyZchu0VQuuDMroIACCiiggAIKKKCAAgooUEOB9xsycRJ5H/Z95GwYPaCG2Rm6YQUe2QxH35pTnh/0bdjVtjAFFFBAAQUUUEABBRRQQIF8gfyGzF3AqZlBV34BLj1aNAXKL3DVw3DZT3PmvZt0OK38kZxRAQUUUEABBRRQQAEFFFBAgeQJ5DdkJgELMmmO2R9WnJG8pM2o/gXG3gErX8ypYzLpsLD+K7MCBRRQQAEFFFBAAQUUUEABBboWyG3IXB4Nphfrsy976zLo26friRyhQKkC27bDbvGZXtk/bQzhirCh1Dkcp4ACCiiggAIKKKCAAgoooEA9C+Q2ZOJKUtGzwKcyRd33T3Die/9Uz6Wae1IE7v8NnPRvOdn8hnQ4OCn5mYcCCiiggAIKKKCAAgoooIAClRYo1JC5DrgwE/is4XDr8ZVOw/mbSeDsxXDbUzkVX086TGsmA2tVQAEFFFBAAQUUUEABBRRoboFCDZkxwIoMy9594U8zmhvJ6ssr8OE58Oq2nDnHkg4ryxvF2RRQQAEFFFBAAQUUUEABBRRIrkDHhkycayraAnw0k/bSU2D8kOQWYWb1I7BsPUy4JyffP5IO/eunAjNVQAEFFFBAAQUUUEABBRRQYOcFijVkbgYmZ6Y/YxjcfsLOB3MGBc58AO5Ym+OwgHQ4VxkFFFBAAQUUUEABBRRQQAEFmkmgWEMm57WlXXvB1ks8bamZboxK1BqfrtTvani7LWd2X1eqBLZzKqCAAgoooIACCiiggAIKJFqgcEMmTnlW9DwRB2SyXzABJo1IdC0ml3CBhWtg8tKsJAMvMCscmPC0TU8BBRRQQAEFFFBAAQUUUECBsgsUb8ikolZgZibikfvCqq+WPb4TNpHA6O/Doy/nFDybdGhpIgJLVUABBRRQQAEFFFBAAQUUUOBdgeINmcujwfRifbbTw2fDUQOUU6D7Ao9shqNvzbuujSFcETZ0fzavUEABBRRQQAEFFFBAAQUUUKC+BYo3ZOK6UtFi4LhMiX7ct74Xu5bZF/iY7xLS4fha5mRsBRRQQAEFFFBAAQUUUEABBWol0HlDpiWaQGBJdnIvng+D+tUqXePWo8DGrbD/jXmZRxxHa8j+okw9lmbOCiiggAIKKKCAAgoooIACCvRIoPOGTDxlS/Q0gWGZ2aeNgrlf7FEsL2pSgek/geseyyo+Yi2t4ZAm5bBsBRRQQAEFFFBAAQUUUEABBTr5hkwGJxVNAhZk/rFXgFemQ//d1VOga4H/fhM+MRfaopyxk0mHhV1f7QgFFFBAAQUUUEABBRRQQAEFGlOg6ydk4rpT0UZgYIbgotEwZ2xjglhVeQVmrIBrV+XMuYl0GFTeKM6mgAIKKKCAAgoooIACCiigQH0JlNaQaYnOJ3BDdmkvXQgD9qyvYs22ugKbX4f9rs+LGXEBrSH/izLVTcxoCiiggAIKKKCAAgoooIACCtRYoLSGTJxk3lMy5x4GN42vcfaGT7TAecvg5idzUvTpmESvmMkpoIACCiiggAIKKKCAAgpUS6D0hkxLdB6B72YntvocOHyfaqVqnHoSeOIVGHlLXsYRX6c13FRPdZirAgoooIACCiiggAIKKKCAApUQKL0hE0fPO3Fp3GD40amVSMs5613gS3fD8g1ZVXiyUr0vqfkroIACCiiggAIKKKCAAgqUUaC7DZmTCCzKjn/niXDa0DJm5FR1L3DXOjj9/rwyIibSGu6r++IsQAEFFFBAAQUUUEABBRRQQIEyCHSvIRMHnBX9kIjjM7H3/RD89hvQt08ZsnGKuhfYth0++R14+c9ZpQQWMyt8ue6LswAFFFBAAQUUUEABBRRQQAEFyiTQ/YZMKoqfh1mbHX/KSJg3rkwZOU1dC0xdDvNXdyhhGOmwrq4LM3kFFFBAAQUUUEABBRRQQAEFyijQ/YZMHDwVtQIzs/NYegqMH1LGzJyq7gSWrYcJ93RIezbp0FJ3xZiwAgoooIACCiiggAIKKKCAAhUU6FlDJk4o7wO/B+wF687z1aUKrlWip45fVRp6E7zwWlaafsg30WtmcgoooIACCiiggAIKKKCAArUT6HlDJhWNAVZkp37WcLj1va/L1K4oI1df4OzFcNtTHeKOJR1WVj8bIyqggAIKKKCAAgoooIACCiiQbIGeN2TiulLR1cDF2SUumACTRiS7aLMrr8DCNTB5aYc5ryEdLilvJGdTQAEFFFBAAQUUUEABBRRQoDEEdq4h096UeRQYlc2x+hw4fJ/GALKKzgWeeAVG3tJhzGOkw5HaKaCAAgoooIACCiiggAIKKKBAYYGdb8jMjIbTizVEvDfXZ/rD41/zezKNftPF34054nvwzJasSgMRbYxgduj4AlOjg1ifAgoooIACCiiggAIKKKCAAiUK7HxDJg6UiiYBC7JjTjwYfvCPJWbhsLoU+Mq/w6JnO6Q+mXRYWJcFmbQCCiiggAIKKKCAAgoooIACVRIoT0OmvSkzD5iSnfdFo2HO2CpVYpiqCsxYAdeu6hByPukwtaqJGEwBBRRQQAEFFFBAAQUUUECBOhQoX0OmvSnzU+CYbIfrj4ULjqhDGVMuKnDD43Dhgx1+/RDp8AXZFFBAAQUUUEABBRRQQAEFFFCga4HyNmSuiPZhO48AA7ND33kinDa062QckXyBu9bB6fd3yHMTfTiKy8Mrya/ADBVQQAEFFFBAAQUUUEABBRSovUB5GzJxPbOiI4n4BdA7u7wfngzHf7L2BZtBzwUW/xa+fG+H698h8HfMCvFpW/4ooIACCiiggAIKKKCAAgoooEAJAuVvyMRBW6KTCCzKj7/8VPiHwSVk5ZDECfx4A4y7u0BaERNpDfclLmETUkABBRRQQAEFFFBAAQUUUCDBApVpyMQFFzh5qVeApafYlEnw/VAwtbgZM+EeaIs6/NoTleptMc1XAQUUUEABBRRQQAEFFFAgEQKVa8i0N2WmAXPzK/X1pUSsfUlJFHlNKb52OulwXUmTOEgBBRRQQAEFFFBAAQUUUEABBXIEKtuQaW/KXAJ8O9/dD/0m/04s8gHfOPFvkQ5XJ78CM1RAAQUUUEABBRRQQAEFFFAgmQKVb8h00pTxSOxk3hRxVkWOtrYZk9wlMzMFFFBAAQUUUEABBRRQQIE6EqhOQ6a9KVPw9aWLRsOcsXUk1gSpzlgB164qWKivKTXB+luiAgoooIACCiiggAIKKKBA5QWq15Bpb8pMAhbklzXxYLj9BOjbp/IFG6G4wLbtcOYDsOjZgmP8gK83jwIKKKCAAgoooIACCiiggAJlEqhuQyZOuv1I7HuB3tk1fKY/fP84OHyfMlXmNN0SeOIV+OoSeGZLh8veIeJkj7buFqeDFVBAAQUUUEABBRRQQAEFFOhUoPoNmTidWdGRRNwNDMzPbsEEmDTCVaumwMI1MHlpwYibCJzKrPBoNfMxlgIKKKCAAgoooIACCiiggAKNLlCbhkysekW0D9u5AzgmH/ms4TBvnK8wVfrmi19RmrocbnuqYKSH6MMZXB5eqXQezq+AAgoooIACCiiggAIKKKBAswnUriGTkU5F84Ap+fAH7AU3HAvjhzTbklSn3mXr4YIH4YXXCsabTzpMrU4mRlFAAQUUUEABBRRQQAEFFFCg+QRq35CJzeOP/QZuJqJDPlNGtp/C5Ad/y3Nzxk/FxKcozV9dYL5ARMS5pMPC8kRzFgUUUEABBRRQQAEFFFBAAQUUKCSQjIZMnNnMaDi7MB8YlZ/ovh+Cq8bAaUNdxJ0RuGsdXLoSXv5zwVkeYwdTmB0Kv8C0M4G9VgEFFFBAAQUUUEABBRRQQAEFcgSS05DJpJWKrgYuLrRO4wbDrM95ElN37+H4BKVZP4flG4peeQ3pcEl353W8AgoooIACCiiggAIKKKCAAgr0TCB5DZm4jlQ0hoh/ITCsUFnnHgbfOhoG7Nmzopvlqs2vw7cfhpufLFJxxFoC3yQdVjaLiXUqoIACCiiggAIKKKCAAgookASBZDZkMjKpqDV+makY1EWjYdoo+Ovdk0CZnBy2vAlzH4NrV3Wa02zSoSU5WZuJAgoooIACCiiggAIKKKCAAs0jkOyGTLwOqWgogVYiji+0LL0CnH8ETB0Jg/o1z8IVqnTjVpi3Gm58HNqiIhaBxUS0kA7rmlvL6hVQQAEFFFBAAQUUUEABBRSonUDyGzIZm5bopHeflinyGlM87IxhcM4IOGpA7UBrEfmRzXDLGrhjbSfR49eTYDat4b5a5GhMBRRQQAEFFFBAAQUUUEABBRR4X6B+GjLvN2bOIzADGFhsIY/cF848pP1UpkY9Ljs+vjo+Nen2p+HRlzu9pTcRMYfWcJM3vgIKKKCAAgoooIACCiiggAIKJEOg/hoy7zdmzidwQWeNmV17wcl/A1/5NIwfkgzwnc1i2Xr4wa/h3v+Ct9u6bMTcQGu4cWdjer0CCiiggAIKKKCAAgoooIACCpRXoH4bMhmHVDSJiK939ipTPHTvvnDcQe2NmWMPrJ8nZ+InYR58HuJGzJLn4NVtXdwA7ScnfZd0WFjeW8XZFFBAAQUUUEABBRRQQAEFFFCgXAL135DJSLREEwh8DTiuFJwx+8PnB8Fn90veN2dWbYZfvAQ/2wgrXyylmnfHLCHie7SGpSVf4UAFFFBAAQUUUEABBRRQQAEFFKiJQOM0ZDJ8l0eD6cXpBE4h4oBSVONXm/72E3D4x2H4x2Bofzj4I9B7l1Ku7vmYd3bAs/8D67bAU3+AJ34P//m7Ll9Fej9g4AUi7qGNO7kibOh5Jl6pgAIKKKCAAgoooIACCiiggALVFGi8hky2XioaA0wETgA+2l3Yg/aGA/eCgf1gwJ7w8T2g/27trz/1+yvY4wPtrz7FDZ1M8yZussTfdolfNXrjL7D1f9tfM9ryFvz+Ddj8OmzaCs+/Bs+92t2M3h3/R+ABYBHpsLJHM3iRAgoooIACCiiggAIKKKCAAgrUVKCxGzIdmzPjgGOBT9VUvfvBfwM8CCy3CdN9PK9QQAEFFFBAAQUUUEABBRRQIGkCzdOQyZZvf63p88BngdGdndRUowXbBKwCfkkbP/N1pBqtgmEVUEABBRRQQAEFFFBAAQUUqJBAczZk8jEvi/ajF4cROJSIYQQ+XcUmzSYifk1gLRG/oo0nuTK8VKH1dloFFFBAAQUUUEABBRRQQAEFFEiAwP8HAdK9xXvF95gAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF799D79-3390-449D-8840-0408E306A28B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7524750" y="6981825"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599209</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0049D-392D-476B-A6DA-76F6824C41D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="628650"/>
+          <a:ext cx="5304559" cy="5696816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,139 +1285,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0985D053-AE67-4A22-B872-B45B11BF40F8}">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="2:6" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
+      <c r="F2" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>25</v>
+    <row r="34" spans="2:2" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F2:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>